--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -7842,21 +7842,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7881,247 +7866,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8460,6 +8224,242 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8589,34 +8589,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1083" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1083" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1083"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="60">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="59">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="58">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="57">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="56">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="55">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="54">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="53">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="52">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8625,12 +8625,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="46"/>
-    <tableColumn id="2" name="Test" dataDxfId="45"/>
-    <tableColumn id="3" name="Description" dataDxfId="44"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8926,8 +8926,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1016" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1025" sqref="A1025:XFD1025"/>
+    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C522" sqref="C522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8982,127 +8982,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9115,12 +9115,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9133,12 +9133,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9151,12 +9151,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9169,60 +9169,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -21738,10 +21738,10 @@
         <v>6</v>
       </c>
       <c r="G514" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H514" s="34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I514" s="35"/>
     </row>
@@ -36284,6 +36284,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36291,174 +36296,169 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A521:I1031 A251:I518">
-    <cfRule type="expression" dxfId="43" priority="107">
+    <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="108">
+    <cfRule type="expression" dxfId="61" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="115">
+    <cfRule type="expression" dxfId="60" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A521:I1031 A251:I518">
-    <cfRule type="expression" dxfId="40" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246 F1034:F1083 F20:F241 F521:F1031 F251:F518">
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68">
+    <cfRule type="expression" dxfId="55" priority="68">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1034:I1083 I230 I233:I241">
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1034:I1083 I230 I233:I241">
-    <cfRule type="expression" dxfId="32" priority="55">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1033">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>NOT(VLOOKUP(F1033,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>(VLOOKUP(F1033,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1033">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1033">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1032 C1032:I1032">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1032 C1032:I1032">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1032">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>NOT(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1032">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1032">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F519:F520">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7702" uniqueCount="2416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7710" uniqueCount="2417">
   <si>
     <t>Req ID</t>
   </si>
@@ -7365,18 +7365,6 @@
     <t>[In Processing a RopSetSearchCriteria ROP Request] Implementation does stop the initial population of the search folder if the STOP_SEARCH bit is set in the SearchFlags field. (Exchange 2007 and above follow this behavior).</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] If OpenSoftDeleted bit in OpenModeFlags is set, implementation ignores the OpenSoftDeleted bit and always opens an existing folder in processing the RopOpenFolder ROP request. [In Appendix A: Product Behavior] &lt;1&gt; Section 2.2.1.1.1: Exchange 2013 and Exchange 2016 ignores the OpenSoftDeleted bit and always opens an existing folder.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the specified folder has been hard deleted, implementation does not fail the RopOpenFolder ROP ([MS-OXCROPS] section 2.2.4.1), but no folder is opened. [In Appendix A: Product Behavior] &lt;10&gt; Section 3.2.5.1: If the specified folder has been hard deleted, Exchange 2007 does not fail the RopOpenFolder ROP ([MS-OXCROPS] section 2.2.4.1), but no folder is opened.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does ignore invalid bits instead of failing the ROP [RopDeleteFolder], if the client sets an invalid bit in the DeleteFolderFlags field of the ROP request buffer. (&lt;13&gt; Section 3.2.5.3:  Exchange 2010, Exchange 2013 and Exchange 2016 ignore invalid bits instead of failing the ROP.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the TableFlags field, implementation does not fail the ROP[RopGetHierarchyTable]. (&lt;19&gt; Section 3.2.5.13:  Exchange 2007 ignores invalid bits instead of failing the ROP.)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not be regardless of the value of the STATIC_SEARCH bit in the RopSetSearchCriteria ROP request.(Exchange 2010 SP3 and above follow this hebavior).</t>
   </si>
   <si>
@@ -7506,9 +7494,6 @@
     <t>[In Appendix A: Product Behavior] The implementation does not support the PidTagAddressBookEntryId property. &lt;8&gt; Section 2.2.2.2.1.4:  Exchange 2013 and Exchange 2016 do not support the PidTagAddressBookEntryId property.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] The implementation does not support the PidTagAddressBookEntryId property. (Exchange 2007 and Exchange 2010 follow this behavior).</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) between public folder and private mailbox. &lt;4&gt; Section 2.2.1.8: Exchange 2013 and Exchange 2016 do not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) for public folders.</t>
   </si>
   <si>
@@ -7549,6 +7534,24 @@
   </si>
   <si>
     <t>[In PidTagFolderFlags Property] The value is a bitwise OR of zero or more values [1: IPM, 2: SEARCH, 4: NORMAL, 8: RULES] from the following table.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If OpenSoftDeleted bit in OpenModeFlags is set, implementation ignores the OpenSoftDeleted bit and always opens an existing folder in processing the RopOpenFolder ROP request. &lt;1&gt; Section 2.2.1.1.1: Exchange 2013 and Exchange 2016 ignores the OpenSoftDeleted bit and always opens an existing folder.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation does support the PidTagAddressBookEntryId property. (Exchange 2007 and Exchange 2010 follow this behavior).</t>
+  </si>
+  <si>
+    <t>Partially verified by derived requirement: MS-OXCFOLD_R350002.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the specified folder has been hard deleted, implementation does not fail the RopOpenFolder ROP ([MS-OXCROPS] section 2.2.4.1), but no folder is opened. &lt;10&gt; Section 3.2.5.1: If the specified folder has been hard deleted, Exchange 2007 does not fail the RopOpenFolder ROP ([MS-OXCROPS] section 2.2.4.1), but no folder is opened.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does ignore invalid bits instead of failing the ROP [RopDeleteFolder], if the client sets an invalid bit in the DeleteFolderFlags field of the ROP request buffer. &lt;13&gt; Section 3.2.5.3:  Exchange 2010, Exchange 2013 and Exchange 2016 ignore invalid bits instead of failing the ROP.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the TableFlags field, implementation does not fail the ROP[RopGetHierarchyTable]. &lt;19&gt; Section 3.2.5.13:  Exchange 2007 ignores invalid bits instead of failing the ROP.</t>
   </si>
 </sst>
 </file>
@@ -7842,6 +7845,21 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7866,26 +7884,41 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8589,34 +8622,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1083" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1083" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
   <autoFilter ref="A19:I1083"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8625,12 +8658,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="8"/>
+    <tableColumn id="2" name="Test" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8926,8 +8959,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C522" sqref="C522"/>
+    <sheetView tabSelected="1" topLeftCell="B1000" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1003" sqref="C1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8982,127 +9015,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9115,12 +9148,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9133,12 +9166,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9151,12 +9184,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9169,60 +9202,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -12375,7 +12408,7 @@
         <v>1081</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -13831,7 +13864,7 @@
         <v>1085</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -20885,7 +20918,7 @@
       <c r="H480" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I480" s="31" t="s">
+      <c r="I480" s="20" t="s">
         <v>2164</v>
       </c>
     </row>
@@ -21620,7 +21653,7 @@
       </c>
       <c r="I509" s="31"/>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" ht="45">
       <c r="A510" s="22" t="s">
         <v>523</v>
       </c>
@@ -21640,10 +21673,12 @@
       <c r="G510" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H510" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I510" s="31"/>
+      <c r="H510" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I510" s="20" t="s">
+        <v>2413</v>
+      </c>
     </row>
     <row r="511" spans="1:9" ht="30">
       <c r="A511" s="29" t="s">
@@ -21728,7 +21763,7 @@
         <v>1121</v>
       </c>
       <c r="C514" s="35" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="29" t="s">
@@ -27168,7 +27203,7 @@
         <v>17</v>
       </c>
       <c r="I728" s="20" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="729" spans="1:9" ht="30">
@@ -28312,7 +28347,7 @@
         <v>1157</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>2411</v>
+        <v>2406</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -28528,7 +28563,7 @@
         <v>17</v>
       </c>
       <c r="I782" s="20" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="45">
@@ -31190,7 +31225,7 @@
         <v>1162</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -31217,7 +31252,7 @@
         <v>1162</v>
       </c>
       <c r="C889" s="20" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="D889" s="29"/>
       <c r="E889" s="29" t="s">
@@ -33336,7 +33371,7 @@
         <v>17</v>
       </c>
       <c r="I972" s="20" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="973" spans="1:9" ht="45">
@@ -33413,7 +33448,7 @@
         <v>17</v>
       </c>
       <c r="I975" s="20" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="976" spans="1:9" ht="60">
@@ -33674,7 +33709,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="986" spans="1:9" ht="75">
+    <row r="986" spans="1:9" ht="60">
       <c r="A986" s="29" t="s">
         <v>988</v>
       </c>
@@ -33682,7 +33717,7 @@
         <v>1168</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2354</v>
+        <v>2411</v>
       </c>
       <c r="D986" s="29" t="s">
         <v>2106</v>
@@ -33711,7 +33746,7 @@
         <v>1168</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="D987" s="29" t="s">
         <v>2106</v>
@@ -33796,7 +33831,7 @@
         <v>1168</v>
       </c>
       <c r="C990" s="20" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="D990" s="29" t="s">
         <v>2107</v>
@@ -33825,7 +33860,7 @@
         <v>1168</v>
       </c>
       <c r="C991" s="20" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="D991" s="29" t="s">
         <v>2107</v>
@@ -33854,7 +33889,7 @@
         <v>1168</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
       <c r="D992" s="29" t="s">
         <v>2108</v>
@@ -33912,7 +33947,7 @@
         <v>1168</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
       <c r="D994" s="29" t="s">
         <v>2109</v>
@@ -33968,7 +34003,7 @@
         <v>1168</v>
       </c>
       <c r="C996" s="20" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
       <c r="D996" s="29" t="s">
         <v>2110</v>
@@ -34022,7 +34057,7 @@
         <v>1168</v>
       </c>
       <c r="C998" s="20" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
       <c r="D998" s="29" t="s">
         <v>2111</v>
@@ -34078,7 +34113,7 @@
         <v>1168</v>
       </c>
       <c r="C1000" s="20" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="D1000" s="29" t="s">
         <v>2112</v>
@@ -34128,45 +34163,59 @@
     </row>
     <row r="1002" spans="1:9" ht="45">
       <c r="A1002" s="34" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B1002" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1002" s="35" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="D1002" s="34" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="E1002" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1002" s="34"/>
-      <c r="G1002" s="34"/>
-      <c r="H1002" s="34"/>
+      <c r="F1002" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1002" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1002" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="I1002" s="35"/>
     </row>
     <row r="1003" spans="1:9" ht="45">
       <c r="A1003" s="34" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="B1003" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1003" s="35" t="s">
-        <v>2401</v>
+        <v>2412</v>
       </c>
       <c r="D1003" s="34" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="E1003" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1003" s="34"/>
-      <c r="G1003" s="34"/>
-      <c r="H1003" s="34"/>
-      <c r="I1003" s="35"/>
+      <c r="F1003" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1003" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1003" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1003" s="31" t="s">
+        <v>2208</v>
+      </c>
     </row>
     <row r="1004" spans="1:9" ht="75">
       <c r="A1004" s="29" t="s">
@@ -34176,7 +34225,7 @@
         <v>1168</v>
       </c>
       <c r="C1004" s="20" t="s">
-        <v>2355</v>
+        <v>2414</v>
       </c>
       <c r="D1004" s="29" t="s">
         <v>2113</v>
@@ -34204,7 +34253,7 @@
       <c r="B1005" s="30" t="s">
         <v>1168</v>
       </c>
-      <c r="C1005" s="31" t="s">
+      <c r="C1005" s="20" t="s">
         <v>2046</v>
       </c>
       <c r="D1005" s="29" t="s">
@@ -34234,7 +34283,7 @@
         <v>1168</v>
       </c>
       <c r="C1006" s="20" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="D1006" s="29" t="s">
         <v>2114</v>
@@ -34263,7 +34312,7 @@
         <v>1168</v>
       </c>
       <c r="C1007" s="20" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="D1007" s="29" t="s">
         <v>2114</v>
@@ -34286,16 +34335,16 @@
     </row>
     <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="22" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="B1008" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1008" s="35" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="D1008" s="34" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="E1008" s="29" t="s">
         <v>22</v>
@@ -34315,16 +34364,16 @@
     </row>
     <row r="1009" spans="1:9" ht="45">
       <c r="A1009" s="22" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="B1009" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1009" s="35" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="D1009" s="34" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="E1009" s="29" t="s">
         <v>22</v>
@@ -34379,7 +34428,7 @@
         <v>1168</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2356</v>
+        <v>2415</v>
       </c>
       <c r="D1011" s="22" t="s">
         <v>2115</v>
@@ -34402,16 +34451,16 @@
     </row>
     <row r="1012" spans="1:9" ht="60">
       <c r="A1012" s="34" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="B1012" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1012" s="35" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="D1012" s="34" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="E1012" s="29" t="s">
         <v>22</v>
@@ -34431,16 +34480,16 @@
     </row>
     <row r="1013" spans="1:9" ht="45">
       <c r="A1013" s="34" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="B1013" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1013" s="35" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="D1013" s="34" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="E1013" s="29" t="s">
         <v>22</v>
@@ -34466,7 +34515,7 @@
         <v>1168</v>
       </c>
       <c r="C1014" s="20" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="D1014" s="29" t="s">
         <v>2116</v>
@@ -34495,7 +34544,7 @@
         <v>1168</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="D1015" s="29" t="s">
         <v>2116</v>
@@ -34524,7 +34573,7 @@
         <v>1168</v>
       </c>
       <c r="C1016" s="20" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="D1016" s="29" t="s">
         <v>2116</v>
@@ -34580,7 +34629,7 @@
         <v>1168</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="D1018" s="29" t="s">
         <v>2117</v>
@@ -34609,7 +34658,7 @@
         <v>1168</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="D1019" s="22" t="s">
         <v>2118</v>
@@ -34638,7 +34687,7 @@
         <v>1168</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="D1020" s="29" t="s">
         <v>2118</v>
@@ -34667,7 +34716,7 @@
         <v>1168</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="D1021" s="29" t="s">
         <v>2118</v>
@@ -34723,7 +34772,7 @@
         <v>1168</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>2357</v>
+        <v>2416</v>
       </c>
       <c r="D1023" s="29" t="s">
         <v>2120</v>
@@ -34775,16 +34824,16 @@
     </row>
     <row r="1025" spans="1:9" ht="60">
       <c r="A1025" s="34" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="B1025" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1025" s="35" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="D1025" s="34" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="E1025" s="29" t="s">
         <v>22</v>
@@ -34802,16 +34851,16 @@
     </row>
     <row r="1026" spans="1:9" ht="60">
       <c r="A1026" s="34" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="B1026" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1026" s="35" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="D1026" s="34" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34831,16 +34880,16 @@
     </row>
     <row r="1027" spans="1:9" ht="45">
       <c r="A1027" s="34" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="B1027" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1027" s="35" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="D1027" s="34" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="E1027" s="29" t="s">
         <v>22</v>
@@ -34860,16 +34909,16 @@
     </row>
     <row r="1028" spans="1:9" ht="60">
       <c r="A1028" s="34" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="B1028" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1028" s="35" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="D1028" s="34" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="E1028" s="29" t="s">
         <v>22</v>
@@ -34889,16 +34938,16 @@
     </row>
     <row r="1029" spans="1:9" ht="75">
       <c r="A1029" s="34" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B1029" s="36" t="s">
         <v>1168</v>
       </c>
       <c r="C1029" s="35" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="D1029" s="34" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="E1029" s="29" t="s">
         <v>22</v>
@@ -34924,7 +34973,7 @@
         <v>1168</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="D1030" s="29" t="s">
         <v>2121</v>
@@ -34947,7 +34996,7 @@
     </row>
     <row r="1031" spans="1:9" ht="45">
       <c r="A1031" s="22" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="B1031" s="30" t="s">
         <v>1168</v>
@@ -35211,7 +35260,7 @@
         <v>1170</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
       <c r="D1041" s="29"/>
       <c r="E1041" s="29" t="s">
@@ -36284,11 +36333,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36296,169 +36340,174 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A521:I1031 A251:I518">
-    <cfRule type="expression" dxfId="62" priority="107">
+  <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1031">
+    <cfRule type="expression" dxfId="68" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="108">
+    <cfRule type="expression" dxfId="67" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="115">
+    <cfRule type="expression" dxfId="66" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A521:I1031 A251:I518">
-    <cfRule type="expression" dxfId="59" priority="61">
+  <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1031">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="64" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246 F1034:F1083 F20:F241 F521:F1031 F251:F518">
-    <cfRule type="expression" dxfId="56" priority="67">
+    <cfRule type="expression" dxfId="62" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="68">
+    <cfRule type="expression" dxfId="61" priority="68">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1034:I1083 I230 I233:I241">
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="59">
+    <cfRule type="expression" dxfId="59" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60">
+    <cfRule type="expression" dxfId="58" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1034:I1083 I230 I233:I241">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="57" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="57">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1033">
-    <cfRule type="expression" dxfId="48" priority="38">
+    <cfRule type="expression" dxfId="54" priority="38">
       <formula>NOT(VLOOKUP(F1033,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="53" priority="39">
       <formula>(VLOOKUP(F1033,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1033">
-    <cfRule type="expression" dxfId="46" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="34">
+    <cfRule type="expression" dxfId="50" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1033">
-    <cfRule type="expression" dxfId="43" priority="29">
+    <cfRule type="expression" dxfId="49" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1032 C1032:I1032">
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1032 C1032:I1032">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1032">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>NOT(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1032">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="38" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="36" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1032">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F519:F520">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>NOT(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -7542,9 +7542,6 @@
     <t>[In Appendix A: Product Behavior] The implementation does support the PidTagAddressBookEntryId property. (Exchange 2007 and Exchange 2010 follow this behavior).</t>
   </si>
   <si>
-    <t>Partially verified by derived requirement: MS-OXCFOLD_R350002.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] If the specified folder has been hard deleted, implementation does not fail the RopOpenFolder ROP ([MS-OXCROPS] section 2.2.4.1), but no folder is opened. &lt;10&gt; Section 3.2.5.1: If the specified folder has been hard deleted, Exchange 2007 does not fail the RopOpenFolder ROP ([MS-OXCROPS] section 2.2.4.1), but no folder is opened.</t>
   </si>
   <si>
@@ -7552,6 +7549,9 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the TableFlags field, implementation does not fail the ROP[RopGetHierarchyTable]. &lt;19&gt; Section 3.2.5.13:  Exchange 2007 ignores invalid bits instead of failing the ROP.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXCFOLD_R350002.</t>
   </si>
 </sst>
 </file>
@@ -7845,21 +7845,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7884,41 +7869,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <b val="0"/>
@@ -8622,34 +8592,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1083" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1083" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1083"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8658,12 +8628,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="8"/>
-    <tableColumn id="2" name="Test" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8959,8 +8929,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1000" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1003" sqref="C1003"/>
+    <sheetView tabSelected="1" topLeftCell="D504" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I510" sqref="I510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9015,127 +8985,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9148,12 +9118,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9166,12 +9136,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9184,12 +9154,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9202,60 +9172,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -21677,7 +21647,7 @@
         <v>17</v>
       </c>
       <c r="I510" s="20" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="511" spans="1:9" ht="30">
@@ -34225,7 +34195,7 @@
         <v>1168</v>
       </c>
       <c r="C1004" s="20" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D1004" s="29" t="s">
         <v>2113</v>
@@ -34428,7 +34398,7 @@
         <v>1168</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D1011" s="22" t="s">
         <v>2115</v>
@@ -34772,7 +34742,7 @@
         <v>1168</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D1023" s="29" t="s">
         <v>2120</v>
@@ -36333,6 +36303,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36340,174 +36315,169 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1031">
-    <cfRule type="expression" dxfId="68" priority="107">
+    <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="108">
+    <cfRule type="expression" dxfId="61" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="115">
+    <cfRule type="expression" dxfId="60" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1031">
-    <cfRule type="expression" dxfId="65" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246 F1034:F1083 F20:F241 F521:F1031 F251:F518">
-    <cfRule type="expression" dxfId="62" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="68">
+    <cfRule type="expression" dxfId="55" priority="68">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1034:I1083 I230 I233:I241">
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1034:I1083 I230 I233:I241">
-    <cfRule type="expression" dxfId="57" priority="55">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1033">
-    <cfRule type="expression" dxfId="54" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>NOT(VLOOKUP(F1033,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>(VLOOKUP(F1033,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1033">
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1033">
-    <cfRule type="expression" dxfId="49" priority="29">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="30">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1032 C1032:I1032">
-    <cfRule type="expression" dxfId="46" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1032 C1032:I1032">
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1032">
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>NOT(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1032">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1032">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F519:F520">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7710" uniqueCount="2417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7710" uniqueCount="2418">
   <si>
     <t>Req ID</t>
   </si>
@@ -7552,6 +7552,9 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXCFOLD_R350002.</t>
+  </si>
+  <si>
+    <t>MS-OXCFOLD_R35101</t>
   </si>
 </sst>
 </file>
@@ -7845,6 +7848,21 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7868,21 +7886,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8929,8 +8932,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D504" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I510" sqref="I510"/>
+    <sheetView tabSelected="1" topLeftCell="A510" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C514" sqref="C514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8985,127 +8988,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9118,12 +9121,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9136,12 +9139,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9154,12 +9157,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9172,60 +9175,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -21676,8 +21679,8 @@
       <c r="I511" s="31"/>
     </row>
     <row r="512" spans="1:9">
-      <c r="A512" s="29" t="s">
-        <v>525</v>
+      <c r="A512" s="22" t="s">
+        <v>2417</v>
       </c>
       <c r="B512" s="30" t="s">
         <v>1121</v>
@@ -22007,7 +22010,7 @@
       <c r="B525" s="24" t="s">
         <v>1124</v>
       </c>
-      <c r="C525" s="31" t="s">
+      <c r="C525" s="20" t="s">
         <v>1650</v>
       </c>
       <c r="D525" s="29"/>
@@ -36303,11 +36306,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36315,6 +36313,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1033:I1083 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1031">

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -7843,6 +7843,21 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7866,21 +7881,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8981,127 +8981,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9114,12 +9114,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9132,12 +9132,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9150,12 +9150,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9168,60 +9168,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -22042,7 +22042,7 @@
         <v>15</v>
       </c>
       <c r="H526" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I526" s="35"/>
     </row>
@@ -36274,11 +36274,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36286,6 +36281,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -7359,9 +7359,6 @@
     <t>[In Processing a RopSetSearchCriteria ROP Request] Implementation does stop the initial population of the search folder if the STOP_SEARCH bit is set in the SearchFlags field. (Exchange 2007 and above follow this behavior).</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not be regardless of the value of the STATIC_SEARCH bit in the RopSetSearchCriteria ROP request.(Exchange 2010 SP3 and above follow this hebavior).</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does be regardless of the value of the STATIC_SEARCH bit in the RopSetSearchCriteria ROP request. &lt;14&gt; Section 3.2.5.4:  A content-indexed search is always static on the initial release version of Exchange 2010 and Exchange 2007 regardless of the value of the STATIC_SEARCH bit in the RopSetSearchCriteria request.</t>
   </si>
   <si>
@@ -7549,6 +7546,9 @@
   </si>
   <si>
     <t>MS-OXCFOLD_R35101</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not be regardless of the value of the STATIC_SEARCH bit in the RopSetSearchCriteria ROP request.(Exchange 2013 and above follow this hebavior).</t>
   </si>
 </sst>
 </file>
@@ -7843,21 +7843,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7881,6 +7866,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8981,127 +8981,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9114,12 +9114,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9132,12 +9132,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9150,12 +9150,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9168,60 +9168,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -12374,7 +12374,7 @@
         <v>1080</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -13830,7 +13830,7 @@
         <v>1084</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -21643,7 +21643,7 @@
         <v>17</v>
       </c>
       <c r="I510" s="20" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="511" spans="1:9" ht="30">
@@ -21673,7 +21673,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="22" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B512" s="30" t="s">
         <v>1120</v>
@@ -21729,7 +21729,7 @@
         <v>1120</v>
       </c>
       <c r="C514" s="35" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="29" t="s">
@@ -27169,7 +27169,7 @@
         <v>17</v>
       </c>
       <c r="I728" s="20" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="729" spans="1:9" ht="30">
@@ -28313,7 +28313,7 @@
         <v>1156</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -28529,7 +28529,7 @@
         <v>17</v>
       </c>
       <c r="I782" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="45">
@@ -31191,7 +31191,7 @@
         <v>1161</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -31218,7 +31218,7 @@
         <v>1161</v>
       </c>
       <c r="C889" s="20" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D889" s="29"/>
       <c r="E889" s="29" t="s">
@@ -33312,7 +33312,7 @@
         <v>17</v>
       </c>
       <c r="I971" s="20" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="972" spans="1:9" ht="45">
@@ -33389,7 +33389,7 @@
         <v>17</v>
       </c>
       <c r="I974" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="975" spans="1:9" ht="60">
@@ -33658,7 +33658,7 @@
         <v>1167</v>
       </c>
       <c r="C985" s="20" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D985" s="29" t="s">
         <v>2104</v>
@@ -33687,7 +33687,7 @@
         <v>1167</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D986" s="29" t="s">
         <v>2104</v>
@@ -33772,7 +33772,7 @@
         <v>1167</v>
       </c>
       <c r="C989" s="20" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D989" s="29" t="s">
         <v>2105</v>
@@ -33801,7 +33801,7 @@
         <v>1167</v>
       </c>
       <c r="C990" s="20" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D990" s="29" t="s">
         <v>2105</v>
@@ -33830,7 +33830,7 @@
         <v>1167</v>
       </c>
       <c r="C991" s="20" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D991" s="29" t="s">
         <v>2106</v>
@@ -33888,7 +33888,7 @@
         <v>1167</v>
       </c>
       <c r="C993" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D993" s="29" t="s">
         <v>2107</v>
@@ -33944,7 +33944,7 @@
         <v>1167</v>
       </c>
       <c r="C995" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D995" s="29" t="s">
         <v>2108</v>
@@ -33998,7 +33998,7 @@
         <v>1167</v>
       </c>
       <c r="C997" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D997" s="29" t="s">
         <v>2109</v>
@@ -34054,7 +34054,7 @@
         <v>1167</v>
       </c>
       <c r="C999" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D999" s="29" t="s">
         <v>2110</v>
@@ -34104,16 +34104,16 @@
     </row>
     <row r="1001" spans="1:9" ht="45">
       <c r="A1001" s="34" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1001" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1001" s="35" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D1001" s="34" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E1001" s="29" t="s">
         <v>22</v>
@@ -34131,16 +34131,16 @@
     </row>
     <row r="1002" spans="1:9" ht="45">
       <c r="A1002" s="34" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1002" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1002" s="35" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D1002" s="34" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E1002" s="29" t="s">
         <v>22</v>
@@ -34166,7 +34166,7 @@
         <v>1167</v>
       </c>
       <c r="C1003" s="20" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D1003" s="29" t="s">
         <v>2111</v>
@@ -34224,7 +34224,7 @@
         <v>1167</v>
       </c>
       <c r="C1005" s="20" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D1005" s="29" t="s">
         <v>2112</v>
@@ -34253,7 +34253,7 @@
         <v>1167</v>
       </c>
       <c r="C1006" s="20" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D1006" s="29" t="s">
         <v>2112</v>
@@ -34276,16 +34276,16 @@
     </row>
     <row r="1007" spans="1:9" ht="45">
       <c r="A1007" s="22" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1007" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1007" s="35" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D1007" s="34" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E1007" s="29" t="s">
         <v>22</v>
@@ -34305,16 +34305,16 @@
     </row>
     <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="22" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B1008" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1008" s="35" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D1008" s="34" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E1008" s="29" t="s">
         <v>22</v>
@@ -34369,7 +34369,7 @@
         <v>1167</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1010" s="22" t="s">
         <v>2113</v>
@@ -34392,16 +34392,16 @@
     </row>
     <row r="1011" spans="1:9" ht="60">
       <c r="A1011" s="34" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1011" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1011" s="35" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D1011" s="34" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E1011" s="29" t="s">
         <v>22</v>
@@ -34421,16 +34421,16 @@
     </row>
     <row r="1012" spans="1:9" ht="45">
       <c r="A1012" s="34" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1012" s="36" t="s">
         <v>1167</v>
       </c>
-      <c r="C1012" s="35" t="s">
-        <v>2352</v>
+      <c r="C1012" s="20" t="s">
+        <v>2415</v>
       </c>
       <c r="D1012" s="34" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E1012" s="29" t="s">
         <v>22</v>
@@ -34456,7 +34456,7 @@
         <v>1167</v>
       </c>
       <c r="C1013" s="20" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D1013" s="29" t="s">
         <v>2114</v>
@@ -34485,7 +34485,7 @@
         <v>1167</v>
       </c>
       <c r="C1014" s="20" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D1014" s="29" t="s">
         <v>2114</v>
@@ -34514,7 +34514,7 @@
         <v>1167</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D1015" s="29" t="s">
         <v>2114</v>
@@ -34570,7 +34570,7 @@
         <v>1167</v>
       </c>
       <c r="C1017" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1017" s="29" t="s">
         <v>2115</v>
@@ -34599,7 +34599,7 @@
         <v>1167</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D1018" s="22" t="s">
         <v>2116</v>
@@ -34628,7 +34628,7 @@
         <v>1167</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1019" s="29" t="s">
         <v>2116</v>
@@ -34657,7 +34657,7 @@
         <v>1167</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1020" s="29" t="s">
         <v>2116</v>
@@ -34713,7 +34713,7 @@
         <v>1167</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D1022" s="29" t="s">
         <v>2118</v>
@@ -34765,16 +34765,16 @@
     </row>
     <row r="1024" spans="1:9" ht="60">
       <c r="A1024" s="34" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1024" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1024" s="35" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D1024" s="34" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E1024" s="29" t="s">
         <v>22</v>
@@ -34792,16 +34792,16 @@
     </row>
     <row r="1025" spans="1:9" ht="60">
       <c r="A1025" s="34" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1025" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1025" s="35" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D1025" s="34" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E1025" s="29" t="s">
         <v>22</v>
@@ -34821,16 +34821,16 @@
     </row>
     <row r="1026" spans="1:9" ht="45">
       <c r="A1026" s="34" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1026" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1026" s="35" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D1026" s="34" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34850,16 +34850,16 @@
     </row>
     <row r="1027" spans="1:9" ht="60">
       <c r="A1027" s="34" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1027" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1027" s="35" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D1027" s="34" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E1027" s="29" t="s">
         <v>22</v>
@@ -34879,16 +34879,16 @@
     </row>
     <row r="1028" spans="1:9" ht="75">
       <c r="A1028" s="34" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1028" s="36" t="s">
         <v>1167</v>
       </c>
       <c r="C1028" s="35" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D1028" s="34" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E1028" s="29" t="s">
         <v>22</v>
@@ -34914,7 +34914,7 @@
         <v>1167</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1029" s="29" t="s">
         <v>2119</v>
@@ -34937,7 +34937,7 @@
     </row>
     <row r="1030" spans="1:9" ht="45">
       <c r="A1030" s="22" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1030" s="30" t="s">
         <v>1167</v>
@@ -35201,7 +35201,7 @@
         <v>1169</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D1040" s="29"/>
       <c r="E1040" s="29" t="s">
@@ -36274,6 +36274,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36281,11 +36286,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7692" uniqueCount="2414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7689" uniqueCount="2413">
   <si>
     <t>Req ID</t>
   </si>
@@ -7435,9 +7435,6 @@
   </si>
   <si>
     <t>MS-OXCFOLD_R330002</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXCFOLD_R1177001, MS-OXCFOLD_R1177002.</t>
   </si>
   <si>
     <t>MS-OXCFOLD_R1238001</t>
@@ -7837,21 +7834,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7876,247 +7858,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8455,6 +8216,242 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8584,34 +8581,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1081" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1081" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1081"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="60">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="59">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="58">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="57">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="56">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="55">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="54">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="53">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="52">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8620,12 +8617,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="46"/>
-    <tableColumn id="2" name="Test" dataDxfId="45"/>
-    <tableColumn id="3" name="Description" dataDxfId="44"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8975,127 +8972,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9108,12 +9105,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9126,12 +9123,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9144,12 +9141,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9162,60 +9159,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -12368,7 +12365,7 @@
         <v>1079</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -13824,7 +13821,7 @@
         <v>1083</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -21596,7 +21593,7 @@
         <v>1118</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="29" t="s">
@@ -21612,7 +21609,7 @@
         <v>17</v>
       </c>
       <c r="I509" s="31" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -21623,7 +21620,7 @@
         <v>1118</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D510" s="29"/>
       <c r="E510" s="29" t="s">
@@ -21667,7 +21664,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="22" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B512" s="30" t="s">
         <v>1119</v>
@@ -21723,7 +21720,7 @@
         <v>1119</v>
       </c>
       <c r="C514" s="35" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="29" t="s">
@@ -28307,7 +28304,7 @@
         <v>1155</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -28523,7 +28520,7 @@
         <v>17</v>
       </c>
       <c r="I782" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="45">
@@ -33353,9 +33350,7 @@
       <c r="H973" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I973" s="20" t="s">
-        <v>2378</v>
-      </c>
+      <c r="I973" s="20"/>
     </row>
     <row r="974" spans="1:9" ht="60">
       <c r="A974" s="29" t="s">
@@ -33623,7 +33618,7 @@
         <v>1166</v>
       </c>
       <c r="C984" s="20" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D984" s="29" t="s">
         <v>2102</v>
@@ -33652,7 +33647,7 @@
         <v>1166</v>
       </c>
       <c r="C985" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D985" s="29" t="s">
         <v>2102</v>
@@ -33737,7 +33732,7 @@
         <v>1166</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D988" s="29" t="s">
         <v>2103</v>
@@ -33766,7 +33761,7 @@
         <v>1166</v>
       </c>
       <c r="C989" s="20" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D989" s="29" t="s">
         <v>2103</v>
@@ -33795,7 +33790,7 @@
         <v>1166</v>
       </c>
       <c r="C990" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D990" s="29" t="s">
         <v>2104</v>
@@ -33853,7 +33848,7 @@
         <v>1166</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D992" s="29" t="s">
         <v>2105</v>
@@ -33909,7 +33904,7 @@
         <v>1166</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D994" s="29" t="s">
         <v>2106</v>
@@ -33963,7 +33958,7 @@
         <v>1166</v>
       </c>
       <c r="C996" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D996" s="29" t="s">
         <v>2107</v>
@@ -34019,7 +34014,7 @@
         <v>1166</v>
       </c>
       <c r="C998" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D998" s="29" t="s">
         <v>2108</v>
@@ -34069,16 +34064,16 @@
     </row>
     <row r="1000" spans="1:9" ht="45">
       <c r="A1000" s="34" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1000" s="36" t="s">
         <v>1166</v>
       </c>
       <c r="C1000" s="35" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D1000" s="34" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E1000" s="29" t="s">
         <v>22</v>
@@ -34096,16 +34091,16 @@
     </row>
     <row r="1001" spans="1:9" ht="45">
       <c r="A1001" s="22" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1001" s="36" t="s">
         <v>1166</v>
       </c>
       <c r="C1001" s="20" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D1001" s="22" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E1001" s="29" t="s">
         <v>22</v>
@@ -34131,7 +34126,7 @@
         <v>1166</v>
       </c>
       <c r="C1002" s="20" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D1002" s="29" t="s">
         <v>2109</v>
@@ -34270,7 +34265,7 @@
     </row>
     <row r="1007" spans="1:9" ht="45">
       <c r="A1007" s="22" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B1007" s="36" t="s">
         <v>1166</v>
@@ -34334,7 +34329,7 @@
         <v>1166</v>
       </c>
       <c r="C1009" s="20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D1009" s="22" t="s">
         <v>2111</v>
@@ -34357,7 +34352,7 @@
     </row>
     <row r="1010" spans="1:9" ht="60">
       <c r="A1010" s="34" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1010" s="36" t="s">
         <v>1166</v>
@@ -34366,7 +34361,7 @@
         <v>2348</v>
       </c>
       <c r="D1010" s="34" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E1010" s="29" t="s">
         <v>22</v>
@@ -34386,16 +34381,16 @@
     </row>
     <row r="1011" spans="1:9" ht="45">
       <c r="A1011" s="34" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1011" s="36" t="s">
         <v>1166</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D1011" s="34" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E1011" s="29" t="s">
         <v>22</v>
@@ -34678,7 +34673,7 @@
         <v>1166</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D1021" s="29" t="s">
         <v>2116</v>
@@ -34766,7 +34761,7 @@
         <v>2369</v>
       </c>
       <c r="D1024" s="34" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E1024" s="29" t="s">
         <v>22</v>
@@ -34793,7 +34788,7 @@
         <v>2367</v>
       </c>
       <c r="D1025" s="34" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E1025" s="29" t="s">
         <v>22</v>
@@ -34810,7 +34805,7 @@
       <c r="I1025" s="31"/>
     </row>
     <row r="1026" spans="1:9" ht="60">
-      <c r="A1026" s="34" t="s">
+      <c r="A1026" s="22" t="s">
         <v>2376</v>
       </c>
       <c r="B1026" s="36" t="s">
@@ -34820,7 +34815,7 @@
         <v>2349</v>
       </c>
       <c r="D1026" s="34" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34832,11 +34827,9 @@
         <v>15</v>
       </c>
       <c r="H1026" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1026" s="31" t="s">
-        <v>2204</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1026" s="31"/>
     </row>
     <row r="1027" spans="1:9" ht="75">
       <c r="A1027" s="34" t="s">
@@ -34849,7 +34842,7 @@
         <v>2350</v>
       </c>
       <c r="D1027" s="34" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E1027" s="29" t="s">
         <v>22</v>
@@ -34861,11 +34854,9 @@
         <v>15</v>
       </c>
       <c r="H1027" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1027" s="31" t="s">
-        <v>2204</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1027" s="31"/>
     </row>
     <row r="1028" spans="1:9" ht="45">
       <c r="A1028" s="22" t="s">
@@ -35162,7 +35153,7 @@
         <v>1168</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D1039" s="29"/>
       <c r="E1039" s="29" t="s">
@@ -36235,6 +36226,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36242,174 +36238,169 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
-    <cfRule type="expression" dxfId="43" priority="107">
+    <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="108">
+    <cfRule type="expression" dxfId="61" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="115">
+    <cfRule type="expression" dxfId="60" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
-    <cfRule type="expression" dxfId="40" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246 F1032:F1081 F20:F241 F251:F518 F521:F1029">
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68">
+    <cfRule type="expression" dxfId="55" priority="68">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1032:I1081 I230 I233:I241">
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1032:I1081 I230 I233:I241">
-    <cfRule type="expression" dxfId="32" priority="55">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1031">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>NOT(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1031">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1031">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1030 C1030:I1030">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1030 C1030:I1030">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1030">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>NOT(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1030">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1030">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F519:F520">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -7443,9 +7443,6 @@
     <t>MS-OXCFOLD_R1238002</t>
   </si>
   <si>
-    <t xml:space="preserve">MS-OXCFOLD_R1238:i, MS-OXCFOLD_R113:i </t>
-  </si>
-  <si>
     <t>MS-OXCFOLD_R1177:i, MS-OXCFOLD_R113:i</t>
   </si>
   <si>
@@ -7540,6 +7537,9 @@
   </si>
   <si>
     <t>MS-OXCFOLD_R10349:i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS-OXCFOLD_R1238:i, MS-OXCFOLD_R114:i </t>
   </si>
 </sst>
 </file>
@@ -7834,6 +7834,21 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7857,21 +7872,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8704,6 +8704,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8739,6 +8756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8972,127 +9006,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9105,12 +9139,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9123,12 +9157,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9141,12 +9175,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9159,60 +9193,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -12365,7 +12399,7 @@
         <v>1079</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -13821,7 +13855,7 @@
         <v>1083</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -21593,7 +21627,7 @@
         <v>1118</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="29" t="s">
@@ -21609,7 +21643,7 @@
         <v>17</v>
       </c>
       <c r="I509" s="31" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -21620,7 +21654,7 @@
         <v>1118</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D510" s="29"/>
       <c r="E510" s="29" t="s">
@@ -21664,7 +21698,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="22" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B512" s="30" t="s">
         <v>1119</v>
@@ -21720,7 +21754,7 @@
         <v>1119</v>
       </c>
       <c r="C514" s="35" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="29" t="s">
@@ -21733,7 +21767,7 @@
         <v>15</v>
       </c>
       <c r="H514" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I514" s="35"/>
     </row>
@@ -27690,7 +27724,7 @@
         <v>15</v>
       </c>
       <c r="H749" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I749" s="31"/>
     </row>
@@ -28304,7 +28338,7 @@
         <v>1155</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -28520,7 +28554,7 @@
         <v>17</v>
       </c>
       <c r="I782" s="20" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="45">
@@ -33223,7 +33257,7 @@
         <v>15</v>
       </c>
       <c r="H968" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I968" s="31"/>
     </row>
@@ -33618,7 +33652,7 @@
         <v>1166</v>
       </c>
       <c r="C984" s="20" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D984" s="29" t="s">
         <v>2102</v>
@@ -33647,7 +33681,7 @@
         <v>1166</v>
       </c>
       <c r="C985" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D985" s="29" t="s">
         <v>2102</v>
@@ -33732,7 +33766,7 @@
         <v>1166</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D988" s="29" t="s">
         <v>2103</v>
@@ -33761,7 +33795,7 @@
         <v>1166</v>
       </c>
       <c r="C989" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D989" s="29" t="s">
         <v>2103</v>
@@ -33790,7 +33824,7 @@
         <v>1166</v>
       </c>
       <c r="C990" s="20" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D990" s="29" t="s">
         <v>2104</v>
@@ -33848,7 +33882,7 @@
         <v>1166</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D992" s="29" t="s">
         <v>2105</v>
@@ -33904,7 +33938,7 @@
         <v>1166</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D994" s="29" t="s">
         <v>2106</v>
@@ -33958,7 +33992,7 @@
         <v>1166</v>
       </c>
       <c r="C996" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D996" s="29" t="s">
         <v>2107</v>
@@ -34014,7 +34048,7 @@
         <v>1166</v>
       </c>
       <c r="C998" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D998" s="29" t="s">
         <v>2108</v>
@@ -34064,16 +34098,16 @@
     </row>
     <row r="1000" spans="1:9" ht="45">
       <c r="A1000" s="34" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1000" s="36" t="s">
         <v>1166</v>
       </c>
       <c r="C1000" s="35" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D1000" s="34" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E1000" s="29" t="s">
         <v>22</v>
@@ -34091,16 +34125,16 @@
     </row>
     <row r="1001" spans="1:9" ht="45">
       <c r="A1001" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1001" s="36" t="s">
         <v>1166</v>
       </c>
       <c r="C1001" s="20" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D1001" s="22" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E1001" s="29" t="s">
         <v>22</v>
@@ -34126,7 +34160,7 @@
         <v>1166</v>
       </c>
       <c r="C1002" s="20" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D1002" s="29" t="s">
         <v>2109</v>
@@ -34135,7 +34169,7 @@
         <v>22</v>
       </c>
       <c r="F1002" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1002" s="29" t="s">
         <v>15</v>
@@ -34164,7 +34198,7 @@
         <v>22</v>
       </c>
       <c r="F1003" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1003" s="29" t="s">
         <v>15</v>
@@ -34193,7 +34227,7 @@
         <v>22</v>
       </c>
       <c r="F1004" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1004" s="29" t="s">
         <v>15</v>
@@ -34222,7 +34256,7 @@
         <v>22</v>
       </c>
       <c r="F1005" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1005" s="29" t="s">
         <v>15</v>
@@ -34251,7 +34285,7 @@
         <v>22</v>
       </c>
       <c r="F1006" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1006" s="29" t="s">
         <v>15</v>
@@ -34265,7 +34299,7 @@
     </row>
     <row r="1007" spans="1:9" ht="45">
       <c r="A1007" s="22" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B1007" s="36" t="s">
         <v>1166</v>
@@ -34280,7 +34314,7 @@
         <v>22</v>
       </c>
       <c r="F1007" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1007" s="29" t="s">
         <v>15</v>
@@ -34309,7 +34343,7 @@
         <v>22</v>
       </c>
       <c r="F1008" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1008" s="29" t="s">
         <v>15</v>
@@ -34329,7 +34363,7 @@
         <v>1166</v>
       </c>
       <c r="C1009" s="20" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D1009" s="22" t="s">
         <v>2111</v>
@@ -34360,14 +34394,14 @@
       <c r="C1010" s="35" t="s">
         <v>2348</v>
       </c>
-      <c r="D1010" s="34" t="s">
-        <v>2380</v>
+      <c r="D1010" s="22" t="s">
+        <v>2412</v>
       </c>
       <c r="E1010" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F1010" s="34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1010" s="34" t="s">
         <v>15</v>
@@ -34387,16 +34421,16 @@
         <v>1166</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2409</v>
-      </c>
-      <c r="D1011" s="34" t="s">
-        <v>2380</v>
+        <v>2408</v>
+      </c>
+      <c r="D1011" s="22" t="s">
+        <v>2412</v>
       </c>
       <c r="E1011" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F1011" s="34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1011" s="34" t="s">
         <v>15</v>
@@ -34425,7 +34459,7 @@
         <v>22</v>
       </c>
       <c r="F1012" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1012" s="29" t="s">
         <v>15</v>
@@ -34454,7 +34488,7 @@
         <v>22</v>
       </c>
       <c r="F1013" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1013" s="29" t="s">
         <v>15</v>
@@ -34568,7 +34602,7 @@
         <v>22</v>
       </c>
       <c r="F1017" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1017" s="29" t="s">
         <v>15</v>
@@ -34597,7 +34631,7 @@
         <v>22</v>
       </c>
       <c r="F1018" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1018" s="29" t="s">
         <v>15</v>
@@ -34626,7 +34660,7 @@
         <v>22</v>
       </c>
       <c r="F1019" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1019" s="29" t="s">
         <v>15</v>
@@ -34653,7 +34687,7 @@
         <v>22</v>
       </c>
       <c r="F1020" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1020" s="29" t="s">
         <v>15</v>
@@ -34673,7 +34707,7 @@
         <v>1166</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D1021" s="29" t="s">
         <v>2116</v>
@@ -34682,7 +34716,7 @@
         <v>22</v>
       </c>
       <c r="F1021" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1021" s="29" t="s">
         <v>15</v>
@@ -34711,7 +34745,7 @@
         <v>22</v>
       </c>
       <c r="F1022" s="22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1022" s="29" t="s">
         <v>15</v>
@@ -34761,7 +34795,7 @@
         <v>2369</v>
       </c>
       <c r="D1024" s="34" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E1024" s="29" t="s">
         <v>22</v>
@@ -34788,7 +34822,7 @@
         <v>2367</v>
       </c>
       <c r="D1025" s="34" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E1025" s="29" t="s">
         <v>22</v>
@@ -34815,7 +34849,7 @@
         <v>2349</v>
       </c>
       <c r="D1026" s="34" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34842,7 +34876,7 @@
         <v>2350</v>
       </c>
       <c r="D1027" s="34" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E1027" s="29" t="s">
         <v>22</v>
@@ -34977,7 +35011,7 @@
       <c r="B1032" s="30" t="s">
         <v>1070</v>
       </c>
-      <c r="C1032" s="31" t="s">
+      <c r="C1032" s="20" t="s">
         <v>2047</v>
       </c>
       <c r="D1032" s="29"/>
@@ -35002,7 +35036,7 @@
       <c r="B1033" s="30" t="s">
         <v>1167</v>
       </c>
-      <c r="C1033" s="31" t="s">
+      <c r="C1033" s="20" t="s">
         <v>2048</v>
       </c>
       <c r="D1033" s="29"/>
@@ -35027,7 +35061,7 @@
       <c r="B1034" s="30" t="s">
         <v>1167</v>
       </c>
-      <c r="C1034" s="31" t="s">
+      <c r="C1034" s="20" t="s">
         <v>2049</v>
       </c>
       <c r="D1034" s="29"/>
@@ -35153,7 +35187,7 @@
         <v>1168</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D1039" s="29"/>
       <c r="E1039" s="29" t="s">
@@ -36226,11 +36260,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36238,6 +36267,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -7547,14 +7547,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7763,13 +7763,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7802,7 +7802,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7834,21 +7834,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7872,6 +7857,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8956,15 +8956,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
@@ -9006,127 +9006,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9139,12 +9139,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9157,12 +9157,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9175,12 +9175,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9193,60 +9193,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="26" spans="1:12" s="23" customFormat="1">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="23" customFormat="1">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="23" customFormat="1">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="45">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="29" t="s">
         <v>59</v>
       </c>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" ht="45">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="29" t="s">
         <v>60</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9">
       <c r="A43" s="29" t="s">
         <v>66</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="1:9" ht="75">
+    <row r="44" spans="1:9" ht="60">
       <c r="A44" s="29" t="s">
         <v>67</v>
       </c>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="120">
+    <row r="47" spans="1:9" ht="90">
       <c r="A47" s="29" t="s">
         <v>70</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="45">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="29" t="s">
         <v>73</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="60">
+    <row r="51" spans="1:9" ht="45">
       <c r="A51" s="29" t="s">
         <v>74</v>
       </c>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9">
       <c r="A53" s="29" t="s">
         <v>76</v>
       </c>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" ht="45">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="29" t="s">
         <v>77</v>
       </c>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9">
       <c r="A66" s="29" t="s">
         <v>89</v>
       </c>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9">
       <c r="A67" s="29" t="s">
         <v>90</v>
       </c>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9">
       <c r="A68" s="29" t="s">
         <v>91</v>
       </c>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" ht="45">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="29" t="s">
         <v>95</v>
       </c>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="45">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="29" t="s">
         <v>97</v>
       </c>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="29" t="s">
         <v>103</v>
       </c>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="1:9" ht="45">
+    <row r="81" spans="1:9" ht="30">
       <c r="A81" s="29" t="s">
         <v>104</v>
       </c>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="29" t="s">
         <v>105</v>
       </c>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:9" ht="210">
+    <row r="91" spans="1:9" ht="165">
       <c r="A91" s="29" t="s">
         <v>114</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60">
+    <row r="95" spans="1:9" ht="45">
       <c r="A95" s="29" t="s">
         <v>118</v>
       </c>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="1:9" ht="45">
+    <row r="99" spans="1:9" ht="30">
       <c r="A99" s="29" t="s">
         <v>122</v>
       </c>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:9" ht="45">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="29" t="s">
         <v>127</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9">
       <c r="A105" s="29" t="s">
         <v>128</v>
       </c>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" ht="45">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="29" t="s">
         <v>131</v>
       </c>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9">
       <c r="A119" s="29" t="s">
         <v>142</v>
       </c>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9">
       <c r="A120" s="29" t="s">
         <v>143</v>
       </c>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9">
       <c r="A121" s="29" t="s">
         <v>144</v>
       </c>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9">
       <c r="A122" s="29" t="s">
         <v>145</v>
       </c>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="45">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="29" t="s">
         <v>148</v>
       </c>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:9" ht="45">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="29" t="s">
         <v>149</v>
       </c>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="105">
+    <row r="127" spans="1:9" ht="75">
       <c r="A127" s="29" t="s">
         <v>150</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60">
+    <row r="128" spans="1:9" ht="45">
       <c r="A128" s="29" t="s">
         <v>151</v>
       </c>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="1:9" ht="165">
+    <row r="137" spans="1:9" ht="120">
       <c r="A137" s="29" t="s">
         <v>160</v>
       </c>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="1:9" ht="45">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="29" t="s">
         <v>163</v>
       </c>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="1:9" ht="45">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="29" t="s">
         <v>170</v>
       </c>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9">
       <c r="A163" s="29" t="s">
         <v>186</v>
       </c>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="45">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="29" t="s">
         <v>190</v>
       </c>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="1:9" ht="45">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="29" t="s">
         <v>193</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="45">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="29" t="s">
         <v>195</v>
       </c>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="1:9" ht="45">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="29" t="s">
         <v>196</v>
       </c>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="1:9" ht="45">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="29" t="s">
         <v>198</v>
       </c>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="1:9" ht="45">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="29" t="s">
         <v>199</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="30">
       <c r="A178" s="29" t="s">
         <v>201</v>
       </c>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="1:9" ht="45">
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="29" t="s">
         <v>202</v>
       </c>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="1:9" ht="45">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="29" t="s">
         <v>205</v>
       </c>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9" ht="195">
+    <row r="189" spans="1:9" ht="165">
       <c r="A189" s="29" t="s">
         <v>212</v>
       </c>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9">
       <c r="A193" s="29" t="s">
         <v>216</v>
       </c>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="1:9" ht="45">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="29" t="s">
         <v>220</v>
       </c>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="1:9" ht="45">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="29" t="s">
         <v>222</v>
       </c>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="1:9" ht="45">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="29" t="s">
         <v>223</v>
       </c>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="45">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="29" t="s">
         <v>227</v>
       </c>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" ht="90">
+    <row r="206" spans="1:9" ht="60">
       <c r="A206" s="29" t="s">
         <v>229</v>
       </c>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="1:9" ht="45">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="29" t="s">
         <v>234</v>
       </c>
@@ -14226,7 +14226,7 @@
       </c>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="1:9" ht="45">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="29" t="s">
         <v>239</v>
       </c>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="1:9" ht="45">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="29" t="s">
         <v>240</v>
       </c>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9" ht="180">
+    <row r="220" spans="1:9" ht="135">
       <c r="A220" s="29" t="s">
         <v>243</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="60">
+    <row r="221" spans="1:9" ht="45">
       <c r="A221" s="29" t="s">
         <v>244</v>
       </c>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="45">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="29" t="s">
         <v>246</v>
       </c>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="I234" s="31"/>
     </row>
-    <row r="235" spans="1:9" ht="30">
+    <row r="235" spans="1:9">
       <c r="A235" s="29" t="s">
         <v>258</v>
       </c>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="I235" s="31"/>
     </row>
-    <row r="236" spans="1:9" ht="30">
+    <row r="236" spans="1:9">
       <c r="A236" s="29" t="s">
         <v>259</v>
       </c>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9">
       <c r="A237" s="29" t="s">
         <v>260</v>
       </c>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="I240" s="31"/>
     </row>
-    <row r="241" spans="1:10" ht="45">
+    <row r="241" spans="1:10" ht="30">
       <c r="A241" s="29" t="s">
         <v>264</v>
       </c>
@@ -14930,7 +14930,7 @@
       <c r="I243" s="20"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="1:10" ht="60">
+    <row r="244" spans="1:10" ht="45">
       <c r="A244" s="22" t="s">
         <v>2216</v>
       </c>
@@ -14956,7 +14956,7 @@
       <c r="I244" s="20"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="1:10" ht="60">
+    <row r="245" spans="1:10" ht="45">
       <c r="A245" s="22" t="s">
         <v>2217</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="I245" s="20"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="1:10" ht="45">
+    <row r="246" spans="1:10" ht="30">
       <c r="A246" s="29" t="s">
         <v>265</v>
       </c>
@@ -15059,7 +15059,7 @@
       <c r="I248" s="20"/>
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="1:10" ht="60">
+    <row r="249" spans="1:10" ht="45">
       <c r="A249" s="22" t="s">
         <v>2253</v>
       </c>
@@ -15085,7 +15085,7 @@
       <c r="I249" s="20"/>
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="1:10" ht="60">
+    <row r="250" spans="1:10" ht="45">
       <c r="A250" s="22" t="s">
         <v>2218</v>
       </c>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="I251" s="31"/>
     </row>
-    <row r="252" spans="1:10" ht="45">
+    <row r="252" spans="1:10" ht="30">
       <c r="A252" s="29" t="s">
         <v>267</v>
       </c>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="I258" s="31"/>
     </row>
-    <row r="259" spans="1:9" ht="45">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="29" t="s">
         <v>274</v>
       </c>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="I259" s="31"/>
     </row>
-    <row r="260" spans="1:9" ht="90">
+    <row r="260" spans="1:9" ht="75">
       <c r="A260" s="29" t="s">
         <v>275</v>
       </c>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="I273" s="31"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="29" t="s">
         <v>289</v>
       </c>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="I275" s="31"/>
     </row>
-    <row r="276" spans="1:9" ht="45">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="29" t="s">
         <v>291</v>
       </c>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="I285" s="31"/>
     </row>
-    <row r="286" spans="1:9" ht="90">
+    <row r="286" spans="1:9" ht="60">
       <c r="A286" s="29" t="s">
         <v>301</v>
       </c>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="45">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="29" t="s">
         <v>306</v>
       </c>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="29" t="s">
         <v>310</v>
       </c>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" ht="45">
+    <row r="300" spans="1:9" ht="30">
       <c r="A300" s="29" t="s">
         <v>315</v>
       </c>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="45">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="29" t="s">
         <v>317</v>
       </c>
@@ -16523,7 +16523,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9" ht="60">
+    <row r="307" spans="1:9" ht="45">
       <c r="A307" s="29" t="s">
         <v>322</v>
       </c>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="I307" s="31"/>
     </row>
-    <row r="308" spans="1:9" ht="60">
+    <row r="308" spans="1:9" ht="45">
       <c r="A308" s="29" t="s">
         <v>323</v>
       </c>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="I313" s="31"/>
     </row>
-    <row r="314" spans="1:9" ht="90">
+    <row r="314" spans="1:9" ht="60">
       <c r="A314" s="29" t="s">
         <v>329</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="45">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="29" t="s">
         <v>337</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9">
       <c r="A323" s="29" t="s">
         <v>338</v>
       </c>
@@ -17033,7 +17033,7 @@
       </c>
       <c r="I326" s="31"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9">
       <c r="A327" s="29" t="s">
         <v>342</v>
       </c>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="I327" s="31"/>
     </row>
-    <row r="328" spans="1:9" ht="45">
+    <row r="328" spans="1:9" ht="30">
       <c r="A328" s="29" t="s">
         <v>343</v>
       </c>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="I331" s="31"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="29" t="s">
         <v>347</v>
       </c>
@@ -17183,7 +17183,7 @@
       </c>
       <c r="I332" s="31"/>
     </row>
-    <row r="333" spans="1:9" ht="45">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="29" t="s">
         <v>348</v>
       </c>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="I334" s="31"/>
     </row>
-    <row r="335" spans="1:9" ht="75">
+    <row r="335" spans="1:9" ht="60">
       <c r="A335" s="29" t="s">
         <v>350</v>
       </c>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="I337" s="31"/>
     </row>
-    <row r="338" spans="1:9" ht="45">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="29" t="s">
         <v>353</v>
       </c>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="I341" s="31"/>
     </row>
-    <row r="342" spans="1:9" ht="45">
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="29" t="s">
         <v>357</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="29" t="s">
         <v>358</v>
       </c>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="I343" s="31"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9">
       <c r="A344" s="29" t="s">
         <v>359</v>
       </c>
@@ -17489,7 +17489,7 @@
       </c>
       <c r="I344" s="31"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9">
       <c r="A345" s="29" t="s">
         <v>360</v>
       </c>
@@ -17514,7 +17514,7 @@
       </c>
       <c r="I345" s="31"/>
     </row>
-    <row r="346" spans="1:9" ht="45">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="29" t="s">
         <v>361</v>
       </c>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="I347" s="31"/>
     </row>
-    <row r="348" spans="1:9" ht="60">
+    <row r="348" spans="1:9" ht="45">
       <c r="A348" s="29" t="s">
         <v>363</v>
       </c>
@@ -17639,7 +17639,7 @@
       </c>
       <c r="I350" s="31"/>
     </row>
-    <row r="351" spans="1:9" ht="45">
+    <row r="351" spans="1:9" ht="30">
       <c r="A351" s="29" t="s">
         <v>366</v>
       </c>
@@ -17664,7 +17664,7 @@
       </c>
       <c r="I351" s="31"/>
     </row>
-    <row r="352" spans="1:9" ht="45">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="29" t="s">
         <v>367</v>
       </c>
@@ -17714,7 +17714,7 @@
       </c>
       <c r="I353" s="31"/>
     </row>
-    <row r="354" spans="1:9" ht="75">
+    <row r="354" spans="1:9" ht="60">
       <c r="A354" s="29" t="s">
         <v>369</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="45">
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="29" t="s">
         <v>374</v>
       </c>
@@ -17970,7 +17970,7 @@
       </c>
       <c r="I363" s="31"/>
     </row>
-    <row r="364" spans="1:9" ht="30">
+    <row r="364" spans="1:9">
       <c r="A364" s="22" t="s">
         <v>2260</v>
       </c>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="I368" s="31"/>
     </row>
-    <row r="369" spans="1:9" ht="45">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="29" t="s">
         <v>382</v>
       </c>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="I374" s="31"/>
     </row>
-    <row r="375" spans="1:9" ht="45">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="29" t="s">
         <v>388</v>
       </c>
@@ -18370,7 +18370,7 @@
       </c>
       <c r="I379" s="31"/>
     </row>
-    <row r="380" spans="1:9" ht="60">
+    <row r="380" spans="1:9" ht="45">
       <c r="A380" s="29" t="s">
         <v>393</v>
       </c>
@@ -18447,7 +18447,7 @@
       </c>
       <c r="I382" s="31"/>
     </row>
-    <row r="383" spans="1:9" ht="45">
+    <row r="383" spans="1:9" ht="30">
       <c r="A383" s="29" t="s">
         <v>396</v>
       </c>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="I390" s="31"/>
     </row>
-    <row r="391" spans="1:9" ht="45">
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="29" t="s">
         <v>404</v>
       </c>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="I391" s="31"/>
     </row>
-    <row r="392" spans="1:9" ht="45">
+    <row r="392" spans="1:9" ht="30">
       <c r="A392" s="29" t="s">
         <v>405</v>
       </c>
@@ -18899,7 +18899,7 @@
       </c>
       <c r="I400" s="31"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="30">
       <c r="A401" s="29" t="s">
         <v>414</v>
       </c>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="I401" s="31"/>
     </row>
-    <row r="402" spans="1:9" ht="60">
+    <row r="402" spans="1:9" ht="45">
       <c r="A402" s="29" t="s">
         <v>415</v>
       </c>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="I404" s="31"/>
     </row>
-    <row r="405" spans="1:9" ht="45">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="29" t="s">
         <v>418</v>
       </c>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="I406" s="31"/>
     </row>
-    <row r="407" spans="1:9" ht="45">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="29" t="s">
         <v>420</v>
       </c>
@@ -19103,7 +19103,7 @@
       </c>
       <c r="I408" s="31"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9">
       <c r="A409" s="29" t="s">
         <v>422</v>
       </c>
@@ -19128,7 +19128,7 @@
       </c>
       <c r="I409" s="31"/>
     </row>
-    <row r="410" spans="1:9" ht="30">
+    <row r="410" spans="1:9">
       <c r="A410" s="29" t="s">
         <v>423</v>
       </c>
@@ -19178,7 +19178,7 @@
       </c>
       <c r="I411" s="31"/>
     </row>
-    <row r="412" spans="1:9" ht="30">
+    <row r="412" spans="1:9">
       <c r="A412" s="29" t="s">
         <v>425</v>
       </c>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="I415" s="31"/>
     </row>
-    <row r="416" spans="1:9" ht="45">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="29" t="s">
         <v>429</v>
       </c>
@@ -19328,7 +19328,7 @@
       </c>
       <c r="I417" s="31"/>
     </row>
-    <row r="418" spans="1:9" ht="45">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="29" t="s">
         <v>431</v>
       </c>
@@ -19353,7 +19353,7 @@
       </c>
       <c r="I418" s="31"/>
     </row>
-    <row r="419" spans="1:9" ht="45">
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="29" t="s">
         <v>432</v>
       </c>
@@ -19453,7 +19453,7 @@
       </c>
       <c r="I422" s="31"/>
     </row>
-    <row r="423" spans="1:9" ht="30">
+    <row r="423" spans="1:9">
       <c r="A423" s="29" t="s">
         <v>436</v>
       </c>
@@ -19528,7 +19528,7 @@
       </c>
       <c r="I425" s="31"/>
     </row>
-    <row r="426" spans="1:9" ht="60">
+    <row r="426" spans="1:9" ht="45">
       <c r="A426" s="29" t="s">
         <v>439</v>
       </c>
@@ -19630,7 +19630,7 @@
       </c>
       <c r="I429" s="31"/>
     </row>
-    <row r="430" spans="1:9" ht="45">
+    <row r="430" spans="1:9" ht="30">
       <c r="A430" s="29" t="s">
         <v>443</v>
       </c>
@@ -19730,7 +19730,7 @@
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9" ht="45">
+    <row r="434" spans="1:9" ht="30">
       <c r="A434" s="29" t="s">
         <v>447</v>
       </c>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="I434" s="31"/>
     </row>
-    <row r="435" spans="1:9" ht="45">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="29" t="s">
         <v>448</v>
       </c>
@@ -19780,7 +19780,7 @@
       </c>
       <c r="I435" s="31"/>
     </row>
-    <row r="436" spans="1:9" ht="60">
+    <row r="436" spans="1:9" ht="45">
       <c r="A436" s="29" t="s">
         <v>449</v>
       </c>
@@ -19909,7 +19909,7 @@
       </c>
       <c r="I440" s="31"/>
     </row>
-    <row r="441" spans="1:9" ht="45">
+    <row r="441" spans="1:9" ht="30">
       <c r="A441" s="29" t="s">
         <v>454</v>
       </c>
@@ -20059,7 +20059,7 @@
       </c>
       <c r="I446" s="31"/>
     </row>
-    <row r="447" spans="1:9" ht="30">
+    <row r="447" spans="1:9">
       <c r="A447" s="29" t="s">
         <v>460</v>
       </c>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="45">
+    <row r="451" spans="1:9" ht="30">
       <c r="A451" s="29" t="s">
         <v>464</v>
       </c>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="I451" s="31"/>
     </row>
-    <row r="452" spans="1:9" ht="45">
+    <row r="452" spans="1:9" ht="30">
       <c r="A452" s="29" t="s">
         <v>465</v>
       </c>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9" ht="45">
+    <row r="453" spans="1:9" ht="30">
       <c r="A453" s="29" t="s">
         <v>466</v>
       </c>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="I453" s="31"/>
     </row>
-    <row r="454" spans="1:9" ht="45">
+    <row r="454" spans="1:9" ht="30">
       <c r="A454" s="29" t="s">
         <v>467</v>
       </c>
@@ -20309,7 +20309,7 @@
       </c>
       <c r="I456" s="31"/>
     </row>
-    <row r="457" spans="1:9" ht="45">
+    <row r="457" spans="1:9" ht="30">
       <c r="A457" s="22" t="s">
         <v>470</v>
       </c>
@@ -20334,7 +20334,7 @@
       </c>
       <c r="I457" s="31"/>
     </row>
-    <row r="458" spans="1:9" ht="30">
+    <row r="458" spans="1:9">
       <c r="A458" s="29" t="s">
         <v>471</v>
       </c>
@@ -20459,7 +20459,7 @@
       </c>
       <c r="I462" s="31"/>
     </row>
-    <row r="463" spans="1:9" ht="30">
+    <row r="463" spans="1:9">
       <c r="A463" s="29" t="s">
         <v>476</v>
       </c>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="I465" s="31"/>
     </row>
-    <row r="466" spans="1:9" ht="30">
+    <row r="466" spans="1:9">
       <c r="A466" s="29" t="s">
         <v>479</v>
       </c>
@@ -20686,7 +20686,7 @@
       </c>
       <c r="I471" s="31"/>
     </row>
-    <row r="472" spans="1:9" ht="45">
+    <row r="472" spans="1:9" ht="30">
       <c r="A472" s="29" t="s">
         <v>485</v>
       </c>
@@ -20811,7 +20811,7 @@
       </c>
       <c r="I476" s="31"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9">
       <c r="A477" s="29" t="s">
         <v>490</v>
       </c>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="I483" s="31"/>
     </row>
-    <row r="484" spans="1:9" ht="90">
+    <row r="484" spans="1:9" ht="75">
       <c r="A484" s="29" t="s">
         <v>497</v>
       </c>
@@ -21094,7 +21094,7 @@
       </c>
       <c r="I487" s="31"/>
     </row>
-    <row r="488" spans="1:9" ht="45">
+    <row r="488" spans="1:9" ht="30">
       <c r="A488" s="29" t="s">
         <v>501</v>
       </c>
@@ -21119,7 +21119,7 @@
       </c>
       <c r="I488" s="31"/>
     </row>
-    <row r="489" spans="1:9" ht="30">
+    <row r="489" spans="1:9">
       <c r="A489" s="29" t="s">
         <v>502</v>
       </c>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="I489" s="31"/>
     </row>
-    <row r="490" spans="1:9" ht="45">
+    <row r="490" spans="1:9" ht="30">
       <c r="A490" s="29" t="s">
         <v>503</v>
       </c>
@@ -21294,7 +21294,7 @@
       </c>
       <c r="I495" s="31"/>
     </row>
-    <row r="496" spans="1:9" ht="45">
+    <row r="496" spans="1:9" ht="30">
       <c r="A496" s="29" t="s">
         <v>509</v>
       </c>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="45">
+    <row r="502" spans="1:9" ht="30">
       <c r="A502" s="29" t="s">
         <v>515</v>
       </c>
@@ -21494,7 +21494,7 @@
       </c>
       <c r="I503" s="31"/>
     </row>
-    <row r="504" spans="1:9" ht="30">
+    <row r="504" spans="1:9">
       <c r="A504" s="29" t="s">
         <v>517</v>
       </c>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="I504" s="31"/>
     </row>
-    <row r="505" spans="1:9" ht="45">
+    <row r="505" spans="1:9" ht="30">
       <c r="A505" s="29" t="s">
         <v>518</v>
       </c>
@@ -21619,7 +21619,7 @@
       </c>
       <c r="I508" s="31"/>
     </row>
-    <row r="509" spans="1:9" ht="60">
+    <row r="509" spans="1:9" ht="45">
       <c r="A509" s="22" t="s">
         <v>522</v>
       </c>
@@ -21671,7 +21671,7 @@
       </c>
       <c r="I510" s="20"/>
     </row>
-    <row r="511" spans="1:9" ht="30">
+    <row r="511" spans="1:9">
       <c r="A511" s="29" t="s">
         <v>524</v>
       </c>
@@ -21816,8 +21816,8 @@
       <c r="G516" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H516" s="34" t="s">
-        <v>20</v>
+      <c r="H516" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="I516" s="35"/>
     </row>
@@ -21866,8 +21866,8 @@
       <c r="G518" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H518" s="34" t="s">
-        <v>20</v>
+      <c r="H518" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="I518" s="35"/>
     </row>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="I522" s="31"/>
     </row>
-    <row r="523" spans="1:9" ht="30">
+    <row r="523" spans="1:9">
       <c r="A523" s="29" t="s">
         <v>528</v>
       </c>
@@ -22021,7 +22021,7 @@
       </c>
       <c r="I524" s="31"/>
     </row>
-    <row r="525" spans="1:9" ht="45">
+    <row r="525" spans="1:9" ht="30">
       <c r="A525" s="22" t="s">
         <v>530</v>
       </c>
@@ -22071,7 +22071,7 @@
       </c>
       <c r="I526" s="35"/>
     </row>
-    <row r="527" spans="1:9" ht="45">
+    <row r="527" spans="1:9" ht="30">
       <c r="A527" s="34" t="s">
         <v>2280</v>
       </c>
@@ -22146,7 +22146,7 @@
       </c>
       <c r="I529" s="31"/>
     </row>
-    <row r="530" spans="1:9" ht="30">
+    <row r="530" spans="1:9">
       <c r="A530" s="29" t="s">
         <v>533</v>
       </c>
@@ -22171,7 +22171,7 @@
       </c>
       <c r="I530" s="31"/>
     </row>
-    <row r="531" spans="1:9" ht="45">
+    <row r="531" spans="1:9" ht="30">
       <c r="A531" s="29" t="s">
         <v>534</v>
       </c>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="I534" s="31"/>
     </row>
-    <row r="535" spans="1:9" ht="30">
+    <row r="535" spans="1:9">
       <c r="A535" s="29" t="s">
         <v>538</v>
       </c>
@@ -22321,7 +22321,7 @@
       </c>
       <c r="I536" s="31"/>
     </row>
-    <row r="537" spans="1:9" ht="45">
+    <row r="537" spans="1:9" ht="30">
       <c r="A537" s="29" t="s">
         <v>540</v>
       </c>
@@ -22371,7 +22371,7 @@
       </c>
       <c r="I538" s="31"/>
     </row>
-    <row r="539" spans="1:9" ht="45">
+    <row r="539" spans="1:9" ht="30">
       <c r="A539" s="29" t="s">
         <v>542</v>
       </c>
@@ -22546,7 +22546,7 @@
       </c>
       <c r="I545" s="31"/>
     </row>
-    <row r="546" spans="1:9" ht="30">
+    <row r="546" spans="1:9">
       <c r="A546" s="29" t="s">
         <v>549</v>
       </c>
@@ -22721,7 +22721,7 @@
       </c>
       <c r="I552" s="31"/>
     </row>
-    <row r="553" spans="1:9" ht="30">
+    <row r="553" spans="1:9">
       <c r="A553" s="29" t="s">
         <v>556</v>
       </c>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="I554" s="20"/>
     </row>
-    <row r="555" spans="1:9" ht="45">
+    <row r="555" spans="1:9" ht="30">
       <c r="A555" s="29" t="s">
         <v>558</v>
       </c>
@@ -22898,7 +22898,7 @@
       </c>
       <c r="I559" s="31"/>
     </row>
-    <row r="560" spans="1:9" ht="30">
+    <row r="560" spans="1:9">
       <c r="A560" s="29" t="s">
         <v>563</v>
       </c>
@@ -22923,7 +22923,7 @@
       </c>
       <c r="I560" s="31"/>
     </row>
-    <row r="561" spans="1:9" ht="45">
+    <row r="561" spans="1:9" ht="30">
       <c r="A561" s="29" t="s">
         <v>564</v>
       </c>
@@ -22948,7 +22948,7 @@
       </c>
       <c r="I561" s="31"/>
     </row>
-    <row r="562" spans="1:9" ht="45">
+    <row r="562" spans="1:9" ht="30">
       <c r="A562" s="29" t="s">
         <v>565</v>
       </c>
@@ -22998,7 +22998,7 @@
       </c>
       <c r="I563" s="31"/>
     </row>
-    <row r="564" spans="1:9" ht="60">
+    <row r="564" spans="1:9" ht="45">
       <c r="A564" s="29" t="s">
         <v>567</v>
       </c>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="I577" s="31"/>
     </row>
-    <row r="578" spans="1:9" ht="75">
+    <row r="578" spans="1:9" ht="60">
       <c r="A578" s="29" t="s">
         <v>581</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="75">
+    <row r="579" spans="1:9" ht="60">
       <c r="A579" s="29" t="s">
         <v>582</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="75">
+    <row r="580" spans="1:9" ht="60">
       <c r="A580" s="29" t="s">
         <v>583</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="30">
+    <row r="581" spans="1:9">
       <c r="A581" s="29" t="s">
         <v>584</v>
       </c>
@@ -23456,7 +23456,7 @@
       </c>
       <c r="I581" s="31"/>
     </row>
-    <row r="582" spans="1:9" ht="75">
+    <row r="582" spans="1:9" ht="60">
       <c r="A582" s="29" t="s">
         <v>585</v>
       </c>
@@ -23535,7 +23535,7 @@
       </c>
       <c r="I584" s="31"/>
     </row>
-    <row r="585" spans="1:9" ht="105">
+    <row r="585" spans="1:9" ht="90">
       <c r="A585" s="29" t="s">
         <v>588</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="105">
+    <row r="586" spans="1:9" ht="90">
       <c r="A586" s="29" t="s">
         <v>589</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="105">
+    <row r="587" spans="1:9" ht="90">
       <c r="A587" s="29" t="s">
         <v>590</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="30">
+    <row r="591" spans="1:9">
       <c r="A591" s="29" t="s">
         <v>594</v>
       </c>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="I593" s="31"/>
     </row>
-    <row r="594" spans="1:9" ht="30">
+    <row r="594" spans="1:9">
       <c r="A594" s="29" t="s">
         <v>597</v>
       </c>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="I594" s="31"/>
     </row>
-    <row r="595" spans="1:9" ht="30">
+    <row r="595" spans="1:9">
       <c r="A595" s="29" t="s">
         <v>598</v>
       </c>
@@ -23897,7 +23897,7 @@
       </c>
       <c r="I598" s="31"/>
     </row>
-    <row r="599" spans="1:9" ht="30">
+    <row r="599" spans="1:9">
       <c r="A599" s="29" t="s">
         <v>602</v>
       </c>
@@ -24097,7 +24097,7 @@
       </c>
       <c r="I606" s="31"/>
     </row>
-    <row r="607" spans="1:9" ht="30">
+    <row r="607" spans="1:9">
       <c r="A607" s="29" t="s">
         <v>610</v>
       </c>
@@ -24228,7 +24228,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="45">
+    <row r="612" spans="1:9" ht="30">
       <c r="A612" s="29" t="s">
         <v>615</v>
       </c>
@@ -24328,7 +24328,7 @@
       </c>
       <c r="I615" s="31"/>
     </row>
-    <row r="616" spans="1:9" ht="60">
+    <row r="616" spans="1:9" ht="45">
       <c r="A616" s="29" t="s">
         <v>619</v>
       </c>
@@ -24453,7 +24453,7 @@
       </c>
       <c r="I620" s="31"/>
     </row>
-    <row r="621" spans="1:9" ht="60">
+    <row r="621" spans="1:9" ht="45">
       <c r="A621" s="29" t="s">
         <v>624</v>
       </c>
@@ -24503,7 +24503,7 @@
       </c>
       <c r="I622" s="31"/>
     </row>
-    <row r="623" spans="1:9" ht="30">
+    <row r="623" spans="1:9">
       <c r="A623" s="29" t="s">
         <v>626</v>
       </c>
@@ -24553,7 +24553,7 @@
       </c>
       <c r="I624" s="31"/>
     </row>
-    <row r="625" spans="1:9" ht="75">
+    <row r="625" spans="1:9" ht="60">
       <c r="A625" s="29" t="s">
         <v>628</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="225">
+    <row r="626" spans="1:9" ht="210">
       <c r="A626" s="29" t="s">
         <v>629</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="60">
+    <row r="632" spans="1:9" ht="45">
       <c r="A632" s="29" t="s">
         <v>635</v>
       </c>
@@ -24761,7 +24761,7 @@
       </c>
       <c r="I632" s="31"/>
     </row>
-    <row r="633" spans="1:9" ht="30">
+    <row r="633" spans="1:9">
       <c r="A633" s="29" t="s">
         <v>636</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="45">
+    <row r="638" spans="1:9" ht="30">
       <c r="A638" s="29" t="s">
         <v>641</v>
       </c>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="I638" s="31"/>
     </row>
-    <row r="639" spans="1:9" ht="60">
+    <row r="639" spans="1:9" ht="45">
       <c r="A639" s="29" t="s">
         <v>642</v>
       </c>
@@ -24940,7 +24940,7 @@
       </c>
       <c r="I639" s="31"/>
     </row>
-    <row r="640" spans="1:9" ht="30">
+    <row r="640" spans="1:9">
       <c r="A640" s="29" t="s">
         <v>643</v>
       </c>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="I640" s="31"/>
     </row>
-    <row r="641" spans="1:9" ht="60">
+    <row r="641" spans="1:9" ht="45">
       <c r="A641" s="29" t="s">
         <v>644</v>
       </c>
@@ -24990,7 +24990,7 @@
       </c>
       <c r="I641" s="31"/>
     </row>
-    <row r="642" spans="1:9" ht="60">
+    <row r="642" spans="1:9" ht="45">
       <c r="A642" s="29" t="s">
         <v>645</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="45">
+    <row r="645" spans="1:9" ht="30">
       <c r="A645" s="29" t="s">
         <v>648</v>
       </c>
@@ -25194,7 +25194,7 @@
       </c>
       <c r="I649" s="31"/>
     </row>
-    <row r="650" spans="1:9" ht="30">
+    <row r="650" spans="1:9">
       <c r="A650" s="29" t="s">
         <v>652</v>
       </c>
@@ -25569,7 +25569,7 @@
       </c>
       <c r="I664" s="31"/>
     </row>
-    <row r="665" spans="1:9" ht="75">
+    <row r="665" spans="1:9" ht="60">
       <c r="A665" s="29" t="s">
         <v>667</v>
       </c>
@@ -25669,7 +25669,7 @@
       </c>
       <c r="I668" s="31"/>
     </row>
-    <row r="669" spans="1:9" ht="150">
+    <row r="669" spans="1:9" ht="135">
       <c r="A669" s="29" t="s">
         <v>671</v>
       </c>
@@ -25694,7 +25694,7 @@
       </c>
       <c r="I669" s="31"/>
     </row>
-    <row r="670" spans="1:9" ht="45">
+    <row r="670" spans="1:9" ht="30">
       <c r="A670" s="29" t="s">
         <v>672</v>
       </c>
@@ -25869,7 +25869,7 @@
       </c>
       <c r="I676" s="31"/>
     </row>
-    <row r="677" spans="1:9" ht="30">
+    <row r="677" spans="1:9">
       <c r="A677" s="29" t="s">
         <v>679</v>
       </c>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="I679" s="31"/>
     </row>
-    <row r="680" spans="1:9" ht="45">
+    <row r="680" spans="1:9" ht="30">
       <c r="A680" s="29" t="s">
         <v>682</v>
       </c>
@@ -26044,7 +26044,7 @@
       </c>
       <c r="I683" s="31"/>
     </row>
-    <row r="684" spans="1:9" ht="45">
+    <row r="684" spans="1:9" ht="30">
       <c r="A684" s="29" t="s">
         <v>686</v>
       </c>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="I684" s="31"/>
     </row>
-    <row r="685" spans="1:9" ht="60">
+    <row r="685" spans="1:9" ht="45">
       <c r="A685" s="29" t="s">
         <v>687</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="45">
+    <row r="686" spans="1:9" ht="30">
       <c r="A686" s="29" t="s">
         <v>688</v>
       </c>
@@ -26123,7 +26123,7 @@
       </c>
       <c r="I686" s="31"/>
     </row>
-    <row r="687" spans="1:9" ht="45">
+    <row r="687" spans="1:9" ht="30">
       <c r="A687" s="29" t="s">
         <v>689</v>
       </c>
@@ -26364,7 +26364,7 @@
       </c>
       <c r="I695" s="31"/>
     </row>
-    <row r="696" spans="1:9" ht="105">
+    <row r="696" spans="1:9" ht="75">
       <c r="A696" s="29" t="s">
         <v>698</v>
       </c>
@@ -26416,7 +26416,7 @@
       </c>
       <c r="I697" s="31"/>
     </row>
-    <row r="698" spans="1:9" ht="30">
+    <row r="698" spans="1:9">
       <c r="A698" s="29" t="s">
         <v>700</v>
       </c>
@@ -26441,7 +26441,7 @@
       </c>
       <c r="I698" s="31"/>
     </row>
-    <row r="699" spans="1:9" ht="45">
+    <row r="699" spans="1:9" ht="30">
       <c r="A699" s="29" t="s">
         <v>701</v>
       </c>
@@ -26491,7 +26491,7 @@
       </c>
       <c r="I700" s="31"/>
     </row>
-    <row r="701" spans="1:9" ht="45">
+    <row r="701" spans="1:9" ht="30">
       <c r="A701" s="29" t="s">
         <v>703</v>
       </c>
@@ -26516,7 +26516,7 @@
       </c>
       <c r="I701" s="31"/>
     </row>
-    <row r="702" spans="1:9" ht="30">
+    <row r="702" spans="1:9">
       <c r="A702" s="29" t="s">
         <v>704</v>
       </c>
@@ -26541,7 +26541,7 @@
       </c>
       <c r="I702" s="31"/>
     </row>
-    <row r="703" spans="1:9" ht="45">
+    <row r="703" spans="1:9" ht="30">
       <c r="A703" s="29" t="s">
         <v>705</v>
       </c>
@@ -26566,7 +26566,7 @@
       </c>
       <c r="I703" s="31"/>
     </row>
-    <row r="704" spans="1:9" ht="45">
+    <row r="704" spans="1:9" ht="30">
       <c r="A704" s="29" t="s">
         <v>706</v>
       </c>
@@ -26666,7 +26666,7 @@
       </c>
       <c r="I707" s="31"/>
     </row>
-    <row r="708" spans="1:9" ht="45">
+    <row r="708" spans="1:9" ht="30">
       <c r="A708" s="29" t="s">
         <v>710</v>
       </c>
@@ -26716,7 +26716,7 @@
       </c>
       <c r="I709" s="31"/>
     </row>
-    <row r="710" spans="1:9" ht="30">
+    <row r="710" spans="1:9">
       <c r="A710" s="29" t="s">
         <v>712</v>
       </c>
@@ -26741,7 +26741,7 @@
       </c>
       <c r="I710" s="31"/>
     </row>
-    <row r="711" spans="1:9" ht="30">
+    <row r="711" spans="1:9">
       <c r="A711" s="29" t="s">
         <v>713</v>
       </c>
@@ -26791,7 +26791,7 @@
       </c>
       <c r="I712" s="31"/>
     </row>
-    <row r="713" spans="1:9" ht="60">
+    <row r="713" spans="1:9" ht="45">
       <c r="A713" s="29" t="s">
         <v>715</v>
       </c>
@@ -26841,7 +26841,7 @@
       </c>
       <c r="I714" s="31"/>
     </row>
-    <row r="715" spans="1:9" ht="60">
+    <row r="715" spans="1:9" ht="45">
       <c r="A715" s="29" t="s">
         <v>717</v>
       </c>
@@ -26868,7 +26868,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="240">
+    <row r="716" spans="1:9" ht="195">
       <c r="A716" s="29" t="s">
         <v>718</v>
       </c>
@@ -26920,7 +26920,7 @@
       </c>
       <c r="I717" s="31"/>
     </row>
-    <row r="718" spans="1:9" ht="30">
+    <row r="718" spans="1:9">
       <c r="A718" s="29" t="s">
         <v>720</v>
       </c>
@@ -26970,7 +26970,7 @@
       </c>
       <c r="I719" s="31"/>
     </row>
-    <row r="720" spans="1:9" ht="30">
+    <row r="720" spans="1:9">
       <c r="A720" s="29" t="s">
         <v>722</v>
       </c>
@@ -27020,7 +27020,7 @@
       </c>
       <c r="I721" s="31"/>
     </row>
-    <row r="722" spans="1:9" ht="30">
+    <row r="722" spans="1:9">
       <c r="A722" s="29" t="s">
         <v>724</v>
       </c>
@@ -27070,7 +27070,7 @@
       </c>
       <c r="I723" s="31"/>
     </row>
-    <row r="724" spans="1:9" ht="30">
+    <row r="724" spans="1:9">
       <c r="A724" s="29" t="s">
         <v>726</v>
       </c>
@@ -27095,7 +27095,7 @@
       </c>
       <c r="I724" s="31"/>
     </row>
-    <row r="725" spans="1:9" ht="45">
+    <row r="725" spans="1:9" ht="30">
       <c r="A725" s="29" t="s">
         <v>727</v>
       </c>
@@ -27120,7 +27120,7 @@
       </c>
       <c r="I725" s="31"/>
     </row>
-    <row r="726" spans="1:9" ht="30">
+    <row r="726" spans="1:9">
       <c r="A726" s="29" t="s">
         <v>728</v>
       </c>
@@ -27145,7 +27145,7 @@
       </c>
       <c r="I726" s="31"/>
     </row>
-    <row r="727" spans="1:9" ht="45">
+    <row r="727" spans="1:9" ht="30">
       <c r="A727" s="22" t="s">
         <v>729</v>
       </c>
@@ -27170,7 +27170,7 @@
       </c>
       <c r="I727" s="31"/>
     </row>
-    <row r="728" spans="1:9" ht="60">
+    <row r="728" spans="1:9" ht="45">
       <c r="A728" s="22" t="s">
         <v>730</v>
       </c>
@@ -27197,7 +27197,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="30">
+    <row r="729" spans="1:9">
       <c r="A729" s="29" t="s">
         <v>731</v>
       </c>
@@ -27274,7 +27274,7 @@
       </c>
       <c r="I731" s="31"/>
     </row>
-    <row r="732" spans="1:9" ht="45">
+    <row r="732" spans="1:9" ht="30">
       <c r="A732" s="29" t="s">
         <v>734</v>
       </c>
@@ -27299,7 +27299,7 @@
       </c>
       <c r="I732" s="31"/>
     </row>
-    <row r="733" spans="1:9" ht="45">
+    <row r="733" spans="1:9" ht="30">
       <c r="A733" s="29" t="s">
         <v>735</v>
       </c>
@@ -27449,7 +27449,7 @@
       </c>
       <c r="I738" s="31"/>
     </row>
-    <row r="739" spans="1:9" ht="45">
+    <row r="739" spans="1:9" ht="30">
       <c r="A739" s="29" t="s">
         <v>741</v>
       </c>
@@ -27499,7 +27499,7 @@
       </c>
       <c r="I740" s="31"/>
     </row>
-    <row r="741" spans="1:9" ht="60">
+    <row r="741" spans="1:9" ht="45">
       <c r="A741" s="29" t="s">
         <v>743</v>
       </c>
@@ -27549,7 +27549,7 @@
       </c>
       <c r="I742" s="31"/>
     </row>
-    <row r="743" spans="1:9" ht="60">
+    <row r="743" spans="1:9" ht="45">
       <c r="A743" s="29" t="s">
         <v>745</v>
       </c>
@@ -27599,7 +27599,7 @@
       </c>
       <c r="I744" s="31"/>
     </row>
-    <row r="745" spans="1:9" ht="60">
+    <row r="745" spans="1:9" ht="45">
       <c r="A745" s="29" t="s">
         <v>747</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="180">
+    <row r="746" spans="1:9" ht="135">
       <c r="A746" s="29" t="s">
         <v>748</v>
       </c>
@@ -27678,7 +27678,7 @@
       </c>
       <c r="I747" s="31"/>
     </row>
-    <row r="748" spans="1:9" ht="30">
+    <row r="748" spans="1:9">
       <c r="A748" s="29" t="s">
         <v>750</v>
       </c>
@@ -27755,7 +27755,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="30">
+    <row r="751" spans="1:9">
       <c r="A751" s="29" t="s">
         <v>753</v>
       </c>
@@ -27805,7 +27805,7 @@
       </c>
       <c r="I752" s="31"/>
     </row>
-    <row r="753" spans="1:9" ht="30">
+    <row r="753" spans="1:9">
       <c r="A753" s="29" t="s">
         <v>755</v>
       </c>
@@ -27880,7 +27880,7 @@
       </c>
       <c r="I755" s="31"/>
     </row>
-    <row r="756" spans="1:9" ht="30">
+    <row r="756" spans="1:9">
       <c r="A756" s="29" t="s">
         <v>758</v>
       </c>
@@ -27905,7 +27905,7 @@
       </c>
       <c r="I756" s="31"/>
     </row>
-    <row r="757" spans="1:9" ht="45">
+    <row r="757" spans="1:9" ht="30">
       <c r="A757" s="29" t="s">
         <v>759</v>
       </c>
@@ -27930,7 +27930,7 @@
       </c>
       <c r="I757" s="31"/>
     </row>
-    <row r="758" spans="1:9" ht="45">
+    <row r="758" spans="1:9" ht="30">
       <c r="A758" s="29" t="s">
         <v>760</v>
       </c>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="I758" s="31"/>
     </row>
-    <row r="759" spans="1:9" ht="45">
+    <row r="759" spans="1:9" ht="30">
       <c r="A759" s="29" t="s">
         <v>761</v>
       </c>
@@ -28055,7 +28055,7 @@
       </c>
       <c r="I762" s="31"/>
     </row>
-    <row r="763" spans="1:9" ht="45">
+    <row r="763" spans="1:9" ht="30">
       <c r="A763" s="29" t="s">
         <v>765</v>
       </c>
@@ -28105,7 +28105,7 @@
       </c>
       <c r="I764" s="31"/>
     </row>
-    <row r="765" spans="1:9" ht="45">
+    <row r="765" spans="1:9" ht="30">
       <c r="A765" s="29" t="s">
         <v>767</v>
       </c>
@@ -28180,7 +28180,7 @@
       </c>
       <c r="I767" s="31"/>
     </row>
-    <row r="768" spans="1:9" ht="45">
+    <row r="768" spans="1:9" ht="30">
       <c r="A768" s="29" t="s">
         <v>770</v>
       </c>
@@ -28205,7 +28205,7 @@
       </c>
       <c r="I768" s="31"/>
     </row>
-    <row r="769" spans="1:9" ht="45">
+    <row r="769" spans="1:9" ht="30">
       <c r="A769" s="29" t="s">
         <v>771</v>
       </c>
@@ -28255,7 +28255,7 @@
       </c>
       <c r="I770" s="31"/>
     </row>
-    <row r="771" spans="1:9" ht="45">
+    <row r="771" spans="1:9" ht="30">
       <c r="A771" s="29" t="s">
         <v>773</v>
       </c>
@@ -28280,7 +28280,7 @@
       </c>
       <c r="I771" s="31"/>
     </row>
-    <row r="772" spans="1:9" ht="45">
+    <row r="772" spans="1:9" ht="30">
       <c r="A772" s="29" t="s">
         <v>774</v>
       </c>
@@ -28405,7 +28405,7 @@
       </c>
       <c r="I776" s="31"/>
     </row>
-    <row r="777" spans="1:9" ht="45">
+    <row r="777" spans="1:9" ht="30">
       <c r="A777" s="29" t="s">
         <v>779</v>
       </c>
@@ -28505,7 +28505,7 @@
       </c>
       <c r="I780" s="31"/>
     </row>
-    <row r="781" spans="1:9" ht="45">
+    <row r="781" spans="1:9" ht="30">
       <c r="A781" s="29" t="s">
         <v>783</v>
       </c>
@@ -28530,7 +28530,7 @@
       </c>
       <c r="I781" s="31"/>
     </row>
-    <row r="782" spans="1:9" ht="60">
+    <row r="782" spans="1:9" ht="45">
       <c r="A782" s="22" t="s">
         <v>784</v>
       </c>
@@ -28557,7 +28557,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="45">
+    <row r="783" spans="1:9" ht="30">
       <c r="A783" s="29" t="s">
         <v>785</v>
       </c>
@@ -28607,7 +28607,7 @@
       </c>
       <c r="I784" s="31"/>
     </row>
-    <row r="785" spans="1:9" ht="60">
+    <row r="785" spans="1:9" ht="45">
       <c r="A785" s="29" t="s">
         <v>787</v>
       </c>
@@ -28632,7 +28632,7 @@
       </c>
       <c r="I785" s="31"/>
     </row>
-    <row r="786" spans="1:9" ht="60">
+    <row r="786" spans="1:9" ht="45">
       <c r="A786" s="29" t="s">
         <v>788</v>
       </c>
@@ -28657,7 +28657,7 @@
       </c>
       <c r="I786" s="31"/>
     </row>
-    <row r="787" spans="1:9" ht="60">
+    <row r="787" spans="1:9" ht="45">
       <c r="A787" s="29" t="s">
         <v>789</v>
       </c>
@@ -28707,7 +28707,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9" ht="60">
+    <row r="789" spans="1:9" ht="45">
       <c r="A789" s="22" t="s">
         <v>791</v>
       </c>
@@ -28732,7 +28732,7 @@
       </c>
       <c r="I789" s="31"/>
     </row>
-    <row r="790" spans="1:9" ht="45">
+    <row r="790" spans="1:9" ht="30">
       <c r="A790" s="29" t="s">
         <v>792</v>
       </c>
@@ -28759,7 +28759,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="791" spans="1:9" ht="45">
+    <row r="791" spans="1:9" ht="30">
       <c r="A791" s="29" t="s">
         <v>793</v>
       </c>
@@ -28859,7 +28859,7 @@
       </c>
       <c r="I794" s="31"/>
     </row>
-    <row r="795" spans="1:9" ht="45">
+    <row r="795" spans="1:9" ht="30">
       <c r="A795" s="29" t="s">
         <v>797</v>
       </c>
@@ -28884,7 +28884,7 @@
       </c>
       <c r="I795" s="31"/>
     </row>
-    <row r="796" spans="1:9" ht="60">
+    <row r="796" spans="1:9" ht="45">
       <c r="A796" s="22" t="s">
         <v>798</v>
       </c>
@@ -28911,7 +28911,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="797" spans="1:9" ht="60">
+    <row r="797" spans="1:9" ht="45">
       <c r="A797" s="29" t="s">
         <v>799</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="210">
+    <row r="798" spans="1:9" ht="180">
       <c r="A798" s="29" t="s">
         <v>800</v>
       </c>
@@ -28990,7 +28990,7 @@
       </c>
       <c r="I799" s="31"/>
     </row>
-    <row r="800" spans="1:9" ht="30">
+    <row r="800" spans="1:9">
       <c r="A800" s="29" t="s">
         <v>802</v>
       </c>
@@ -29040,7 +29040,7 @@
       </c>
       <c r="I801" s="31"/>
     </row>
-    <row r="802" spans="1:9" ht="30">
+    <row r="802" spans="1:9">
       <c r="A802" s="29" t="s">
         <v>804</v>
       </c>
@@ -29090,7 +29090,7 @@
       </c>
       <c r="I803" s="31"/>
     </row>
-    <row r="804" spans="1:9" ht="30">
+    <row r="804" spans="1:9">
       <c r="A804" s="29" t="s">
         <v>806</v>
       </c>
@@ -29165,7 +29165,7 @@
       </c>
       <c r="I806" s="31"/>
     </row>
-    <row r="807" spans="1:9" ht="45">
+    <row r="807" spans="1:9" ht="30">
       <c r="A807" s="29" t="s">
         <v>809</v>
       </c>
@@ -29190,7 +29190,7 @@
       </c>
       <c r="I807" s="31"/>
     </row>
-    <row r="808" spans="1:9" ht="30">
+    <row r="808" spans="1:9">
       <c r="A808" s="29" t="s">
         <v>810</v>
       </c>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="I809" s="31"/>
     </row>
-    <row r="810" spans="1:9" ht="30">
+    <row r="810" spans="1:9">
       <c r="A810" s="29" t="s">
         <v>812</v>
       </c>
@@ -29265,7 +29265,7 @@
       </c>
       <c r="I810" s="31"/>
     </row>
-    <row r="811" spans="1:9" ht="45">
+    <row r="811" spans="1:9" ht="30">
       <c r="A811" s="29" t="s">
         <v>813</v>
       </c>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="I812" s="20"/>
     </row>
-    <row r="813" spans="1:9" ht="45">
+    <row r="813" spans="1:9" ht="30">
       <c r="A813" s="29" t="s">
         <v>815</v>
       </c>
@@ -29465,7 +29465,7 @@
       </c>
       <c r="I818" s="31"/>
     </row>
-    <row r="819" spans="1:9" ht="75">
+    <row r="819" spans="1:9" ht="60">
       <c r="A819" s="29" t="s">
         <v>821</v>
       </c>
@@ -29567,7 +29567,7 @@
       </c>
       <c r="I822" s="31"/>
     </row>
-    <row r="823" spans="1:9" ht="30">
+    <row r="823" spans="1:9">
       <c r="A823" s="29" t="s">
         <v>825</v>
       </c>
@@ -29592,7 +29592,7 @@
       </c>
       <c r="I823" s="31"/>
     </row>
-    <row r="824" spans="1:9" ht="45">
+    <row r="824" spans="1:9" ht="30">
       <c r="A824" s="29" t="s">
         <v>826</v>
       </c>
@@ -29617,7 +29617,7 @@
       </c>
       <c r="I824" s="31"/>
     </row>
-    <row r="825" spans="1:9" ht="45">
+    <row r="825" spans="1:9" ht="30">
       <c r="A825" s="29" t="s">
         <v>827</v>
       </c>
@@ -29794,7 +29794,7 @@
       </c>
       <c r="I831" s="31"/>
     </row>
-    <row r="832" spans="1:9" ht="45">
+    <row r="832" spans="1:9" ht="30">
       <c r="A832" s="29" t="s">
         <v>834</v>
       </c>
@@ -29869,7 +29869,7 @@
       </c>
       <c r="I834" s="31"/>
     </row>
-    <row r="835" spans="1:9" ht="75">
+    <row r="835" spans="1:9" ht="60">
       <c r="A835" s="29" t="s">
         <v>837</v>
       </c>
@@ -29946,7 +29946,7 @@
       </c>
       <c r="I837" s="31"/>
     </row>
-    <row r="838" spans="1:9" ht="45">
+    <row r="838" spans="1:9" ht="30">
       <c r="A838" s="29" t="s">
         <v>840</v>
       </c>
@@ -29971,7 +29971,7 @@
       </c>
       <c r="I838" s="31"/>
     </row>
-    <row r="839" spans="1:9" ht="30">
+    <row r="839" spans="1:9">
       <c r="A839" s="29" t="s">
         <v>841</v>
       </c>
@@ -30023,7 +30023,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="841" spans="1:9" ht="45">
+    <row r="841" spans="1:9" ht="30">
       <c r="A841" s="29" t="s">
         <v>843</v>
       </c>
@@ -30175,7 +30175,7 @@
       </c>
       <c r="I846" s="31"/>
     </row>
-    <row r="847" spans="1:9" ht="45">
+    <row r="847" spans="1:9" ht="30">
       <c r="A847" s="29" t="s">
         <v>849</v>
       </c>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="I850" s="31"/>
     </row>
-    <row r="851" spans="1:9" ht="75">
+    <row r="851" spans="1:9" ht="60">
       <c r="A851" s="29" t="s">
         <v>853</v>
       </c>
@@ -30327,7 +30327,7 @@
       </c>
       <c r="I852" s="31"/>
     </row>
-    <row r="853" spans="1:9" ht="30">
+    <row r="853" spans="1:9">
       <c r="A853" s="29" t="s">
         <v>855</v>
       </c>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="I854" s="31"/>
     </row>
-    <row r="855" spans="1:9" ht="30">
+    <row r="855" spans="1:9">
       <c r="A855" s="29" t="s">
         <v>857</v>
       </c>
@@ -30427,7 +30427,7 @@
       </c>
       <c r="I856" s="31"/>
     </row>
-    <row r="857" spans="1:9" ht="45">
+    <row r="857" spans="1:9" ht="30">
       <c r="A857" s="29" t="s">
         <v>859</v>
       </c>
@@ -30577,7 +30577,7 @@
       </c>
       <c r="I862" s="31"/>
     </row>
-    <row r="863" spans="1:9" ht="60">
+    <row r="863" spans="1:9" ht="45">
       <c r="A863" s="29" t="s">
         <v>865</v>
       </c>
@@ -30627,7 +30627,7 @@
       </c>
       <c r="I864" s="31"/>
     </row>
-    <row r="865" spans="1:9" ht="45">
+    <row r="865" spans="1:9" ht="30">
       <c r="A865" s="29" t="s">
         <v>867</v>
       </c>
@@ -30727,7 +30727,7 @@
       </c>
       <c r="I868" s="31"/>
     </row>
-    <row r="869" spans="1:9" ht="75">
+    <row r="869" spans="1:9" ht="60">
       <c r="A869" s="29" t="s">
         <v>871</v>
       </c>
@@ -30779,7 +30779,7 @@
       </c>
       <c r="I870" s="31"/>
     </row>
-    <row r="871" spans="1:9" ht="30">
+    <row r="871" spans="1:9">
       <c r="A871" s="29" t="s">
         <v>873</v>
       </c>
@@ -30829,7 +30829,7 @@
       </c>
       <c r="I872" s="31"/>
     </row>
-    <row r="873" spans="1:9" ht="30">
+    <row r="873" spans="1:9">
       <c r="A873" s="29" t="s">
         <v>875</v>
       </c>
@@ -30879,7 +30879,7 @@
       </c>
       <c r="I874" s="31"/>
     </row>
-    <row r="875" spans="1:9" ht="45">
+    <row r="875" spans="1:9" ht="30">
       <c r="A875" s="29" t="s">
         <v>877</v>
       </c>
@@ -31108,7 +31108,7 @@
       </c>
       <c r="I883" s="31"/>
     </row>
-    <row r="884" spans="1:9" ht="45">
+    <row r="884" spans="1:9" ht="30">
       <c r="A884" s="29" t="s">
         <v>886</v>
       </c>
@@ -31208,7 +31208,7 @@
       </c>
       <c r="I887" s="31"/>
     </row>
-    <row r="888" spans="1:9" ht="60">
+    <row r="888" spans="1:9" ht="45">
       <c r="A888" s="22" t="s">
         <v>890</v>
       </c>
@@ -31262,7 +31262,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="890" spans="1:9" ht="45">
+    <row r="890" spans="1:9" ht="30">
       <c r="A890" s="29" t="s">
         <v>892</v>
       </c>
@@ -31314,7 +31314,7 @@
       </c>
       <c r="I891" s="31"/>
     </row>
-    <row r="892" spans="1:9" ht="30">
+    <row r="892" spans="1:9">
       <c r="A892" s="29" t="s">
         <v>894</v>
       </c>
@@ -31339,7 +31339,7 @@
       </c>
       <c r="I892" s="31"/>
     </row>
-    <row r="893" spans="1:9" ht="45">
+    <row r="893" spans="1:9" ht="30">
       <c r="A893" s="29" t="s">
         <v>895</v>
       </c>
@@ -31364,7 +31364,7 @@
       </c>
       <c r="I893" s="31"/>
     </row>
-    <row r="894" spans="1:9" ht="45">
+    <row r="894" spans="1:9" ht="30">
       <c r="A894" s="29" t="s">
         <v>896</v>
       </c>
@@ -31514,7 +31514,7 @@
       </c>
       <c r="I899" s="31"/>
     </row>
-    <row r="900" spans="1:9" ht="45">
+    <row r="900" spans="1:9" ht="30">
       <c r="A900" s="29" t="s">
         <v>902</v>
       </c>
@@ -31595,7 +31595,7 @@
       </c>
       <c r="I902" s="31"/>
     </row>
-    <row r="903" spans="1:9" ht="45">
+    <row r="903" spans="1:9" ht="30">
       <c r="A903" s="29" t="s">
         <v>905</v>
       </c>
@@ -31697,7 +31697,7 @@
       </c>
       <c r="I906" s="31"/>
     </row>
-    <row r="907" spans="1:9" ht="60">
+    <row r="907" spans="1:9" ht="45">
       <c r="A907" s="29" t="s">
         <v>909</v>
       </c>
@@ -31747,7 +31747,7 @@
       </c>
       <c r="I908" s="31"/>
     </row>
-    <row r="909" spans="1:9" ht="45">
+    <row r="909" spans="1:9" ht="30">
       <c r="A909" s="29" t="s">
         <v>911</v>
       </c>
@@ -31849,7 +31849,7 @@
       </c>
       <c r="I912" s="31"/>
     </row>
-    <row r="913" spans="1:9" ht="45">
+    <row r="913" spans="1:9" ht="30">
       <c r="A913" s="29" t="s">
         <v>915</v>
       </c>
@@ -32001,7 +32001,7 @@
       </c>
       <c r="I918" s="31"/>
     </row>
-    <row r="919" spans="1:9" ht="60">
+    <row r="919" spans="1:9" ht="45">
       <c r="A919" s="29" t="s">
         <v>921</v>
       </c>
@@ -32076,7 +32076,7 @@
       </c>
       <c r="I921" s="31"/>
     </row>
-    <row r="922" spans="1:9" ht="45">
+    <row r="922" spans="1:9" ht="30">
       <c r="A922" s="29" t="s">
         <v>924</v>
       </c>
@@ -32176,7 +32176,7 @@
       </c>
       <c r="I925" s="31"/>
     </row>
-    <row r="926" spans="1:9" ht="45">
+    <row r="926" spans="1:9" ht="30">
       <c r="A926" s="29" t="s">
         <v>928</v>
       </c>
@@ -32228,7 +32228,7 @@
       </c>
       <c r="I927" s="31"/>
     </row>
-    <row r="928" spans="1:9" ht="30">
+    <row r="928" spans="1:9">
       <c r="A928" s="29" t="s">
         <v>930</v>
       </c>
@@ -32253,7 +32253,7 @@
       </c>
       <c r="I928" s="31"/>
     </row>
-    <row r="929" spans="1:9" ht="45">
+    <row r="929" spans="1:9" ht="30">
       <c r="A929" s="29" t="s">
         <v>931</v>
       </c>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="I929" s="31"/>
     </row>
-    <row r="930" spans="1:9" ht="45">
+    <row r="930" spans="1:9" ht="30">
       <c r="A930" s="29" t="s">
         <v>932</v>
       </c>
@@ -32430,7 +32430,7 @@
       </c>
       <c r="I935" s="31"/>
     </row>
-    <row r="936" spans="1:9" ht="60">
+    <row r="936" spans="1:9" ht="45">
       <c r="A936" s="29" t="s">
         <v>938</v>
       </c>
@@ -32480,7 +32480,7 @@
       </c>
       <c r="I937" s="31"/>
     </row>
-    <row r="938" spans="1:9" ht="45">
+    <row r="938" spans="1:9" ht="30">
       <c r="A938" s="29" t="s">
         <v>940</v>
       </c>
@@ -32580,7 +32580,7 @@
       </c>
       <c r="I941" s="31"/>
     </row>
-    <row r="942" spans="1:9" ht="45">
+    <row r="942" spans="1:9" ht="30">
       <c r="A942" s="29" t="s">
         <v>944</v>
       </c>
@@ -32657,7 +32657,7 @@
       </c>
       <c r="I944" s="31"/>
     </row>
-    <row r="945" spans="1:9" ht="45">
+    <row r="945" spans="1:9" ht="30">
       <c r="A945" s="29" t="s">
         <v>947</v>
       </c>
@@ -32682,7 +32682,7 @@
       </c>
       <c r="I945" s="31"/>
     </row>
-    <row r="946" spans="1:9" ht="45">
+    <row r="946" spans="1:9" ht="30">
       <c r="A946" s="29" t="s">
         <v>948</v>
       </c>
@@ -32832,7 +32832,7 @@
       </c>
       <c r="I951" s="31"/>
     </row>
-    <row r="952" spans="1:9" ht="45">
+    <row r="952" spans="1:9" ht="30">
       <c r="A952" s="29" t="s">
         <v>954</v>
       </c>
@@ -32932,7 +32932,7 @@
       </c>
       <c r="I955" s="31"/>
     </row>
-    <row r="956" spans="1:9" ht="60">
+    <row r="956" spans="1:9" ht="45">
       <c r="A956" s="29" t="s">
         <v>958</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="957" spans="1:9" ht="45">
+    <row r="957" spans="1:9" ht="30">
       <c r="A957" s="29" t="s">
         <v>959</v>
       </c>
@@ -33011,7 +33011,7 @@
       </c>
       <c r="I958" s="31"/>
     </row>
-    <row r="959" spans="1:9" ht="30">
+    <row r="959" spans="1:9">
       <c r="A959" s="29" t="s">
         <v>961</v>
       </c>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="I959" s="31"/>
     </row>
-    <row r="960" spans="1:9" ht="45">
+    <row r="960" spans="1:9" ht="30">
       <c r="A960" s="29" t="s">
         <v>962</v>
       </c>
@@ -33061,7 +33061,7 @@
       </c>
       <c r="I960" s="31"/>
     </row>
-    <row r="961" spans="1:9" ht="45">
+    <row r="961" spans="1:9" ht="30">
       <c r="A961" s="29" t="s">
         <v>963</v>
       </c>
@@ -33361,7 +33361,7 @@
       </c>
       <c r="I972" s="31"/>
     </row>
-    <row r="973" spans="1:9" ht="60">
+    <row r="973" spans="1:9" ht="45">
       <c r="A973" s="22" t="s">
         <v>975</v>
       </c>
@@ -33386,7 +33386,7 @@
       </c>
       <c r="I973" s="20"/>
     </row>
-    <row r="974" spans="1:9" ht="60">
+    <row r="974" spans="1:9" ht="45">
       <c r="A974" s="29" t="s">
         <v>976</v>
       </c>
@@ -33413,7 +33413,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="975" spans="1:9" ht="75">
+    <row r="975" spans="1:9" ht="60">
       <c r="A975" s="29" t="s">
         <v>977</v>
       </c>
@@ -33465,7 +33465,7 @@
       </c>
       <c r="I976" s="31"/>
     </row>
-    <row r="977" spans="1:9" ht="30">
+    <row r="977" spans="1:9">
       <c r="A977" s="29" t="s">
         <v>979</v>
       </c>
@@ -33490,7 +33490,7 @@
       </c>
       <c r="I977" s="31"/>
     </row>
-    <row r="978" spans="1:9" ht="45">
+    <row r="978" spans="1:9" ht="30">
       <c r="A978" s="29" t="s">
         <v>980</v>
       </c>
@@ -33515,7 +33515,7 @@
       </c>
       <c r="I978" s="31"/>
     </row>
-    <row r="979" spans="1:9" ht="30">
+    <row r="979" spans="1:9">
       <c r="A979" s="29" t="s">
         <v>981</v>
       </c>
@@ -33700,7 +33700,7 @@
       </c>
       <c r="I985" s="31"/>
     </row>
-    <row r="986" spans="1:9" ht="60">
+    <row r="986" spans="1:9" ht="45">
       <c r="A986" s="29" t="s">
         <v>988</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="988" spans="1:9" ht="60">
+    <row r="988" spans="1:9" ht="45">
       <c r="A988" s="29" t="s">
         <v>990</v>
       </c>
@@ -33845,7 +33845,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="991" spans="1:9" ht="60">
+    <row r="991" spans="1:9" ht="45">
       <c r="A991" s="29" t="s">
         <v>993</v>
       </c>
@@ -33874,7 +33874,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="992" spans="1:9" ht="60">
+    <row r="992" spans="1:9" ht="45">
       <c r="A992" s="29" t="s">
         <v>994</v>
       </c>
@@ -33930,7 +33930,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="994" spans="1:9" ht="60">
+    <row r="994" spans="1:9" ht="45">
       <c r="A994" s="29" t="s">
         <v>996</v>
       </c>
@@ -33984,7 +33984,7 @@
       </c>
       <c r="I995" s="31"/>
     </row>
-    <row r="996" spans="1:9" ht="60">
+    <row r="996" spans="1:9" ht="45">
       <c r="A996" s="29" t="s">
         <v>998</v>
       </c>
@@ -34040,7 +34040,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="998" spans="1:9" ht="75">
+    <row r="998" spans="1:9" ht="60">
       <c r="A998" s="29" t="s">
         <v>1000</v>
       </c>
@@ -34067,7 +34067,7 @@
       </c>
       <c r="I998" s="31"/>
     </row>
-    <row r="999" spans="1:9" ht="60">
+    <row r="999" spans="1:9" ht="45">
       <c r="A999" s="29" t="s">
         <v>1001</v>
       </c>
@@ -34152,7 +34152,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" ht="75">
+    <row r="1002" spans="1:9" ht="60">
       <c r="A1002" s="29" t="s">
         <v>1002</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1013" spans="1:9" ht="60">
+    <row r="1013" spans="1:9" ht="45">
       <c r="A1013" s="29" t="s">
         <v>1008</v>
       </c>
@@ -34500,7 +34500,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1014" spans="1:9" ht="60">
+    <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="22" t="s">
         <v>1009</v>
       </c>
@@ -34556,7 +34556,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1016" spans="1:9" ht="60">
+    <row r="1016" spans="1:9" ht="45">
       <c r="A1016" s="29" t="s">
         <v>1011</v>
       </c>
@@ -34757,7 +34757,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1023" spans="1:9" ht="60">
+    <row r="1023" spans="1:9" ht="45">
       <c r="A1023" s="34" t="s">
         <v>2371</v>
       </c>
@@ -34784,7 +34784,7 @@
       </c>
       <c r="I1023" s="31"/>
     </row>
-    <row r="1024" spans="1:9" ht="60">
+    <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="34" t="s">
         <v>2372</v>
       </c>
@@ -34865,7 +34865,7 @@
       </c>
       <c r="I1026" s="31"/>
     </row>
-    <row r="1027" spans="1:9" ht="75">
+    <row r="1027" spans="1:9" ht="60">
       <c r="A1027" s="34" t="s">
         <v>2375</v>
       </c>
@@ -35154,7 +35154,7 @@
       </c>
       <c r="I1037" s="31"/>
     </row>
-    <row r="1038" spans="1:9" ht="60">
+    <row r="1038" spans="1:9" ht="45">
       <c r="A1038" s="29" t="s">
         <v>1024</v>
       </c>
@@ -36260,6 +36260,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36267,14 +36272,9 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
+  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A521:I1029 A251:I518">
     <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36285,7 +36285,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
+  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A521:I1029 A251:I518">
     <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="2418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7677" uniqueCount="2420">
   <si>
     <t>Req ID</t>
   </si>
@@ -7580,6 +7580,14 @@
   </si>
   <si>
     <t>Test Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCFOLD_R271501, MS-OXCFOLD_R271502.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7920,242 +7928,6 @@
   </cellStyles>
   <dxfs count="63">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -8493,6 +8265,242 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8622,34 +8630,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1079" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1079" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1079" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="57">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8658,12 +8666,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8993,8 +9001,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A973" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C995" sqref="C995"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9037,14 +9045,14 @@
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33">
-        <v>14.1</v>
+      <c r="C3" s="33" t="s">
+        <v>2419</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>42261</v>
+        <v>42997</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -16847,7 +16855,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="30">
+    <row r="318" spans="1:9" ht="45">
       <c r="A318" s="22" t="s">
         <v>2394</v>
       </c>
@@ -16870,7 +16878,9 @@
       <c r="H318" s="22" t="s">
         <v>2401</v>
       </c>
-      <c r="I318" s="31"/>
+      <c r="I318" s="20" t="s">
+        <v>2418</v>
+      </c>
     </row>
     <row r="319" spans="1:9" ht="30">
       <c r="A319" s="29" t="s">
@@ -36272,166 +36282,166 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1029:I1079 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1027">
-    <cfRule type="expression" dxfId="43" priority="107">
+    <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="108">
+    <cfRule type="expression" dxfId="61" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="115">
+    <cfRule type="expression" dxfId="60" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:I246 A1029:I1079 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1027">
-    <cfRule type="expression" dxfId="40" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246 F1030:F1079 F20:F241 F521:F1027 F251:F518">
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68">
+    <cfRule type="expression" dxfId="55" priority="68">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1030:I1079 I230 I233:I241">
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1030:I1079 I230 I233:I241">
-    <cfRule type="expression" dxfId="32" priority="55">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1029">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>NOT(VLOOKUP(F1029,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>(VLOOKUP(F1029,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1029">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1029">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1028 C1028:I1028">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1028 C1028:I1028">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1028">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>NOT(VLOOKUP(F1028,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>(VLOOKUP(F1028,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1028">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1028">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F519:F520">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36462,7 +36472,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C3 B996:B1080 B19:B993" numberStoredAsText="1"/>
+    <ignoredError sqref="B996:B1080 B19:B993" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1081</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1082</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7696" uniqueCount="2428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="2430">
   <si>
     <t>Req ID</t>
   </si>
@@ -6171,9 +6171,6 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] If the specified folder has been hard deleted, implementation does fail the RopOpenFolder ROP ([MS-OXCROPS] section 2.2.4.1), but no folder is opened. (Microsoft Exchange Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the SearchFlags field, implementation does fail the RopSetSearchCriteria ROP operation with ecInvalidParam (0x80070057). (Microsoft Exchange 2010 and above follow this behavior.)</t>
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does return ecNotSupported (0x80040102) in the ReturnValue field of the RopEmptyFolder ROP response buffer, if the client attempts to empty a search folder. (Exchange 2007 and above follow this behavior.)</t>
@@ -7335,75 +7332,6 @@
     <t>[In RopGetContentsTable ROP Request Buffer] TableFlags (1 byte): The bits [0x02, 0x08, 0x10, 0x20, 0x40, 0x80] that SHOULD&lt;9&gt; be valid for this field [TableFlags] are specified in the following table.</t>
   </si>
   <si>
-    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.640) specifies the number of messages in a folder, as computed by the message store.</t>
-  </si>
-  <si>
-    <t>[In PidTagContentUnreadCount Property] The PidTagContentUnreadCount property ([MS-OXPROPS] section 2.642) specifies the number of unread messages in a folder, as computed by the message store.</t>
-  </si>
-  <si>
-    <t>[In PidTagDeletedOn Property] The PidTagDeletedOn property ([MS-OXPROPS] section 2.664) specifies the time when the folder was soft deleted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In PidTagAddressBookEntryId Property] The PidTagAddressBookEntryId property ([MS-OXPROPS] section 2.515) contains an Address Book EntryID structure, as specified in [MS-OXCDATA] section 2.2.5.2, that specifies the name-service entry ID of a directory object that refers to a public folder. &lt;10&gt; </t>
-  </si>
-  <si>
-    <t>[In PidTagFolderFlags Property] The PidTagFolderId property ([MS-OXPROPS] section 2.695) contains a computed value that specifies the type or state of a folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagFolderId Property] The PidTagFolderId property ([MS-OXPROPS] section 2.694) contains a FID structure ([MS-OXCDATA] section 2.2.1.1) that uniquely identifies a folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagParentEntryId Property] The PidTagParentEntryId property ([MS-OXPROPS] section 2.852) contains a Folder EntryID structure, as specified in [MS-OXCDATA] section 2.2.4.1, that specifies the entry ID of the folder that contains the message or subfolder.</t>
-  </si>
-  <si>
-    <t>[In PidTagHierarchyChangeNumber Property] The PidTagHierarchyChangeNumber property ([MS-OXPROPS] section 2.714) specifies the number of subfolders in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagHierRev Property] The PidTagHierRev property ([MS-OXPROPS] section 2.715) specifies the time, in Coordinated Universal Time (UTC), to trigger the client in cached mode to synchronize the folder hierarchy.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.790) specifies the aggregate size of messages in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.791) specifies the 64-bit version of the PidTagMessageSize property (section 2.2.2.2.1.7).</t>
-  </si>
-  <si>
-    <t>[In PidTagSubfolders Property] The PidTagSubfolders property ([MS-OXPROPS] section 2.1026) specifies whether the folder has any subfolders.</t>
-  </si>
-  <si>
-    <t>[In PidTagLocalCommitTime Property] The PidTagLocalCommitTime property ([MS-OXPROPS] section 2.766) specifies the time, in Coordinated Universal Time (UTC), that the folder was last changed.</t>
-  </si>
-  <si>
-    <t>[In PidTagLocalCommitTimeMax Property] The PidTagLocalCommitTimeMax property ([MS-OXPROPS] section 2.767) specifies the most recent time that a top level object within a folder was changed.</t>
-  </si>
-  <si>
-    <t>[In PidTagDeletedCountTotal Property] The PidTagDeletedCountTotal property ([MS-OXPROPS] section 2.663) specifies the total number of messages that have been deleted from a folder, excluding messages that have been deleted from the folder's subfolders.</t>
-  </si>
-  <si>
-    <t>[In PidTagAttributeHidden Property] The PidTagAttributeHidden property ([MS-OXPROPS] section 2.605) specifies whether the folder is hidden.</t>
-  </si>
-  <si>
-    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.631) contains a comment about the purpose or content of the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagContainerClass Property] The PidTagContainerClass property ([MS-OXPROPS] section 2.636) specifies the type of Message object that the folder contains.</t>
-  </si>
-  <si>
-    <t>[PidTagContainerHierarchy Property] The PidTagContainerHierarchy property ([MS-OXPROPS] section 2.639) contains identifiers of the subfolders that are contained in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagDisplayName Property] The PidTagDisplayName property ([MS-OXPROPS] section 2.670) specifies the display name of the folder.</t>
-  </si>
-  <si>
-    <t>[PidTagFolderAssociatedContents Property] The PidTagFolderAssociatedContents property ([MS-OXPROPS] section 2.693) contains identifiers of the FAI messages that are contained in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagFolderType Property] The PidTagFolderType property ([MS-OXPROPS] section 2.696) specifies the type of the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagRights Property] The PidTagRights property ([MS-OXPROPS] section 2.929) specifies the client's folder permissions.</t>
-  </si>
-  <si>
     <t>[In PidTagAccessControlListData Property] The PidTagAccessControlListData property ([MS-OXCPERM] section 2.2.3) contains the access control list (ACL) of the folder.&lt;11&gt;</t>
   </si>
   <si>
@@ -7443,51 +7371,15 @@
     <t>[In Processing a RopGetContentsTable ROP Request] If the client sets an invalid bit in the TableFlags field, the server SHOULD&lt;23&gt; fail the ROP with an error code of ecInvalidParam.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not provide access to soft-deleted folders. &lt;1&gt; Section 2.2.1.1.1: Exchange 2013, Exchange 2016 and Exchange 2019 Preview do not provide access to soft-deleted folders.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If rules are associated with the folder, implementation does set a zero value to HasRules field. &lt;2&gt; Section 2.2.1.1.2: Exchange 2003 and Exchange 2007, Exchange 2016 and Exchange 2019 Preview return zero (FALSE) in the HasRules field, even when there are rules on the Inbox folder.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] If rules are associated with the folder, implementation does set a nonzero value to HasRules field. (Microsoft Exchange Server 2010 follows this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return zero (FALSE) in the IsExistingFolder field regardless of the existence of the named public folder. &lt;3&gt; Section 2.2.1.2.2: Exchange 2010 Exchange 2013, Exchange 2016 and Exchange 2019 Preview return zero (FALSE) in the IsExistingFolder field regardless of the existence of the named public folder.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) between public folder and private mailbox. &lt;5&gt; Section 2.2.1.8: Exchange 2013, Exchange 2016 and Exchange 2019 Preview do not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) for public folders.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the ROP fails for a subset of targets, the value of PartialCompletion is zero (FALSE).  (Exchange  2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) for public folders. &lt;5&gt; Section 2.2.1.8: Exchange 2013 Exchange 2016 and Exchange 2019 Preview do not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) for public folders.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the RopEmptyFolder ROP ([MS-OXCROPS] section 2.2.4.9) for public folders. &lt;7&gt; Section 2.2.1.9: Exchange 2013, Exchange 2016 and Exchange 2019 Preview do not support the RopEmptyFolder ROP ([MS-OXCROPS] section 2.2.4.9) for public folders.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the RopHardDeleteMessagesAndSubfolders ROP ([MS-OXCROPS] section 2.2.4.10) for public folders. &lt;8&gt; Section 2.2.1.10: Exchange 2013, Exchange 2016 and Exchange 2019 Preview do not support the RopHardDeleteMessagesAndSubfolders ROP ([MS-OXCROPS] section 2.2.4.10) for public folders.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation does not support the PidTagAddressBookEntryId property. &lt;10&gt; Section 2.2.2.2.1.4:  Exchange 2013, Exchange 2016 and Exchange 2019 Preview do not support the PidTagAddressBookEntryId property.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation returns ecAccessdenied if the client does not have permissions to create the folder. &lt;13&gt; Section 3.2.5.2: Exchange 2007, Exchange 2013, Exchange 2016 and Exchange 2019 Preview return ecAccessdenied.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation returns ecNoCreateSubfolderRight if the client does not have permissions to create the folder. &lt;13&gt; Section 3.2.5.2: Exchange 2010 returns ecNoCreateSubfolderRight.</t>
   </si>
   <si>
     <t xml:space="preserve">[In Appendix A: Product Behavior] If the ROP was called to create a search folder on a public folders message store, the implemetation does return ecError &lt;14&gt; Section 3.2.5.2: Exchange 2010 return ecError. </t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] If the ROP was called to create a search folder on a public folders message store, the implemetation does return ecNotSupported. &lt;14&gt; Exchange 2007, Exchange 2013, Exchange 2016 and Exchange 2019 Preview return ecNotSupported.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does ignore invalid bits instead of failing the ROP [RopDeleteFolder], if the client sets an invalid bit in the DeleteFolderFlags field of the ROP request buffer. &lt;15&gt; Section 3.2.5.3:  Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview ignore invalid bits instead of failing the ROP.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does be regardless of the value of the STATIC_SEARCH bit in the RopSetSearchCriteria ROP request. &lt;16&gt; Section 3.2.5.4:  A content-indexed search is always static on the initial release version of Exchange 2010 and Exchange 2007 regardless of the value of the STATIC_SEARCH bit in the RopSetSearchCriteria request.</t>
   </si>
   <si>
@@ -7500,9 +7392,6 @@
     <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the SearchFlags field, implementation does not fail the RopSetSearchCriteria ROP operation with ecInvalidParam (0x80070057). &lt;19&gt; Section 3.2.5.4: Exchange 2007 silently ignores invalid bits and does not return the ecInvalidParam error code.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder. &lt;20&gt; Section 3.2.5.9: Update Rollup 4 for Exchange Server 2010 Service Pack 2 (SP2), Exchange 2013, Exchange 2016 and Exchange 2019 Preview return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder. &lt;20&gt; Section 3.2.5.9: Exchange 2003, the initial release version of Exchange 2010, and Microsoft Exchange Server 2010 Service Pack 1 (SP1) do not return ecNotSupported (0x80040102) when the RopEmptyFolder ROP ([MS-OXCROPS] section 2.2.4.9) is called on the Root folder.</t>
   </si>
   <si>
@@ -7602,7 +7491,124 @@
     <t>2.1027</t>
   </si>
   <si>
-    <t>20.0</t>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.642) specifies the number of messages in a folder, as computed by the message store.</t>
+  </si>
+  <si>
+    <t>[In PidTagContentUnreadCount Property] The PidTagContentUnreadCount property ([MS-OXPROPS] section 2.644) specifies the number of unread messages in a folder, as computed by the message store.</t>
+  </si>
+  <si>
+    <t>[In PidTagDeletedOn Property] The PidTagDeletedOn property ([MS-OXPROPS] section 2.666) specifies the time when the folder was soft deleted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In PidTagAddressBookEntryId Property] The PidTagAddressBookEntryId property ([MS-OXPROPS] section 2.517) contains an Address Book EntryID structure, as specified in [MS-OXCDATA] section 2.2.5.2, that specifies the name-service entry ID of a directory object that refers to a public folder. &lt;10&gt; </t>
+  </si>
+  <si>
+    <t>[In PidTagFolderFlags Property] The PidTagFolderId property ([MS-OXPROPS] section 2.697) contains a computed value that specifies the type or state of a folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagFolderId Property] The PidTagFolderId property ([MS-OXPROPS] section 2.696) contains a FID structure ([MS-OXCDATA] section 2.2.1.1) that uniquely identifies a folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagParentEntryId Property] The PidTagParentEntryId property ([MS-OXPROPS] section 2.854) contains a Folder EntryID structure, as specified in [MS-OXCDATA] section 2.2.4.1, that specifies the entry ID of the folder that contains the message or subfolder.</t>
+  </si>
+  <si>
+    <t>[In PidTagHierarchyChangeNumber Property] The PidTagHierarchyChangeNumber property ([MS-OXPROPS] section 2.716) specifies the number of subfolders in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagHierRev Property] The PidTagHierRev property ([MS-OXPROPS] section 2.717) specifies the time, in Coordinated Universal Time (UTC), to trigger the client in cached mode to synchronize the folder hierarchy.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.792) specifies the aggregate size of messages in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.793) specifies the 64-bit version of the PidTagMessageSize property (section 2.2.2.2.1.7).</t>
+  </si>
+  <si>
+    <t>[In PidTagSubfolders Property] The PidTagSubfolders property ([MS-OXPROPS] section 2.1028) specifies whether the folder has any subfolders.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocalCommitTime Property] The PidTagLocalCommitTime property ([MS-OXPROPS] section 2.768) specifies the time, in Coordinated Universal Time (UTC), that the folder was last changed.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocalCommitTimeMax Property] The PidTagLocalCommitTimeMax property ([MS-OXPROPS] section 2.769) specifies the most recent time that a top level object within a folder was changed.</t>
+  </si>
+  <si>
+    <t>[In PidTagDeletedCountTotal Property] The PidTagDeletedCountTotal property ([MS-OXPROPS] section 2.665) specifies the total number of messages that have been deleted from a folder, excluding messages that have been deleted from the folder's subfolders.</t>
+  </si>
+  <si>
+    <t>[In PidTagAttributeHidden Property] The PidTagAttributeHidden property ([MS-OXPROPS] section 2.607) specifies whether the folder is hidden.</t>
+  </si>
+  <si>
+    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.633) contains a comment about the purpose or content of the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagContainerClass Property] The PidTagContainerClass property ([MS-OXPROPS] section 2.638) specifies the type of Message object that the folder contains.</t>
+  </si>
+  <si>
+    <t>[PidTagContainerHierarchy Property] The PidTagContainerHierarchy property ([MS-OXPROPS] section 2.641) contains identifiers of the subfolders that are contained in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagDisplayName Property] The PidTagDisplayName property ([MS-OXPROPS] section 2.672) specifies the display name of the folder.</t>
+  </si>
+  <si>
+    <t>[PidTagFolderAssociatedContents Property] The PidTagFolderAssociatedContents property ([MS-OXPROPS] section 2.695) contains identifiers of the FAI messages that are contained in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagFolderType Property] The PidTagFolderType property ([MS-OXPROPS] section 2.698) specifies the type of the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagRights Property] The PidTagRights property ([MS-OXPROPS] section 2.931) specifies the client's folder permissions.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not provide access to soft-deleted folders. &lt;1&gt; Section 2.2.1.1.1: Exchange 2013, Exchange 2016 and Exchange 2019 do not provide access to soft-deleted folders.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return zero (FALSE) in the IsExistingFolder field regardless of the existence of the named public folder. &lt;3&gt; Section 2.2.1.2.2: Exchange 2010 Exchange 2013, Exchange 2016 and Exchange 2019 return zero (FALSE) in the IsExistingFolder field regardless of the existence of the named public folder.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) for public folders. &lt;5&gt; Section 2.2.1.8: Exchange 2013 Exchange 2016 and Exchange 2019 do not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) for public folders.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) between public folder and private mailbox. &lt;5&gt; Section 2.2.1.8: Exchange 2013, Exchange 2016 and Exchange 2019 do not support the RopCopyFolder ROP ([MS-OXCROPS] section 2.2.4.8) for public folders.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the ROP fails for a subset of targets, the value of PartialCompletion is zero (FALSE).  (Exchange  2010, Exchange 2013, Exchange 2016 and Exchange 2019 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the RopEmptyFolder ROP ([MS-OXCROPS] section 2.2.4.9) for public folders. &lt;7&gt; Section 2.2.1.9: Exchange 2013, Exchange 2016 and Exchange 2019 do not support the RopEmptyFolder ROP ([MS-OXCROPS] section 2.2.4.9) for public folders.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the RopHardDeleteMessagesAndSubfolders ROP ([MS-OXCROPS] section 2.2.4.10) for public folders. &lt;8&gt; Section 2.2.1.10: Exchange 2013, Exchange 2016 and Exchange 2019 do not support the RopHardDeleteMessagesAndSubfolders ROP ([MS-OXCROPS] section 2.2.4.10) for public folders.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation does not support the PidTagAddressBookEntryId property. &lt;10&gt; Section 2.2.2.2.1.4:  Exchange 2013, Exchange 2016 and Exchange 2019 do not support the PidTagAddressBookEntryId property.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation returns ecAccessdenied if the client does not have permissions to create the folder. &lt;13&gt; Section 3.2.5.2: Exchange 2007, Exchange 2013, Exchange 2016 and Exchange 2019 return ecAccessdenied.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the ROP was called to create a search folder on a public folders message store, the implemetation does return ecNotSupported. &lt;14&gt; Exchange 2007, Exchange 2013, Exchange 2016 and Exchange 2019 return ecNotSupported.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does ignore invalid bits instead of failing the ROP [RopDeleteFolder], if the client sets an invalid bit in the DeleteFolderFlags field of the ROP request buffer. &lt;15&gt; Section 3.2.5.3:  Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 ignore invalid bits instead of failing the ROP.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder. &lt;20&gt; Section 3.2.5.9: Update Rollup 4 for Exchange Server 2010 Service Pack 2 (SP2), Exchange 2013, Exchange 2016 and Exchange 2019 return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the SearchFlags field, implementation does fail the RopSetSearchCriteria ROP operation with ecInvalidParam (0x80070057). (Microsoft Exchange 2010, Microsoft Exchange 2013 and Microsoft Exchange 2016 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the SearchFlags field, implementation does fail the RopSetSearchCriteria ROP operation with a ecNotSupported error code. (&lt;19&gt; Section 3.2.5.4: Exchange 2019 returns a ecNotSupported error code.)</t>
+  </si>
+  <si>
+    <t>MS-OXCFOLD_R116003</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If rules are associated with the folder, implementation does set a zero value to HasRules field. &lt;2&gt; Section 2.2.1.1.2: Exchange 2003 and Exchange 2007, Exchange 2016 and Exchange 2019 return zero (FALSE) in the HasRules field, even when there are rules on the Inbox folder.</t>
   </si>
 </sst>
 </file>
@@ -7902,20 +7908,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7941,14 +7941,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8658,8 +8664,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1081" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="1">
-  <autoFilter ref="A19:I1081"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1082" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="1">
+  <autoFilter ref="A19:I1082"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="60">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -8993,10 +8999,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L1082"/>
+  <dimension ref="A1:L1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A981" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C983" sqref="C983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9016,7 +9022,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -9026,7 +9032,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9040,138 +9046,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2427</v>
+        <v>2390</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43305</v>
+        <v>43374</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="B6" s="50" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9184,12 +9190,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9202,12 +9208,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9220,12 +9226,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9238,60 +9244,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="B17" s="46" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9408,7 +9414,7 @@
         <v>1062</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -9799,7 +9805,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30">
@@ -9901,7 +9907,7 @@
         <v>17</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
@@ -9953,7 +9959,7 @@
         <v>17</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
@@ -10030,7 +10036,7 @@
         <v>17</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30">
@@ -10091,7 +10097,7 @@
         <v>1065</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29" t="s">
@@ -10107,7 +10113,7 @@
         <v>17</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60">
@@ -10118,7 +10124,7 @@
         <v>1065</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29" t="s">
@@ -10134,7 +10140,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -10145,7 +10151,7 @@
         <v>1065</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29" t="s">
@@ -10170,7 +10176,7 @@
         <v>1065</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29" t="s">
@@ -10211,7 +10217,7 @@
         <v>17</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30">
@@ -11138,7 +11144,7 @@
         <v>17</v>
       </c>
       <c r="I91" s="31" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="30">
@@ -11215,7 +11221,7 @@
         <v>17</v>
       </c>
       <c r="I94" s="31" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="60">
@@ -11242,7 +11248,7 @@
         <v>17</v>
       </c>
       <c r="I95" s="31" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="30">
@@ -11294,7 +11300,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="31" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30">
@@ -11330,7 +11336,7 @@
         <v>1068</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29" t="s">
@@ -11346,7 +11352,7 @@
         <v>17</v>
       </c>
       <c r="I99" s="31" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="30">
@@ -11357,7 +11363,7 @@
         <v>1068</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="29" t="s">
@@ -11382,7 +11388,7 @@
         <v>1068</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29" t="s">
@@ -11407,7 +11413,7 @@
         <v>1068</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29" t="s">
@@ -11473,7 +11479,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="31" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -12050,7 +12056,7 @@
         <v>17</v>
       </c>
       <c r="I127" s="31" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="60">
@@ -12186,7 +12192,7 @@
         <v>1070</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="29" t="s">
@@ -12202,7 +12208,7 @@
         <v>17</v>
       </c>
       <c r="I133" s="20" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="45">
@@ -12229,7 +12235,7 @@
         <v>20</v>
       </c>
       <c r="I134" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="30">
@@ -12256,7 +12262,7 @@
         <v>17</v>
       </c>
       <c r="I135" s="31" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="30">
@@ -12308,7 +12314,7 @@
         <v>17</v>
       </c>
       <c r="I137" s="31" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="30">
@@ -12385,7 +12391,7 @@
         <v>17</v>
       </c>
       <c r="I140" s="31" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="30">
@@ -12446,7 +12452,7 @@
         <v>1072</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -12571,7 +12577,7 @@
         <v>1073</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -12671,7 +12677,7 @@
         <v>1073</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="29" t="s">
@@ -12721,7 +12727,7 @@
         <v>1073</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
@@ -12871,7 +12877,7 @@
         <v>1073</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
@@ -13162,7 +13168,7 @@
         <v>17</v>
       </c>
       <c r="I171" s="31" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="45">
@@ -13314,7 +13320,7 @@
         <v>17</v>
       </c>
       <c r="I177" s="31" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="45">
@@ -13616,7 +13622,7 @@
         <v>17</v>
       </c>
       <c r="I189" s="31" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30">
@@ -13677,7 +13683,7 @@
         <v>1075</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D192" s="29"/>
       <c r="E192" s="29" t="s">
@@ -13827,7 +13833,7 @@
         <v>1076</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -13902,7 +13908,7 @@
         <v>1076</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -13927,7 +13933,7 @@
         <v>1076</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
@@ -14043,7 +14049,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="31" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="30">
@@ -14179,7 +14185,7 @@
         <v>1077</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
@@ -14204,7 +14210,7 @@
         <v>1077</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="29" t="s">
@@ -14220,7 +14226,7 @@
         <v>17</v>
       </c>
       <c r="I213" s="31" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="30">
@@ -14397,7 +14403,7 @@
         <v>17</v>
       </c>
       <c r="I220" s="31" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="60">
@@ -14458,7 +14464,7 @@
         <v>1077</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D223" s="29"/>
       <c r="E223" s="29" t="s">
@@ -14708,7 +14714,7 @@
         <v>1077</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D233" s="29"/>
       <c r="E233" s="29" t="s">
@@ -14758,7 +14764,7 @@
         <v>1078</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D235" s="29"/>
       <c r="E235" s="29" t="s">
@@ -14927,13 +14933,13 @@
     </row>
     <row r="242" spans="1:10" ht="45">
       <c r="A242" s="22" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B242" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D242" s="24"/>
       <c r="E242" s="22" t="s">
@@ -14953,13 +14959,13 @@
     </row>
     <row r="243" spans="1:10" ht="45">
       <c r="A243" s="22" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B243" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D243" s="24"/>
       <c r="E243" s="22" t="s">
@@ -14979,13 +14985,13 @@
     </row>
     <row r="244" spans="1:10" ht="60">
       <c r="A244" s="22" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B244" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D244" s="24"/>
       <c r="E244" s="22" t="s">
@@ -15005,13 +15011,13 @@
     </row>
     <row r="245" spans="1:10" ht="60">
       <c r="A245" s="22" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B245" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D245" s="24"/>
       <c r="E245" s="22" t="s">
@@ -15056,13 +15062,13 @@
     </row>
     <row r="247" spans="1:10" ht="45">
       <c r="A247" s="22" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B247" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D247" s="24"/>
       <c r="E247" s="22" t="s">
@@ -15082,13 +15088,13 @@
     </row>
     <row r="248" spans="1:10" ht="45">
       <c r="A248" s="22" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B248" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D248" s="24"/>
       <c r="E248" s="22" t="s">
@@ -15108,13 +15114,13 @@
     </row>
     <row r="249" spans="1:10" ht="60">
       <c r="A249" s="22" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B249" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D249" s="24"/>
       <c r="E249" s="22" t="s">
@@ -15134,13 +15140,13 @@
     </row>
     <row r="250" spans="1:10" ht="60">
       <c r="A250" s="22" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D250" s="24"/>
       <c r="E250" s="22" t="s">
@@ -15407,7 +15413,7 @@
         <v>17</v>
       </c>
       <c r="I260" s="31" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="30">
@@ -15484,7 +15490,7 @@
         <v>17</v>
       </c>
       <c r="I263" s="31" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="30">
@@ -16061,7 +16067,7 @@
         <v>17</v>
       </c>
       <c r="I286" s="31" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="30">
@@ -16138,7 +16144,7 @@
         <v>17</v>
       </c>
       <c r="I289" s="31" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="30">
@@ -16274,7 +16280,7 @@
         <v>1084</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -16290,7 +16296,7 @@
         <v>17</v>
       </c>
       <c r="I295" s="31" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="45">
@@ -16301,7 +16307,7 @@
         <v>1084</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -16317,7 +16323,7 @@
         <v>17</v>
       </c>
       <c r="I296" s="31" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="30">
@@ -16694,7 +16700,7 @@
         <v>17</v>
       </c>
       <c r="I311" s="31" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="30">
@@ -16771,7 +16777,7 @@
         <v>17</v>
       </c>
       <c r="I314" s="31" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="30">
@@ -16848,18 +16854,18 @@
         <v>17</v>
       </c>
       <c r="I317" s="31" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="60">
       <c r="A318" s="22" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B318" s="30" t="s">
         <v>1086</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -16872,10 +16878,10 @@
         <v>15</v>
       </c>
       <c r="H318" s="22" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="30">
@@ -16952,7 +16958,7 @@
         <v>17</v>
       </c>
       <c r="I321" s="31" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="45">
@@ -16963,7 +16969,7 @@
         <v>1087</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
@@ -16979,7 +16985,7 @@
         <v>17</v>
       </c>
       <c r="I322" s="31" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="30">
@@ -17306,7 +17312,7 @@
         <v>17</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="30">
@@ -17383,7 +17389,7 @@
         <v>17</v>
       </c>
       <c r="I338" s="31" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="30">
@@ -17469,7 +17475,7 @@
         <v>1090</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="29" t="s">
@@ -17485,7 +17491,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="31" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="45">
@@ -17787,7 +17793,7 @@
         <v>17</v>
       </c>
       <c r="I354" s="31" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="30">
@@ -17864,7 +17870,7 @@
         <v>17</v>
       </c>
       <c r="I357" s="31" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="45">
@@ -17891,7 +17897,7 @@
         <v>20</v>
       </c>
       <c r="I358" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="45">
@@ -18021,13 +18027,13 @@
     </row>
     <row r="364" spans="1:9" ht="30">
       <c r="A364" s="22" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B364" s="30" t="s">
         <v>1093</v>
       </c>
       <c r="C364" s="35" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D364" s="34"/>
       <c r="E364" s="34" t="s">
@@ -18046,13 +18052,13 @@
     </row>
     <row r="365" spans="1:9" ht="30">
       <c r="A365" s="22" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B365" s="30" t="s">
         <v>1093</v>
       </c>
       <c r="C365" s="35" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D365" s="34"/>
       <c r="E365" s="34" t="s">
@@ -18443,7 +18449,7 @@
         <v>17</v>
       </c>
       <c r="I380" s="31" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="30">
@@ -18520,7 +18526,7 @@
         <v>17</v>
       </c>
       <c r="I383" s="31" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="30">
@@ -18997,7 +19003,7 @@
         <v>17</v>
       </c>
       <c r="I402" s="31" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="30">
@@ -19074,7 +19080,7 @@
         <v>17</v>
       </c>
       <c r="I405" s="31" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="30">
@@ -19651,7 +19657,7 @@
         <v>20</v>
       </c>
       <c r="I428" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="30">
@@ -19853,7 +19859,7 @@
         <v>17</v>
       </c>
       <c r="I436" s="31" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="30">
@@ -19930,7 +19936,7 @@
         <v>17</v>
       </c>
       <c r="I439" s="31" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="30">
@@ -20091,7 +20097,7 @@
         <v>1102</v>
       </c>
       <c r="C446" s="20" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29" t="s">
@@ -20366,7 +20372,7 @@
         <v>1103</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -20707,7 +20713,7 @@
         <v>20</v>
       </c>
       <c r="I470" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="30">
@@ -20959,7 +20965,7 @@
         <v>17</v>
       </c>
       <c r="I480" s="20" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="30">
@@ -20973,7 +20979,7 @@
         <v>1582</v>
       </c>
       <c r="D481" s="29" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E481" s="29" t="s">
         <v>19</v>
@@ -21000,7 +21006,7 @@
         <v>1583</v>
       </c>
       <c r="D482" s="29" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E482" s="29" t="s">
         <v>19</v>
@@ -21065,7 +21071,7 @@
         <v>17</v>
       </c>
       <c r="I484" s="31" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="30">
@@ -21501,7 +21507,7 @@
         <v>1108</v>
       </c>
       <c r="C502" s="20" t="s">
-        <v>2338</v>
+        <v>2391</v>
       </c>
       <c r="D502" s="29"/>
       <c r="E502" s="29" t="s">
@@ -21576,7 +21582,7 @@
         <v>1109</v>
       </c>
       <c r="C505" s="20" t="s">
-        <v>2339</v>
+        <v>2392</v>
       </c>
       <c r="D505" s="29"/>
       <c r="E505" s="29" t="s">
@@ -21626,7 +21632,7 @@
         <v>1110</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>2340</v>
+        <v>2393</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -21676,7 +21682,7 @@
         <v>1111</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>2341</v>
+        <v>2394</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="29" t="s">
@@ -21692,7 +21698,7 @@
         <v>17</v>
       </c>
       <c r="I509" s="31" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -21703,7 +21709,7 @@
         <v>1111</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D510" s="29"/>
       <c r="E510" s="29" t="s">
@@ -21747,13 +21753,13 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="22" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B512" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C512" s="20" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -21772,13 +21778,13 @@
     </row>
     <row r="513" spans="1:9" ht="30">
       <c r="A513" s="22" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B513" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C513" s="20" t="s">
-        <v>2342</v>
+        <v>2395</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -21797,13 +21803,13 @@
     </row>
     <row r="514" spans="1:9" ht="30">
       <c r="A514" s="22" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B514" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C514" s="35" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="29" t="s">
@@ -21822,13 +21828,13 @@
     </row>
     <row r="515" spans="1:9" ht="30">
       <c r="A515" s="22" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B515" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C515" s="35" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D515" s="34"/>
       <c r="E515" s="29" t="s">
@@ -21847,13 +21853,13 @@
     </row>
     <row r="516" spans="1:9" ht="30">
       <c r="A516" s="22" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B516" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C516" s="35" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D516" s="34"/>
       <c r="E516" s="29" t="s">
@@ -21872,13 +21878,13 @@
     </row>
     <row r="517" spans="1:9" ht="30">
       <c r="A517" s="22" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B517" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C517" s="35" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D517" s="34"/>
       <c r="E517" s="29" t="s">
@@ -21897,13 +21903,13 @@
     </row>
     <row r="518" spans="1:9" ht="30">
       <c r="A518" s="22" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B518" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C518" s="35" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D518" s="34"/>
       <c r="E518" s="29" t="s">
@@ -21928,7 +21934,7 @@
         <v>1113</v>
       </c>
       <c r="C519" s="20" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D519" s="22"/>
       <c r="E519" s="22" t="s">
@@ -21953,7 +21959,7 @@
         <v>1113</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>2343</v>
+        <v>2396</v>
       </c>
       <c r="D520" s="22"/>
       <c r="E520" s="22" t="s">
@@ -21972,7 +21978,7 @@
     </row>
     <row r="521" spans="1:9">
       <c r="A521" s="22" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B521" s="24" t="s">
         <v>1114</v>
@@ -22003,7 +22009,7 @@
         <v>1114</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>2344</v>
+        <v>2397</v>
       </c>
       <c r="D522" s="29"/>
       <c r="E522" s="29" t="s">
@@ -22053,7 +22059,7 @@
         <v>1115</v>
       </c>
       <c r="C524" s="20" t="s">
-        <v>2345</v>
+        <v>2398</v>
       </c>
       <c r="D524" s="29"/>
       <c r="E524" s="29" t="s">
@@ -22097,13 +22103,13 @@
     </row>
     <row r="526" spans="1:9">
       <c r="A526" s="34" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B526" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="C526" s="35" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D526" s="34"/>
       <c r="E526" s="34" t="s">
@@ -22122,13 +22128,13 @@
     </row>
     <row r="527" spans="1:9" ht="45">
       <c r="A527" s="34" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B527" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="C527" s="20" t="s">
-        <v>2346</v>
+        <v>2399</v>
       </c>
       <c r="D527" s="34"/>
       <c r="E527" s="34" t="s">
@@ -22178,7 +22184,7 @@
         <v>1117</v>
       </c>
       <c r="C529" s="20" t="s">
-        <v>2347</v>
+        <v>2400</v>
       </c>
       <c r="D529" s="29"/>
       <c r="E529" s="29" t="s">
@@ -22228,7 +22234,7 @@
         <v>1118</v>
       </c>
       <c r="C531" s="20" t="s">
-        <v>2348</v>
+        <v>2401</v>
       </c>
       <c r="D531" s="29"/>
       <c r="E531" s="29" t="s">
@@ -22278,7 +22284,7 @@
         <v>1119</v>
       </c>
       <c r="C533" s="20" t="s">
-        <v>2349</v>
+        <v>2402</v>
       </c>
       <c r="D533" s="29"/>
       <c r="E533" s="29" t="s">
@@ -22378,7 +22384,7 @@
         <v>1120</v>
       </c>
       <c r="C537" s="20" t="s">
-        <v>2350</v>
+        <v>2403</v>
       </c>
       <c r="D537" s="29"/>
       <c r="E537" s="29" t="s">
@@ -22400,7 +22406,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="24" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C538" s="31" t="s">
         <v>1617</v>
@@ -22425,10 +22431,10 @@
         <v>539</v>
       </c>
       <c r="B539" s="24" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C539" s="20" t="s">
-        <v>2351</v>
+        <v>2404</v>
       </c>
       <c r="D539" s="29"/>
       <c r="E539" s="29" t="s">
@@ -22450,7 +22456,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="24" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C540" s="31" t="s">
         <v>1618</v>
@@ -22475,7 +22481,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="24" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C541" s="31" t="s">
         <v>1619</v>
@@ -22500,10 +22506,10 @@
         <v>542</v>
       </c>
       <c r="B542" s="24" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C542" s="20" t="s">
-        <v>2352</v>
+        <v>2405</v>
       </c>
       <c r="D542" s="29"/>
       <c r="E542" s="29" t="s">
@@ -22553,7 +22559,7 @@
         <v>1121</v>
       </c>
       <c r="C544" s="20" t="s">
-        <v>2353</v>
+        <v>2406</v>
       </c>
       <c r="D544" s="29"/>
       <c r="E544" s="29" t="s">
@@ -22653,7 +22659,7 @@
         <v>1122</v>
       </c>
       <c r="C548" s="20" t="s">
-        <v>2354</v>
+        <v>2407</v>
       </c>
       <c r="D548" s="29"/>
       <c r="E548" s="29" t="s">
@@ -22753,7 +22759,7 @@
         <v>1123</v>
       </c>
       <c r="C552" s="20" t="s">
-        <v>2355</v>
+        <v>2408</v>
       </c>
       <c r="D552" s="29"/>
       <c r="E552" s="29" t="s">
@@ -22828,7 +22834,7 @@
         <v>1124</v>
       </c>
       <c r="C555" s="20" t="s">
-        <v>2356</v>
+        <v>2409</v>
       </c>
       <c r="D555" s="29"/>
       <c r="E555" s="29" t="s">
@@ -22903,7 +22909,7 @@
         <v>1125</v>
       </c>
       <c r="C558" s="20" t="s">
-        <v>2357</v>
+        <v>2410</v>
       </c>
       <c r="D558" s="29"/>
       <c r="E558" s="29" t="s">
@@ -22919,7 +22925,7 @@
         <v>17</v>
       </c>
       <c r="I558" s="31" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="559" spans="1:9">
@@ -22980,7 +22986,7 @@
         <v>1126</v>
       </c>
       <c r="C561" s="20" t="s">
-        <v>2358</v>
+        <v>2411</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="29" t="s">
@@ -23055,7 +23061,7 @@
         <v>1127</v>
       </c>
       <c r="C564" s="20" t="s">
-        <v>2359</v>
+        <v>2412</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -23071,7 +23077,7 @@
         <v>17</v>
       </c>
       <c r="I564" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="565" spans="1:9" ht="30">
@@ -23232,7 +23238,7 @@
         <v>1128</v>
       </c>
       <c r="C571" s="20" t="s">
-        <v>2360</v>
+        <v>2413</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
@@ -23307,7 +23313,7 @@
         <v>1129</v>
       </c>
       <c r="C574" s="20" t="s">
-        <v>2361</v>
+        <v>2337</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -23423,7 +23429,7 @@
         <v>17</v>
       </c>
       <c r="I578" s="31" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="579" spans="1:9" ht="75">
@@ -23450,7 +23456,7 @@
         <v>17</v>
       </c>
       <c r="I579" s="31" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="580" spans="1:9" ht="75">
@@ -23477,7 +23483,7 @@
         <v>17</v>
       </c>
       <c r="I580" s="31" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="581" spans="1:9" ht="30">
@@ -23529,7 +23535,7 @@
         <v>17</v>
       </c>
       <c r="I582" s="31" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="583" spans="1:9" ht="30">
@@ -23556,7 +23562,7 @@
         <v>17</v>
       </c>
       <c r="I583" s="31" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="584" spans="1:9" ht="30">
@@ -23608,7 +23614,7 @@
         <v>17</v>
       </c>
       <c r="I585" s="31" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="586" spans="1:9" ht="105">
@@ -23635,7 +23641,7 @@
         <v>17</v>
       </c>
       <c r="I586" s="31" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="587" spans="1:9" ht="105">
@@ -23662,7 +23668,7 @@
         <v>17</v>
       </c>
       <c r="I587" s="31" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="588" spans="1:9" ht="30">
@@ -23714,7 +23720,7 @@
         <v>17</v>
       </c>
       <c r="I589" s="31" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="590" spans="1:9" ht="30">
@@ -23741,7 +23747,7 @@
         <v>17</v>
       </c>
       <c r="I590" s="31" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="591" spans="1:9" ht="30">
@@ -23793,7 +23799,7 @@
         <v>17</v>
       </c>
       <c r="I592" s="31" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="593" spans="1:9" ht="30">
@@ -23929,7 +23935,7 @@
         <v>32</v>
       </c>
       <c r="C598" s="20" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D598" s="29"/>
       <c r="E598" s="29" t="s">
@@ -24220,7 +24226,7 @@
         <v>17</v>
       </c>
       <c r="I609" s="31" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="610" spans="1:9" ht="30">
@@ -24247,7 +24253,7 @@
         <v>17</v>
       </c>
       <c r="I610" s="31" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="611" spans="1:9" ht="45">
@@ -24274,7 +24280,7 @@
         <v>20</v>
       </c>
       <c r="I611" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="612" spans="1:9" ht="45">
@@ -24285,7 +24291,7 @@
         <v>1134</v>
       </c>
       <c r="C612" s="20" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -24335,7 +24341,7 @@
         <v>1134</v>
       </c>
       <c r="C614" s="20" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D614" s="29"/>
       <c r="E614" s="29" t="s">
@@ -24385,7 +24391,7 @@
         <v>1134</v>
       </c>
       <c r="C616" s="20" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D616" s="29"/>
       <c r="E616" s="29" t="s">
@@ -24410,7 +24416,7 @@
         <v>1134</v>
       </c>
       <c r="C617" s="20" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D617" s="29"/>
       <c r="E617" s="29" t="s">
@@ -24435,7 +24441,7 @@
         <v>1134</v>
       </c>
       <c r="C618" s="20" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D618" s="29"/>
       <c r="E618" s="29" t="s">
@@ -24460,7 +24466,7 @@
         <v>1134</v>
       </c>
       <c r="C619" s="20" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D619" s="29"/>
       <c r="E619" s="29" t="s">
@@ -24485,7 +24491,7 @@
         <v>1134</v>
       </c>
       <c r="C620" s="20" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D620" s="29"/>
       <c r="E620" s="29" t="s">
@@ -24510,7 +24516,7 @@
         <v>1134</v>
       </c>
       <c r="C621" s="20" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -24535,7 +24541,7 @@
         <v>1134</v>
       </c>
       <c r="C622" s="20" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D622" s="29"/>
       <c r="E622" s="29" t="s">
@@ -24560,7 +24566,7 @@
         <v>1134</v>
       </c>
       <c r="C623" s="20" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D623" s="29"/>
       <c r="E623" s="29" t="s">
@@ -24585,7 +24591,7 @@
         <v>1134</v>
       </c>
       <c r="C624" s="20" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D624" s="29"/>
       <c r="E624" s="29" t="s">
@@ -24610,7 +24616,7 @@
         <v>1135</v>
       </c>
       <c r="C625" s="20" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D625" s="29"/>
       <c r="E625" s="29" t="s">
@@ -24626,7 +24632,7 @@
         <v>17</v>
       </c>
       <c r="I625" s="31" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="626" spans="1:9" ht="225">
@@ -24637,7 +24643,7 @@
         <v>1135</v>
       </c>
       <c r="C626" s="20" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D626" s="29"/>
       <c r="E626" s="29" t="s">
@@ -24653,7 +24659,7 @@
         <v>17</v>
       </c>
       <c r="I626" s="31" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="627" spans="1:9" ht="30">
@@ -24664,7 +24670,7 @@
         <v>1135</v>
       </c>
       <c r="C627" s="20" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D627" s="29"/>
       <c r="E627" s="29" t="s">
@@ -24705,7 +24711,7 @@
         <v>17</v>
       </c>
       <c r="I628" s="31" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="629" spans="1:9" ht="30">
@@ -24782,7 +24788,7 @@
         <v>17</v>
       </c>
       <c r="I631" s="31" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="632" spans="1:9" ht="60">
@@ -24859,7 +24865,7 @@
         <v>17</v>
       </c>
       <c r="I634" s="31" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="635" spans="1:9" ht="30">
@@ -24936,7 +24942,7 @@
         <v>17</v>
       </c>
       <c r="I637" s="31" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="638" spans="1:9" ht="45">
@@ -25088,7 +25094,7 @@
         <v>17</v>
       </c>
       <c r="I643" s="31" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="644" spans="1:9" ht="30">
@@ -25115,7 +25121,7 @@
         <v>17</v>
       </c>
       <c r="I644" s="31" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="645" spans="1:9" ht="45">
@@ -25151,7 +25157,7 @@
         <v>1138</v>
       </c>
       <c r="C646" s="20" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D646" s="29"/>
       <c r="E646" s="29" t="s">
@@ -25170,13 +25176,13 @@
     </row>
     <row r="647" spans="1:9" ht="30">
       <c r="A647" s="22" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B647" s="30" t="s">
         <v>1138</v>
       </c>
       <c r="C647" s="35" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D647" s="34"/>
       <c r="E647" s="34" t="s">
@@ -26101,7 +26107,7 @@
         <v>1145</v>
       </c>
       <c r="C684" s="20" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D684" s="29"/>
       <c r="E684" s="29" t="s">
@@ -26126,7 +26132,7 @@
         <v>1145</v>
       </c>
       <c r="C685" s="20" t="s">
-        <v>2362</v>
+        <v>2338</v>
       </c>
       <c r="D685" s="29"/>
       <c r="E685" s="29" t="s">
@@ -26142,7 +26148,7 @@
         <v>17</v>
       </c>
       <c r="I685" s="20" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="686" spans="1:9" ht="45">
@@ -26156,7 +26162,7 @@
         <v>1732</v>
       </c>
       <c r="D686" s="22" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E686" s="29" t="s">
         <v>19</v>
@@ -26196,7 +26202,7 @@
         <v>17</v>
       </c>
       <c r="I687" s="31" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="688" spans="1:9" ht="30">
@@ -26235,7 +26241,7 @@
         <v>1735</v>
       </c>
       <c r="D689" s="29" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E689" s="29" t="s">
         <v>19</v>
@@ -26262,7 +26268,7 @@
         <v>1736</v>
       </c>
       <c r="D690" s="29" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E690" s="29" t="s">
         <v>19</v>
@@ -26289,7 +26295,7 @@
         <v>1737</v>
       </c>
       <c r="D691" s="29" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E691" s="29" t="s">
         <v>19</v>
@@ -26316,7 +26322,7 @@
         <v>1738</v>
       </c>
       <c r="D692" s="29" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E692" s="29" t="s">
         <v>19</v>
@@ -26343,7 +26349,7 @@
         <v>1739</v>
       </c>
       <c r="D693" s="29" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E693" s="29" t="s">
         <v>19</v>
@@ -26370,7 +26376,7 @@
         <v>1740</v>
       </c>
       <c r="D694" s="29" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E694" s="29" t="s">
         <v>19</v>
@@ -26397,7 +26403,7 @@
         <v>1741</v>
       </c>
       <c r="D695" s="29" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E695" s="29" t="s">
         <v>19</v>
@@ -26437,7 +26443,7 @@
         <v>17</v>
       </c>
       <c r="I696" s="31" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="697" spans="1:9" ht="30">
@@ -26898,7 +26904,7 @@
         <v>1146</v>
       </c>
       <c r="C715" s="20" t="s">
-        <v>2364</v>
+        <v>2340</v>
       </c>
       <c r="D715" s="29"/>
       <c r="E715" s="29" t="s">
@@ -26914,7 +26920,7 @@
         <v>17</v>
       </c>
       <c r="I715" s="20" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="716" spans="1:9" ht="240">
@@ -26941,7 +26947,7 @@
         <v>17</v>
       </c>
       <c r="I716" s="31" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="717" spans="1:9" ht="30">
@@ -27221,13 +27227,13 @@
     </row>
     <row r="728" spans="1:9" ht="60">
       <c r="A728" s="22" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B728" s="30" t="s">
         <v>1146</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>2365</v>
+        <v>2341</v>
       </c>
       <c r="D728" s="29"/>
       <c r="E728" s="29" t="s">
@@ -27243,7 +27249,7 @@
         <v>17</v>
       </c>
       <c r="I728" s="20" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="729" spans="1:9" ht="30">
@@ -27295,7 +27301,7 @@
         <v>20</v>
       </c>
       <c r="I730" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="731" spans="1:9" ht="30">
@@ -27656,7 +27662,7 @@
         <v>1147</v>
       </c>
       <c r="C745" s="20" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D745" s="29"/>
       <c r="E745" s="29" t="s">
@@ -27672,7 +27678,7 @@
         <v>17</v>
       </c>
       <c r="I745" s="31" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="180">
@@ -27699,7 +27705,7 @@
         <v>17</v>
       </c>
       <c r="I746" s="31" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="747" spans="1:9" ht="30">
@@ -27776,7 +27782,7 @@
         <v>20</v>
       </c>
       <c r="I749" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="750" spans="1:9" ht="30">
@@ -28087,7 +28093,7 @@
         <v>1148</v>
       </c>
       <c r="C762" s="20" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D762" s="29"/>
       <c r="E762" s="29" t="s">
@@ -28112,7 +28118,7 @@
         <v>1148</v>
       </c>
       <c r="C763" s="20" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D763" s="29"/>
       <c r="E763" s="29" t="s">
@@ -28137,7 +28143,7 @@
         <v>1148</v>
       </c>
       <c r="C764" s="20" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D764" s="29"/>
       <c r="E764" s="29" t="s">
@@ -28162,7 +28168,7 @@
         <v>1148</v>
       </c>
       <c r="C765" s="20" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D765" s="29"/>
       <c r="E765" s="29" t="s">
@@ -28187,7 +28193,7 @@
         <v>1148</v>
       </c>
       <c r="C766" s="20" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D766" s="29"/>
       <c r="E766" s="29" t="s">
@@ -28212,7 +28218,7 @@
         <v>1148</v>
       </c>
       <c r="C767" s="20" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D767" s="29"/>
       <c r="E767" s="29" t="s">
@@ -28237,7 +28243,7 @@
         <v>1148</v>
       </c>
       <c r="C768" s="20" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D768" s="29"/>
       <c r="E768" s="29" t="s">
@@ -28262,7 +28268,7 @@
         <v>1148</v>
       </c>
       <c r="C769" s="20" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D769" s="29"/>
       <c r="E769" s="29" t="s">
@@ -28287,7 +28293,7 @@
         <v>1148</v>
       </c>
       <c r="C770" s="20" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D770" s="29"/>
       <c r="E770" s="29" t="s">
@@ -28312,7 +28318,7 @@
         <v>1148</v>
       </c>
       <c r="C771" s="20" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D771" s="29"/>
       <c r="E771" s="29" t="s">
@@ -28362,7 +28368,7 @@
         <v>1148</v>
       </c>
       <c r="C773" s="20" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D773" s="29"/>
       <c r="E773" s="29" t="s">
@@ -28387,7 +28393,7 @@
         <v>1148</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -28437,7 +28443,7 @@
         <v>1148</v>
       </c>
       <c r="C776" s="20" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D776" s="29"/>
       <c r="E776" s="29" t="s">
@@ -28487,7 +28493,7 @@
         <v>1148</v>
       </c>
       <c r="C778" s="20" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D778" s="29"/>
       <c r="E778" s="29" t="s">
@@ -28562,7 +28568,7 @@
         <v>1148</v>
       </c>
       <c r="C781" s="20" t="s">
-        <v>2366</v>
+        <v>2342</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -28578,7 +28584,7 @@
         <v>17</v>
       </c>
       <c r="I781" s="20" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="782" spans="1:9" ht="45">
@@ -28714,7 +28720,7 @@
         <v>1148</v>
       </c>
       <c r="C787" s="20" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D787" s="29"/>
       <c r="E787" s="29" t="s">
@@ -28739,7 +28745,7 @@
         <v>1148</v>
       </c>
       <c r="C788" s="20" t="s">
-        <v>2367</v>
+        <v>2343</v>
       </c>
       <c r="D788" s="29"/>
       <c r="E788" s="29" t="s">
@@ -28764,7 +28770,7 @@
         <v>1148</v>
       </c>
       <c r="C789" s="20" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D789" s="29"/>
       <c r="E789" s="29" t="s">
@@ -28780,7 +28786,7 @@
         <v>17</v>
       </c>
       <c r="I789" s="20" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="790" spans="1:9" ht="45">
@@ -28841,7 +28847,7 @@
         <v>1148</v>
       </c>
       <c r="C792" s="20" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D792" s="29"/>
       <c r="E792" s="29" t="s">
@@ -28916,7 +28922,7 @@
         <v>1148</v>
       </c>
       <c r="C795" s="20" t="s">
-        <v>2368</v>
+        <v>2344</v>
       </c>
       <c r="D795" s="29"/>
       <c r="E795" s="29" t="s">
@@ -28932,7 +28938,7 @@
         <v>17</v>
       </c>
       <c r="I795" s="31" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="796" spans="1:9" ht="60">
@@ -28943,7 +28949,7 @@
         <v>1148</v>
       </c>
       <c r="C796" s="20" t="s">
-        <v>2369</v>
+        <v>2345</v>
       </c>
       <c r="D796" s="29"/>
       <c r="E796" s="29" t="s">
@@ -28959,7 +28965,7 @@
         <v>17</v>
       </c>
       <c r="I796" s="31" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="797" spans="1:9" ht="210">
@@ -28986,7 +28992,7 @@
         <v>17</v>
       </c>
       <c r="I797" s="31" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="798" spans="1:9" ht="30">
@@ -29097,7 +29103,7 @@
         <v>1148</v>
       </c>
       <c r="C802" s="20" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D802" s="29"/>
       <c r="E802" s="29" t="s">
@@ -29147,7 +29153,7 @@
         <v>1148</v>
       </c>
       <c r="C804" s="20" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D804" s="29"/>
       <c r="E804" s="29" t="s">
@@ -29197,7 +29203,7 @@
         <v>1148</v>
       </c>
       <c r="C806" s="20" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D806" s="29"/>
       <c r="E806" s="29" t="s">
@@ -29247,7 +29253,7 @@
         <v>1148</v>
       </c>
       <c r="C808" s="20" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D808" s="29"/>
       <c r="E808" s="29" t="s">
@@ -29513,7 +29519,7 @@
         <v>17</v>
       </c>
       <c r="I818" s="31" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="819" spans="1:9" ht="30">
@@ -29574,7 +29580,7 @@
         <v>1149</v>
       </c>
       <c r="C821" s="20" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D821" s="29"/>
       <c r="E821" s="29" t="s">
@@ -29765,7 +29771,7 @@
         <v>20</v>
       </c>
       <c r="I828" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="829" spans="1:9" ht="30">
@@ -29917,7 +29923,7 @@
         <v>17</v>
       </c>
       <c r="I834" s="31" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="835" spans="1:9" ht="30">
@@ -30028,7 +30034,7 @@
         <v>1150</v>
       </c>
       <c r="C839" s="20" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D839" s="29"/>
       <c r="E839" s="29" t="s">
@@ -30044,7 +30050,7 @@
         <v>20</v>
       </c>
       <c r="I839" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="840" spans="1:9" ht="45">
@@ -30171,7 +30177,7 @@
         <v>20</v>
       </c>
       <c r="I844" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="845" spans="1:9" ht="30">
@@ -30323,7 +30329,7 @@
         <v>17</v>
       </c>
       <c r="I850" s="31" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="851" spans="1:9" ht="30">
@@ -30775,7 +30781,7 @@
         <v>17</v>
       </c>
       <c r="I868" s="31" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="30">
@@ -31027,7 +31033,7 @@
         <v>17</v>
       </c>
       <c r="I878" s="31" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="879" spans="1:9" ht="45">
@@ -31054,7 +31060,7 @@
         <v>20</v>
       </c>
       <c r="I879" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="880" spans="1:9" ht="45">
@@ -31240,7 +31246,7 @@
         <v>1153</v>
       </c>
       <c r="C887" s="20" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D887" s="29"/>
       <c r="E887" s="29" t="s">
@@ -31256,7 +31262,7 @@
         <v>17</v>
       </c>
       <c r="I887" s="31" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="888" spans="1:9" ht="45">
@@ -31267,7 +31273,7 @@
         <v>1153</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>2370</v>
+        <v>2346</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -31283,7 +31289,7 @@
         <v>17</v>
       </c>
       <c r="I888" s="31" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="889" spans="1:9" ht="45">
@@ -31310,7 +31316,7 @@
         <v>17</v>
       </c>
       <c r="I889" s="31" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="890" spans="1:9" ht="30">
@@ -31396,7 +31402,7 @@
         <v>1153</v>
       </c>
       <c r="C893" s="20" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D893" s="29"/>
       <c r="E893" s="29" t="s">
@@ -31549,7 +31555,7 @@
         <v>1912</v>
       </c>
       <c r="D899" s="29" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E899" s="29" t="s">
         <v>19</v>
@@ -31576,7 +31582,7 @@
         <v>1913</v>
       </c>
       <c r="D900" s="29" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E900" s="29" t="s">
         <v>19</v>
@@ -31603,7 +31609,7 @@
         <v>1914</v>
       </c>
       <c r="D901" s="29" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E901" s="29" t="s">
         <v>19</v>
@@ -31630,7 +31636,7 @@
         <v>1915</v>
       </c>
       <c r="D902" s="29" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E902" s="29" t="s">
         <v>19</v>
@@ -31795,7 +31801,7 @@
         <v>17</v>
       </c>
       <c r="I908" s="31" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="909" spans="1:9" ht="30">
@@ -31997,7 +32003,7 @@
         <v>17</v>
       </c>
       <c r="I916" s="31" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="917" spans="1:9" ht="45">
@@ -32224,7 +32230,7 @@
         <v>17</v>
       </c>
       <c r="I925" s="31" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="926" spans="1:9" ht="30">
@@ -32438,7 +32444,7 @@
         <v>1947</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E934" s="29" t="s">
         <v>19</v>
@@ -32628,7 +32634,7 @@
         <v>17</v>
       </c>
       <c r="I941" s="31" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="942" spans="1:9" ht="30">
@@ -32964,7 +32970,7 @@
         <v>1157</v>
       </c>
       <c r="C955" s="20" t="s">
-        <v>2371</v>
+        <v>2347</v>
       </c>
       <c r="D955" s="29"/>
       <c r="E955" s="29" t="s">
@@ -32980,7 +32986,7 @@
         <v>17</v>
       </c>
       <c r="I955" s="31" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="956" spans="1:9" ht="45">
@@ -33007,7 +33013,7 @@
         <v>17</v>
       </c>
       <c r="I956" s="31" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="957" spans="1:9" ht="30">
@@ -33118,7 +33124,7 @@
         <v>1158</v>
       </c>
       <c r="C961" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D961" s="29"/>
       <c r="E961" s="29" t="s">
@@ -33268,7 +33274,7 @@
         <v>1158</v>
       </c>
       <c r="C967" s="20" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D967" s="29"/>
       <c r="E967" s="29" t="s">
@@ -33318,7 +33324,7 @@
         <v>1158</v>
       </c>
       <c r="C969" s="20" t="s">
-        <v>2372</v>
+        <v>2348</v>
       </c>
       <c r="D969" s="29"/>
       <c r="E969" s="29" t="s">
@@ -33393,7 +33399,7 @@
         <v>1158</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>2373</v>
+        <v>2349</v>
       </c>
       <c r="D972" s="29"/>
       <c r="E972" s="29" t="s">
@@ -33409,7 +33415,7 @@
         <v>17</v>
       </c>
       <c r="I972" s="20" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="973" spans="1:9" ht="75">
@@ -33436,7 +33442,7 @@
         <v>17</v>
       </c>
       <c r="I973" s="20" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="974" spans="1:9" ht="30">
@@ -33622,10 +33628,10 @@
         <v>1159</v>
       </c>
       <c r="C981" s="20" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D981" s="29" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E981" s="29" t="s">
         <v>22</v>
@@ -33640,7 +33646,7 @@
         <v>20</v>
       </c>
       <c r="I981" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="982" spans="1:9" ht="60">
@@ -33651,10 +33657,10 @@
         <v>1159</v>
       </c>
       <c r="C982" s="20" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D982" s="29" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E982" s="29" t="s">
         <v>22</v>
@@ -33669,7 +33675,7 @@
         <v>20</v>
       </c>
       <c r="I982" s="20" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="983" spans="1:9" ht="45">
@@ -33680,10 +33686,10 @@
         <v>1159</v>
       </c>
       <c r="C983" s="20" t="s">
-        <v>2374</v>
+        <v>2414</v>
       </c>
       <c r="D983" s="29" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E983" s="29" t="s">
         <v>22</v>
@@ -33710,7 +33716,7 @@
         <v>1989</v>
       </c>
       <c r="D984" s="29" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E984" s="29" t="s">
         <v>22</v>
@@ -33725,7 +33731,7 @@
         <v>20</v>
       </c>
       <c r="I984" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="985" spans="1:9" ht="45">
@@ -33739,7 +33745,7 @@
         <v>1990</v>
       </c>
       <c r="D985" s="29" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E985" s="29" t="s">
         <v>22</v>
@@ -33754,7 +33760,7 @@
         <v>20</v>
       </c>
       <c r="I985" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="986" spans="1:9" ht="60">
@@ -33765,10 +33771,10 @@
         <v>1159</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2375</v>
+        <v>2429</v>
       </c>
       <c r="D986" s="29" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E986" s="29" t="s">
         <v>22</v>
@@ -33783,7 +33789,7 @@
         <v>20</v>
       </c>
       <c r="I986" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="987" spans="1:9" ht="45">
@@ -33794,10 +33800,10 @@
         <v>1159</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2376</v>
+        <v>2350</v>
       </c>
       <c r="D987" s="29" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E987" s="29" t="s">
         <v>22</v>
@@ -33812,10 +33818,10 @@
         <v>20</v>
       </c>
       <c r="I987" s="31" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="988" spans="1:9" ht="75">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" ht="60">
       <c r="A988" s="29" t="s">
         <v>986</v>
       </c>
@@ -33823,10 +33829,10 @@
         <v>1159</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>2377</v>
+        <v>2415</v>
       </c>
       <c r="D988" s="29" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E988" s="29" t="s">
         <v>22</v>
@@ -33841,7 +33847,7 @@
         <v>20</v>
       </c>
       <c r="I988" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="989" spans="1:9" ht="60">
@@ -33855,7 +33861,7 @@
         <v>1991</v>
       </c>
       <c r="D989" s="29" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E989" s="29" t="s">
         <v>22</v>
@@ -33872,17 +33878,17 @@
       <c r="I989" s="31"/>
     </row>
     <row r="990" spans="1:9" ht="45">
-      <c r="A990" s="50" t="s">
-        <v>2329</v>
-      </c>
-      <c r="B990" s="51" t="s">
+      <c r="A990" s="37" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B990" s="38" t="s">
         <v>1159</v>
       </c>
-      <c r="C990" s="52" t="s">
-        <v>2327</v>
-      </c>
-      <c r="D990" s="50" t="s">
-        <v>2331</v>
+      <c r="C990" s="39" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D990" s="37" t="s">
+        <v>2330</v>
       </c>
       <c r="E990" s="29" t="s">
         <v>22</v>
@@ -33897,21 +33903,21 @@
         <v>20</v>
       </c>
       <c r="I990" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="991" spans="1:9" ht="45">
-      <c r="A991" s="50" t="s">
+      <c r="A991" s="37" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B991" s="38" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C991" s="39" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D991" s="37" t="s">
         <v>2330</v>
-      </c>
-      <c r="B991" s="51" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C991" s="52" t="s">
-        <v>2328</v>
-      </c>
-      <c r="D991" s="50" t="s">
-        <v>2331</v>
       </c>
       <c r="E991" s="29" t="s">
         <v>22</v>
@@ -33926,7 +33932,7 @@
         <v>20</v>
       </c>
       <c r="I991" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="992" spans="1:9" ht="60">
@@ -33937,10 +33943,10 @@
         <v>1159</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>2380</v>
+        <v>2416</v>
       </c>
       <c r="D992" s="29" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E992" s="29" t="s">
         <v>22</v>
@@ -33967,7 +33973,7 @@
         <v>1992</v>
       </c>
       <c r="D993" s="29" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E993" s="29" t="s">
         <v>22</v>
@@ -33982,7 +33988,7 @@
         <v>20</v>
       </c>
       <c r="I993" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="994" spans="1:9" ht="60">
@@ -33993,10 +33999,10 @@
         <v>1159</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2378</v>
+        <v>2417</v>
       </c>
       <c r="D994" s="29" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E994" s="29" t="s">
         <v>22</v>
@@ -34011,24 +34017,24 @@
         <v>20</v>
       </c>
       <c r="I994" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="995" spans="1:9" ht="45">
       <c r="A995" s="22" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B995" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C995" s="20" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D995" s="22" t="s">
         <v>2311</v>
       </c>
-      <c r="D995" s="22" t="s">
-        <v>2312</v>
-      </c>
       <c r="E995" s="22" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="F995" s="29" t="s">
         <v>6</v>
@@ -34043,48 +34049,48 @@
     </row>
     <row r="996" spans="1:9" ht="45">
       <c r="A996" s="22" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B996" s="24">
+        <v>6</v>
+      </c>
+      <c r="C996" s="20" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D996" s="22" t="s">
         <v>2321</v>
       </c>
-      <c r="B996" s="24">
-        <v>6</v>
-      </c>
-      <c r="C996" s="20" t="s">
-        <v>2319</v>
-      </c>
-      <c r="D996" s="22" t="s">
+      <c r="E996" s="22" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F996" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G996" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H996" s="22" t="s">
         <v>2322</v>
       </c>
-      <c r="E996" s="22" t="s">
-        <v>2315</v>
-      </c>
-      <c r="F996" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G996" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H996" s="22" t="s">
-        <v>2323</v>
-      </c>
       <c r="I996" s="20" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="997" spans="1:9" ht="45">
       <c r="A997" s="22" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B997" s="24">
         <v>6</v>
       </c>
       <c r="C997" s="20" t="s">
-        <v>2379</v>
+        <v>2418</v>
       </c>
       <c r="D997" s="22" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E997" s="22" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F997" s="22" t="s">
         <v>6</v>
@@ -34096,7 +34102,7 @@
         <v>20</v>
       </c>
       <c r="I997" s="20" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="998" spans="1:9" ht="60">
@@ -34107,10 +34113,10 @@
         <v>1159</v>
       </c>
       <c r="C998" s="20" t="s">
-        <v>2381</v>
+        <v>2419</v>
       </c>
       <c r="D998" s="29" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E998" s="29" t="s">
         <v>22</v>
@@ -34137,7 +34143,7 @@
         <v>1993</v>
       </c>
       <c r="D999" s="29" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E999" s="29" t="s">
         <v>22</v>
@@ -34152,7 +34158,7 @@
         <v>20</v>
       </c>
       <c r="I999" s="20" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1000" spans="1:9" ht="75">
@@ -34163,10 +34169,10 @@
         <v>1159</v>
       </c>
       <c r="C1000" s="20" t="s">
-        <v>2382</v>
+        <v>2420</v>
       </c>
       <c r="D1000" s="29" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E1000" s="29" t="s">
         <v>22</v>
@@ -34193,7 +34199,7 @@
         <v>1994</v>
       </c>
       <c r="D1001" s="29" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E1001" s="29" t="s">
         <v>22</v>
@@ -34208,21 +34214,21 @@
         <v>20</v>
       </c>
       <c r="I1001" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1002" spans="1:9" ht="45">
       <c r="A1002" s="34" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1002" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1002" s="20" t="s">
-        <v>2383</v>
+        <v>2421</v>
       </c>
       <c r="D1002" s="34" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E1002" s="29" t="s">
         <v>22</v>
@@ -34240,16 +34246,16 @@
     </row>
     <row r="1003" spans="1:9" ht="45">
       <c r="A1003" s="22" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B1003" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1003" s="20" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D1003" s="22" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E1003" s="29" t="s">
         <v>22</v>
@@ -34264,7 +34270,7 @@
         <v>20</v>
       </c>
       <c r="I1003" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1004" spans="1:9" ht="75">
@@ -34275,10 +34281,10 @@
         <v>1159</v>
       </c>
       <c r="C1004" s="20" t="s">
-        <v>2363</v>
+        <v>2339</v>
       </c>
       <c r="D1004" s="29" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E1004" s="29" t="s">
         <v>22</v>
@@ -34293,7 +34299,7 @@
         <v>20</v>
       </c>
       <c r="I1004" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1005" spans="1:9" ht="45">
@@ -34307,7 +34313,7 @@
         <v>1995</v>
       </c>
       <c r="D1005" s="29" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E1005" s="29" t="s">
         <v>22</v>
@@ -34322,7 +34328,7 @@
         <v>20</v>
       </c>
       <c r="I1005" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1006" spans="1:9" ht="45">
@@ -34333,10 +34339,10 @@
         <v>1159</v>
       </c>
       <c r="C1006" s="20" t="s">
-        <v>2384</v>
+        <v>2422</v>
       </c>
       <c r="D1006" s="29" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E1006" s="29" t="s">
         <v>22</v>
@@ -34351,7 +34357,7 @@
         <v>20</v>
       </c>
       <c r="I1006" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1007" spans="1:9" ht="45">
@@ -34362,10 +34368,10 @@
         <v>1159</v>
       </c>
       <c r="C1007" s="20" t="s">
-        <v>2385</v>
+        <v>2351</v>
       </c>
       <c r="D1007" s="29" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E1007" s="29" t="s">
         <v>22</v>
@@ -34380,21 +34386,21 @@
         <v>20</v>
       </c>
       <c r="I1007" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="22" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1008" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1008" s="20" t="s">
-        <v>2386</v>
+        <v>2352</v>
       </c>
       <c r="D1008" s="34" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E1008" s="29" t="s">
         <v>22</v>
@@ -34409,21 +34415,21 @@
         <v>20</v>
       </c>
       <c r="I1008" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1009" spans="1:9" ht="45">
       <c r="A1009" s="22" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1009" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1009" s="20" t="s">
-        <v>2387</v>
+        <v>2423</v>
       </c>
       <c r="D1009" s="34" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E1009" s="29" t="s">
         <v>22</v>
@@ -34438,7 +34444,7 @@
         <v>20</v>
       </c>
       <c r="I1009" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1010" spans="1:9" ht="45">
@@ -34449,10 +34455,10 @@
         <v>1159</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D1010" s="29" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E1010" s="29" t="s">
         <v>22</v>
@@ -34467,7 +34473,7 @@
         <v>20</v>
       </c>
       <c r="I1010" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1011" spans="1:9" ht="60">
@@ -34478,10 +34484,10 @@
         <v>1159</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2388</v>
+        <v>2424</v>
       </c>
       <c r="D1011" s="22" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E1011" s="29" t="s">
         <v>22</v>
@@ -34496,21 +34502,21 @@
         <v>20</v>
       </c>
       <c r="I1011" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1012" spans="1:9" ht="60">
       <c r="A1012" s="34" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1012" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1012" s="20" t="s">
-        <v>2389</v>
+        <v>2353</v>
       </c>
       <c r="D1012" s="22" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E1012" s="29" t="s">
         <v>22</v>
@@ -34525,21 +34531,21 @@
         <v>20</v>
       </c>
       <c r="I1012" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1013" spans="1:9" ht="45">
       <c r="A1013" s="34" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1013" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1013" s="20" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D1013" s="22" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E1013" s="29" t="s">
         <v>22</v>
@@ -34554,21 +34560,21 @@
         <v>20</v>
       </c>
       <c r="I1013" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="22" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1014" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1014" s="20" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D1014" s="29" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E1014" s="29" t="s">
         <v>22</v>
@@ -34583,7 +34589,7 @@
         <v>20</v>
       </c>
       <c r="I1014" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1015" spans="1:9" ht="60">
@@ -34594,10 +34600,10 @@
         <v>1159</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>2390</v>
+        <v>2354</v>
       </c>
       <c r="D1015" s="29" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E1015" s="29" t="s">
         <v>22</v>
@@ -34612,7 +34618,7 @@
         <v>20</v>
       </c>
       <c r="I1015" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1016" spans="1:9" ht="60">
@@ -34623,10 +34629,10 @@
         <v>1159</v>
       </c>
       <c r="C1016" s="20" t="s">
-        <v>2391</v>
+        <v>2355</v>
       </c>
       <c r="D1016" s="29" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E1016" s="29" t="s">
         <v>22</v>
@@ -34642,18 +34648,18 @@
       </c>
       <c r="I1016" s="31"/>
     </row>
-    <row r="1017" spans="1:9" ht="45">
+    <row r="1017" spans="1:9" ht="60">
       <c r="A1017" s="29" t="s">
         <v>1003</v>
       </c>
       <c r="B1017" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C1017" s="31" t="s">
-        <v>1996</v>
+      <c r="C1017" s="20" t="s">
+        <v>2426</v>
       </c>
       <c r="D1017" s="29" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E1017" s="29" t="s">
         <v>22</v>
@@ -34668,21 +34674,19 @@
         <v>20</v>
       </c>
       <c r="I1017" s="31" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:9" ht="60">
-      <c r="A1018" s="29" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1018" s="30" t="s">
-        <v>1159</v>
-      </c>
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" ht="45">
+      <c r="A1018" s="22" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1018" s="38"/>
       <c r="C1018" s="20" t="s">
-        <v>2392</v>
+        <v>2427</v>
       </c>
       <c r="D1018" s="29" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E1018" s="29" t="s">
         <v>22</v>
@@ -34690,33 +34694,33 @@
       <c r="F1018" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G1018" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1018" s="29" t="s">
+      <c r="G1018" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1018" s="37" t="s">
         <v>20</v>
       </c>
       <c r="I1018" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1019" spans="1:9" ht="60">
       <c r="A1019" s="29" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1019" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D1019" s="22" t="s">
-        <v>2066</v>
+        <v>2356</v>
+      </c>
+      <c r="D1019" s="29" t="s">
+        <v>2064</v>
       </c>
       <c r="E1019" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1019" s="22" t="s">
+      <c r="F1019" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G1019" s="29" t="s">
@@ -34726,21 +34730,21 @@
         <v>20</v>
       </c>
       <c r="I1019" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1020" spans="1:9" ht="60">
       <c r="A1020" s="29" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1020" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2393</v>
-      </c>
-      <c r="D1020" s="29" t="s">
-        <v>2066</v>
+        <v>2275</v>
+      </c>
+      <c r="D1020" s="22" t="s">
+        <v>2065</v>
       </c>
       <c r="E1020" s="29" t="s">
         <v>22</v>
@@ -34755,21 +34759,21 @@
         <v>20</v>
       </c>
       <c r="I1020" s="31" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:9" ht="75">
-      <c r="A1021" s="22" t="s">
-        <v>1007</v>
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" ht="60">
+      <c r="A1021" s="29" t="s">
+        <v>1006</v>
       </c>
       <c r="B1021" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2394</v>
+        <v>2425</v>
       </c>
       <c r="D1021" s="29" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E1021" s="29" t="s">
         <v>22</v>
@@ -34781,22 +34785,24 @@
         <v>15</v>
       </c>
       <c r="H1021" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1021" s="31"/>
-    </row>
-    <row r="1022" spans="1:9" ht="45">
-      <c r="A1022" s="29" t="s">
-        <v>1008</v>
+        <v>20</v>
+      </c>
+      <c r="I1021" s="31" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" ht="75">
+      <c r="A1022" s="22" t="s">
+        <v>1007</v>
       </c>
       <c r="B1022" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C1022" s="31" t="s">
-        <v>1997</v>
+      <c r="C1022" s="20" t="s">
+        <v>2357</v>
       </c>
       <c r="D1022" s="29" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="E1022" s="29" t="s">
         <v>22</v>
@@ -34808,24 +34814,22 @@
         <v>15</v>
       </c>
       <c r="H1022" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1022" s="20" t="s">
-        <v>2177</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1022" s="31"/>
     </row>
     <row r="1023" spans="1:9" ht="45">
       <c r="A1023" s="29" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1023" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C1023" s="20" t="s">
-        <v>2395</v>
+      <c r="C1023" s="31" t="s">
+        <v>1996</v>
       </c>
       <c r="D1023" s="29" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E1023" s="29" t="s">
         <v>22</v>
@@ -34839,22 +34843,22 @@
       <c r="H1023" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I1023" s="31" t="s">
-        <v>2156</v>
+      <c r="I1023" s="20" t="s">
+        <v>2176</v>
       </c>
     </row>
     <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="29" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1024" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>1998</v>
+        <v>2358</v>
       </c>
       <c r="D1024" s="29" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E1024" s="29" t="s">
         <v>22</v>
@@ -34869,48 +34873,50 @@
         <v>20</v>
       </c>
       <c r="I1024" s="31" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:9" ht="60">
-      <c r="A1025" s="34" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B1025" s="36" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" ht="45">
+      <c r="A1025" s="29" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1025" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1025" s="20" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D1025" s="34" t="s">
-        <v>2282</v>
+        <v>1997</v>
+      </c>
+      <c r="D1025" s="29" t="s">
+        <v>2067</v>
       </c>
       <c r="E1025" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1025" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1025" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1025" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1025" s="31"/>
+      <c r="F1025" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1025" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1025" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1025" s="31" t="s">
+        <v>2155</v>
+      </c>
     </row>
     <row r="1026" spans="1:9" ht="60">
       <c r="A1026" s="34" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B1026" s="36" t="s">
         <v>1159</v>
       </c>
-      <c r="C1026" s="35" t="s">
-        <v>2278</v>
+      <c r="C1026" s="20" t="s">
+        <v>2359</v>
       </c>
       <c r="D1026" s="34" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34926,9 +34932,9 @@
       </c>
       <c r="I1026" s="31"/>
     </row>
-    <row r="1027" spans="1:9" ht="45">
+    <row r="1027" spans="1:9" ht="60">
       <c r="A1027" s="34" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1027" s="36" t="s">
         <v>1159</v>
@@ -34937,7 +34943,7 @@
         <v>2277</v>
       </c>
       <c r="D1027" s="34" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E1027" s="29" t="s">
         <v>22</v>
@@ -34954,46 +34960,44 @@
       <c r="I1027" s="31"/>
     </row>
     <row r="1028" spans="1:9" ht="45">
-      <c r="A1028" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B1028" s="30" t="s">
+      <c r="A1028" s="34" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1028" s="36" t="s">
         <v>1159</v>
       </c>
-      <c r="C1028" s="20" t="s">
-        <v>2397</v>
-      </c>
-      <c r="D1028" s="29" t="s">
-        <v>2069</v>
+      <c r="C1028" s="35" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1028" s="34" t="s">
+        <v>2285</v>
       </c>
       <c r="E1028" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1028" s="29" t="s">
+      <c r="F1028" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1028" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1028" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1028" s="31" t="s">
-        <v>2156</v>
-      </c>
+      <c r="G1028" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1028" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1028" s="31"/>
     </row>
     <row r="1029" spans="1:9" ht="45">
       <c r="A1029" s="22" t="s">
-        <v>2283</v>
+        <v>1011</v>
       </c>
       <c r="B1029" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>1999</v>
+        <v>2360</v>
       </c>
       <c r="D1029" s="29" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E1029" s="29" t="s">
         <v>22</v>
@@ -35008,45 +35012,47 @@
         <v>20</v>
       </c>
       <c r="I1029" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1030" spans="1:9" ht="45">
       <c r="A1030" s="22" t="s">
-        <v>2398</v>
+        <v>2282</v>
       </c>
       <c r="B1030" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D1030" s="22"/>
-      <c r="E1030" s="22" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1030" s="29" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E1030" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1030" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1030" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1030" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1030" s="20" t="s">
-        <v>2180</v>
+      <c r="F1030" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1030" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1030" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1030" s="31" t="s">
+        <v>2155</v>
       </c>
     </row>
     <row r="1031" spans="1:9" ht="45">
       <c r="A1031" s="22" t="s">
-        <v>2400</v>
-      </c>
-      <c r="B1031" s="24" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1031" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1031" s="20" t="s">
-        <v>2173</v>
+        <v>2364</v>
       </c>
       <c r="D1031" s="22"/>
       <c r="E1031" s="22" t="s">
@@ -35062,50 +35068,52 @@
         <v>21</v>
       </c>
       <c r="I1031" s="20" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:9">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="22" t="s">
-        <v>2399</v>
-      </c>
-      <c r="B1032" s="30" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1032" s="24" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1032" s="20" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D1032" s="22"/>
+      <c r="E1032" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1032" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1032" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1032" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1032" s="20" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9">
+      <c r="A1033" s="22" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1033" s="30" t="s">
         <v>1063</v>
       </c>
-      <c r="C1032" s="20" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D1032" s="29"/>
-      <c r="E1032" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1032" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1032" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1032" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1032" s="31"/>
-    </row>
-    <row r="1033" spans="1:9" ht="30">
-      <c r="A1033" s="29" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B1033" s="30" t="s">
-        <v>1160</v>
-      </c>
       <c r="C1033" s="20" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D1033" s="29"/>
       <c r="E1033" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1033" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1033" s="29" t="s">
         <v>15</v>
@@ -35117,13 +35125,13 @@
     </row>
     <row r="1034" spans="1:9" ht="30">
       <c r="A1034" s="29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1034" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D1034" s="29"/>
       <c r="E1034" s="29" t="s">
@@ -35142,13 +35150,13 @@
     </row>
     <row r="1035" spans="1:9" ht="30">
       <c r="A1035" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1035" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1035" s="20" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D1035" s="29"/>
       <c r="E1035" s="29" t="s">
@@ -35165,15 +35173,15 @@
       </c>
       <c r="I1035" s="31"/>
     </row>
-    <row r="1036" spans="1:9" ht="45">
+    <row r="1036" spans="1:9" ht="30">
       <c r="A1036" s="29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1036" s="30" t="s">
         <v>1160</v>
       </c>
-      <c r="C1036" s="31" t="s">
-        <v>2004</v>
+      <c r="C1036" s="20" t="s">
+        <v>2002</v>
       </c>
       <c r="D1036" s="29"/>
       <c r="E1036" s="29" t="s">
@@ -35190,15 +35198,15 @@
       </c>
       <c r="I1036" s="31"/>
     </row>
-    <row r="1037" spans="1:9" ht="30">
-      <c r="A1037" s="22" t="s">
-        <v>1016</v>
+    <row r="1037" spans="1:9" ht="45">
+      <c r="A1037" s="29" t="s">
+        <v>1015</v>
       </c>
       <c r="B1037" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1037" s="31" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D1037" s="29"/>
       <c r="E1037" s="29" t="s">
@@ -35215,15 +35223,15 @@
       </c>
       <c r="I1037" s="31"/>
     </row>
-    <row r="1038" spans="1:9" ht="60">
-      <c r="A1038" s="29" t="s">
-        <v>1017</v>
+    <row r="1038" spans="1:9" ht="30">
+      <c r="A1038" s="22" t="s">
+        <v>1016</v>
       </c>
       <c r="B1038" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1038" s="31" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D1038" s="29"/>
       <c r="E1038" s="29" t="s">
@@ -35240,22 +35248,22 @@
       </c>
       <c r="I1038" s="31"/>
     </row>
-    <row r="1039" spans="1:9" ht="30">
+    <row r="1039" spans="1:9" ht="60">
       <c r="A1039" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1039" s="30" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C1039" s="20" t="s">
-        <v>2402</v>
+        <v>1160</v>
+      </c>
+      <c r="C1039" s="31" t="s">
+        <v>2005</v>
       </c>
       <c r="D1039" s="29"/>
       <c r="E1039" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1039" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1039" s="29" t="s">
         <v>15</v>
@@ -35265,15 +35273,15 @@
       </c>
       <c r="I1039" s="31"/>
     </row>
-    <row r="1040" spans="1:9">
-      <c r="A1040" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B1040" s="24" t="s">
-        <v>2403</v>
+    <row r="1040" spans="1:9" ht="30">
+      <c r="A1040" s="29" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1040" s="30" t="s">
+        <v>1161</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2007</v>
+        <v>2365</v>
       </c>
       <c r="D1040" s="29"/>
       <c r="E1040" s="29" t="s">
@@ -35291,14 +35299,14 @@
       <c r="I1040" s="31"/>
     </row>
     <row r="1041" spans="1:9">
-      <c r="A1041" s="29" t="s">
-        <v>1020</v>
+      <c r="A1041" s="22" t="s">
+        <v>1019</v>
       </c>
       <c r="B1041" s="24" t="s">
-        <v>2404</v>
-      </c>
-      <c r="C1041" s="31" t="s">
-        <v>2008</v>
+        <v>2366</v>
+      </c>
+      <c r="C1041" s="20" t="s">
+        <v>2006</v>
       </c>
       <c r="D1041" s="29"/>
       <c r="E1041" s="29" t="s">
@@ -35317,20 +35325,20 @@
     </row>
     <row r="1042" spans="1:9">
       <c r="A1042" s="29" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1042" s="24" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C1042" s="20" t="s">
-        <v>2009</v>
+        <v>2367</v>
+      </c>
+      <c r="C1042" s="31" t="s">
+        <v>2007</v>
       </c>
       <c r="D1042" s="29"/>
       <c r="E1042" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1042" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1042" s="29" t="s">
         <v>15</v>
@@ -35342,20 +35350,20 @@
     </row>
     <row r="1043" spans="1:9">
       <c r="A1043" s="29" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1043" s="24" t="s">
-        <v>2406</v>
-      </c>
-      <c r="C1043" s="31" t="s">
-        <v>2010</v>
+        <v>2368</v>
+      </c>
+      <c r="C1043" s="20" t="s">
+        <v>2008</v>
       </c>
       <c r="D1043" s="29"/>
       <c r="E1043" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1043" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1043" s="29" t="s">
         <v>15</v>
@@ -35367,13 +35375,13 @@
     </row>
     <row r="1044" spans="1:9">
       <c r="A1044" s="29" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1044" s="24" t="s">
-        <v>2407</v>
-      </c>
-      <c r="C1044" s="20" t="s">
-        <v>2011</v>
+        <v>2369</v>
+      </c>
+      <c r="C1044" s="31" t="s">
+        <v>2009</v>
       </c>
       <c r="D1044" s="29"/>
       <c r="E1044" s="29" t="s">
@@ -35392,13 +35400,13 @@
     </row>
     <row r="1045" spans="1:9">
       <c r="A1045" s="29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1045" s="24" t="s">
-        <v>2407</v>
-      </c>
-      <c r="C1045" s="31" t="s">
-        <v>2012</v>
+        <v>2370</v>
+      </c>
+      <c r="C1045" s="20" t="s">
+        <v>2010</v>
       </c>
       <c r="D1045" s="29"/>
       <c r="E1045" s="29" t="s">
@@ -35416,14 +35424,14 @@
       <c r="I1045" s="31"/>
     </row>
     <row r="1046" spans="1:9">
-      <c r="A1046" s="22" t="s">
-        <v>1025</v>
+      <c r="A1046" s="29" t="s">
+        <v>1024</v>
       </c>
       <c r="B1046" s="24" t="s">
-        <v>2408</v>
-      </c>
-      <c r="C1046" s="20" t="s">
-        <v>2013</v>
+        <v>2370</v>
+      </c>
+      <c r="C1046" s="31" t="s">
+        <v>2011</v>
       </c>
       <c r="D1046" s="29"/>
       <c r="E1046" s="29" t="s">
@@ -35441,14 +35449,14 @@
       <c r="I1046" s="31"/>
     </row>
     <row r="1047" spans="1:9">
-      <c r="A1047" s="29" t="s">
-        <v>1026</v>
+      <c r="A1047" s="22" t="s">
+        <v>1025</v>
       </c>
       <c r="B1047" s="24" t="s">
-        <v>2408</v>
+        <v>2371</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D1047" s="29"/>
       <c r="E1047" s="29" t="s">
@@ -35467,13 +35475,13 @@
     </row>
     <row r="1048" spans="1:9">
       <c r="A1048" s="29" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1048" s="24" t="s">
-        <v>2410</v>
+        <v>2371</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2409</v>
+        <v>2013</v>
       </c>
       <c r="D1048" s="29"/>
       <c r="E1048" s="29" t="s">
@@ -35492,13 +35500,13 @@
     </row>
     <row r="1049" spans="1:9">
       <c r="A1049" s="29" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1049" s="24" t="s">
-        <v>2410</v>
+        <v>2373</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2015</v>
+        <v>2372</v>
       </c>
       <c r="D1049" s="29"/>
       <c r="E1049" s="29" t="s">
@@ -35517,20 +35525,20 @@
     </row>
     <row r="1050" spans="1:9">
       <c r="A1050" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1050" s="24" t="s">
-        <v>2411</v>
+        <v>2373</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1050" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1050" s="29" t="s">
         <v>15</v>
@@ -35542,20 +35550,20 @@
     </row>
     <row r="1051" spans="1:9">
       <c r="A1051" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1051" s="24" t="s">
-        <v>2411</v>
-      </c>
-      <c r="C1051" s="31" t="s">
-        <v>2017</v>
+        <v>2374</v>
+      </c>
+      <c r="C1051" s="20" t="s">
+        <v>2015</v>
       </c>
       <c r="D1051" s="29"/>
       <c r="E1051" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1051" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1051" s="29" t="s">
         <v>15</v>
@@ -35567,13 +35575,13 @@
     </row>
     <row r="1052" spans="1:9">
       <c r="A1052" s="29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1052" s="24" t="s">
-        <v>2412</v>
-      </c>
-      <c r="C1052" s="20" t="s">
-        <v>2018</v>
+        <v>2374</v>
+      </c>
+      <c r="C1052" s="31" t="s">
+        <v>2016</v>
       </c>
       <c r="D1052" s="29"/>
       <c r="E1052" s="29" t="s">
@@ -35592,13 +35600,13 @@
     </row>
     <row r="1053" spans="1:9">
       <c r="A1053" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1053" s="24" t="s">
-        <v>2412</v>
-      </c>
-      <c r="C1053" s="31" t="s">
-        <v>2019</v>
+        <v>2375</v>
+      </c>
+      <c r="C1053" s="20" t="s">
+        <v>2017</v>
       </c>
       <c r="D1053" s="29"/>
       <c r="E1053" s="29" t="s">
@@ -35617,13 +35625,13 @@
     </row>
     <row r="1054" spans="1:9">
       <c r="A1054" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1054" s="24" t="s">
-        <v>2413</v>
-      </c>
-      <c r="C1054" s="20" t="s">
-        <v>2020</v>
+        <v>2375</v>
+      </c>
+      <c r="C1054" s="31" t="s">
+        <v>2018</v>
       </c>
       <c r="D1054" s="29"/>
       <c r="E1054" s="29" t="s">
@@ -35642,13 +35650,13 @@
     </row>
     <row r="1055" spans="1:9">
       <c r="A1055" s="29" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1055" s="24" t="s">
-        <v>2413</v>
-      </c>
-      <c r="C1055" s="31" t="s">
-        <v>2021</v>
+        <v>2376</v>
+      </c>
+      <c r="C1055" s="20" t="s">
+        <v>2019</v>
       </c>
       <c r="D1055" s="29"/>
       <c r="E1055" s="29" t="s">
@@ -35667,13 +35675,13 @@
     </row>
     <row r="1056" spans="1:9">
       <c r="A1056" s="29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1056" s="24" t="s">
-        <v>2414</v>
-      </c>
-      <c r="C1056" s="20" t="s">
-        <v>2022</v>
+        <v>2376</v>
+      </c>
+      <c r="C1056" s="31" t="s">
+        <v>2020</v>
       </c>
       <c r="D1056" s="29"/>
       <c r="E1056" s="29" t="s">
@@ -35692,13 +35700,13 @@
     </row>
     <row r="1057" spans="1:9">
       <c r="A1057" s="29" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1057" s="24" t="s">
-        <v>2414</v>
-      </c>
-      <c r="C1057" s="31" t="s">
-        <v>2023</v>
+        <v>2377</v>
+      </c>
+      <c r="C1057" s="20" t="s">
+        <v>2021</v>
       </c>
       <c r="D1057" s="29"/>
       <c r="E1057" s="29" t="s">
@@ -35717,13 +35725,13 @@
     </row>
     <row r="1058" spans="1:9">
       <c r="A1058" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B1058" s="24" t="s">
-        <v>2415</v>
-      </c>
-      <c r="C1058" s="20" t="s">
-        <v>2024</v>
+        <v>2377</v>
+      </c>
+      <c r="C1058" s="31" t="s">
+        <v>2022</v>
       </c>
       <c r="D1058" s="29"/>
       <c r="E1058" s="29" t="s">
@@ -35742,13 +35750,13 @@
     </row>
     <row r="1059" spans="1:9">
       <c r="A1059" s="29" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1059" s="24" t="s">
-        <v>2415</v>
-      </c>
-      <c r="C1059" s="31" t="s">
-        <v>2025</v>
+        <v>2378</v>
+      </c>
+      <c r="C1059" s="20" t="s">
+        <v>2023</v>
       </c>
       <c r="D1059" s="29"/>
       <c r="E1059" s="29" t="s">
@@ -35767,13 +35775,13 @@
     </row>
     <row r="1060" spans="1:9">
       <c r="A1060" s="29" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1060" s="24" t="s">
-        <v>2416</v>
-      </c>
-      <c r="C1060" s="20" t="s">
-        <v>2026</v>
+        <v>2378</v>
+      </c>
+      <c r="C1060" s="31" t="s">
+        <v>2024</v>
       </c>
       <c r="D1060" s="29"/>
       <c r="E1060" s="29" t="s">
@@ -35792,13 +35800,13 @@
     </row>
     <row r="1061" spans="1:9">
       <c r="A1061" s="29" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B1061" s="24" t="s">
-        <v>2416</v>
-      </c>
-      <c r="C1061" s="31" t="s">
-        <v>2027</v>
+        <v>2379</v>
+      </c>
+      <c r="C1061" s="20" t="s">
+        <v>2025</v>
       </c>
       <c r="D1061" s="29"/>
       <c r="E1061" s="29" t="s">
@@ -35817,13 +35825,13 @@
     </row>
     <row r="1062" spans="1:9">
       <c r="A1062" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1062" s="24" t="s">
-        <v>2417</v>
-      </c>
-      <c r="C1062" s="20" t="s">
-        <v>2028</v>
+        <v>2379</v>
+      </c>
+      <c r="C1062" s="31" t="s">
+        <v>2026</v>
       </c>
       <c r="D1062" s="29"/>
       <c r="E1062" s="29" t="s">
@@ -35842,13 +35850,13 @@
     </row>
     <row r="1063" spans="1:9">
       <c r="A1063" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B1063" s="24" t="s">
-        <v>2417</v>
-      </c>
-      <c r="C1063" s="31" t="s">
-        <v>2029</v>
+        <v>2380</v>
+      </c>
+      <c r="C1063" s="20" t="s">
+        <v>2027</v>
       </c>
       <c r="D1063" s="29"/>
       <c r="E1063" s="29" t="s">
@@ -35867,13 +35875,13 @@
     </row>
     <row r="1064" spans="1:9">
       <c r="A1064" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1064" s="24" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C1064" s="20" t="s">
-        <v>2030</v>
+        <v>2380</v>
+      </c>
+      <c r="C1064" s="31" t="s">
+        <v>2028</v>
       </c>
       <c r="D1064" s="29"/>
       <c r="E1064" s="29" t="s">
@@ -35892,20 +35900,20 @@
     </row>
     <row r="1065" spans="1:9">
       <c r="A1065" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1065" s="24" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C1065" s="31" t="s">
-        <v>2031</v>
+        <v>2381</v>
+      </c>
+      <c r="C1065" s="20" t="s">
+        <v>2029</v>
       </c>
       <c r="D1065" s="29"/>
       <c r="E1065" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1065" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1065" s="29" t="s">
         <v>15</v>
@@ -35917,20 +35925,20 @@
     </row>
     <row r="1066" spans="1:9">
       <c r="A1066" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B1066" s="24" t="s">
-        <v>2419</v>
-      </c>
-      <c r="C1066" s="20" t="s">
-        <v>2032</v>
+        <v>2381</v>
+      </c>
+      <c r="C1066" s="31" t="s">
+        <v>2030</v>
       </c>
       <c r="D1066" s="29"/>
       <c r="E1066" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1066" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1066" s="29" t="s">
         <v>15</v>
@@ -35942,13 +35950,13 @@
     </row>
     <row r="1067" spans="1:9">
       <c r="A1067" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B1067" s="24" t="s">
-        <v>2419</v>
-      </c>
-      <c r="C1067" s="31" t="s">
-        <v>2033</v>
+        <v>2382</v>
+      </c>
+      <c r="C1067" s="20" t="s">
+        <v>2031</v>
       </c>
       <c r="D1067" s="29"/>
       <c r="E1067" s="29" t="s">
@@ -35967,13 +35975,13 @@
     </row>
     <row r="1068" spans="1:9">
       <c r="A1068" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1068" s="24" t="s">
-        <v>2420</v>
-      </c>
-      <c r="C1068" s="20" t="s">
-        <v>2034</v>
+        <v>2382</v>
+      </c>
+      <c r="C1068" s="31" t="s">
+        <v>2032</v>
       </c>
       <c r="D1068" s="29"/>
       <c r="E1068" s="29" t="s">
@@ -35992,13 +36000,13 @@
     </row>
     <row r="1069" spans="1:9">
       <c r="A1069" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1069" s="24" t="s">
-        <v>2420</v>
-      </c>
-      <c r="C1069" s="31" t="s">
-        <v>2035</v>
+        <v>2383</v>
+      </c>
+      <c r="C1069" s="20" t="s">
+        <v>2033</v>
       </c>
       <c r="D1069" s="29"/>
       <c r="E1069" s="29" t="s">
@@ -36016,14 +36024,14 @@
       <c r="I1069" s="31"/>
     </row>
     <row r="1070" spans="1:9">
-      <c r="A1070" s="22" t="s">
-        <v>1049</v>
+      <c r="A1070" s="29" t="s">
+        <v>1048</v>
       </c>
       <c r="B1070" s="24" t="s">
-        <v>2421</v>
-      </c>
-      <c r="C1070" s="20" t="s">
-        <v>2036</v>
+        <v>2383</v>
+      </c>
+      <c r="C1070" s="31" t="s">
+        <v>2034</v>
       </c>
       <c r="D1070" s="29"/>
       <c r="E1070" s="29" t="s">
@@ -36041,14 +36049,14 @@
       <c r="I1070" s="31"/>
     </row>
     <row r="1071" spans="1:9">
-      <c r="A1071" s="29" t="s">
-        <v>1050</v>
+      <c r="A1071" s="22" t="s">
+        <v>1049</v>
       </c>
       <c r="B1071" s="24" t="s">
-        <v>2421</v>
-      </c>
-      <c r="C1071" s="31" t="s">
-        <v>2037</v>
+        <v>2384</v>
+      </c>
+      <c r="C1071" s="20" t="s">
+        <v>2035</v>
       </c>
       <c r="D1071" s="29"/>
       <c r="E1071" s="29" t="s">
@@ -36067,13 +36075,13 @@
     </row>
     <row r="1072" spans="1:9">
       <c r="A1072" s="29" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B1072" s="24" t="s">
-        <v>2422</v>
-      </c>
-      <c r="C1072" s="20" t="s">
-        <v>2038</v>
+        <v>2384</v>
+      </c>
+      <c r="C1072" s="31" t="s">
+        <v>2036</v>
       </c>
       <c r="D1072" s="29"/>
       <c r="E1072" s="29" t="s">
@@ -36092,13 +36100,13 @@
     </row>
     <row r="1073" spans="1:9">
       <c r="A1073" s="29" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B1073" s="24" t="s">
-        <v>2422</v>
-      </c>
-      <c r="C1073" s="31" t="s">
-        <v>2039</v>
+        <v>2385</v>
+      </c>
+      <c r="C1073" s="20" t="s">
+        <v>2037</v>
       </c>
       <c r="D1073" s="29"/>
       <c r="E1073" s="29" t="s">
@@ -36116,14 +36124,14 @@
       <c r="I1073" s="31"/>
     </row>
     <row r="1074" spans="1:9">
-      <c r="A1074" s="22" t="s">
-        <v>1053</v>
+      <c r="A1074" s="29" t="s">
+        <v>1052</v>
       </c>
       <c r="B1074" s="24" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C1074" s="20" t="s">
-        <v>2040</v>
+        <v>2385</v>
+      </c>
+      <c r="C1074" s="31" t="s">
+        <v>2038</v>
       </c>
       <c r="D1074" s="29"/>
       <c r="E1074" s="29" t="s">
@@ -36136,19 +36144,19 @@
         <v>15</v>
       </c>
       <c r="H1074" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1074" s="31"/>
     </row>
     <row r="1075" spans="1:9">
-      <c r="A1075" s="29" t="s">
-        <v>1054</v>
+      <c r="A1075" s="22" t="s">
+        <v>1053</v>
       </c>
       <c r="B1075" s="24" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C1075" s="31" t="s">
-        <v>2041</v>
+        <v>2386</v>
+      </c>
+      <c r="C1075" s="20" t="s">
+        <v>2039</v>
       </c>
       <c r="D1075" s="29"/>
       <c r="E1075" s="29" t="s">
@@ -36161,19 +36169,19 @@
         <v>15</v>
       </c>
       <c r="H1075" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1075" s="31"/>
     </row>
     <row r="1076" spans="1:9">
       <c r="A1076" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B1076" s="24" t="s">
-        <v>2424</v>
-      </c>
-      <c r="C1076" s="20" t="s">
-        <v>2042</v>
+        <v>2386</v>
+      </c>
+      <c r="C1076" s="31" t="s">
+        <v>2040</v>
       </c>
       <c r="D1076" s="29"/>
       <c r="E1076" s="29" t="s">
@@ -36192,13 +36200,13 @@
     </row>
     <row r="1077" spans="1:9">
       <c r="A1077" s="29" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1077" s="24" t="s">
-        <v>2424</v>
-      </c>
-      <c r="C1077" s="31" t="s">
-        <v>2043</v>
+        <v>2387</v>
+      </c>
+      <c r="C1077" s="20" t="s">
+        <v>2041</v>
       </c>
       <c r="D1077" s="29"/>
       <c r="E1077" s="29" t="s">
@@ -36217,13 +36225,13 @@
     </row>
     <row r="1078" spans="1:9">
       <c r="A1078" s="29" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1078" s="24" t="s">
-        <v>2425</v>
-      </c>
-      <c r="C1078" s="20" t="s">
-        <v>2044</v>
+        <v>2387</v>
+      </c>
+      <c r="C1078" s="31" t="s">
+        <v>2042</v>
       </c>
       <c r="D1078" s="29"/>
       <c r="E1078" s="29" t="s">
@@ -36242,20 +36250,20 @@
     </row>
     <row r="1079" spans="1:9">
       <c r="A1079" s="29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1079" s="24" t="s">
-        <v>2425</v>
-      </c>
-      <c r="C1079" s="31" t="s">
-        <v>2045</v>
+        <v>2388</v>
+      </c>
+      <c r="C1079" s="20" t="s">
+        <v>2043</v>
       </c>
       <c r="D1079" s="29"/>
       <c r="E1079" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1079" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1079" s="29" t="s">
         <v>15</v>
@@ -36267,20 +36275,20 @@
     </row>
     <row r="1080" spans="1:9">
       <c r="A1080" s="29" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B1080" s="24" t="s">
-        <v>2426</v>
-      </c>
-      <c r="C1080" s="20" t="s">
-        <v>2046</v>
+        <v>2388</v>
+      </c>
+      <c r="C1080" s="31" t="s">
+        <v>2044</v>
       </c>
       <c r="D1080" s="29"/>
       <c r="E1080" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1080" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1080" s="29" t="s">
         <v>15</v>
@@ -36292,13 +36300,13 @@
     </row>
     <row r="1081" spans="1:9">
       <c r="A1081" s="29" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1081" s="24" t="s">
-        <v>2426</v>
-      </c>
-      <c r="C1081" s="31" t="s">
-        <v>2047</v>
+        <v>2389</v>
+      </c>
+      <c r="C1081" s="20" t="s">
+        <v>2045</v>
       </c>
       <c r="D1081" s="29"/>
       <c r="E1081" s="29" t="s">
@@ -36316,11 +36324,41 @@
       <c r="I1081" s="31"/>
     </row>
     <row r="1082" spans="1:9">
-      <c r="A1082" s="3"/>
-      <c r="B1082" s="10"/>
+      <c r="A1082" s="29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1082" s="24" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1082" s="31" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D1082" s="29"/>
+      <c r="E1082" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1082" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1082" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1082" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1082" s="31"/>
+    </row>
+    <row r="1083" spans="1:9">
+      <c r="A1083" s="3"/>
+      <c r="B1083" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36328,14 +36366,9 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
+  <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">
     <cfRule type="expression" dxfId="43" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36346,7 +36379,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
+  <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">
     <cfRule type="expression" dxfId="40" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36357,7 +36390,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F246 F1032:F1081 F20:F241 F251:F518 F521:F1029">
+  <conditionalFormatting sqref="F246 F1033:F1082 F20:F241 F251:F518 F521:F1030">
     <cfRule type="expression" dxfId="37" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -36365,7 +36398,7 @@
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I246 I1032:I1081 I230 I233:I241">
+  <conditionalFormatting sqref="I246 I1033:I1082 I230 I233:I241">
     <cfRule type="expression" dxfId="35" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36376,7 +36409,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I246 I1032:I1081 I230 I233:I241">
+  <conditionalFormatting sqref="I246 I1033:I1082 I230 I233:I241">
     <cfRule type="expression" dxfId="32" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36387,15 +36420,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1031">
+  <conditionalFormatting sqref="F1032">
     <cfRule type="expression" dxfId="29" priority="38">
-      <formula>NOT(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="39">
-      <formula>(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1031">
+  <conditionalFormatting sqref="I1032">
     <cfRule type="expression" dxfId="27" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36406,7 +36439,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1031">
+  <conditionalFormatting sqref="I1032">
     <cfRule type="expression" dxfId="24" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36417,7 +36450,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1030 C1030:I1030">
+  <conditionalFormatting sqref="A1031 C1031:I1031">
     <cfRule type="expression" dxfId="21" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36428,7 +36461,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1030 C1030:I1030">
+  <conditionalFormatting sqref="A1031 C1031:I1031">
     <cfRule type="expression" dxfId="18" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36439,15 +36472,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1030">
+  <conditionalFormatting sqref="F1031">
     <cfRule type="expression" dxfId="15" priority="24">
-      <formula>NOT(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="25">
-      <formula>(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1030">
+  <conditionalFormatting sqref="B1031">
     <cfRule type="expression" dxfId="13" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36458,7 +36491,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1030">
+  <conditionalFormatting sqref="B1031">
     <cfRule type="expression" dxfId="10" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36500,23 +36533,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1081">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1082">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1081">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1082">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1081">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1082">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H246 H1032:H1081 H20:H241 H251:H1029">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H246 H1033:H1082 H20:H241 H251:H1030">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H247:H250 H242:H245 H1030:H1031">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H247:H250 H242:H245 H1031:H1032">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36526,7 +36559,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B998:B1039 B992:B995 B19:B989 B1082" numberStoredAsText="1"/>
+    <ignoredError sqref="B1019:B1040 B992:B995 B19:B989 B1083 B998:B1017" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4237CC5-E74B-476D-ACD3-9FFFFAFFE23A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmpF9CB" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpF9CB" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-xiaoyj\AppData\Local\Temp\tmpF9CB.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -7614,7 +7615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7962,242 +7963,6 @@
   </cellStyles>
   <dxfs count="63">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -8535,6 +8300,242 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8664,34 +8665,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1082" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="1">
-  <autoFilter ref="A19:I1082"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1082" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1082" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="57">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8700,12 +8701,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="46"/>
-    <tableColumn id="2" name="Test" dataDxfId="45"/>
-    <tableColumn id="3" name="Description" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8787,6 +8788,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8822,6 +8840,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8997,18 +9032,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A981" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C983" sqref="C983"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
@@ -36369,187 +36402,187 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">
-    <cfRule type="expression" dxfId="43" priority="107">
+    <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="108">
+    <cfRule type="expression" dxfId="61" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="115">
+    <cfRule type="expression" dxfId="60" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">
-    <cfRule type="expression" dxfId="40" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246 F1033:F1082 F20:F241 F251:F518 F521:F1030">
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68">
+    <cfRule type="expression" dxfId="55" priority="68">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1033:I1082 I230 I233:I241">
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1033:I1082 I230 I233:I241">
-    <cfRule type="expression" dxfId="32" priority="55">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1032">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>NOT(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1032">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1032">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1031 C1031:I1031">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1031 C1031:I1031">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1031">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>NOT(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1031">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1031">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F519:F520">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1082">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1082" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1082">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1082" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1082">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1082" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H246 H1033:H1082 H20:H241 H251:H1030">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H246 H1033:H1082 H20:H241 H251:H1030" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H247:H250 H242:H245 H1031:H1032">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H247:H250 H242:H245 H1031:H1032" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36559,7 +36592,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1019:B1040 B992:B995 B19:B989 B1083 B998:B1017" numberStoredAsText="1"/>
+    <ignoredError sqref="B1018:B1082 B991:B997 B19:B990 B1083 B998:B1017 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C642CF-62F8-4ED2-88DA-E88BB1832964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF757B-1FAC-4ECF-A9F0-D8DEFE17E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="45" windowWidth="23475" windowHeight="9405" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -6652,10 +6652,6 @@
   </si>
   <si>
     <t>This requirement can be enabled/disabled in the deployment.ptfconfig file.</t>
-  </si>
-  <si>
-    <t>MS-OXCFOLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Folder Object Protocol</t>
@@ -7489,9 +7485,6 @@
     <t>2.1027</t>
   </si>
   <si>
-    <t>21.0</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not provide access to soft-deleted folders. &lt;1&gt; Section 2.2.1.1.1: Exchange 2013, Exchange 2016 and Exchange 2019 do not provide access to soft-deleted folders.</t>
   </si>
   <si>
@@ -7611,6 +7604,12 @@
   </si>
   <si>
     <t>[In PidTagRights Property] The PidTagRights property ([MS-OXPROPS] section 2.935) specifies the client's folder permissions.</t>
+  </si>
+  <si>
+    <t>MS-OXCFOLD</t>
+  </si>
+  <si>
+    <t>22.0</t>
   </si>
 </sst>
 </file>
@@ -7923,21 +7922,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7961,6 +7945,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9041,8 +9040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C571" sqref="C571"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9062,7 +9061,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2156</v>
+        <v>2428</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -9072,7 +9071,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9086,138 +9085,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2389</v>
+        <v>2429</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43374</v>
+        <v>44308</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="B6" s="51" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9230,12 +9229,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9248,12 +9247,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9266,12 +9265,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -9284,60 +9283,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="B17" s="47" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9454,7 +9453,7 @@
         <v>1062</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -10137,7 +10136,7 @@
         <v>1065</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29" t="s">
@@ -10164,7 +10163,7 @@
         <v>1065</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29" t="s">
@@ -10191,7 +10190,7 @@
         <v>1065</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29" t="s">
@@ -10216,7 +10215,7 @@
         <v>1065</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29" t="s">
@@ -11376,7 +11375,7 @@
         <v>1068</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29" t="s">
@@ -11403,7 +11402,7 @@
         <v>1068</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="29" t="s">
@@ -11428,7 +11427,7 @@
         <v>1068</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29" t="s">
@@ -11453,7 +11452,7 @@
         <v>1068</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29" t="s">
@@ -12232,7 +12231,7 @@
         <v>1070</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="29" t="s">
@@ -12248,7 +12247,7 @@
         <v>17</v>
       </c>
       <c r="I133" s="20" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="45">
@@ -12275,7 +12274,7 @@
         <v>20</v>
       </c>
       <c r="I134" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="45">
@@ -12492,7 +12491,7 @@
         <v>1072</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -12617,7 +12616,7 @@
         <v>1073</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -12717,7 +12716,7 @@
         <v>1073</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="29" t="s">
@@ -12767,7 +12766,7 @@
         <v>1073</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
@@ -12917,7 +12916,7 @@
         <v>1073</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
@@ -13723,7 +13722,7 @@
         <v>1075</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D192" s="29"/>
       <c r="E192" s="29" t="s">
@@ -13873,7 +13872,7 @@
         <v>1076</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -13948,7 +13947,7 @@
         <v>1076</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -13973,7 +13972,7 @@
         <v>1076</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
@@ -14225,7 +14224,7 @@
         <v>1077</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
@@ -14250,7 +14249,7 @@
         <v>1077</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="29" t="s">
@@ -14504,7 +14503,7 @@
         <v>1077</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D223" s="29"/>
       <c r="E223" s="29" t="s">
@@ -14754,7 +14753,7 @@
         <v>1077</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D233" s="29"/>
       <c r="E233" s="29" t="s">
@@ -14804,7 +14803,7 @@
         <v>1078</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D235" s="29"/>
       <c r="E235" s="29" t="s">
@@ -14973,13 +14972,13 @@
     </row>
     <row r="242" spans="1:10" ht="60">
       <c r="A242" s="22" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B242" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D242" s="24"/>
       <c r="E242" s="22" t="s">
@@ -14999,13 +14998,13 @@
     </row>
     <row r="243" spans="1:10" ht="60">
       <c r="A243" s="22" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B243" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D243" s="24"/>
       <c r="E243" s="22" t="s">
@@ -15025,13 +15024,13 @@
     </row>
     <row r="244" spans="1:10" ht="75">
       <c r="A244" s="22" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B244" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D244" s="24"/>
       <c r="E244" s="22" t="s">
@@ -15051,13 +15050,13 @@
     </row>
     <row r="245" spans="1:10" ht="75">
       <c r="A245" s="22" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B245" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D245" s="24"/>
       <c r="E245" s="22" t="s">
@@ -15102,13 +15101,13 @@
     </row>
     <row r="247" spans="1:10" ht="60">
       <c r="A247" s="22" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B247" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D247" s="24"/>
       <c r="E247" s="22" t="s">
@@ -15128,13 +15127,13 @@
     </row>
     <row r="248" spans="1:10" ht="60">
       <c r="A248" s="22" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B248" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D248" s="24"/>
       <c r="E248" s="22" t="s">
@@ -15154,13 +15153,13 @@
     </row>
     <row r="249" spans="1:10" ht="75">
       <c r="A249" s="22" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B249" s="24" t="s">
         <v>1079</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D249" s="24"/>
       <c r="E249" s="22" t="s">
@@ -15180,13 +15179,13 @@
     </row>
     <row r="250" spans="1:10" ht="75">
       <c r="A250" s="22" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D250" s="24"/>
       <c r="E250" s="22" t="s">
@@ -16320,7 +16319,7 @@
         <v>1084</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -16347,7 +16346,7 @@
         <v>1084</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -16899,13 +16898,13 @@
     </row>
     <row r="318" spans="1:9" ht="60">
       <c r="A318" s="22" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B318" s="30" t="s">
         <v>1086</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -16918,10 +16917,10 @@
         <v>15</v>
       </c>
       <c r="H318" s="22" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="45">
@@ -17009,7 +17008,7 @@
         <v>1087</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
@@ -17515,7 +17514,7 @@
         <v>1090</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="29" t="s">
@@ -18067,13 +18066,13 @@
     </row>
     <row r="364" spans="1:9" ht="30">
       <c r="A364" s="22" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B364" s="30" t="s">
         <v>1093</v>
       </c>
       <c r="C364" s="35" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D364" s="34"/>
       <c r="E364" s="34" t="s">
@@ -18092,13 +18091,13 @@
     </row>
     <row r="365" spans="1:9" ht="30">
       <c r="A365" s="22" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B365" s="30" t="s">
         <v>1093</v>
       </c>
       <c r="C365" s="35" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D365" s="34"/>
       <c r="E365" s="34" t="s">
@@ -19697,7 +19696,7 @@
         <v>20</v>
       </c>
       <c r="I428" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="45">
@@ -20137,7 +20136,7 @@
         <v>1102</v>
       </c>
       <c r="C446" s="20" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29" t="s">
@@ -20412,7 +20411,7 @@
         <v>1103</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -21547,7 +21546,7 @@
         <v>1108</v>
       </c>
       <c r="C502" s="20" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="D502" s="29"/>
       <c r="E502" s="29" t="s">
@@ -21622,7 +21621,7 @@
         <v>1109</v>
       </c>
       <c r="C505" s="20" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="D505" s="29"/>
       <c r="E505" s="29" t="s">
@@ -21672,7 +21671,7 @@
         <v>1110</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -21722,7 +21721,7 @@
         <v>1111</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="29" t="s">
@@ -21738,7 +21737,7 @@
         <v>17</v>
       </c>
       <c r="I509" s="31" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="510" spans="1:9" ht="30">
@@ -21749,7 +21748,7 @@
         <v>1111</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D510" s="29"/>
       <c r="E510" s="29" t="s">
@@ -21793,13 +21792,13 @@
     </row>
     <row r="512" spans="1:9" ht="30">
       <c r="A512" s="22" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B512" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C512" s="20" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -21818,13 +21817,13 @@
     </row>
     <row r="513" spans="1:9" ht="45">
       <c r="A513" s="22" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B513" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C513" s="20" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -21843,13 +21842,13 @@
     </row>
     <row r="514" spans="1:9" ht="30">
       <c r="A514" s="22" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B514" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C514" s="35" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="29" t="s">
@@ -21868,13 +21867,13 @@
     </row>
     <row r="515" spans="1:9" ht="30">
       <c r="A515" s="22" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B515" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C515" s="35" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D515" s="34"/>
       <c r="E515" s="29" t="s">
@@ -21893,13 +21892,13 @@
     </row>
     <row r="516" spans="1:9" ht="30">
       <c r="A516" s="22" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B516" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C516" s="35" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D516" s="34"/>
       <c r="E516" s="29" t="s">
@@ -21918,13 +21917,13 @@
     </row>
     <row r="517" spans="1:9" ht="45">
       <c r="A517" s="22" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B517" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C517" s="35" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D517" s="34"/>
       <c r="E517" s="29" t="s">
@@ -21943,13 +21942,13 @@
     </row>
     <row r="518" spans="1:9" ht="30">
       <c r="A518" s="22" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B518" s="30" t="s">
         <v>1112</v>
       </c>
       <c r="C518" s="35" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D518" s="34"/>
       <c r="E518" s="29" t="s">
@@ -21974,7 +21973,7 @@
         <v>1113</v>
       </c>
       <c r="C519" s="20" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D519" s="22"/>
       <c r="E519" s="22" t="s">
@@ -21999,7 +21998,7 @@
         <v>1113</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="D520" s="22"/>
       <c r="E520" s="22" t="s">
@@ -22018,7 +22017,7 @@
     </row>
     <row r="521" spans="1:9" ht="30">
       <c r="A521" s="22" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B521" s="24" t="s">
         <v>1114</v>
@@ -22049,7 +22048,7 @@
         <v>1114</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="D522" s="29"/>
       <c r="E522" s="29" t="s">
@@ -22099,7 +22098,7 @@
         <v>1115</v>
       </c>
       <c r="C524" s="20" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="D524" s="29"/>
       <c r="E524" s="29" t="s">
@@ -22143,13 +22142,13 @@
     </row>
     <row r="526" spans="1:9" ht="30">
       <c r="A526" s="34" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B526" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="C526" s="35" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D526" s="34"/>
       <c r="E526" s="34" t="s">
@@ -22168,13 +22167,13 @@
     </row>
     <row r="527" spans="1:9" ht="45">
       <c r="A527" s="34" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B527" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="C527" s="20" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="D527" s="34"/>
       <c r="E527" s="34" t="s">
@@ -22224,7 +22223,7 @@
         <v>1117</v>
       </c>
       <c r="C529" s="20" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D529" s="29"/>
       <c r="E529" s="29" t="s">
@@ -22274,7 +22273,7 @@
         <v>1118</v>
       </c>
       <c r="C531" s="20" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="D531" s="29"/>
       <c r="E531" s="29" t="s">
@@ -22324,7 +22323,7 @@
         <v>1119</v>
       </c>
       <c r="C533" s="20" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="D533" s="29"/>
       <c r="E533" s="29" t="s">
@@ -22424,7 +22423,7 @@
         <v>1120</v>
       </c>
       <c r="C537" s="20" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="D537" s="29"/>
       <c r="E537" s="29" t="s">
@@ -22446,7 +22445,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="24" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C538" s="31" t="s">
         <v>1617</v>
@@ -22471,10 +22470,10 @@
         <v>539</v>
       </c>
       <c r="B539" s="24" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C539" s="20" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="D539" s="29"/>
       <c r="E539" s="29" t="s">
@@ -22496,7 +22495,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="24" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C540" s="31" t="s">
         <v>1618</v>
@@ -22521,7 +22520,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="24" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C541" s="31" t="s">
         <v>1619</v>
@@ -22546,10 +22545,10 @@
         <v>542</v>
       </c>
       <c r="B542" s="24" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C542" s="20" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="D542" s="29"/>
       <c r="E542" s="29" t="s">
@@ -22599,7 +22598,7 @@
         <v>1121</v>
       </c>
       <c r="C544" s="20" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="D544" s="29"/>
       <c r="E544" s="29" t="s">
@@ -22699,7 +22698,7 @@
         <v>1122</v>
       </c>
       <c r="C548" s="20" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="D548" s="29"/>
       <c r="E548" s="29" t="s">
@@ -22799,7 +22798,7 @@
         <v>1123</v>
       </c>
       <c r="C552" s="20" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="D552" s="29"/>
       <c r="E552" s="29" t="s">
@@ -22874,7 +22873,7 @@
         <v>1124</v>
       </c>
       <c r="C555" s="20" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="D555" s="29"/>
       <c r="E555" s="29" t="s">
@@ -22949,7 +22948,7 @@
         <v>1125</v>
       </c>
       <c r="C558" s="20" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="D558" s="29"/>
       <c r="E558" s="29" t="s">
@@ -23026,7 +23025,7 @@
         <v>1126</v>
       </c>
       <c r="C561" s="20" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="29" t="s">
@@ -23101,7 +23100,7 @@
         <v>1127</v>
       </c>
       <c r="C564" s="20" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -23278,7 +23277,7 @@
         <v>1128</v>
       </c>
       <c r="C571" s="20" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
@@ -23353,7 +23352,7 @@
         <v>1129</v>
       </c>
       <c r="C574" s="20" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -23975,7 +23974,7 @@
         <v>32</v>
       </c>
       <c r="C598" s="20" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D598" s="29"/>
       <c r="E598" s="29" t="s">
@@ -24331,7 +24330,7 @@
         <v>1134</v>
       </c>
       <c r="C612" s="20" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -24381,7 +24380,7 @@
         <v>1134</v>
       </c>
       <c r="C614" s="20" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D614" s="29"/>
       <c r="E614" s="29" t="s">
@@ -24431,7 +24430,7 @@
         <v>1134</v>
       </c>
       <c r="C616" s="20" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D616" s="29"/>
       <c r="E616" s="29" t="s">
@@ -24456,7 +24455,7 @@
         <v>1134</v>
       </c>
       <c r="C617" s="20" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D617" s="29"/>
       <c r="E617" s="29" t="s">
@@ -24481,7 +24480,7 @@
         <v>1134</v>
       </c>
       <c r="C618" s="20" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D618" s="29"/>
       <c r="E618" s="29" t="s">
@@ -24506,7 +24505,7 @@
         <v>1134</v>
       </c>
       <c r="C619" s="20" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D619" s="29"/>
       <c r="E619" s="29" t="s">
@@ -24531,7 +24530,7 @@
         <v>1134</v>
       </c>
       <c r="C620" s="20" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D620" s="29"/>
       <c r="E620" s="29" t="s">
@@ -24556,7 +24555,7 @@
         <v>1134</v>
       </c>
       <c r="C621" s="20" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -24581,7 +24580,7 @@
         <v>1134</v>
       </c>
       <c r="C622" s="20" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D622" s="29"/>
       <c r="E622" s="29" t="s">
@@ -24606,7 +24605,7 @@
         <v>1134</v>
       </c>
       <c r="C623" s="20" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D623" s="29"/>
       <c r="E623" s="29" t="s">
@@ -24631,7 +24630,7 @@
         <v>1134</v>
       </c>
       <c r="C624" s="20" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D624" s="29"/>
       <c r="E624" s="29" t="s">
@@ -24656,7 +24655,7 @@
         <v>1135</v>
       </c>
       <c r="C625" s="20" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D625" s="29"/>
       <c r="E625" s="29" t="s">
@@ -24683,7 +24682,7 @@
         <v>1135</v>
       </c>
       <c r="C626" s="20" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D626" s="29"/>
       <c r="E626" s="29" t="s">
@@ -24710,7 +24709,7 @@
         <v>1135</v>
       </c>
       <c r="C627" s="20" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D627" s="29"/>
       <c r="E627" s="29" t="s">
@@ -25197,7 +25196,7 @@
         <v>1138</v>
       </c>
       <c r="C646" s="20" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D646" s="29"/>
       <c r="E646" s="29" t="s">
@@ -25216,13 +25215,13 @@
     </row>
     <row r="647" spans="1:9" ht="30">
       <c r="A647" s="22" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B647" s="30" t="s">
         <v>1138</v>
       </c>
       <c r="C647" s="35" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D647" s="34"/>
       <c r="E647" s="34" t="s">
@@ -26147,7 +26146,7 @@
         <v>1145</v>
       </c>
       <c r="C684" s="20" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D684" s="29"/>
       <c r="E684" s="29" t="s">
@@ -26172,7 +26171,7 @@
         <v>1145</v>
       </c>
       <c r="C685" s="20" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D685" s="29"/>
       <c r="E685" s="29" t="s">
@@ -26944,7 +26943,7 @@
         <v>1146</v>
       </c>
       <c r="C715" s="20" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D715" s="29"/>
       <c r="E715" s="29" t="s">
@@ -27267,13 +27266,13 @@
     </row>
     <row r="728" spans="1:9" ht="60">
       <c r="A728" s="22" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B728" s="30" t="s">
         <v>1146</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D728" s="29"/>
       <c r="E728" s="29" t="s">
@@ -27289,7 +27288,7 @@
         <v>17</v>
       </c>
       <c r="I728" s="20" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="729" spans="1:9" ht="30">
@@ -27341,7 +27340,7 @@
         <v>20</v>
       </c>
       <c r="I730" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="731" spans="1:9" ht="30">
@@ -27702,7 +27701,7 @@
         <v>1147</v>
       </c>
       <c r="C745" s="20" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D745" s="29"/>
       <c r="E745" s="29" t="s">
@@ -27822,7 +27821,7 @@
         <v>20</v>
       </c>
       <c r="I749" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="750" spans="1:9" ht="30">
@@ -28133,7 +28132,7 @@
         <v>1148</v>
       </c>
       <c r="C762" s="20" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D762" s="29"/>
       <c r="E762" s="29" t="s">
@@ -28158,7 +28157,7 @@
         <v>1148</v>
       </c>
       <c r="C763" s="20" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D763" s="29"/>
       <c r="E763" s="29" t="s">
@@ -28183,7 +28182,7 @@
         <v>1148</v>
       </c>
       <c r="C764" s="20" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D764" s="29"/>
       <c r="E764" s="29" t="s">
@@ -28208,7 +28207,7 @@
         <v>1148</v>
       </c>
       <c r="C765" s="20" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D765" s="29"/>
       <c r="E765" s="29" t="s">
@@ -28233,7 +28232,7 @@
         <v>1148</v>
       </c>
       <c r="C766" s="20" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D766" s="29"/>
       <c r="E766" s="29" t="s">
@@ -28258,7 +28257,7 @@
         <v>1148</v>
       </c>
       <c r="C767" s="20" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D767" s="29"/>
       <c r="E767" s="29" t="s">
@@ -28283,7 +28282,7 @@
         <v>1148</v>
       </c>
       <c r="C768" s="20" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D768" s="29"/>
       <c r="E768" s="29" t="s">
@@ -28308,7 +28307,7 @@
         <v>1148</v>
       </c>
       <c r="C769" s="20" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D769" s="29"/>
       <c r="E769" s="29" t="s">
@@ -28333,7 +28332,7 @@
         <v>1148</v>
       </c>
       <c r="C770" s="20" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D770" s="29"/>
       <c r="E770" s="29" t="s">
@@ -28358,7 +28357,7 @@
         <v>1148</v>
       </c>
       <c r="C771" s="20" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D771" s="29"/>
       <c r="E771" s="29" t="s">
@@ -28408,7 +28407,7 @@
         <v>1148</v>
       </c>
       <c r="C773" s="20" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D773" s="29"/>
       <c r="E773" s="29" t="s">
@@ -28433,7 +28432,7 @@
         <v>1148</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -28483,7 +28482,7 @@
         <v>1148</v>
       </c>
       <c r="C776" s="20" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D776" s="29"/>
       <c r="E776" s="29" t="s">
@@ -28533,7 +28532,7 @@
         <v>1148</v>
       </c>
       <c r="C778" s="20" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D778" s="29"/>
       <c r="E778" s="29" t="s">
@@ -28608,7 +28607,7 @@
         <v>1148</v>
       </c>
       <c r="C781" s="20" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -28624,7 +28623,7 @@
         <v>17</v>
       </c>
       <c r="I781" s="20" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="782" spans="1:9" ht="45">
@@ -28760,7 +28759,7 @@
         <v>1148</v>
       </c>
       <c r="C787" s="20" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D787" s="29"/>
       <c r="E787" s="29" t="s">
@@ -28785,7 +28784,7 @@
         <v>1148</v>
       </c>
       <c r="C788" s="20" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D788" s="29"/>
       <c r="E788" s="29" t="s">
@@ -28810,7 +28809,7 @@
         <v>1148</v>
       </c>
       <c r="C789" s="20" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D789" s="29"/>
       <c r="E789" s="29" t="s">
@@ -28887,7 +28886,7 @@
         <v>1148</v>
       </c>
       <c r="C792" s="20" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D792" s="29"/>
       <c r="E792" s="29" t="s">
@@ -28962,7 +28961,7 @@
         <v>1148</v>
       </c>
       <c r="C795" s="20" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D795" s="29"/>
       <c r="E795" s="29" t="s">
@@ -28989,7 +28988,7 @@
         <v>1148</v>
       </c>
       <c r="C796" s="20" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D796" s="29"/>
       <c r="E796" s="29" t="s">
@@ -29143,7 +29142,7 @@
         <v>1148</v>
       </c>
       <c r="C802" s="20" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D802" s="29"/>
       <c r="E802" s="29" t="s">
@@ -29193,7 +29192,7 @@
         <v>1148</v>
       </c>
       <c r="C804" s="20" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D804" s="29"/>
       <c r="E804" s="29" t="s">
@@ -29243,7 +29242,7 @@
         <v>1148</v>
       </c>
       <c r="C806" s="20" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D806" s="29"/>
       <c r="E806" s="29" t="s">
@@ -29293,7 +29292,7 @@
         <v>1148</v>
       </c>
       <c r="C808" s="20" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D808" s="29"/>
       <c r="E808" s="29" t="s">
@@ -29620,7 +29619,7 @@
         <v>1149</v>
       </c>
       <c r="C821" s="20" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D821" s="29"/>
       <c r="E821" s="29" t="s">
@@ -30074,7 +30073,7 @@
         <v>1150</v>
       </c>
       <c r="C839" s="20" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D839" s="29"/>
       <c r="E839" s="29" t="s">
@@ -30090,7 +30089,7 @@
         <v>20</v>
       </c>
       <c r="I839" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="840" spans="1:9" ht="45">
@@ -31286,7 +31285,7 @@
         <v>1153</v>
       </c>
       <c r="C887" s="20" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D887" s="29"/>
       <c r="E887" s="29" t="s">
@@ -31313,7 +31312,7 @@
         <v>1153</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -31442,7 +31441,7 @@
         <v>1153</v>
       </c>
       <c r="C893" s="20" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D893" s="29"/>
       <c r="E893" s="29" t="s">
@@ -33010,7 +33009,7 @@
         <v>1157</v>
       </c>
       <c r="C955" s="20" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D955" s="29"/>
       <c r="E955" s="29" t="s">
@@ -33164,7 +33163,7 @@
         <v>1158</v>
       </c>
       <c r="C961" s="20" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D961" s="29"/>
       <c r="E961" s="29" t="s">
@@ -33314,7 +33313,7 @@
         <v>1158</v>
       </c>
       <c r="C967" s="20" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D967" s="29"/>
       <c r="E967" s="29" t="s">
@@ -33364,7 +33363,7 @@
         <v>1158</v>
       </c>
       <c r="C969" s="20" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D969" s="29"/>
       <c r="E969" s="29" t="s">
@@ -33439,7 +33438,7 @@
         <v>1158</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D972" s="29"/>
       <c r="E972" s="29" t="s">
@@ -33668,7 +33667,7 @@
         <v>1159</v>
       </c>
       <c r="C981" s="20" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D981" s="29" t="s">
         <v>2052</v>
@@ -33697,7 +33696,7 @@
         <v>1159</v>
       </c>
       <c r="C982" s="20" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D982" s="29" t="s">
         <v>2053</v>
@@ -33715,7 +33714,7 @@
         <v>20</v>
       </c>
       <c r="I982" s="20" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="983" spans="1:9" ht="60">
@@ -33726,7 +33725,7 @@
         <v>1159</v>
       </c>
       <c r="C983" s="20" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="D983" s="29" t="s">
         <v>2053</v>
@@ -33811,7 +33810,7 @@
         <v>1159</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="D986" s="29" t="s">
         <v>2054</v>
@@ -33840,7 +33839,7 @@
         <v>1159</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D987" s="29" t="s">
         <v>2054</v>
@@ -33869,7 +33868,7 @@
         <v>1159</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="D988" s="29" t="s">
         <v>2055</v>
@@ -33919,16 +33918,16 @@
     </row>
     <row r="990" spans="1:9" ht="45">
       <c r="A990" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B990" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C990" s="39" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D990" s="22" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="E990" s="29" t="s">
         <v>22</v>
@@ -33948,16 +33947,16 @@
     </row>
     <row r="991" spans="1:9" ht="60">
       <c r="A991" s="37" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B991" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="C991" s="39" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D991" s="22" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="E991" s="29" t="s">
         <v>22</v>
@@ -33983,7 +33982,7 @@
         <v>1159</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="D992" s="29" t="s">
         <v>2056</v>
@@ -34039,7 +34038,7 @@
         <v>1159</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D994" s="29" t="s">
         <v>2057</v>
@@ -34062,19 +34061,19 @@
     </row>
     <row r="995" spans="1:9" ht="60">
       <c r="A995" s="22" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B995" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C995" s="20" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D995" s="22" t="s">
         <v>2310</v>
       </c>
-      <c r="D995" s="22" t="s">
-        <v>2311</v>
-      </c>
       <c r="E995" s="22" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="F995" s="29" t="s">
         <v>6</v>
@@ -34089,48 +34088,48 @@
     </row>
     <row r="996" spans="1:9" ht="45">
       <c r="A996" s="22" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B996" s="24">
+        <v>6</v>
+      </c>
+      <c r="C996" s="20" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D996" s="22" t="s">
         <v>2320</v>
       </c>
-      <c r="B996" s="24">
-        <v>6</v>
-      </c>
-      <c r="C996" s="20" t="s">
-        <v>2318</v>
-      </c>
-      <c r="D996" s="22" t="s">
+      <c r="E996" s="22" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F996" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G996" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H996" s="22" t="s">
         <v>2321</v>
       </c>
-      <c r="E996" s="22" t="s">
-        <v>2314</v>
-      </c>
-      <c r="F996" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G996" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H996" s="22" t="s">
-        <v>2322</v>
-      </c>
       <c r="I996" s="20" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="997" spans="1:9" ht="45">
       <c r="A997" s="22" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B997" s="24">
         <v>6</v>
       </c>
       <c r="C997" s="20" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="D997" s="22" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E997" s="22" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="F997" s="22" t="s">
         <v>6</v>
@@ -34142,7 +34141,7 @@
         <v>20</v>
       </c>
       <c r="I997" s="20" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="998" spans="1:9" ht="75">
@@ -34153,7 +34152,7 @@
         <v>1159</v>
       </c>
       <c r="C998" s="20" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D998" s="29" t="s">
         <v>2058</v>
@@ -34198,7 +34197,7 @@
         <v>20</v>
       </c>
       <c r="I999" s="20" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1000" spans="1:9" ht="90">
@@ -34209,7 +34208,7 @@
         <v>1159</v>
       </c>
       <c r="C1000" s="20" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="D1000" s="29" t="s">
         <v>2059</v>
@@ -34259,16 +34258,16 @@
     </row>
     <row r="1002" spans="1:9" ht="60">
       <c r="A1002" s="34" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B1002" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1002" s="20" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="D1002" s="34" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E1002" s="29" t="s">
         <v>22</v>
@@ -34286,16 +34285,16 @@
     </row>
     <row r="1003" spans="1:9" ht="45">
       <c r="A1003" s="22" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1003" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1003" s="20" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D1003" s="22" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E1003" s="29" t="s">
         <v>22</v>
@@ -34321,7 +34320,7 @@
         <v>1159</v>
       </c>
       <c r="C1004" s="20" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D1004" s="29" t="s">
         <v>2060</v>
@@ -34379,7 +34378,7 @@
         <v>1159</v>
       </c>
       <c r="C1006" s="20" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="D1006" s="29" t="s">
         <v>2061</v>
@@ -34408,7 +34407,7 @@
         <v>1159</v>
       </c>
       <c r="C1007" s="20" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D1007" s="29" t="s">
         <v>2061</v>
@@ -34431,16 +34430,16 @@
     </row>
     <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="22" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1008" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1008" s="20" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D1008" s="34" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E1008" s="29" t="s">
         <v>22</v>
@@ -34460,16 +34459,16 @@
     </row>
     <row r="1009" spans="1:9" ht="60">
       <c r="A1009" s="22" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1009" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1009" s="20" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="D1009" s="34" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E1009" s="29" t="s">
         <v>22</v>
@@ -34495,7 +34494,7 @@
         <v>1159</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D1010" s="29" t="s">
         <v>2062</v>
@@ -34524,7 +34523,7 @@
         <v>1159</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="D1011" s="22" t="s">
         <v>2062</v>
@@ -34547,16 +34546,16 @@
     </row>
     <row r="1012" spans="1:9" ht="90">
       <c r="A1012" s="34" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B1012" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1012" s="20" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D1012" s="22" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E1012" s="29" t="s">
         <v>22</v>
@@ -34576,16 +34575,16 @@
     </row>
     <row r="1013" spans="1:9" ht="60">
       <c r="A1013" s="34" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1013" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1013" s="20" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D1013" s="22" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E1013" s="29" t="s">
         <v>22</v>
@@ -34605,13 +34604,13 @@
     </row>
     <row r="1014" spans="1:9" ht="60">
       <c r="A1014" s="22" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1014" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1014" s="20" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D1014" s="29" t="s">
         <v>2063</v>
@@ -34640,7 +34639,7 @@
         <v>1159</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D1015" s="29" t="s">
         <v>2063</v>
@@ -34669,7 +34668,7 @@
         <v>1159</v>
       </c>
       <c r="C1016" s="20" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D1016" s="29" t="s">
         <v>2063</v>
@@ -34696,7 +34695,7 @@
         <v>1159</v>
       </c>
       <c r="C1017" s="20" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="D1017" s="29" t="s">
         <v>2064</v>
@@ -34719,13 +34718,13 @@
     </row>
     <row r="1018" spans="1:9" ht="60">
       <c r="A1018" s="22" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B1018" s="40">
         <v>6</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="D1018" s="29" t="s">
         <v>2064</v>
@@ -34754,7 +34753,7 @@
         <v>1159</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D1019" s="29" t="s">
         <v>2064</v>
@@ -34783,7 +34782,7 @@
         <v>1159</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D1020" s="22" t="s">
         <v>2065</v>
@@ -34812,7 +34811,7 @@
         <v>1159</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="D1021" s="29" t="s">
         <v>2065</v>
@@ -34841,7 +34840,7 @@
         <v>1159</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D1022" s="29" t="s">
         <v>2065</v>
@@ -34886,7 +34885,7 @@
         <v>20</v>
       </c>
       <c r="I1023" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1024" spans="1:9" ht="60">
@@ -34897,7 +34896,7 @@
         <v>1159</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D1024" s="29" t="s">
         <v>2067</v>
@@ -34949,16 +34948,16 @@
     </row>
     <row r="1026" spans="1:9" ht="75">
       <c r="A1026" s="34" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B1026" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1026" s="20" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D1026" s="34" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34976,16 +34975,16 @@
     </row>
     <row r="1027" spans="1:9" ht="60">
       <c r="A1027" s="34" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B1027" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1027" s="35" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D1027" s="34" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1027" s="29" t="s">
         <v>22</v>
@@ -35003,16 +35002,16 @@
     </row>
     <row r="1028" spans="1:9" ht="60">
       <c r="A1028" s="34" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B1028" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1028" s="35" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D1028" s="34" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1028" s="29" t="s">
         <v>22</v>
@@ -35036,7 +35035,7 @@
         <v>1159</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D1029" s="29" t="s">
         <v>2068</v>
@@ -35059,7 +35058,7 @@
     </row>
     <row r="1030" spans="1:9" ht="45">
       <c r="A1030" s="22" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B1030" s="30" t="s">
         <v>1159</v>
@@ -35088,13 +35087,13 @@
     </row>
     <row r="1031" spans="1:9" ht="45">
       <c r="A1031" s="22" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1031" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1031" s="20" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D1031" s="22"/>
       <c r="E1031" s="22" t="s">
@@ -35110,18 +35109,18 @@
         <v>21</v>
       </c>
       <c r="I1031" s="20" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="22" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1032" s="24" t="s">
         <v>1159</v>
       </c>
       <c r="C1032" s="20" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D1032" s="22"/>
       <c r="E1032" s="22" t="s">
@@ -35142,7 +35141,7 @@
     </row>
     <row r="1033" spans="1:9">
       <c r="A1033" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1033" s="30" t="s">
         <v>1063</v>
@@ -35323,7 +35322,7 @@
         <v>1161</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D1040" s="29"/>
       <c r="E1040" s="29" t="s">
@@ -35345,7 +35344,7 @@
         <v>1019</v>
       </c>
       <c r="B1041" s="24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C1041" s="20" t="s">
         <v>2006</v>
@@ -35370,7 +35369,7 @@
         <v>1020</v>
       </c>
       <c r="B1042" s="24" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C1042" s="31" t="s">
         <v>2007</v>
@@ -35395,7 +35394,7 @@
         <v>1021</v>
       </c>
       <c r="B1043" s="24" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C1043" s="20" t="s">
         <v>2008</v>
@@ -35420,7 +35419,7 @@
         <v>1022</v>
       </c>
       <c r="B1044" s="24" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C1044" s="31" t="s">
         <v>2009</v>
@@ -35445,7 +35444,7 @@
         <v>1023</v>
       </c>
       <c r="B1045" s="24" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C1045" s="20" t="s">
         <v>2010</v>
@@ -35470,7 +35469,7 @@
         <v>1024</v>
       </c>
       <c r="B1046" s="24" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C1046" s="31" t="s">
         <v>2011</v>
@@ -35495,7 +35494,7 @@
         <v>1025</v>
       </c>
       <c r="B1047" s="24" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C1047" s="20" t="s">
         <v>2012</v>
@@ -35520,7 +35519,7 @@
         <v>1026</v>
       </c>
       <c r="B1048" s="24" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C1048" s="20" t="s">
         <v>2013</v>
@@ -35545,10 +35544,10 @@
         <v>1027</v>
       </c>
       <c r="B1049" s="24" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1049" s="29"/>
       <c r="E1049" s="29" t="s">
@@ -35570,7 +35569,7 @@
         <v>1028</v>
       </c>
       <c r="B1050" s="24" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C1050" s="20" t="s">
         <v>2014</v>
@@ -35595,7 +35594,7 @@
         <v>1029</v>
       </c>
       <c r="B1051" s="24" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C1051" s="20" t="s">
         <v>2015</v>
@@ -35620,7 +35619,7 @@
         <v>1030</v>
       </c>
       <c r="B1052" s="24" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C1052" s="31" t="s">
         <v>2016</v>
@@ -35645,7 +35644,7 @@
         <v>1031</v>
       </c>
       <c r="B1053" s="24" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C1053" s="20" t="s">
         <v>2017</v>
@@ -35670,7 +35669,7 @@
         <v>1032</v>
       </c>
       <c r="B1054" s="24" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C1054" s="31" t="s">
         <v>2018</v>
@@ -35695,7 +35694,7 @@
         <v>1033</v>
       </c>
       <c r="B1055" s="24" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C1055" s="20" t="s">
         <v>2019</v>
@@ -35720,7 +35719,7 @@
         <v>1034</v>
       </c>
       <c r="B1056" s="24" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C1056" s="31" t="s">
         <v>2020</v>
@@ -35745,7 +35744,7 @@
         <v>1035</v>
       </c>
       <c r="B1057" s="24" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C1057" s="20" t="s">
         <v>2021</v>
@@ -35770,7 +35769,7 @@
         <v>1036</v>
       </c>
       <c r="B1058" s="24" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C1058" s="31" t="s">
         <v>2022</v>
@@ -35795,7 +35794,7 @@
         <v>1037</v>
       </c>
       <c r="B1059" s="24" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C1059" s="20" t="s">
         <v>2023</v>
@@ -35820,7 +35819,7 @@
         <v>1038</v>
       </c>
       <c r="B1060" s="24" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C1060" s="31" t="s">
         <v>2024</v>
@@ -35845,7 +35844,7 @@
         <v>1039</v>
       </c>
       <c r="B1061" s="24" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C1061" s="20" t="s">
         <v>2025</v>
@@ -35870,7 +35869,7 @@
         <v>1040</v>
       </c>
       <c r="B1062" s="24" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C1062" s="31" t="s">
         <v>2026</v>
@@ -35895,7 +35894,7 @@
         <v>1041</v>
       </c>
       <c r="B1063" s="24" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C1063" s="20" t="s">
         <v>2027</v>
@@ -35920,7 +35919,7 @@
         <v>1042</v>
       </c>
       <c r="B1064" s="24" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C1064" s="31" t="s">
         <v>2028</v>
@@ -35945,7 +35944,7 @@
         <v>1043</v>
       </c>
       <c r="B1065" s="24" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C1065" s="20" t="s">
         <v>2029</v>
@@ -35970,7 +35969,7 @@
         <v>1044</v>
       </c>
       <c r="B1066" s="24" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C1066" s="31" t="s">
         <v>2030</v>
@@ -35995,7 +35994,7 @@
         <v>1045</v>
       </c>
       <c r="B1067" s="24" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C1067" s="20" t="s">
         <v>2031</v>
@@ -36020,7 +36019,7 @@
         <v>1046</v>
       </c>
       <c r="B1068" s="24" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C1068" s="31" t="s">
         <v>2032</v>
@@ -36045,7 +36044,7 @@
         <v>1047</v>
       </c>
       <c r="B1069" s="24" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C1069" s="20" t="s">
         <v>2033</v>
@@ -36070,7 +36069,7 @@
         <v>1048</v>
       </c>
       <c r="B1070" s="24" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C1070" s="31" t="s">
         <v>2034</v>
@@ -36095,7 +36094,7 @@
         <v>1049</v>
       </c>
       <c r="B1071" s="24" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C1071" s="20" t="s">
         <v>2035</v>
@@ -36120,7 +36119,7 @@
         <v>1050</v>
       </c>
       <c r="B1072" s="24" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C1072" s="31" t="s">
         <v>2036</v>
@@ -36145,7 +36144,7 @@
         <v>1051</v>
       </c>
       <c r="B1073" s="24" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C1073" s="20" t="s">
         <v>2037</v>
@@ -36170,7 +36169,7 @@
         <v>1052</v>
       </c>
       <c r="B1074" s="24" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C1074" s="31" t="s">
         <v>2038</v>
@@ -36195,7 +36194,7 @@
         <v>1053</v>
       </c>
       <c r="B1075" s="24" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C1075" s="20" t="s">
         <v>2039</v>
@@ -36220,7 +36219,7 @@
         <v>1054</v>
       </c>
       <c r="B1076" s="24" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C1076" s="31" t="s">
         <v>2040</v>
@@ -36245,7 +36244,7 @@
         <v>1055</v>
       </c>
       <c r="B1077" s="24" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1077" s="20" t="s">
         <v>2041</v>
@@ -36270,7 +36269,7 @@
         <v>1056</v>
       </c>
       <c r="B1078" s="24" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1078" s="31" t="s">
         <v>2042</v>
@@ -36295,7 +36294,7 @@
         <v>1057</v>
       </c>
       <c r="B1079" s="24" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1079" s="20" t="s">
         <v>2043</v>
@@ -36320,7 +36319,7 @@
         <v>1058</v>
       </c>
       <c r="B1080" s="24" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1080" s="31" t="s">
         <v>2044</v>
@@ -36345,7 +36344,7 @@
         <v>1059</v>
       </c>
       <c r="B1081" s="24" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1081" s="20" t="s">
         <v>2045</v>
@@ -36370,7 +36369,7 @@
         <v>1060</v>
       </c>
       <c r="B1082" s="24" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1082" s="31" t="s">
         <v>2046</v>
@@ -36396,6 +36395,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36403,11 +36407,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">
@@ -36601,7 +36600,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1019:B1082 B991:B997 B19:B990 B1083 B998:B1017 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B1019:B1082 B991:B997 B19:B990 B1083 B998:B1017" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF757B-1FAC-4ECF-A9F0-D8DEFE17E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436B72D9-A79D-434F-8B2B-08BC25E1A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1082</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1081</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="2430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7695" uniqueCount="2428">
   <si>
     <t>Req ID</t>
   </si>
@@ -7296,15 +7296,6 @@
     <t>Verified by derived requirements: MS-OXCFOLD_R764001, MS-OXCFOLD_R764002.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] If this bit [DELETE_HARD_DELETE] is set, implement does not hard delete the folder. (Microsoft Exchange server 2013 and above follow this behavior).</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If this bit [DELETE_HARD_DELETE] is set, implement does hard delete the folder. &lt;4&gt; Section 2.2.1.3.1:  For Exchange 2003, Exchange 2007 and Exchange 2010, if DELETE_HARD_DELETE is set, the folder is hard deleted.</t>
-  </si>
-  <si>
-    <t>MS-OXCFOLD_R764001</t>
-  </si>
-  <si>
     <t>MS-OXCFOLD_R764002</t>
   </si>
   <si>
@@ -7506,21 +7497,12 @@
     <t>[In Appendix A: Product Behavior] Implementation does not support the RopHardDeleteMessagesAndSubfolders ROP ([MS-OXCROPS] section 2.2.4.10) for public folders. &lt;8&gt; Section 2.2.1.10: Exchange 2013, Exchange 2016 and Exchange 2019 do not support the RopHardDeleteMessagesAndSubfolders ROP ([MS-OXCROPS] section 2.2.4.10) for public folders.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] The implementation does not support the PidTagAddressBookEntryId property. &lt;10&gt; Section 2.2.2.2.1.4:  Exchange 2013, Exchange 2016 and Exchange 2019 do not support the PidTagAddressBookEntryId property.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation returns ecAccessdenied if the client does not have permissions to create the folder. &lt;13&gt; Section 3.2.5.2: Exchange 2007, Exchange 2013, Exchange 2016 and Exchange 2019 return ecAccessdenied.</t>
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] If the ROP was called to create a search folder on a public folders message store, the implemetation does return ecNotSupported. &lt;14&gt; Exchange 2007, Exchange 2013, Exchange 2016 and Exchange 2019 return ecNotSupported.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does ignore invalid bits instead of failing the ROP [RopDeleteFolder], if the client sets an invalid bit in the DeleteFolderFlags field of the ROP request buffer. &lt;15&gt; Section 3.2.5.3:  Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 ignore invalid bits instead of failing the ROP.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder. &lt;20&gt; Section 3.2.5.9: Update Rollup 4 for Exchange Server 2010 Service Pack 2 (SP2), Exchange 2013, Exchange 2016 and Exchange 2019 return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] If the client sets an invalid bit in the SearchFlags field, implementation does fail the RopSetSearchCriteria ROP operation with ecInvalidParam (0x80070057). (Microsoft Exchange 2010, Microsoft Exchange 2013 and Microsoft Exchange 2016 follow this behavior.)</t>
   </si>
   <si>
@@ -7533,83 +7515,94 @@
     <t>[In Appendix A: Product Behavior] If rules are associated with the folder, implementation does set a zero value to HasRules field. &lt;2&gt; Section 2.2.1.1.2: Exchange 2003 and Exchange 2007, Exchange 2016 and Exchange 2019 return zero (FALSE) in the HasRules field, even when there are rules on the Inbox folder.</t>
   </si>
   <si>
+    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.646) specifies the number of messages in a folder, as computed by the message store.</t>
+  </si>
+  <si>
+    <t>[In PidTagContentUnreadCount Property] The PidTagContentUnreadCount property ([MS-OXPROPS] section 2.648) specifies the number of unread messages in a folder, as computed by the message store.</t>
+  </si>
+  <si>
+    <t>[In PidTagDeletedOn Property] The PidTagDeletedOn property ([MS-OXPROPS] section 2.670) specifies the time when the folder was soft deleted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In PidTagAddressBookEntryId Property] The PidTagAddressBookEntryId property ([MS-OXPROPS] section 2.521) contains an Address Book EntryID structure, as specified in [MS-OXCDATA] section 2.2.5.2, that specifies the name-service entry ID of a directory object that refers to a public folder. &lt;10&gt; </t>
+  </si>
+  <si>
+    <t>[In PidTagFolderFlags Property] The PidTagFolderId property ([MS-OXPROPS] section 2.701) contains a computed value that specifies the type or state of a folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagFolderId Property] The PidTagFolderId property ([MS-OXPROPS] section 2.700) contains a FID structure ([MS-OXCDATA] section 2.2.1.1) that uniquely identifies a folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagParentEntryId Property] The PidTagParentEntryId property ([MS-OXPROPS] section 2.858) contains a Folder EntryID structure, as specified in [MS-OXCDATA] section 2.2.4.1, that specifies the entry ID of the folder that contains the message or subfolder.</t>
+  </si>
+  <si>
+    <t>[In PidTagHierarchyChangeNumber Property] The PidTagHierarchyChangeNumber property ([MS-OXPROPS] section 2.720) specifies the number of subfolders in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.796) specifies the aggregate size of messages in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagHierRev Property] The PidTagHierRev property ([MS-OXPROPS] section 2.721) specifies the time, in Coordinated Universal Time (UTC), to trigger the client in cached mode to synchronize the folder hierarchy.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.797) specifies the 64-bit version of the PidTagMessageSize property (section 2.2.2.2.1.7).</t>
+  </si>
+  <si>
+    <t>[In PidTagSubfolders Property] The PidTagSubfolders property ([MS-OXPROPS] section 2.1032) specifies whether the folder has any subfolders.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocalCommitTime Property] The PidTagLocalCommitTime property ([MS-OXPROPS] section 2.772) specifies the time, in Coordinated Universal Time (UTC), that the folder was last changed.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocalCommitTimeMax Property] The PidTagLocalCommitTimeMax property ([MS-OXPROPS] section 2.773) specifies the most recent time that a top level object within a folder was changed.</t>
+  </si>
+  <si>
+    <t>[In PidTagDeletedCountTotal Property] The PidTagDeletedCountTotal property ([MS-OXPROPS] section 2.669) specifies the total number of messages that have been deleted from a folder, excluding messages that have been deleted from the folder's subfolders.</t>
+  </si>
+  <si>
+    <t>[In PidTagAttributeHidden Property] The PidTagAttributeHidden property ([MS-OXPROPS] section 2.611) specifies whether the folder is hidden.</t>
+  </si>
+  <si>
+    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.637) contains a comment about the purpose or content of the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagContainerClass Property] The PidTagContainerClass property ([MS-OXPROPS] section 2.642) specifies the type of Message object that the folder contains.</t>
+  </si>
+  <si>
+    <t>[PidTagContainerHierarchy Property] The PidTagContainerHierarchy property ([MS-OXPROPS] section 2.645) contains identifiers of the subfolders that are contained in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagDisplayName Property] The PidTagDisplayName property ([MS-OXPROPS] section 2.676) specifies the display name of the folder.</t>
+  </si>
+  <si>
+    <t>[PidTagFolderAssociatedContents Property] The PidTagFolderAssociatedContents property ([MS-OXPROPS] section 2.699) contains identifiers of the FAI messages that are contained in the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagFolderType Property] The PidTagFolderType property ([MS-OXPROPS] section 2.702) specifies the type of the folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagRights Property] The PidTagRights property ([MS-OXPROPS] section 2.935) specifies the client's folder permissions.</t>
+  </si>
+  <si>
+    <t>MS-OXCFOLD</t>
+  </si>
+  <si>
     <t>MS-OXCFOLD_R114:I,MS-OXCFOLD_R764:i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.646) specifies the number of messages in a folder, as computed by the message store.</t>
-  </si>
-  <si>
-    <t>[In PidTagContentUnreadCount Property] The PidTagContentUnreadCount property ([MS-OXPROPS] section 2.648) specifies the number of unread messages in a folder, as computed by the message store.</t>
-  </si>
-  <si>
-    <t>[In PidTagDeletedOn Property] The PidTagDeletedOn property ([MS-OXPROPS] section 2.670) specifies the time when the folder was soft deleted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In PidTagAddressBookEntryId Property] The PidTagAddressBookEntryId property ([MS-OXPROPS] section 2.521) contains an Address Book EntryID structure, as specified in [MS-OXCDATA] section 2.2.5.2, that specifies the name-service entry ID of a directory object that refers to a public folder. &lt;10&gt; </t>
-  </si>
-  <si>
-    <t>[In PidTagFolderFlags Property] The PidTagFolderId property ([MS-OXPROPS] section 2.701) contains a computed value that specifies the type or state of a folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagFolderId Property] The PidTagFolderId property ([MS-OXPROPS] section 2.700) contains a FID structure ([MS-OXCDATA] section 2.2.1.1) that uniquely identifies a folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagParentEntryId Property] The PidTagParentEntryId property ([MS-OXPROPS] section 2.858) contains a Folder EntryID structure, as specified in [MS-OXCDATA] section 2.2.4.1, that specifies the entry ID of the folder that contains the message or subfolder.</t>
-  </si>
-  <si>
-    <t>[In PidTagHierarchyChangeNumber Property] The PidTagHierarchyChangeNumber property ([MS-OXPROPS] section 2.720) specifies the number of subfolders in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.796) specifies the aggregate size of messages in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagHierRev Property] The PidTagHierRev property ([MS-OXPROPS] section 2.721) specifies the time, in Coordinated Universal Time (UTC), to trigger the client in cached mode to synchronize the folder hierarchy.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.797) specifies the 64-bit version of the PidTagMessageSize property (section 2.2.2.2.1.7).</t>
-  </si>
-  <si>
-    <t>[In PidTagSubfolders Property] The PidTagSubfolders property ([MS-OXPROPS] section 2.1032) specifies whether the folder has any subfolders.</t>
-  </si>
-  <si>
-    <t>[In PidTagLocalCommitTime Property] The PidTagLocalCommitTime property ([MS-OXPROPS] section 2.772) specifies the time, in Coordinated Universal Time (UTC), that the folder was last changed.</t>
-  </si>
-  <si>
-    <t>[In PidTagLocalCommitTimeMax Property] The PidTagLocalCommitTimeMax property ([MS-OXPROPS] section 2.773) specifies the most recent time that a top level object within a folder was changed.</t>
-  </si>
-  <si>
-    <t>[In PidTagDeletedCountTotal Property] The PidTagDeletedCountTotal property ([MS-OXPROPS] section 2.669) specifies the total number of messages that have been deleted from a folder, excluding messages that have been deleted from the folder's subfolders.</t>
-  </si>
-  <si>
-    <t>[In PidTagAttributeHidden Property] The PidTagAttributeHidden property ([MS-OXPROPS] section 2.611) specifies whether the folder is hidden.</t>
-  </si>
-  <si>
-    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.637) contains a comment about the purpose or content of the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagContainerClass Property] The PidTagContainerClass property ([MS-OXPROPS] section 2.642) specifies the type of Message object that the folder contains.</t>
-  </si>
-  <si>
-    <t>[PidTagContainerHierarchy Property] The PidTagContainerHierarchy property ([MS-OXPROPS] section 2.645) contains identifiers of the subfolders that are contained in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagDisplayName Property] The PidTagDisplayName property ([MS-OXPROPS] section 2.676) specifies the display name of the folder.</t>
-  </si>
-  <si>
-    <t>[PidTagFolderAssociatedContents Property] The PidTagFolderAssociatedContents property ([MS-OXPROPS] section 2.699) contains identifiers of the FAI messages that are contained in the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagFolderType Property] The PidTagFolderType property ([MS-OXPROPS] section 2.702) specifies the type of the folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagRights Property] The PidTagRights property ([MS-OXPROPS] section 2.935) specifies the client's folder permissions.</t>
-  </si>
-  <si>
-    <t>MS-OXCFOLD</t>
-  </si>
-  <si>
-    <t>22.0</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If this bit [DELETE_HARD_DELETE] is set, implement does hard delete the folder. &lt;4&gt; Section 2.2.1.3.1:  For Exchange 2003 and later, if DELETE_HARD_DELETE is set, the folder is hard deleted.</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation does not support the PidTagAddressBookEntryId property. &lt;10&gt; Section 2.2.2.2.1.4:  Exchange 2013 and later do not support the PidTagAddressBookEntryId property.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does ignore invalid bits instead of failing the ROP [RopDeleteFolder], if the client sets an invalid bit in the DeleteFolderFlags field of the ROP request buffer. &lt;15&gt; Section 3.2.5.3:  Exchange 2010 and later ignore invalid bits instead of failing the ROP.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder. &lt;20&gt; Section 3.2.5.9: Update Rollup 4 for Exchange Server 2010 Service Pack 2 (SP2) and later return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder.</t>
   </si>
 </sst>
 </file>
@@ -7830,7 +7823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7914,9 +7907,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8669,8 +8659,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1082" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1082" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1081" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1081" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -9038,18 +9028,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L1083"/>
+  <dimension ref="A1:L1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A1016" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1020" sqref="C1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="67.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -9061,7 +9051,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2428</v>
+        <v>2421</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -9085,138 +9075,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>44308</v>
+        <v>44425</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>2307</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9229,12 +9219,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9247,12 +9237,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9265,12 +9255,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -9283,60 +9273,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>2305</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -16319,7 +16309,7 @@
         <v>1084</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -16346,7 +16336,7 @@
         <v>1084</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -16904,7 +16894,7 @@
         <v>1086</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -17008,7 +16998,7 @@
         <v>1087</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
@@ -17514,7 +17504,7 @@
         <v>1090</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="29" t="s">
@@ -20411,7 +20401,7 @@
         <v>1103</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -21546,7 +21536,7 @@
         <v>1108</v>
       </c>
       <c r="C502" s="20" t="s">
-        <v>2405</v>
+        <v>2398</v>
       </c>
       <c r="D502" s="29"/>
       <c r="E502" s="29" t="s">
@@ -21621,7 +21611,7 @@
         <v>1109</v>
       </c>
       <c r="C505" s="20" t="s">
-        <v>2406</v>
+        <v>2399</v>
       </c>
       <c r="D505" s="29"/>
       <c r="E505" s="29" t="s">
@@ -21671,7 +21661,7 @@
         <v>1110</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -21721,7 +21711,7 @@
         <v>1111</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>2408</v>
+        <v>2401</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="29" t="s">
@@ -21736,7 +21726,7 @@
       <c r="H509" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I509" s="31" t="s">
+      <c r="I509" s="20" t="s">
         <v>2295</v>
       </c>
     </row>
@@ -21823,7 +21813,7 @@
         <v>1112</v>
       </c>
       <c r="C513" s="20" t="s">
-        <v>2409</v>
+        <v>2402</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -21998,7 +21988,7 @@
         <v>1113</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>2410</v>
+        <v>2403</v>
       </c>
       <c r="D520" s="22"/>
       <c r="E520" s="22" t="s">
@@ -22048,7 +22038,7 @@
         <v>1114</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>2411</v>
+        <v>2404</v>
       </c>
       <c r="D522" s="29"/>
       <c r="E522" s="29" t="s">
@@ -22098,7 +22088,7 @@
         <v>1115</v>
       </c>
       <c r="C524" s="20" t="s">
-        <v>2412</v>
+        <v>2405</v>
       </c>
       <c r="D524" s="29"/>
       <c r="E524" s="29" t="s">
@@ -22173,7 +22163,7 @@
         <v>1116</v>
       </c>
       <c r="C527" s="20" t="s">
-        <v>2414</v>
+        <v>2407</v>
       </c>
       <c r="D527" s="34"/>
       <c r="E527" s="34" t="s">
@@ -22223,7 +22213,7 @@
         <v>1117</v>
       </c>
       <c r="C529" s="20" t="s">
-        <v>2413</v>
+        <v>2406</v>
       </c>
       <c r="D529" s="29"/>
       <c r="E529" s="29" t="s">
@@ -22273,7 +22263,7 @@
         <v>1118</v>
       </c>
       <c r="C531" s="20" t="s">
-        <v>2415</v>
+        <v>2408</v>
       </c>
       <c r="D531" s="29"/>
       <c r="E531" s="29" t="s">
@@ -22323,7 +22313,7 @@
         <v>1119</v>
       </c>
       <c r="C533" s="20" t="s">
-        <v>2416</v>
+        <v>2409</v>
       </c>
       <c r="D533" s="29"/>
       <c r="E533" s="29" t="s">
@@ -22423,7 +22413,7 @@
         <v>1120</v>
       </c>
       <c r="C537" s="20" t="s">
-        <v>2417</v>
+        <v>2410</v>
       </c>
       <c r="D537" s="29"/>
       <c r="E537" s="29" t="s">
@@ -22473,7 +22463,7 @@
         <v>2224</v>
       </c>
       <c r="C539" s="20" t="s">
-        <v>2418</v>
+        <v>2411</v>
       </c>
       <c r="D539" s="29"/>
       <c r="E539" s="29" t="s">
@@ -22548,7 +22538,7 @@
         <v>2225</v>
       </c>
       <c r="C542" s="20" t="s">
-        <v>2419</v>
+        <v>2412</v>
       </c>
       <c r="D542" s="29"/>
       <c r="E542" s="29" t="s">
@@ -22598,7 +22588,7 @@
         <v>1121</v>
       </c>
       <c r="C544" s="20" t="s">
-        <v>2420</v>
+        <v>2413</v>
       </c>
       <c r="D544" s="29"/>
       <c r="E544" s="29" t="s">
@@ -22698,7 +22688,7 @@
         <v>1122</v>
       </c>
       <c r="C548" s="20" t="s">
-        <v>2421</v>
+        <v>2414</v>
       </c>
       <c r="D548" s="29"/>
       <c r="E548" s="29" t="s">
@@ -22798,7 +22788,7 @@
         <v>1123</v>
       </c>
       <c r="C552" s="20" t="s">
-        <v>2422</v>
+        <v>2415</v>
       </c>
       <c r="D552" s="29"/>
       <c r="E552" s="29" t="s">
@@ -22873,7 +22863,7 @@
         <v>1124</v>
       </c>
       <c r="C555" s="20" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="D555" s="29"/>
       <c r="E555" s="29" t="s">
@@ -22948,7 +22938,7 @@
         <v>1125</v>
       </c>
       <c r="C558" s="20" t="s">
-        <v>2424</v>
+        <v>2417</v>
       </c>
       <c r="D558" s="29"/>
       <c r="E558" s="29" t="s">
@@ -23025,7 +23015,7 @@
         <v>1126</v>
       </c>
       <c r="C561" s="20" t="s">
-        <v>2425</v>
+        <v>2418</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="29" t="s">
@@ -23100,7 +23090,7 @@
         <v>1127</v>
       </c>
       <c r="C564" s="20" t="s">
-        <v>2426</v>
+        <v>2419</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -23277,7 +23267,7 @@
         <v>1128</v>
       </c>
       <c r="C571" s="20" t="s">
-        <v>2427</v>
+        <v>2420</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
@@ -23352,7 +23342,7 @@
         <v>1129</v>
       </c>
       <c r="C574" s="20" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -26171,7 +26161,7 @@
         <v>1145</v>
       </c>
       <c r="C685" s="20" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="D685" s="29"/>
       <c r="E685" s="29" t="s">
@@ -26943,7 +26933,7 @@
         <v>1146</v>
       </c>
       <c r="C715" s="20" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="D715" s="29"/>
       <c r="E715" s="29" t="s">
@@ -27272,7 +27262,7 @@
         <v>1146</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="D728" s="29"/>
       <c r="E728" s="29" t="s">
@@ -28607,7 +28597,7 @@
         <v>1148</v>
       </c>
       <c r="C781" s="20" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -28784,7 +28774,7 @@
         <v>1148</v>
       </c>
       <c r="C788" s="20" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="D788" s="29"/>
       <c r="E788" s="29" t="s">
@@ -28961,7 +28951,7 @@
         <v>1148</v>
       </c>
       <c r="C795" s="20" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="D795" s="29"/>
       <c r="E795" s="29" t="s">
@@ -28988,7 +28978,7 @@
         <v>1148</v>
       </c>
       <c r="C796" s="20" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="D796" s="29"/>
       <c r="E796" s="29" t="s">
@@ -31312,7 +31302,7 @@
         <v>1153</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -33009,7 +32999,7 @@
         <v>1157</v>
       </c>
       <c r="C955" s="20" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="D955" s="29"/>
       <c r="E955" s="29" t="s">
@@ -33363,7 +33353,7 @@
         <v>1158</v>
       </c>
       <c r="C969" s="20" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="D969" s="29"/>
       <c r="E969" s="29" t="s">
@@ -33438,7 +33428,7 @@
         <v>1158</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="D972" s="29"/>
       <c r="E972" s="29" t="s">
@@ -33725,7 +33715,7 @@
         <v>1159</v>
       </c>
       <c r="C983" s="20" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="D983" s="29" t="s">
         <v>2053</v>
@@ -33810,7 +33800,7 @@
         <v>1159</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="D986" s="29" t="s">
         <v>2054</v>
@@ -33839,7 +33829,7 @@
         <v>1159</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="D987" s="29" t="s">
         <v>2054</v>
@@ -33868,7 +33858,7 @@
         <v>1159</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="D988" s="29" t="s">
         <v>2055</v>
@@ -33916,18 +33906,18 @@
       </c>
       <c r="I989" s="31"/>
     </row>
-    <row r="990" spans="1:9" ht="45">
+    <row r="990" spans="1:9" ht="60">
       <c r="A990" s="37" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B990" s="38" t="s">
         <v>1159</v>
       </c>
-      <c r="C990" s="39" t="s">
-        <v>2325</v>
+      <c r="C990" s="20" t="s">
+        <v>2423</v>
       </c>
       <c r="D990" s="22" t="s">
-        <v>2404</v>
+        <v>2422</v>
       </c>
       <c r="E990" s="29" t="s">
         <v>22</v>
@@ -33945,18 +33935,18 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="991" spans="1:9" ht="60">
-      <c r="A991" s="37" t="s">
-        <v>2328</v>
-      </c>
-      <c r="B991" s="38" t="s">
+    <row r="991" spans="1:9" ht="75">
+      <c r="A991" s="22" t="s">
+        <v>988</v>
+      </c>
+      <c r="B991" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C991" s="39" t="s">
-        <v>2326</v>
-      </c>
-      <c r="D991" s="22" t="s">
-        <v>2404</v>
+      <c r="C991" s="20" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D991" s="29" t="s">
+        <v>2056</v>
       </c>
       <c r="E991" s="29" t="s">
         <v>22</v>
@@ -33968,21 +33958,19 @@
         <v>15</v>
       </c>
       <c r="H991" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I991" s="31" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="992" spans="1:9" ht="75">
+        <v>18</v>
+      </c>
+      <c r="I991" s="31"/>
+    </row>
+    <row r="992" spans="1:9" ht="60">
       <c r="A992" s="22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B992" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>2390</v>
+        <v>1992</v>
       </c>
       <c r="D992" s="29" t="s">
         <v>2056</v>
@@ -33997,22 +33985,24 @@
         <v>15</v>
       </c>
       <c r="H992" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I992" s="31"/>
-    </row>
-    <row r="993" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I992" s="31" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" ht="75">
       <c r="A993" s="22" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B993" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C993" s="20" t="s">
-        <v>1992</v>
+        <v>2388</v>
       </c>
       <c r="D993" s="29" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="E993" s="29" t="s">
         <v>22</v>
@@ -34030,21 +34020,21 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="994" spans="1:9" ht="75">
+    <row r="994" spans="1:9" ht="60">
       <c r="A994" s="22" t="s">
-        <v>990</v>
+        <v>2318</v>
       </c>
       <c r="B994" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2391</v>
-      </c>
-      <c r="D994" s="29" t="s">
-        <v>2057</v>
-      </c>
-      <c r="E994" s="29" t="s">
-        <v>22</v>
+        <v>2309</v>
+      </c>
+      <c r="D994" s="22" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E994" s="22" t="s">
+        <v>2312</v>
       </c>
       <c r="F994" s="29" t="s">
         <v>6</v>
@@ -34053,54 +34043,54 @@
         <v>15</v>
       </c>
       <c r="H994" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I994" s="31" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="995" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I994" s="31"/>
+    </row>
+    <row r="995" spans="1:9" ht="45">
       <c r="A995" s="22" t="s">
-        <v>2318</v>
-      </c>
-      <c r="B995" s="30" t="s">
-        <v>1159</v>
+        <v>2319</v>
+      </c>
+      <c r="B995" s="24">
+        <v>6</v>
       </c>
       <c r="C995" s="20" t="s">
-        <v>2309</v>
+        <v>2317</v>
       </c>
       <c r="D995" s="22" t="s">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="E995" s="22" t="s">
-        <v>2312</v>
-      </c>
-      <c r="F995" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G995" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H995" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I995" s="31"/>
+        <v>2313</v>
+      </c>
+      <c r="F995" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G995" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H995" s="22" t="s">
+        <v>2321</v>
+      </c>
+      <c r="I995" s="20" t="s">
+        <v>2315</v>
+      </c>
     </row>
     <row r="996" spans="1:9" ht="45">
       <c r="A996" s="22" t="s">
-        <v>2319</v>
+        <v>2308</v>
       </c>
       <c r="B996" s="24">
         <v>6</v>
       </c>
       <c r="C996" s="20" t="s">
-        <v>2317</v>
+        <v>2389</v>
       </c>
       <c r="D996" s="22" t="s">
-        <v>2320</v>
+        <v>2311</v>
       </c>
       <c r="E996" s="22" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="F996" s="22" t="s">
         <v>6</v>
@@ -34109,50 +34099,48 @@
         <v>15</v>
       </c>
       <c r="H996" s="22" t="s">
-        <v>2321</v>
+        <v>20</v>
       </c>
       <c r="I996" s="20" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="997" spans="1:9" ht="45">
-      <c r="A997" s="22" t="s">
-        <v>2308</v>
-      </c>
-      <c r="B997" s="24">
-        <v>6</v>
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" ht="75">
+      <c r="A997" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="B997" s="30" t="s">
+        <v>1159</v>
       </c>
       <c r="C997" s="20" t="s">
-        <v>2392</v>
-      </c>
-      <c r="D997" s="22" t="s">
-        <v>2311</v>
-      </c>
-      <c r="E997" s="22" t="s">
-        <v>2314</v>
-      </c>
-      <c r="F997" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G997" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H997" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I997" s="20" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="998" spans="1:9" ht="75">
+        <v>2390</v>
+      </c>
+      <c r="D997" s="29" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E997" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F997" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G997" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H997" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I997" s="31"/>
+    </row>
+    <row r="998" spans="1:9" ht="60">
       <c r="A998" s="29" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B998" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C998" s="20" t="s">
-        <v>2393</v>
+      <c r="C998" s="31" t="s">
+        <v>1993</v>
       </c>
       <c r="D998" s="29" t="s">
         <v>2058</v>
@@ -34167,22 +34155,24 @@
         <v>15</v>
       </c>
       <c r="H998" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I998" s="31"/>
-    </row>
-    <row r="999" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I998" s="20" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" ht="90">
       <c r="A999" s="29" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B999" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C999" s="31" t="s">
-        <v>1993</v>
+      <c r="C999" s="20" t="s">
+        <v>2391</v>
       </c>
       <c r="D999" s="29" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="E999" s="29" t="s">
         <v>22</v>
@@ -34194,21 +34184,19 @@
         <v>15</v>
       </c>
       <c r="H999" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I999" s="20" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:9" ht="90">
+        <v>18</v>
+      </c>
+      <c r="I999" s="31"/>
+    </row>
+    <row r="1000" spans="1:9" ht="60">
       <c r="A1000" s="29" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B1000" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C1000" s="20" t="s">
-        <v>2394</v>
+      <c r="C1000" s="31" t="s">
+        <v>1994</v>
       </c>
       <c r="D1000" s="29" t="s">
         <v>2059</v>
@@ -34223,51 +34211,51 @@
         <v>15</v>
       </c>
       <c r="H1000" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1000" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I1000" s="31" t="s">
+        <v>2155</v>
+      </c>
     </row>
     <row r="1001" spans="1:9" ht="60">
-      <c r="A1001" s="29" t="s">
-        <v>994</v>
-      </c>
-      <c r="B1001" s="30" t="s">
+      <c r="A1001" s="34" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1001" s="36" t="s">
         <v>1159</v>
       </c>
-      <c r="C1001" s="31" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D1001" s="29" t="s">
-        <v>2059</v>
+      <c r="C1001" s="20" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D1001" s="34" t="s">
+        <v>2288</v>
       </c>
       <c r="E1001" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1001" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1001" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1001" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1001" s="31" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:9" ht="60">
-      <c r="A1002" s="34" t="s">
-        <v>2286</v>
+      <c r="F1001" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1001" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1001" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1001" s="35"/>
+    </row>
+    <row r="1002" spans="1:9" ht="45">
+      <c r="A1002" s="22" t="s">
+        <v>2287</v>
       </c>
       <c r="B1002" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1002" s="20" t="s">
-        <v>2395</v>
-      </c>
-      <c r="D1002" s="34" t="s">
-        <v>2288</v>
+        <v>2294</v>
+      </c>
+      <c r="D1002" s="22" t="s">
+        <v>2299</v>
       </c>
       <c r="E1002" s="29" t="s">
         <v>22</v>
@@ -34279,48 +34267,50 @@
         <v>15</v>
       </c>
       <c r="H1002" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1002" s="35"/>
-    </row>
-    <row r="1003" spans="1:9" ht="45">
-      <c r="A1003" s="22" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B1003" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1002" s="31" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" ht="90">
+      <c r="A1003" s="29" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1003" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1003" s="20" t="s">
-        <v>2294</v>
-      </c>
-      <c r="D1003" s="22" t="s">
-        <v>2299</v>
+        <v>2334</v>
+      </c>
+      <c r="D1003" s="29" t="s">
+        <v>2060</v>
       </c>
       <c r="E1003" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1003" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1003" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1003" s="34" t="s">
+      <c r="F1003" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1003" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1003" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1003" s="31" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" ht="90">
+    <row r="1004" spans="1:9" ht="60">
       <c r="A1004" s="29" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B1004" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1004" s="20" t="s">
-        <v>2337</v>
+        <v>1995</v>
       </c>
       <c r="D1004" s="29" t="s">
         <v>2060</v>
@@ -34343,16 +34333,16 @@
     </row>
     <row r="1005" spans="1:9" ht="60">
       <c r="A1005" s="29" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B1005" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1005" s="20" t="s">
-        <v>1995</v>
+        <v>2392</v>
       </c>
       <c r="D1005" s="29" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="E1005" s="29" t="s">
         <v>22</v>
@@ -34372,13 +34362,13 @@
     </row>
     <row r="1006" spans="1:9" ht="60">
       <c r="A1006" s="29" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B1006" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1006" s="20" t="s">
-        <v>2396</v>
+        <v>2346</v>
       </c>
       <c r="D1006" s="29" t="s">
         <v>2061</v>
@@ -34399,18 +34389,18 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" ht="60">
-      <c r="A1007" s="29" t="s">
-        <v>998</v>
-      </c>
-      <c r="B1007" s="30" t="s">
+    <row r="1007" spans="1:9" ht="45">
+      <c r="A1007" s="22" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B1007" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1007" s="20" t="s">
-        <v>2349</v>
-      </c>
-      <c r="D1007" s="29" t="s">
-        <v>2061</v>
+        <v>2347</v>
+      </c>
+      <c r="D1007" s="34" t="s">
+        <v>2270</v>
       </c>
       <c r="E1007" s="29" t="s">
         <v>22</v>
@@ -34421,22 +34411,22 @@
       <c r="G1007" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1007" s="29" t="s">
+      <c r="H1007" s="34" t="s">
         <v>20</v>
       </c>
       <c r="I1007" s="31" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" ht="45">
+    <row r="1008" spans="1:9" ht="60">
       <c r="A1008" s="22" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="B1008" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1008" s="20" t="s">
-        <v>2350</v>
+        <v>2393</v>
       </c>
       <c r="D1008" s="34" t="s">
         <v>2270</v>
@@ -34458,17 +34448,17 @@
       </c>
     </row>
     <row r="1009" spans="1:9" ht="60">
-      <c r="A1009" s="22" t="s">
-        <v>2304</v>
-      </c>
-      <c r="B1009" s="36" t="s">
+      <c r="A1009" s="29" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1009" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1009" s="20" t="s">
-        <v>2397</v>
-      </c>
-      <c r="D1009" s="34" t="s">
-        <v>2270</v>
+        <v>2172</v>
+      </c>
+      <c r="D1009" s="29" t="s">
+        <v>2062</v>
       </c>
       <c r="E1009" s="29" t="s">
         <v>22</v>
@@ -34479,30 +34469,30 @@
       <c r="G1009" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1009" s="34" t="s">
+      <c r="H1009" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1009" s="31" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="1010" spans="1:9" ht="60">
+    <row r="1010" spans="1:9" ht="75">
       <c r="A1010" s="29" t="s">
-        <v>999</v>
-      </c>
-      <c r="B1010" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1010" s="24" t="s">
         <v>1159</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2172</v>
-      </c>
-      <c r="D1010" s="29" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D1010" s="22" t="s">
         <v>2062</v>
       </c>
       <c r="E1010" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1010" s="22" t="s">
+      <c r="F1010" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G1010" s="29" t="s">
@@ -34515,44 +34505,44 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1011" spans="1:9" ht="75">
-      <c r="A1011" s="29" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B1011" s="24" t="s">
+    <row r="1011" spans="1:9" ht="90">
+      <c r="A1011" s="34" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1011" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1011" s="20" t="s">
-        <v>2398</v>
+        <v>2348</v>
       </c>
       <c r="D1011" s="22" t="s">
-        <v>2062</v>
+        <v>2300</v>
       </c>
       <c r="E1011" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1011" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1011" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1011" s="29" t="s">
+      <c r="F1011" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1011" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1011" s="34" t="s">
         <v>20</v>
       </c>
       <c r="I1011" s="31" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="1012" spans="1:9" ht="90">
+    <row r="1012" spans="1:9" ht="60">
       <c r="A1012" s="34" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="B1012" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1012" s="20" t="s">
-        <v>2351</v>
+        <v>2297</v>
       </c>
       <c r="D1012" s="22" t="s">
         <v>2300</v>
@@ -34574,43 +34564,43 @@
       </c>
     </row>
     <row r="1013" spans="1:9" ht="60">
-      <c r="A1013" s="34" t="s">
-        <v>2283</v>
-      </c>
-      <c r="B1013" s="36" t="s">
+      <c r="A1013" s="22" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1013" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1013" s="20" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D1013" s="22" t="s">
-        <v>2300</v>
+        <v>2273</v>
+      </c>
+      <c r="D1013" s="29" t="s">
+        <v>2063</v>
       </c>
       <c r="E1013" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1013" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1013" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1013" s="34" t="s">
+      <c r="F1013" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1013" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1013" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1013" s="31" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="1014" spans="1:9" ht="60">
-      <c r="A1014" s="22" t="s">
-        <v>2177</v>
+    <row r="1014" spans="1:9" ht="75">
+      <c r="A1014" s="29" t="s">
+        <v>1001</v>
       </c>
       <c r="B1014" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1014" s="20" t="s">
-        <v>2273</v>
+        <v>2349</v>
       </c>
       <c r="D1014" s="29" t="s">
         <v>2063</v>
@@ -34632,14 +34622,14 @@
       </c>
     </row>
     <row r="1015" spans="1:9" ht="75">
-      <c r="A1015" s="29" t="s">
-        <v>1001</v>
+      <c r="A1015" s="22" t="s">
+        <v>1002</v>
       </c>
       <c r="B1015" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D1015" s="29" t="s">
         <v>2063</v>
@@ -34647,31 +34637,29 @@
       <c r="E1015" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1015" s="22" t="s">
+      <c r="F1015" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G1015" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H1015" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1015" s="31" t="s">
-        <v>2155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1015" s="31"/>
     </row>
     <row r="1016" spans="1:9" ht="75">
-      <c r="A1016" s="22" t="s">
-        <v>1002</v>
+      <c r="A1016" s="29" t="s">
+        <v>1003</v>
       </c>
       <c r="B1016" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1016" s="20" t="s">
-        <v>2353</v>
+        <v>2394</v>
       </c>
       <c r="D1016" s="29" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E1016" s="29" t="s">
         <v>22</v>
@@ -34683,19 +34671,21 @@
         <v>15</v>
       </c>
       <c r="H1016" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1016" s="31"/>
-    </row>
-    <row r="1017" spans="1:9" ht="75">
-      <c r="A1017" s="29" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B1017" s="30" t="s">
-        <v>1159</v>
+        <v>20</v>
+      </c>
+      <c r="I1016" s="31" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" ht="60">
+      <c r="A1017" s="22" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1017" s="39">
+        <v>6</v>
       </c>
       <c r="C1017" s="20" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
       <c r="D1017" s="29" t="s">
         <v>2064</v>
@@ -34706,25 +34696,25 @@
       <c r="F1017" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G1017" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1017" s="29" t="s">
+      <c r="G1017" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1017" s="37" t="s">
         <v>20</v>
       </c>
       <c r="I1017" s="31" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="1018" spans="1:9" ht="60">
-      <c r="A1018" s="22" t="s">
-        <v>2402</v>
-      </c>
-      <c r="B1018" s="40">
-        <v>6</v>
+    <row r="1018" spans="1:9" ht="75">
+      <c r="A1018" s="29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1018" s="30" t="s">
+        <v>1159</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2401</v>
+        <v>2351</v>
       </c>
       <c r="D1018" s="29" t="s">
         <v>2064</v>
@@ -34735,10 +34725,10 @@
       <c r="F1018" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G1018" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1018" s="37" t="s">
+      <c r="G1018" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1018" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1018" s="31" t="s">
@@ -34747,21 +34737,21 @@
     </row>
     <row r="1019" spans="1:9" ht="75">
       <c r="A1019" s="29" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B1019" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2354</v>
-      </c>
-      <c r="D1019" s="29" t="s">
-        <v>2064</v>
+        <v>2274</v>
+      </c>
+      <c r="D1019" s="22" t="s">
+        <v>2065</v>
       </c>
       <c r="E1019" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1019" s="29" t="s">
+      <c r="F1019" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G1019" s="29" t="s">
@@ -34776,13 +34766,13 @@
     </row>
     <row r="1020" spans="1:9" ht="75">
       <c r="A1020" s="29" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B1020" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2274</v>
+        <v>2427</v>
       </c>
       <c r="D1020" s="22" t="s">
         <v>2065</v>
@@ -34804,14 +34794,14 @@
       </c>
     </row>
     <row r="1021" spans="1:9" ht="90">
-      <c r="A1021" s="29" t="s">
-        <v>1006</v>
+      <c r="A1021" s="22" t="s">
+        <v>1007</v>
       </c>
       <c r="B1021" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2399</v>
+        <v>2352</v>
       </c>
       <c r="D1021" s="29" t="s">
         <v>2065</v>
@@ -34826,24 +34816,22 @@
         <v>15</v>
       </c>
       <c r="H1021" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1021" s="31" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:9" ht="90">
-      <c r="A1022" s="22" t="s">
-        <v>1007</v>
+        <v>18</v>
+      </c>
+      <c r="I1021" s="31"/>
+    </row>
+    <row r="1022" spans="1:9" ht="60">
+      <c r="A1022" s="29" t="s">
+        <v>1008</v>
       </c>
       <c r="B1022" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C1022" s="20" t="s">
-        <v>2355</v>
+      <c r="C1022" s="31" t="s">
+        <v>1996</v>
       </c>
       <c r="D1022" s="29" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="E1022" s="29" t="s">
         <v>22</v>
@@ -34855,22 +34843,24 @@
         <v>15</v>
       </c>
       <c r="H1022" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1022" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I1022" s="20" t="s">
+        <v>2175</v>
+      </c>
     </row>
     <row r="1023" spans="1:9" ht="60">
       <c r="A1023" s="29" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B1023" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C1023" s="31" t="s">
-        <v>1996</v>
+      <c r="C1023" s="20" t="s">
+        <v>2353</v>
       </c>
       <c r="D1023" s="29" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="E1023" s="29" t="s">
         <v>22</v>
@@ -34884,19 +34874,19 @@
       <c r="H1023" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I1023" s="20" t="s">
-        <v>2175</v>
+      <c r="I1023" s="31" t="s">
+        <v>2155</v>
       </c>
     </row>
     <row r="1024" spans="1:9" ht="60">
       <c r="A1024" s="29" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1024" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>2356</v>
+        <v>1997</v>
       </c>
       <c r="D1024" s="29" t="s">
         <v>2067</v>
@@ -34917,47 +34907,45 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" ht="60">
-      <c r="A1025" s="29" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B1025" s="30" t="s">
+    <row r="1025" spans="1:9" ht="75">
+      <c r="A1025" s="34" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1025" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1025" s="20" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D1025" s="29" t="s">
-        <v>2067</v>
+        <v>2354</v>
+      </c>
+      <c r="D1025" s="34" t="s">
+        <v>2280</v>
       </c>
       <c r="E1025" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1025" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1025" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1025" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1025" s="31" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:9" ht="75">
+      <c r="F1025" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1025" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1025" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1025" s="31"/>
+    </row>
+    <row r="1026" spans="1:9" ht="60">
       <c r="A1026" s="34" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="B1026" s="36" t="s">
         <v>1159</v>
       </c>
-      <c r="C1026" s="20" t="s">
-        <v>2357</v>
+      <c r="C1026" s="35" t="s">
+        <v>2276</v>
       </c>
       <c r="D1026" s="34" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34975,13 +34963,13 @@
     </row>
     <row r="1027" spans="1:9" ht="60">
       <c r="A1027" s="34" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="B1027" s="36" t="s">
         <v>1159</v>
       </c>
       <c r="C1027" s="35" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D1027" s="34" t="s">
         <v>2284</v>
@@ -35001,41 +34989,43 @@
       <c r="I1027" s="31"/>
     </row>
     <row r="1028" spans="1:9" ht="60">
-      <c r="A1028" s="34" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B1028" s="36" t="s">
+      <c r="A1028" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1028" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="C1028" s="35" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D1028" s="34" t="s">
-        <v>2284</v>
+      <c r="C1028" s="20" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D1028" s="29" t="s">
+        <v>2068</v>
       </c>
       <c r="E1028" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1028" s="34" t="s">
+      <c r="F1028" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1028" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1028" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1028" s="31"/>
-    </row>
-    <row r="1029" spans="1:9" ht="60">
+      <c r="G1028" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1028" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1028" s="31" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" ht="45">
       <c r="A1029" s="22" t="s">
-        <v>1011</v>
+        <v>2281</v>
       </c>
       <c r="B1029" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>2358</v>
+        <v>1998</v>
       </c>
       <c r="D1029" s="29" t="s">
         <v>2068</v>
@@ -35058,42 +35048,40 @@
     </row>
     <row r="1030" spans="1:9" ht="45">
       <c r="A1030" s="22" t="s">
-        <v>2281</v>
+        <v>2356</v>
       </c>
       <c r="B1030" s="30" t="s">
         <v>1159</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D1030" s="29" t="s">
-        <v>2068</v>
-      </c>
-      <c r="E1030" s="29" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D1030" s="22"/>
+      <c r="E1030" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F1030" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1030" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1030" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1030" s="31" t="s">
-        <v>2155</v>
+      <c r="F1030" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1030" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1030" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1030" s="20" t="s">
+        <v>2178</v>
       </c>
     </row>
     <row r="1031" spans="1:9" ht="45">
       <c r="A1031" s="22" t="s">
-        <v>2359</v>
-      </c>
-      <c r="B1031" s="30" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1031" s="24" t="s">
         <v>1159</v>
       </c>
       <c r="C1031" s="20" t="s">
-        <v>2362</v>
+        <v>2171</v>
       </c>
       <c r="D1031" s="22"/>
       <c r="E1031" s="22" t="s">
@@ -35109,52 +35097,50 @@
         <v>21</v>
       </c>
       <c r="I1031" s="20" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:9" ht="45">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9">
       <c r="A1032" s="22" t="s">
-        <v>2361</v>
-      </c>
-      <c r="B1032" s="24" t="s">
-        <v>1159</v>
+        <v>2357</v>
+      </c>
+      <c r="B1032" s="30" t="s">
+        <v>1063</v>
       </c>
       <c r="C1032" s="20" t="s">
-        <v>2171</v>
-      </c>
-      <c r="D1032" s="22"/>
-      <c r="E1032" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1032" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1032" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1032" s="22" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D1032" s="29"/>
+      <c r="E1032" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1032" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1032" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1032" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I1032" s="20" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:9">
-      <c r="A1033" s="22" t="s">
-        <v>2360</v>
+      <c r="I1032" s="31"/>
+    </row>
+    <row r="1033" spans="1:9" ht="45">
+      <c r="A1033" s="29" t="s">
+        <v>1012</v>
       </c>
       <c r="B1033" s="30" t="s">
-        <v>1063</v>
+        <v>1160</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D1033" s="29"/>
       <c r="E1033" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1033" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1033" s="29" t="s">
         <v>15</v>
@@ -35166,13 +35152,13 @@
     </row>
     <row r="1034" spans="1:9" ht="45">
       <c r="A1034" s="29" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B1034" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D1034" s="29"/>
       <c r="E1034" s="29" t="s">
@@ -35191,13 +35177,13 @@
     </row>
     <row r="1035" spans="1:9" ht="45">
       <c r="A1035" s="29" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B1035" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1035" s="20" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D1035" s="29"/>
       <c r="E1035" s="29" t="s">
@@ -35214,15 +35200,15 @@
       </c>
       <c r="I1035" s="31"/>
     </row>
-    <row r="1036" spans="1:9" ht="45">
+    <row r="1036" spans="1:9" ht="60">
       <c r="A1036" s="29" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B1036" s="30" t="s">
         <v>1160</v>
       </c>
-      <c r="C1036" s="20" t="s">
-        <v>2002</v>
+      <c r="C1036" s="31" t="s">
+        <v>2003</v>
       </c>
       <c r="D1036" s="29"/>
       <c r="E1036" s="29" t="s">
@@ -35239,15 +35225,15 @@
       </c>
       <c r="I1036" s="31"/>
     </row>
-    <row r="1037" spans="1:9" ht="60">
-      <c r="A1037" s="29" t="s">
-        <v>1015</v>
+    <row r="1037" spans="1:9" ht="45">
+      <c r="A1037" s="22" t="s">
+        <v>1016</v>
       </c>
       <c r="B1037" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1037" s="31" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D1037" s="29"/>
       <c r="E1037" s="29" t="s">
@@ -35264,15 +35250,15 @@
       </c>
       <c r="I1037" s="31"/>
     </row>
-    <row r="1038" spans="1:9" ht="45">
-      <c r="A1038" s="22" t="s">
-        <v>1016</v>
+    <row r="1038" spans="1:9" ht="75">
+      <c r="A1038" s="29" t="s">
+        <v>1017</v>
       </c>
       <c r="B1038" s="30" t="s">
         <v>1160</v>
       </c>
       <c r="C1038" s="31" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D1038" s="29"/>
       <c r="E1038" s="29" t="s">
@@ -35289,22 +35275,22 @@
       </c>
       <c r="I1038" s="31"/>
     </row>
-    <row r="1039" spans="1:9" ht="75">
+    <row r="1039" spans="1:9" ht="45">
       <c r="A1039" s="29" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B1039" s="30" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C1039" s="31" t="s">
-        <v>2005</v>
+        <v>1161</v>
+      </c>
+      <c r="C1039" s="20" t="s">
+        <v>2360</v>
       </c>
       <c r="D1039" s="29"/>
       <c r="E1039" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1039" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1039" s="29" t="s">
         <v>15</v>
@@ -35314,15 +35300,15 @@
       </c>
       <c r="I1039" s="31"/>
     </row>
-    <row r="1040" spans="1:9" ht="45">
-      <c r="A1040" s="29" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B1040" s="30" t="s">
-        <v>1161</v>
+    <row r="1040" spans="1:9">
+      <c r="A1040" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1040" s="24" t="s">
+        <v>2361</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2363</v>
+        <v>2006</v>
       </c>
       <c r="D1040" s="29"/>
       <c r="E1040" s="29" t="s">
@@ -35340,14 +35326,14 @@
       <c r="I1040" s="31"/>
     </row>
     <row r="1041" spans="1:9">
-      <c r="A1041" s="22" t="s">
-        <v>1019</v>
+      <c r="A1041" s="29" t="s">
+        <v>1020</v>
       </c>
       <c r="B1041" s="24" t="s">
-        <v>2364</v>
-      </c>
-      <c r="C1041" s="20" t="s">
-        <v>2006</v>
+        <v>2362</v>
+      </c>
+      <c r="C1041" s="31" t="s">
+        <v>2007</v>
       </c>
       <c r="D1041" s="29"/>
       <c r="E1041" s="29" t="s">
@@ -35366,20 +35352,20 @@
     </row>
     <row r="1042" spans="1:9">
       <c r="A1042" s="29" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B1042" s="24" t="s">
-        <v>2365</v>
-      </c>
-      <c r="C1042" s="31" t="s">
-        <v>2007</v>
+        <v>2363</v>
+      </c>
+      <c r="C1042" s="20" t="s">
+        <v>2008</v>
       </c>
       <c r="D1042" s="29"/>
       <c r="E1042" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1042" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1042" s="29" t="s">
         <v>15</v>
@@ -35391,20 +35377,20 @@
     </row>
     <row r="1043" spans="1:9">
       <c r="A1043" s="29" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B1043" s="24" t="s">
-        <v>2366</v>
-      </c>
-      <c r="C1043" s="20" t="s">
-        <v>2008</v>
+        <v>2364</v>
+      </c>
+      <c r="C1043" s="31" t="s">
+        <v>2009</v>
       </c>
       <c r="D1043" s="29"/>
       <c r="E1043" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1043" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1043" s="29" t="s">
         <v>15</v>
@@ -35416,13 +35402,13 @@
     </row>
     <row r="1044" spans="1:9">
       <c r="A1044" s="29" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B1044" s="24" t="s">
-        <v>2367</v>
-      </c>
-      <c r="C1044" s="31" t="s">
-        <v>2009</v>
+        <v>2365</v>
+      </c>
+      <c r="C1044" s="20" t="s">
+        <v>2010</v>
       </c>
       <c r="D1044" s="29"/>
       <c r="E1044" s="29" t="s">
@@ -35441,13 +35427,13 @@
     </row>
     <row r="1045" spans="1:9">
       <c r="A1045" s="29" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B1045" s="24" t="s">
-        <v>2368</v>
-      </c>
-      <c r="C1045" s="20" t="s">
-        <v>2010</v>
+        <v>2365</v>
+      </c>
+      <c r="C1045" s="31" t="s">
+        <v>2011</v>
       </c>
       <c r="D1045" s="29"/>
       <c r="E1045" s="29" t="s">
@@ -35465,14 +35451,14 @@
       <c r="I1045" s="31"/>
     </row>
     <row r="1046" spans="1:9">
-      <c r="A1046" s="29" t="s">
-        <v>1024</v>
+      <c r="A1046" s="22" t="s">
+        <v>1025</v>
       </c>
       <c r="B1046" s="24" t="s">
-        <v>2368</v>
-      </c>
-      <c r="C1046" s="31" t="s">
-        <v>2011</v>
+        <v>2366</v>
+      </c>
+      <c r="C1046" s="20" t="s">
+        <v>2012</v>
       </c>
       <c r="D1046" s="29"/>
       <c r="E1046" s="29" t="s">
@@ -35490,14 +35476,14 @@
       <c r="I1046" s="31"/>
     </row>
     <row r="1047" spans="1:9">
-      <c r="A1047" s="22" t="s">
-        <v>1025</v>
+      <c r="A1047" s="29" t="s">
+        <v>1026</v>
       </c>
       <c r="B1047" s="24" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D1047" s="29"/>
       <c r="E1047" s="29" t="s">
@@ -35516,13 +35502,13 @@
     </row>
     <row r="1048" spans="1:9">
       <c r="A1048" s="29" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B1048" s="24" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2013</v>
+        <v>2367</v>
       </c>
       <c r="D1048" s="29"/>
       <c r="E1048" s="29" t="s">
@@ -35541,13 +35527,13 @@
     </row>
     <row r="1049" spans="1:9">
       <c r="A1049" s="29" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B1049" s="24" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2370</v>
+        <v>2014</v>
       </c>
       <c r="D1049" s="29"/>
       <c r="E1049" s="29" t="s">
@@ -35566,20 +35552,20 @@
     </row>
     <row r="1050" spans="1:9">
       <c r="A1050" s="29" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B1050" s="24" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1050" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1050" s="29" t="s">
         <v>15</v>
@@ -35591,20 +35577,20 @@
     </row>
     <row r="1051" spans="1:9">
       <c r="A1051" s="29" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B1051" s="24" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C1051" s="20" t="s">
-        <v>2015</v>
+        <v>2369</v>
+      </c>
+      <c r="C1051" s="31" t="s">
+        <v>2016</v>
       </c>
       <c r="D1051" s="29"/>
       <c r="E1051" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1051" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1051" s="29" t="s">
         <v>15</v>
@@ -35616,13 +35602,13 @@
     </row>
     <row r="1052" spans="1:9">
       <c r="A1052" s="29" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B1052" s="24" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C1052" s="31" t="s">
-        <v>2016</v>
+        <v>2370</v>
+      </c>
+      <c r="C1052" s="20" t="s">
+        <v>2017</v>
       </c>
       <c r="D1052" s="29"/>
       <c r="E1052" s="29" t="s">
@@ -35641,13 +35627,13 @@
     </row>
     <row r="1053" spans="1:9">
       <c r="A1053" s="29" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B1053" s="24" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C1053" s="20" t="s">
-        <v>2017</v>
+        <v>2370</v>
+      </c>
+      <c r="C1053" s="31" t="s">
+        <v>2018</v>
       </c>
       <c r="D1053" s="29"/>
       <c r="E1053" s="29" t="s">
@@ -35666,13 +35652,13 @@
     </row>
     <row r="1054" spans="1:9">
       <c r="A1054" s="29" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B1054" s="24" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C1054" s="31" t="s">
-        <v>2018</v>
+        <v>2371</v>
+      </c>
+      <c r="C1054" s="20" t="s">
+        <v>2019</v>
       </c>
       <c r="D1054" s="29"/>
       <c r="E1054" s="29" t="s">
@@ -35691,13 +35677,13 @@
     </row>
     <row r="1055" spans="1:9">
       <c r="A1055" s="29" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B1055" s="24" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C1055" s="20" t="s">
-        <v>2019</v>
+        <v>2371</v>
+      </c>
+      <c r="C1055" s="31" t="s">
+        <v>2020</v>
       </c>
       <c r="D1055" s="29"/>
       <c r="E1055" s="29" t="s">
@@ -35716,13 +35702,13 @@
     </row>
     <row r="1056" spans="1:9">
       <c r="A1056" s="29" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B1056" s="24" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C1056" s="31" t="s">
-        <v>2020</v>
+        <v>2372</v>
+      </c>
+      <c r="C1056" s="20" t="s">
+        <v>2021</v>
       </c>
       <c r="D1056" s="29"/>
       <c r="E1056" s="29" t="s">
@@ -35741,13 +35727,13 @@
     </row>
     <row r="1057" spans="1:9">
       <c r="A1057" s="29" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B1057" s="24" t="s">
-        <v>2375</v>
-      </c>
-      <c r="C1057" s="20" t="s">
-        <v>2021</v>
+        <v>2372</v>
+      </c>
+      <c r="C1057" s="31" t="s">
+        <v>2022</v>
       </c>
       <c r="D1057" s="29"/>
       <c r="E1057" s="29" t="s">
@@ -35766,13 +35752,13 @@
     </row>
     <row r="1058" spans="1:9">
       <c r="A1058" s="29" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B1058" s="24" t="s">
-        <v>2375</v>
-      </c>
-      <c r="C1058" s="31" t="s">
-        <v>2022</v>
+        <v>2373</v>
+      </c>
+      <c r="C1058" s="20" t="s">
+        <v>2023</v>
       </c>
       <c r="D1058" s="29"/>
       <c r="E1058" s="29" t="s">
@@ -35791,13 +35777,13 @@
     </row>
     <row r="1059" spans="1:9">
       <c r="A1059" s="29" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B1059" s="24" t="s">
-        <v>2376</v>
-      </c>
-      <c r="C1059" s="20" t="s">
-        <v>2023</v>
+        <v>2373</v>
+      </c>
+      <c r="C1059" s="31" t="s">
+        <v>2024</v>
       </c>
       <c r="D1059" s="29"/>
       <c r="E1059" s="29" t="s">
@@ -35816,13 +35802,13 @@
     </row>
     <row r="1060" spans="1:9">
       <c r="A1060" s="29" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B1060" s="24" t="s">
-        <v>2376</v>
-      </c>
-      <c r="C1060" s="31" t="s">
-        <v>2024</v>
+        <v>2374</v>
+      </c>
+      <c r="C1060" s="20" t="s">
+        <v>2025</v>
       </c>
       <c r="D1060" s="29"/>
       <c r="E1060" s="29" t="s">
@@ -35841,13 +35827,13 @@
     </row>
     <row r="1061" spans="1:9">
       <c r="A1061" s="29" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B1061" s="24" t="s">
-        <v>2377</v>
-      </c>
-      <c r="C1061" s="20" t="s">
-        <v>2025</v>
+        <v>2374</v>
+      </c>
+      <c r="C1061" s="31" t="s">
+        <v>2026</v>
       </c>
       <c r="D1061" s="29"/>
       <c r="E1061" s="29" t="s">
@@ -35866,13 +35852,13 @@
     </row>
     <row r="1062" spans="1:9">
       <c r="A1062" s="29" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B1062" s="24" t="s">
-        <v>2377</v>
-      </c>
-      <c r="C1062" s="31" t="s">
-        <v>2026</v>
+        <v>2375</v>
+      </c>
+      <c r="C1062" s="20" t="s">
+        <v>2027</v>
       </c>
       <c r="D1062" s="29"/>
       <c r="E1062" s="29" t="s">
@@ -35891,13 +35877,13 @@
     </row>
     <row r="1063" spans="1:9">
       <c r="A1063" s="29" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B1063" s="24" t="s">
-        <v>2378</v>
-      </c>
-      <c r="C1063" s="20" t="s">
-        <v>2027</v>
+        <v>2375</v>
+      </c>
+      <c r="C1063" s="31" t="s">
+        <v>2028</v>
       </c>
       <c r="D1063" s="29"/>
       <c r="E1063" s="29" t="s">
@@ -35916,13 +35902,13 @@
     </row>
     <row r="1064" spans="1:9">
       <c r="A1064" s="29" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B1064" s="24" t="s">
-        <v>2378</v>
-      </c>
-      <c r="C1064" s="31" t="s">
-        <v>2028</v>
+        <v>2376</v>
+      </c>
+      <c r="C1064" s="20" t="s">
+        <v>2029</v>
       </c>
       <c r="D1064" s="29"/>
       <c r="E1064" s="29" t="s">
@@ -35941,20 +35927,20 @@
     </row>
     <row r="1065" spans="1:9">
       <c r="A1065" s="29" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B1065" s="24" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C1065" s="20" t="s">
-        <v>2029</v>
+        <v>2376</v>
+      </c>
+      <c r="C1065" s="31" t="s">
+        <v>2030</v>
       </c>
       <c r="D1065" s="29"/>
       <c r="E1065" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1065" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1065" s="29" t="s">
         <v>15</v>
@@ -35966,20 +35952,20 @@
     </row>
     <row r="1066" spans="1:9">
       <c r="A1066" s="29" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B1066" s="24" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C1066" s="31" t="s">
-        <v>2030</v>
+        <v>2377</v>
+      </c>
+      <c r="C1066" s="20" t="s">
+        <v>2031</v>
       </c>
       <c r="D1066" s="29"/>
       <c r="E1066" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1066" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1066" s="29" t="s">
         <v>15</v>
@@ -35991,13 +35977,13 @@
     </row>
     <row r="1067" spans="1:9">
       <c r="A1067" s="29" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B1067" s="24" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1067" s="20" t="s">
-        <v>2031</v>
+        <v>2377</v>
+      </c>
+      <c r="C1067" s="31" t="s">
+        <v>2032</v>
       </c>
       <c r="D1067" s="29"/>
       <c r="E1067" s="29" t="s">
@@ -36016,13 +36002,13 @@
     </row>
     <row r="1068" spans="1:9">
       <c r="A1068" s="29" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B1068" s="24" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1068" s="31" t="s">
-        <v>2032</v>
+        <v>2378</v>
+      </c>
+      <c r="C1068" s="20" t="s">
+        <v>2033</v>
       </c>
       <c r="D1068" s="29"/>
       <c r="E1068" s="29" t="s">
@@ -36041,13 +36027,13 @@
     </row>
     <row r="1069" spans="1:9">
       <c r="A1069" s="29" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B1069" s="24" t="s">
-        <v>2381</v>
-      </c>
-      <c r="C1069" s="20" t="s">
-        <v>2033</v>
+        <v>2378</v>
+      </c>
+      <c r="C1069" s="31" t="s">
+        <v>2034</v>
       </c>
       <c r="D1069" s="29"/>
       <c r="E1069" s="29" t="s">
@@ -36065,14 +36051,14 @@
       <c r="I1069" s="31"/>
     </row>
     <row r="1070" spans="1:9">
-      <c r="A1070" s="29" t="s">
-        <v>1048</v>
+      <c r="A1070" s="22" t="s">
+        <v>1049</v>
       </c>
       <c r="B1070" s="24" t="s">
-        <v>2381</v>
-      </c>
-      <c r="C1070" s="31" t="s">
-        <v>2034</v>
+        <v>2379</v>
+      </c>
+      <c r="C1070" s="20" t="s">
+        <v>2035</v>
       </c>
       <c r="D1070" s="29"/>
       <c r="E1070" s="29" t="s">
@@ -36090,14 +36076,14 @@
       <c r="I1070" s="31"/>
     </row>
     <row r="1071" spans="1:9">
-      <c r="A1071" s="22" t="s">
-        <v>1049</v>
+      <c r="A1071" s="29" t="s">
+        <v>1050</v>
       </c>
       <c r="B1071" s="24" t="s">
-        <v>2382</v>
-      </c>
-      <c r="C1071" s="20" t="s">
-        <v>2035</v>
+        <v>2379</v>
+      </c>
+      <c r="C1071" s="31" t="s">
+        <v>2036</v>
       </c>
       <c r="D1071" s="29"/>
       <c r="E1071" s="29" t="s">
@@ -36116,13 +36102,13 @@
     </row>
     <row r="1072" spans="1:9">
       <c r="A1072" s="29" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B1072" s="24" t="s">
-        <v>2382</v>
-      </c>
-      <c r="C1072" s="31" t="s">
-        <v>2036</v>
+        <v>2380</v>
+      </c>
+      <c r="C1072" s="20" t="s">
+        <v>2037</v>
       </c>
       <c r="D1072" s="29"/>
       <c r="E1072" s="29" t="s">
@@ -36141,13 +36127,13 @@
     </row>
     <row r="1073" spans="1:9">
       <c r="A1073" s="29" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B1073" s="24" t="s">
-        <v>2383</v>
-      </c>
-      <c r="C1073" s="20" t="s">
-        <v>2037</v>
+        <v>2380</v>
+      </c>
+      <c r="C1073" s="31" t="s">
+        <v>2038</v>
       </c>
       <c r="D1073" s="29"/>
       <c r="E1073" s="29" t="s">
@@ -36165,14 +36151,14 @@
       <c r="I1073" s="31"/>
     </row>
     <row r="1074" spans="1:9">
-      <c r="A1074" s="29" t="s">
-        <v>1052</v>
+      <c r="A1074" s="22" t="s">
+        <v>1053</v>
       </c>
       <c r="B1074" s="24" t="s">
-        <v>2383</v>
-      </c>
-      <c r="C1074" s="31" t="s">
-        <v>2038</v>
+        <v>2381</v>
+      </c>
+      <c r="C1074" s="20" t="s">
+        <v>2039</v>
       </c>
       <c r="D1074" s="29"/>
       <c r="E1074" s="29" t="s">
@@ -36185,19 +36171,19 @@
         <v>15</v>
       </c>
       <c r="H1074" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1074" s="31"/>
     </row>
     <row r="1075" spans="1:9">
-      <c r="A1075" s="22" t="s">
-        <v>1053</v>
+      <c r="A1075" s="29" t="s">
+        <v>1054</v>
       </c>
       <c r="B1075" s="24" t="s">
-        <v>2384</v>
-      </c>
-      <c r="C1075" s="20" t="s">
-        <v>2039</v>
+        <v>2381</v>
+      </c>
+      <c r="C1075" s="31" t="s">
+        <v>2040</v>
       </c>
       <c r="D1075" s="29"/>
       <c r="E1075" s="29" t="s">
@@ -36210,19 +36196,19 @@
         <v>15</v>
       </c>
       <c r="H1075" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1075" s="31"/>
     </row>
     <row r="1076" spans="1:9">
       <c r="A1076" s="29" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B1076" s="24" t="s">
-        <v>2384</v>
-      </c>
-      <c r="C1076" s="31" t="s">
-        <v>2040</v>
+        <v>2382</v>
+      </c>
+      <c r="C1076" s="20" t="s">
+        <v>2041</v>
       </c>
       <c r="D1076" s="29"/>
       <c r="E1076" s="29" t="s">
@@ -36241,13 +36227,13 @@
     </row>
     <row r="1077" spans="1:9">
       <c r="A1077" s="29" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B1077" s="24" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C1077" s="20" t="s">
-        <v>2041</v>
+        <v>2382</v>
+      </c>
+      <c r="C1077" s="31" t="s">
+        <v>2042</v>
       </c>
       <c r="D1077" s="29"/>
       <c r="E1077" s="29" t="s">
@@ -36266,13 +36252,13 @@
     </row>
     <row r="1078" spans="1:9">
       <c r="A1078" s="29" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B1078" s="24" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C1078" s="31" t="s">
-        <v>2042</v>
+        <v>2383</v>
+      </c>
+      <c r="C1078" s="20" t="s">
+        <v>2043</v>
       </c>
       <c r="D1078" s="29"/>
       <c r="E1078" s="29" t="s">
@@ -36291,20 +36277,20 @@
     </row>
     <row r="1079" spans="1:9">
       <c r="A1079" s="29" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B1079" s="24" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C1079" s="20" t="s">
-        <v>2043</v>
+        <v>2383</v>
+      </c>
+      <c r="C1079" s="31" t="s">
+        <v>2044</v>
       </c>
       <c r="D1079" s="29"/>
       <c r="E1079" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1079" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1079" s="29" t="s">
         <v>15</v>
@@ -36316,20 +36302,20 @@
     </row>
     <row r="1080" spans="1:9">
       <c r="A1080" s="29" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B1080" s="24" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C1080" s="31" t="s">
-        <v>2044</v>
+        <v>2384</v>
+      </c>
+      <c r="C1080" s="20" t="s">
+        <v>2045</v>
       </c>
       <c r="D1080" s="29"/>
       <c r="E1080" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F1080" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1080" s="29" t="s">
         <v>15</v>
@@ -36341,13 +36327,13 @@
     </row>
     <row r="1081" spans="1:9">
       <c r="A1081" s="29" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B1081" s="24" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C1081" s="20" t="s">
-        <v>2045</v>
+        <v>2384</v>
+      </c>
+      <c r="C1081" s="31" t="s">
+        <v>2046</v>
       </c>
       <c r="D1081" s="29"/>
       <c r="E1081" s="29" t="s">
@@ -36365,33 +36351,8 @@
       <c r="I1081" s="31"/>
     </row>
     <row r="1082" spans="1:9">
-      <c r="A1082" s="29" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B1082" s="24" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C1082" s="31" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D1082" s="29"/>
-      <c r="E1082" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1082" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1082" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1082" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1082" s="31"/>
-    </row>
-    <row r="1083" spans="1:9">
-      <c r="A1083" s="3"/>
-      <c r="B1083" s="10"/>
+      <c r="A1082" s="3"/>
+      <c r="B1082" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -36409,7 +36370,7 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">
+  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
     <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36420,7 +36381,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A246:I246 A1032:I1082 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1030">
+  <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">
     <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36431,7 +36392,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F246 F1033:F1082 F20:F241 F251:F518 F521:F1030">
+  <conditionalFormatting sqref="F246 F1032:F1081 F20:F241 F251:F518 F521:F1029">
     <cfRule type="expression" dxfId="56" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -36439,7 +36400,7 @@
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I246 I1033:I1082 I230 I233:I241">
+  <conditionalFormatting sqref="I246 I1032:I1081 I230 I233:I241">
     <cfRule type="expression" dxfId="54" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36450,7 +36411,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I246 I1033:I1082 I230 I233:I241">
+  <conditionalFormatting sqref="I246 I1032:I1081 I230 I233:I241">
     <cfRule type="expression" dxfId="51" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36461,15 +36422,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1032">
+  <conditionalFormatting sqref="F1031">
     <cfRule type="expression" dxfId="48" priority="38">
-      <formula>NOT(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="47" priority="39">
-      <formula>(VLOOKUP(F1032,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1032">
+  <conditionalFormatting sqref="I1031">
     <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36480,7 +36441,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1032">
+  <conditionalFormatting sqref="I1031">
     <cfRule type="expression" dxfId="43" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36491,7 +36452,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1031 C1031:I1031">
+  <conditionalFormatting sqref="A1030 C1030:I1030">
     <cfRule type="expression" dxfId="40" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36502,7 +36463,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1031 C1031:I1031">
+  <conditionalFormatting sqref="A1030 C1030:I1030">
     <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36513,15 +36474,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1031">
+  <conditionalFormatting sqref="F1030">
     <cfRule type="expression" dxfId="34" priority="24">
-      <formula>NOT(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="25">
-      <formula>(VLOOKUP(F1031,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1031">
+  <conditionalFormatting sqref="B1030">
     <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -36532,7 +36493,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1031">
+  <conditionalFormatting sqref="B1030">
     <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -36574,23 +36535,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1082" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1081" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1082" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1081" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1082" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1081" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H246 H1033:H1082 H20:H241 H251:H1030" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H246 H1032:H1081 H20:H241 H251:H1029" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H247:H250 H242:H245 H1031:H1032" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H247:H250 H242:H245 H1030:H1031" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36600,7 +36561,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1019:B1082 B991:B997 B19:B990 B1083 B998:B1017" numberStoredAsText="1"/>
+    <ignoredError sqref="B1018:B1081 B990:B996 B19:B989 B1082 B997:B1016" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436B72D9-A79D-434F-8B2B-08BC25E1A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3294447D-2FCC-4BCC-A3BF-6B571B90C988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -7912,6 +7912,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7935,21 +7950,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9030,21 +9030,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1016" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1020" sqref="C1020"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
@@ -9081,132 +9081,132 @@
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>44425</v>
+        <v>44607</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="42" t="s">
         <v>2307</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9219,12 +9219,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9237,12 +9237,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9255,15 +9255,15 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" ht="28.8">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -9273,64 +9273,64 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="51" t="s">
         <v>2305</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="57.6">
       <c r="A20" s="22" t="s">
         <v>41</v>
       </c>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A21" s="22" t="s">
         <v>42</v>
       </c>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="43.2">
       <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A23" s="22" t="s">
         <v>44</v>
       </c>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="75">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="57.6">
       <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A25" s="22" t="s">
         <v>46</v>
       </c>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A26" s="22" t="s">
         <v>47</v>
       </c>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A27" s="22" t="s">
         <v>48</v>
       </c>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A28" s="22" t="s">
         <v>49</v>
       </c>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A29" s="22" t="s">
         <v>50</v>
       </c>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="30" spans="1:12" s="23" customFormat="1" ht="28.8">
       <c r="A30" s="22" t="s">
         <v>51</v>
       </c>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="43.2">
       <c r="A31" s="22" t="s">
         <v>52</v>
       </c>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="43.2">
       <c r="A32" s="22" t="s">
         <v>53</v>
       </c>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="45">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="43.2">
       <c r="A33" s="22" t="s">
         <v>54</v>
       </c>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="45">
+    <row r="34" spans="1:9" ht="43.2">
       <c r="A34" s="29" t="s">
         <v>55</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="28.8">
       <c r="A35" s="29" t="s">
         <v>56</v>
       </c>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="45">
+    <row r="36" spans="1:9" ht="43.2">
       <c r="A36" s="29" t="s">
         <v>57</v>
       </c>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" ht="45">
+    <row r="37" spans="1:9" ht="43.2">
       <c r="A37" s="29" t="s">
         <v>58</v>
       </c>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="28.8">
       <c r="A38" s="29" t="s">
         <v>59</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="28.8">
       <c r="A39" s="29" t="s">
         <v>60</v>
       </c>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9" ht="45">
+    <row r="40" spans="1:9" ht="28.8">
       <c r="A40" s="29" t="s">
         <v>61</v>
       </c>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="28.8">
       <c r="A41" s="29" t="s">
         <v>62</v>
       </c>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="28.8">
       <c r="A42" s="29" t="s">
         <v>63</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" ht="28.8">
       <c r="A43" s="29" t="s">
         <v>64</v>
       </c>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="1:9" ht="75">
+    <row r="44" spans="1:9" ht="57.6">
       <c r="A44" s="29" t="s">
         <v>65</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45">
+    <row r="45" spans="1:9" ht="28.8">
       <c r="A45" s="29" t="s">
         <v>66</v>
       </c>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="45">
+    <row r="46" spans="1:9" ht="43.2">
       <c r="A46" s="29" t="s">
         <v>67</v>
       </c>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="120">
+    <row r="47" spans="1:9" ht="115.2">
       <c r="A47" s="29" t="s">
         <v>68</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="28.8">
       <c r="A48" s="29" t="s">
         <v>69</v>
       </c>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="28.8">
       <c r="A49" s="29" t="s">
         <v>70</v>
       </c>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="45">
+    <row r="50" spans="1:9" ht="43.2">
       <c r="A50" s="29" t="s">
         <v>71</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="60">
+    <row r="51" spans="1:9" ht="43.2">
       <c r="A51" s="29" t="s">
         <v>72</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="45">
+    <row r="52" spans="1:9" ht="28.8">
       <c r="A52" s="29" t="s">
         <v>73</v>
       </c>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="28.8">
       <c r="A53" s="29" t="s">
         <v>74</v>
       </c>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" ht="45">
+    <row r="54" spans="1:9" ht="43.2">
       <c r="A54" s="29" t="s">
         <v>75</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45">
+    <row r="55" spans="1:9" ht="28.8">
       <c r="A55" s="29" t="s">
         <v>76</v>
       </c>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" ht="45">
+    <row r="56" spans="1:9" ht="43.2">
       <c r="A56" s="29" t="s">
         <v>77</v>
       </c>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="28.8">
       <c r="A57" s="29" t="s">
         <v>78</v>
       </c>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:9" ht="45">
+    <row r="58" spans="1:9" ht="28.8">
       <c r="A58" s="29" t="s">
         <v>79</v>
       </c>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="28.8">
       <c r="A59" s="29" t="s">
         <v>80</v>
       </c>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="43.2">
       <c r="A60" s="29" t="s">
         <v>81</v>
       </c>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:9" ht="45">
+    <row r="61" spans="1:9" ht="43.2">
       <c r="A61" s="29" t="s">
         <v>82</v>
       </c>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="28.8">
       <c r="A62" s="29" t="s">
         <v>83</v>
       </c>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:9" ht="45">
+    <row r="63" spans="1:9" ht="43.2">
       <c r="A63" s="29" t="s">
         <v>84</v>
       </c>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="28.8">
       <c r="A64" s="29" t="s">
         <v>85</v>
       </c>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="28.8">
       <c r="A65" s="29" t="s">
         <v>86</v>
       </c>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="28.8">
       <c r="A66" s="29" t="s">
         <v>87</v>
       </c>
@@ -10549,7 +10549,7 @@
       </c>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="28.8">
       <c r="A67" s="29" t="s">
         <v>88</v>
       </c>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="28.8">
       <c r="A68" s="29" t="s">
         <v>89</v>
       </c>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9" ht="28.8">
       <c r="A69" s="29" t="s">
         <v>90</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9" ht="28.8">
       <c r="A70" s="29" t="s">
         <v>91</v>
       </c>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:9" ht="45">
+    <row r="71" spans="1:9" ht="43.2">
       <c r="A71" s="29" t="s">
         <v>92</v>
       </c>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" ht="45">
+    <row r="72" spans="1:9" ht="43.2">
       <c r="A72" s="29" t="s">
         <v>93</v>
       </c>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" ht="45">
+    <row r="73" spans="1:9" ht="43.2">
       <c r="A73" s="29" t="s">
         <v>94</v>
       </c>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="45">
+    <row r="74" spans="1:9" ht="43.2">
       <c r="A74" s="29" t="s">
         <v>95</v>
       </c>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:9" ht="45">
+    <row r="75" spans="1:9" ht="43.2">
       <c r="A75" s="29" t="s">
         <v>96</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="28.8">
       <c r="A76" s="29" t="s">
         <v>97</v>
       </c>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="28.8">
       <c r="A77" s="29" t="s">
         <v>98</v>
       </c>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
+    <row r="78" spans="1:9" ht="28.8">
       <c r="A78" s="29" t="s">
         <v>99</v>
       </c>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="28.8">
       <c r="A79" s="29" t="s">
         <v>100</v>
       </c>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="43.2">
       <c r="A80" s="29" t="s">
         <v>101</v>
       </c>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="1:9" ht="45">
+    <row r="81" spans="1:9" ht="43.2">
       <c r="A81" s="29" t="s">
         <v>102</v>
       </c>
@@ -10924,7 +10924,7 @@
       </c>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="1:9" ht="60">
+    <row r="82" spans="1:9" ht="43.2">
       <c r="A82" s="29" t="s">
         <v>103</v>
       </c>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="1:9" ht="60">
+    <row r="83" spans="1:9" ht="43.2">
       <c r="A83" s="29" t="s">
         <v>104</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9" ht="28.8">
       <c r="A84" s="29" t="s">
         <v>105</v>
       </c>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="1:9" ht="30">
+    <row r="85" spans="1:9" ht="28.8">
       <c r="A85" s="29" t="s">
         <v>106</v>
       </c>
@@ -11024,7 +11024,7 @@
       </c>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="28.8">
       <c r="A86" s="29" t="s">
         <v>107</v>
       </c>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:9" ht="45">
+    <row r="87" spans="1:9" ht="43.2">
       <c r="A87" s="29" t="s">
         <v>108</v>
       </c>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="28.8">
       <c r="A88" s="29" t="s">
         <v>109</v>
       </c>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" ht="45">
+    <row r="89" spans="1:9" ht="43.2">
       <c r="A89" s="29" t="s">
         <v>110</v>
       </c>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:9" ht="45">
+    <row r="90" spans="1:9" ht="43.2">
       <c r="A90" s="29" t="s">
         <v>111</v>
       </c>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:9" ht="210">
+    <row r="91" spans="1:9" ht="201.6">
       <c r="A91" s="29" t="s">
         <v>112</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="30">
+    <row r="92" spans="1:9" ht="28.8">
       <c r="A92" s="29" t="s">
         <v>113</v>
       </c>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:9" ht="30">
+    <row r="93" spans="1:9" ht="28.8">
       <c r="A93" s="29" t="s">
         <v>114</v>
       </c>
@@ -11226,7 +11226,7 @@
       </c>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:9" ht="45">
+    <row r="94" spans="1:9" ht="43.2">
       <c r="A94" s="29" t="s">
         <v>115</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60">
+    <row r="95" spans="1:9" ht="43.2">
       <c r="A95" s="29" t="s">
         <v>116</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="28.8">
       <c r="A96" s="29" t="s">
         <v>117</v>
       </c>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="1:9" ht="60">
+    <row r="97" spans="1:9" ht="57.6">
       <c r="A97" s="29" t="s">
         <v>118</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="28.8">
       <c r="A98" s="29" t="s">
         <v>119</v>
       </c>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="1:9" ht="45">
+    <row r="99" spans="1:9" ht="43.2">
       <c r="A99" s="29" t="s">
         <v>120</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="28.8">
       <c r="A100" s="29" t="s">
         <v>121</v>
       </c>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="28.8">
       <c r="A101" s="29" t="s">
         <v>122</v>
       </c>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9" ht="28.8">
       <c r="A102" s="29" t="s">
         <v>123</v>
       </c>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="28.8">
       <c r="A103" s="29" t="s">
         <v>124</v>
       </c>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:9" ht="45">
+    <row r="104" spans="1:9" ht="43.2">
       <c r="A104" s="29" t="s">
         <v>125</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="28.8">
       <c r="A105" s="29" t="s">
         <v>126</v>
       </c>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:9" ht="45">
+    <row r="106" spans="1:9" ht="28.8">
       <c r="A106" s="29" t="s">
         <v>127</v>
       </c>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="1:9" ht="45">
+    <row r="107" spans="1:9" ht="43.2">
       <c r="A107" s="29" t="s">
         <v>128</v>
       </c>
@@ -11586,7 +11586,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" ht="45">
+    <row r="108" spans="1:9" ht="43.2">
       <c r="A108" s="29" t="s">
         <v>129</v>
       </c>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="28.8">
       <c r="A109" s="29" t="s">
         <v>130</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="28.8">
       <c r="A110" s="29" t="s">
         <v>131</v>
       </c>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="28.8">
       <c r="A111" s="29" t="s">
         <v>132</v>
       </c>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="30">
+    <row r="112" spans="1:9" ht="28.8">
       <c r="A112" s="29" t="s">
         <v>133</v>
       </c>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9" ht="45">
+    <row r="113" spans="1:9" ht="43.2">
       <c r="A113" s="29" t="s">
         <v>134</v>
       </c>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:9" ht="45">
+    <row r="114" spans="1:9" ht="43.2">
       <c r="A114" s="29" t="s">
         <v>135</v>
       </c>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="28.8">
       <c r="A115" s="29" t="s">
         <v>136</v>
       </c>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:9" ht="45">
+    <row r="116" spans="1:9" ht="43.2">
       <c r="A116" s="29" t="s">
         <v>137</v>
       </c>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="28.8">
       <c r="A117" s="29" t="s">
         <v>138</v>
       </c>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" ht="28.8">
       <c r="A118" s="29" t="s">
         <v>139</v>
       </c>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="28.8">
       <c r="A119" s="29" t="s">
         <v>140</v>
       </c>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="28.8">
       <c r="A120" s="29" t="s">
         <v>141</v>
       </c>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="28.8">
       <c r="A121" s="29" t="s">
         <v>142</v>
       </c>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9" ht="28.8">
       <c r="A122" s="29" t="s">
         <v>143</v>
       </c>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9" ht="28.8">
       <c r="A123" s="29" t="s">
         <v>144</v>
       </c>
@@ -11986,7 +11986,7 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" ht="45">
+    <row r="124" spans="1:9" ht="43.2">
       <c r="A124" s="29" t="s">
         <v>145</v>
       </c>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="45">
+    <row r="125" spans="1:9" ht="43.2">
       <c r="A125" s="29" t="s">
         <v>146</v>
       </c>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:9" ht="45">
+    <row r="126" spans="1:9" ht="43.2">
       <c r="A126" s="29" t="s">
         <v>147</v>
       </c>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="105">
+    <row r="127" spans="1:9" ht="100.8">
       <c r="A127" s="29" t="s">
         <v>148</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60">
+    <row r="128" spans="1:9" ht="57.6">
       <c r="A128" s="29" t="s">
         <v>149</v>
       </c>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="1:9" ht="45">
+    <row r="129" spans="1:9" ht="43.2">
       <c r="A129" s="29" t="s">
         <v>150</v>
       </c>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="28.8">
       <c r="A130" s="29" t="s">
         <v>151</v>
       </c>
@@ -12163,7 +12163,7 @@
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="1:9" ht="45">
+    <row r="131" spans="1:9" ht="43.2">
       <c r="A131" s="29" t="s">
         <v>152</v>
       </c>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:9" ht="45">
+    <row r="132" spans="1:9" ht="28.8">
       <c r="A132" s="29" t="s">
         <v>153</v>
       </c>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" ht="60">
+    <row r="133" spans="1:9" ht="43.2">
       <c r="A133" s="22" t="s">
         <v>154</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="45">
+    <row r="134" spans="1:9" ht="43.2">
       <c r="A134" s="29" t="s">
         <v>155</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="45">
+    <row r="135" spans="1:9" ht="28.8">
       <c r="A135" s="29" t="s">
         <v>156</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="45">
+    <row r="136" spans="1:9" ht="43.2">
       <c r="A136" s="29" t="s">
         <v>157</v>
       </c>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="1:9" ht="165">
+    <row r="137" spans="1:9" ht="158.4">
       <c r="A137" s="29" t="s">
         <v>158</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="28.8">
       <c r="A138" s="29" t="s">
         <v>159</v>
       </c>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="28.8">
       <c r="A139" s="29" t="s">
         <v>160</v>
       </c>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="1:9" ht="45">
+    <row r="140" spans="1:9" ht="43.2">
       <c r="A140" s="29" t="s">
         <v>161</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="28.8">
       <c r="A141" s="29" t="s">
         <v>162</v>
       </c>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="1:9" ht="45">
+    <row r="142" spans="1:9" ht="43.2">
       <c r="A142" s="29" t="s">
         <v>163</v>
       </c>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="28.8">
       <c r="A143" s="29" t="s">
         <v>164</v>
       </c>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="28.8">
       <c r="A144" s="29" t="s">
         <v>165</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" ht="28.8">
       <c r="A145" s="29" t="s">
         <v>166</v>
       </c>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="1:9" ht="45">
+    <row r="146" spans="1:9" ht="43.2">
       <c r="A146" s="29" t="s">
         <v>167</v>
       </c>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="1:9" ht="45">
+    <row r="147" spans="1:9" ht="43.2">
       <c r="A147" s="29" t="s">
         <v>168</v>
       </c>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9" ht="45">
+    <row r="148" spans="1:9" ht="43.2">
       <c r="A148" s="29" t="s">
         <v>169</v>
       </c>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="1:9" ht="30">
+    <row r="149" spans="1:9" ht="28.8">
       <c r="A149" s="29" t="s">
         <v>170</v>
       </c>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="1:9" ht="60">
+    <row r="150" spans="1:9" ht="43.2">
       <c r="A150" s="29" t="s">
         <v>171</v>
       </c>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="1:9" ht="45">
+    <row r="151" spans="1:9" ht="28.8">
       <c r="A151" s="29" t="s">
         <v>172</v>
       </c>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9" ht="28.8">
       <c r="A152" s="29" t="s">
         <v>173</v>
       </c>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="1:9" ht="45">
+    <row r="153" spans="1:9" ht="28.8">
       <c r="A153" s="29" t="s">
         <v>174</v>
       </c>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="43.2">
       <c r="A154" s="29" t="s">
         <v>175</v>
       </c>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="1:9" ht="45">
+    <row r="155" spans="1:9" ht="28.8">
       <c r="A155" s="29" t="s">
         <v>176</v>
       </c>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9" ht="45">
+    <row r="156" spans="1:9" ht="43.2">
       <c r="A156" s="29" t="s">
         <v>177</v>
       </c>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="1:9" ht="45">
+    <row r="157" spans="1:9" ht="43.2">
       <c r="A157" s="29" t="s">
         <v>178</v>
       </c>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="1:9" ht="45">
+    <row r="158" spans="1:9" ht="43.2">
       <c r="A158" s="29" t="s">
         <v>179</v>
       </c>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="1:9" ht="45">
+    <row r="159" spans="1:9" ht="43.2">
       <c r="A159" s="29" t="s">
         <v>180</v>
       </c>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="28.8">
       <c r="A160" s="29" t="s">
         <v>181</v>
       </c>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="28.8">
       <c r="A161" s="29" t="s">
         <v>182</v>
       </c>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="1:9" ht="60">
+    <row r="162" spans="1:9" ht="57.6">
       <c r="A162" s="29" t="s">
         <v>183</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" ht="28.8">
       <c r="A163" s="29" t="s">
         <v>184</v>
       </c>
@@ -12998,7 +12998,7 @@
       </c>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" ht="28.8">
       <c r="A164" s="29" t="s">
         <v>185</v>
       </c>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" ht="45">
+    <row r="165" spans="1:9" ht="43.2">
       <c r="A165" s="29" t="s">
         <v>186</v>
       </c>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="1:9" ht="45">
+    <row r="166" spans="1:9" ht="28.8">
       <c r="A166" s="29" t="s">
         <v>187</v>
       </c>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="45">
+    <row r="167" spans="1:9" ht="43.2">
       <c r="A167" s="29" t="s">
         <v>188</v>
       </c>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="1:9" ht="45">
+    <row r="168" spans="1:9" ht="43.2">
       <c r="A168" s="29" t="s">
         <v>189</v>
       </c>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="1:9" ht="45">
+    <row r="169" spans="1:9" ht="43.2">
       <c r="A169" s="29" t="s">
         <v>190</v>
       </c>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="1:9" ht="45">
+    <row r="170" spans="1:9" ht="43.2">
       <c r="A170" s="29" t="s">
         <v>191</v>
       </c>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="45">
+    <row r="171" spans="1:9" ht="28.8">
       <c r="A171" s="29" t="s">
         <v>192</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="45">
+    <row r="172" spans="1:9" ht="43.2">
       <c r="A172" s="29" t="s">
         <v>193</v>
       </c>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="1:9" ht="45">
+    <row r="173" spans="1:9" ht="43.2">
       <c r="A173" s="29" t="s">
         <v>194</v>
       </c>
@@ -13250,7 +13250,7 @@
       </c>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="1:9" ht="45">
+    <row r="174" spans="1:9" ht="43.2">
       <c r="A174" s="29" t="s">
         <v>195</v>
       </c>
@@ -13275,7 +13275,7 @@
       </c>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="1:9" ht="45">
+    <row r="175" spans="1:9" ht="43.2">
       <c r="A175" s="29" t="s">
         <v>196</v>
       </c>
@@ -13300,7 +13300,7 @@
       </c>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="1:9" ht="45">
+    <row r="176" spans="1:9" ht="43.2">
       <c r="A176" s="29" t="s">
         <v>197</v>
       </c>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="1:9" ht="45">
+    <row r="177" spans="1:9" ht="43.2">
       <c r="A177" s="29" t="s">
         <v>198</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="43.2">
       <c r="A178" s="29" t="s">
         <v>199</v>
       </c>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="1:9" ht="45">
+    <row r="179" spans="1:9" ht="43.2">
       <c r="A179" s="29" t="s">
         <v>200</v>
       </c>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="1:9" ht="60">
+    <row r="180" spans="1:9" ht="43.2">
       <c r="A180" s="29" t="s">
         <v>201</v>
       </c>
@@ -13427,7 +13427,7 @@
       </c>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="1:9" ht="60">
+    <row r="181" spans="1:9" ht="43.2">
       <c r="A181" s="29" t="s">
         <v>202</v>
       </c>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="1:9" ht="45">
+    <row r="182" spans="1:9" ht="43.2">
       <c r="A182" s="29" t="s">
         <v>203</v>
       </c>
@@ -13477,7 +13477,7 @@
       </c>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="1:9" ht="45">
+    <row r="183" spans="1:9" ht="43.2">
       <c r="A183" s="29" t="s">
         <v>204</v>
       </c>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" ht="60">
+    <row r="184" spans="1:9" ht="43.2">
       <c r="A184" s="29" t="s">
         <v>205</v>
       </c>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9" ht="60">
+    <row r="185" spans="1:9" ht="43.2">
       <c r="A185" s="29" t="s">
         <v>206</v>
       </c>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" ht="28.8">
       <c r="A186" s="29" t="s">
         <v>207</v>
       </c>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="28.8">
       <c r="A187" s="29" t="s">
         <v>208</v>
       </c>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="1:9" ht="45">
+    <row r="188" spans="1:9" ht="43.2">
       <c r="A188" s="29" t="s">
         <v>209</v>
       </c>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9" ht="195">
+    <row r="189" spans="1:9" ht="187.2">
       <c r="A189" s="29" t="s">
         <v>210</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9" ht="28.8">
       <c r="A190" s="29" t="s">
         <v>211</v>
       </c>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9" ht="28.8">
       <c r="A191" s="29" t="s">
         <v>212</v>
       </c>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="1:9" ht="45">
+    <row r="192" spans="1:9" ht="43.2">
       <c r="A192" s="29" t="s">
         <v>213</v>
       </c>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9" ht="28.8">
       <c r="A193" s="29" t="s">
         <v>214</v>
       </c>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9" ht="28.8">
       <c r="A194" s="29" t="s">
         <v>215</v>
       </c>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="28.8">
       <c r="A195" s="29" t="s">
         <v>216</v>
       </c>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="1:9" ht="45">
+    <row r="196" spans="1:9" ht="43.2">
       <c r="A196" s="29" t="s">
         <v>217</v>
       </c>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="1:9" ht="45">
+    <row r="197" spans="1:9" ht="43.2">
       <c r="A197" s="29" t="s">
         <v>218</v>
       </c>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="1:9" ht="45">
+    <row r="198" spans="1:9" ht="43.2">
       <c r="A198" s="29" t="s">
         <v>219</v>
       </c>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="1:9" ht="45">
+    <row r="199" spans="1:9" ht="43.2">
       <c r="A199" s="29" t="s">
         <v>220</v>
       </c>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="1:9" ht="45">
+    <row r="200" spans="1:9" ht="43.2">
       <c r="A200" s="29" t="s">
         <v>221</v>
       </c>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="1:9" ht="45">
+    <row r="201" spans="1:9" ht="43.2">
       <c r="A201" s="29" t="s">
         <v>222</v>
       </c>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="1:9" ht="45">
+    <row r="202" spans="1:9" ht="43.2">
       <c r="A202" s="29" t="s">
         <v>223</v>
       </c>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="1:9" ht="45">
+    <row r="203" spans="1:9" ht="43.2">
       <c r="A203" s="29" t="s">
         <v>224</v>
       </c>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="45">
+    <row r="204" spans="1:9" ht="43.2">
       <c r="A204" s="29" t="s">
         <v>225</v>
       </c>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="45">
+    <row r="205" spans="1:9" ht="43.2">
       <c r="A205" s="29" t="s">
         <v>226</v>
       </c>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" ht="90">
+    <row r="206" spans="1:9" ht="86.4">
       <c r="A206" s="29" t="s">
         <v>227</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="28.8">
       <c r="A207" s="29" t="s">
         <v>228</v>
       </c>
@@ -14106,7 +14106,7 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="28.8">
       <c r="A208" s="29" t="s">
         <v>229</v>
       </c>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="1:9" ht="45">
+    <row r="209" spans="1:9" ht="28.8">
       <c r="A209" s="29" t="s">
         <v>230</v>
       </c>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="28.8">
       <c r="A210" s="29" t="s">
         <v>231</v>
       </c>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="1:9" ht="45">
+    <row r="211" spans="1:9" ht="43.2">
       <c r="A211" s="29" t="s">
         <v>232</v>
       </c>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="1:9" ht="45">
+    <row r="212" spans="1:9" ht="28.8">
       <c r="A212" s="29" t="s">
         <v>233</v>
       </c>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="43.2">
       <c r="A213" s="29" t="s">
         <v>234</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="45">
+    <row r="214" spans="1:9" ht="28.8">
       <c r="A214" s="29" t="s">
         <v>235</v>
       </c>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="1:9" ht="45">
+    <row r="215" spans="1:9" ht="28.8">
       <c r="A215" s="29" t="s">
         <v>236</v>
       </c>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="1:9" ht="45">
+    <row r="216" spans="1:9" ht="43.2">
       <c r="A216" s="29" t="s">
         <v>237</v>
       </c>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="1:9" ht="45">
+    <row r="217" spans="1:9" ht="43.2">
       <c r="A217" s="29" t="s">
         <v>238</v>
       </c>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="1:9" ht="45">
+    <row r="218" spans="1:9" ht="28.8">
       <c r="A218" s="29" t="s">
         <v>239</v>
       </c>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" ht="28.8">
       <c r="A219" s="29" t="s">
         <v>240</v>
       </c>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9" ht="180">
+    <row r="220" spans="1:9" ht="172.8">
       <c r="A220" s="29" t="s">
         <v>241</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="75">
+    <row r="221" spans="1:9" ht="57.6">
       <c r="A221" s="29" t="s">
         <v>242</v>
       </c>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="28.8">
       <c r="A222" s="29" t="s">
         <v>243</v>
       </c>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="60">
+    <row r="223" spans="1:9" ht="43.2">
       <c r="A223" s="29" t="s">
         <v>244</v>
       </c>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="1:9" ht="45">
+    <row r="224" spans="1:9" ht="43.2">
       <c r="A224" s="29" t="s">
         <v>245</v>
       </c>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="45">
+    <row r="225" spans="1:9" ht="43.2">
       <c r="A225" s="29" t="s">
         <v>246</v>
       </c>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" ht="60">
+    <row r="226" spans="1:9" ht="43.2">
       <c r="A226" s="29" t="s">
         <v>247</v>
       </c>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="I226" s="31"/>
     </row>
-    <row r="227" spans="1:9" ht="60">
+    <row r="227" spans="1:9" ht="43.2">
       <c r="A227" s="29" t="s">
         <v>248</v>
       </c>
@@ -14610,7 +14610,7 @@
       </c>
       <c r="I227" s="31"/>
     </row>
-    <row r="228" spans="1:9" ht="45">
+    <row r="228" spans="1:9" ht="28.8">
       <c r="A228" s="29" t="s">
         <v>249</v>
       </c>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="45">
+    <row r="229" spans="1:9" ht="43.2">
       <c r="A229" s="29" t="s">
         <v>250</v>
       </c>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9" ht="28.8">
       <c r="A230" s="29" t="s">
         <v>251</v>
       </c>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="I230" s="31"/>
     </row>
-    <row r="231" spans="1:9" ht="45">
+    <row r="231" spans="1:9" ht="43.2">
       <c r="A231" s="29" t="s">
         <v>252</v>
       </c>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="45">
+    <row r="232" spans="1:9" ht="28.8">
       <c r="A232" s="29" t="s">
         <v>253</v>
       </c>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" ht="45">
+    <row r="233" spans="1:9" ht="43.2">
       <c r="A233" s="29" t="s">
         <v>254</v>
       </c>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="I233" s="31"/>
     </row>
-    <row r="234" spans="1:9" ht="45">
+    <row r="234" spans="1:9" ht="43.2">
       <c r="A234" s="29" t="s">
         <v>255</v>
       </c>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="I234" s="31"/>
     </row>
-    <row r="235" spans="1:9" ht="30">
+    <row r="235" spans="1:9" ht="28.8">
       <c r="A235" s="29" t="s">
         <v>256</v>
       </c>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="I235" s="31"/>
     </row>
-    <row r="236" spans="1:9" ht="30">
+    <row r="236" spans="1:9" ht="28.8">
       <c r="A236" s="29" t="s">
         <v>257</v>
       </c>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="28.8">
       <c r="A237" s="29" t="s">
         <v>258</v>
       </c>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="I237" s="31"/>
     </row>
-    <row r="238" spans="1:9" ht="45">
+    <row r="238" spans="1:9" ht="28.8">
       <c r="A238" s="29" t="s">
         <v>259</v>
       </c>
@@ -14885,7 +14885,7 @@
       </c>
       <c r="I238" s="31"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" ht="28.8">
       <c r="A239" s="29" t="s">
         <v>260</v>
       </c>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="I239" s="31"/>
     </row>
-    <row r="240" spans="1:9" ht="45">
+    <row r="240" spans="1:9" ht="43.2">
       <c r="A240" s="29" t="s">
         <v>261</v>
       </c>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="I240" s="31"/>
     </row>
-    <row r="241" spans="1:10" ht="45">
+    <row r="241" spans="1:10" ht="43.2">
       <c r="A241" s="29" t="s">
         <v>262</v>
       </c>
@@ -14960,7 +14960,7 @@
       </c>
       <c r="I241" s="31"/>
     </row>
-    <row r="242" spans="1:10" ht="60">
+    <row r="242" spans="1:10" ht="43.2">
       <c r="A242" s="22" t="s">
         <v>2162</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="I242" s="20"/>
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="1:10" ht="60">
+    <row r="243" spans="1:10" ht="43.2">
       <c r="A243" s="22" t="s">
         <v>2164</v>
       </c>
@@ -15012,7 +15012,7 @@
       <c r="I243" s="20"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="1:10" ht="75">
+    <row r="244" spans="1:10" ht="57.6">
       <c r="A244" s="22" t="s">
         <v>2166</v>
       </c>
@@ -15038,7 +15038,7 @@
       <c r="I244" s="20"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="1:10" ht="75">
+    <row r="245" spans="1:10" ht="57.6">
       <c r="A245" s="22" t="s">
         <v>2167</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="I245" s="20"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="1:10" ht="45">
+    <row r="246" spans="1:10" ht="43.2">
       <c r="A246" s="29" t="s">
         <v>263</v>
       </c>
@@ -15089,7 +15089,7 @@
       </c>
       <c r="I246" s="31"/>
     </row>
-    <row r="247" spans="1:10" ht="60">
+    <row r="247" spans="1:10" ht="43.2">
       <c r="A247" s="22" t="s">
         <v>2157</v>
       </c>
@@ -15115,7 +15115,7 @@
       <c r="I247" s="20"/>
       <c r="J247" s="20"/>
     </row>
-    <row r="248" spans="1:10" ht="60">
+    <row r="248" spans="1:10" ht="43.2">
       <c r="A248" s="22" t="s">
         <v>2159</v>
       </c>
@@ -15141,7 +15141,7 @@
       <c r="I248" s="20"/>
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="1:10" ht="75">
+    <row r="249" spans="1:10" ht="57.6">
       <c r="A249" s="22" t="s">
         <v>2199</v>
       </c>
@@ -15167,7 +15167,7 @@
       <c r="I249" s="20"/>
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="1:10" ht="75">
+    <row r="250" spans="1:10" ht="57.6">
       <c r="A250" s="22" t="s">
         <v>2168</v>
       </c>
@@ -15193,7 +15193,7 @@
       <c r="I250" s="20"/>
       <c r="J250" s="20"/>
     </row>
-    <row r="251" spans="1:10" ht="45">
+    <row r="251" spans="1:10" ht="43.2">
       <c r="A251" s="29" t="s">
         <v>264</v>
       </c>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="I251" s="31"/>
     </row>
-    <row r="252" spans="1:10" ht="45">
+    <row r="252" spans="1:10" ht="43.2">
       <c r="A252" s="29" t="s">
         <v>265</v>
       </c>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="I252" s="31"/>
     </row>
-    <row r="253" spans="1:10" ht="45">
+    <row r="253" spans="1:10" ht="43.2">
       <c r="A253" s="29" t="s">
         <v>266</v>
       </c>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="I253" s="31"/>
     </row>
-    <row r="254" spans="1:10" ht="45">
+    <row r="254" spans="1:10" ht="43.2">
       <c r="A254" s="29" t="s">
         <v>267</v>
       </c>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="I254" s="31"/>
     </row>
-    <row r="255" spans="1:10" ht="45">
+    <row r="255" spans="1:10" ht="28.8">
       <c r="A255" s="29" t="s">
         <v>268</v>
       </c>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="I255" s="31"/>
     </row>
-    <row r="256" spans="1:10" ht="30">
+    <row r="256" spans="1:10" ht="28.8">
       <c r="A256" s="29" t="s">
         <v>269</v>
       </c>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="I256" s="31"/>
     </row>
-    <row r="257" spans="1:9" ht="45">
+    <row r="257" spans="1:9" ht="43.2">
       <c r="A257" s="29" t="s">
         <v>270</v>
       </c>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" ht="45">
+    <row r="258" spans="1:9" ht="43.2">
       <c r="A258" s="29" t="s">
         <v>271</v>
       </c>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="I258" s="31"/>
     </row>
-    <row r="259" spans="1:9" ht="45">
+    <row r="259" spans="1:9" ht="43.2">
       <c r="A259" s="29" t="s">
         <v>272</v>
       </c>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="I259" s="31"/>
     </row>
-    <row r="260" spans="1:9" ht="90">
+    <row r="260" spans="1:9" ht="86.4">
       <c r="A260" s="29" t="s">
         <v>273</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9" ht="28.8">
       <c r="A261" s="29" t="s">
         <v>274</v>
       </c>
@@ -15470,7 +15470,7 @@
       </c>
       <c r="I261" s="31"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="28.8">
       <c r="A262" s="29" t="s">
         <v>275</v>
       </c>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="I262" s="31"/>
     </row>
-    <row r="263" spans="1:9" ht="45">
+    <row r="263" spans="1:9" ht="43.2">
       <c r="A263" s="29" t="s">
         <v>276</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="45">
+    <row r="264" spans="1:9" ht="28.8">
       <c r="A264" s="29" t="s">
         <v>277</v>
       </c>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="I264" s="31"/>
     </row>
-    <row r="265" spans="1:9" ht="45">
+    <row r="265" spans="1:9" ht="43.2">
       <c r="A265" s="29" t="s">
         <v>278</v>
       </c>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="I265" s="31"/>
     </row>
-    <row r="266" spans="1:9" ht="45">
+    <row r="266" spans="1:9" ht="28.8">
       <c r="A266" s="29" t="s">
         <v>279</v>
       </c>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="I267" s="31"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="28.8">
       <c r="A268" s="29" t="s">
         <v>281</v>
       </c>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="I268" s="31"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="28.8">
       <c r="A269" s="29" t="s">
         <v>282</v>
       </c>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="I269" s="31"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="28.8">
       <c r="A270" s="29" t="s">
         <v>283</v>
       </c>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="I270" s="31"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="28.8">
       <c r="A271" s="29" t="s">
         <v>284</v>
       </c>
@@ -15722,7 +15722,7 @@
       </c>
       <c r="I271" s="31"/>
     </row>
-    <row r="272" spans="1:9" ht="30">
+    <row r="272" spans="1:9" ht="28.8">
       <c r="A272" s="29" t="s">
         <v>285</v>
       </c>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="I272" s="31"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="43.2">
       <c r="A273" s="29" t="s">
         <v>286</v>
       </c>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="I273" s="31"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="43.2">
       <c r="A274" s="29" t="s">
         <v>287</v>
       </c>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="I274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="60">
+    <row r="275" spans="1:9" ht="43.2">
       <c r="A275" s="29" t="s">
         <v>288</v>
       </c>
@@ -15822,7 +15822,7 @@
       </c>
       <c r="I275" s="31"/>
     </row>
-    <row r="276" spans="1:9" ht="45">
+    <row r="276" spans="1:9" ht="43.2">
       <c r="A276" s="29" t="s">
         <v>289</v>
       </c>
@@ -15847,7 +15847,7 @@
       </c>
       <c r="I276" s="31"/>
     </row>
-    <row r="277" spans="1:9" ht="60">
+    <row r="277" spans="1:9" ht="43.2">
       <c r="A277" s="29" t="s">
         <v>290</v>
       </c>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="I277" s="31"/>
     </row>
-    <row r="278" spans="1:9" ht="45">
+    <row r="278" spans="1:9" ht="28.8">
       <c r="A278" s="29" t="s">
         <v>291</v>
       </c>
@@ -15897,7 +15897,7 @@
       </c>
       <c r="I278" s="31"/>
     </row>
-    <row r="279" spans="1:9" ht="45">
+    <row r="279" spans="1:9" ht="28.8">
       <c r="A279" s="29" t="s">
         <v>292</v>
       </c>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="I279" s="31"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="28.8">
       <c r="A280" s="29" t="s">
         <v>293</v>
       </c>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="I280" s="31"/>
     </row>
-    <row r="281" spans="1:9" ht="45">
+    <row r="281" spans="1:9" ht="43.2">
       <c r="A281" s="29" t="s">
         <v>294</v>
       </c>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="I281" s="31"/>
     </row>
-    <row r="282" spans="1:9" ht="45">
+    <row r="282" spans="1:9" ht="43.2">
       <c r="A282" s="29" t="s">
         <v>295</v>
       </c>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I282" s="31"/>
     </row>
-    <row r="283" spans="1:9" ht="45">
+    <row r="283" spans="1:9" ht="28.8">
       <c r="A283" s="29" t="s">
         <v>296</v>
       </c>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="I283" s="31"/>
     </row>
-    <row r="284" spans="1:9" ht="30">
+    <row r="284" spans="1:9" ht="28.8">
       <c r="A284" s="29" t="s">
         <v>297</v>
       </c>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="I284" s="31"/>
     </row>
-    <row r="285" spans="1:9" ht="45">
+    <row r="285" spans="1:9" ht="43.2">
       <c r="A285" s="29" t="s">
         <v>298</v>
       </c>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="I285" s="31"/>
     </row>
-    <row r="286" spans="1:9" ht="90">
+    <row r="286" spans="1:9" ht="86.4">
       <c r="A286" s="29" t="s">
         <v>299</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9" ht="28.8">
       <c r="A287" s="29" t="s">
         <v>300</v>
       </c>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="I287" s="31"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="28.8">
       <c r="A288" s="29" t="s">
         <v>301</v>
       </c>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:9" ht="45">
+    <row r="289" spans="1:9" ht="43.2">
       <c r="A289" s="29" t="s">
         <v>302</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="45">
+    <row r="290" spans="1:9" ht="28.8">
       <c r="A290" s="29" t="s">
         <v>303</v>
       </c>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="45">
+    <row r="291" spans="1:9" ht="43.2">
       <c r="A291" s="29" t="s">
         <v>304</v>
       </c>
@@ -16226,7 +16226,7 @@
       </c>
       <c r="I291" s="31"/>
     </row>
-    <row r="292" spans="1:9" ht="30">
+    <row r="292" spans="1:9" ht="28.8">
       <c r="A292" s="29" t="s">
         <v>305</v>
       </c>
@@ -16276,7 +16276,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="45">
+    <row r="294" spans="1:9" ht="28.8">
       <c r="A294" s="29" t="s">
         <v>307</v>
       </c>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:9" ht="43.2">
       <c r="A295" s="29" t="s">
         <v>308</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="45">
+    <row r="296" spans="1:9" ht="43.2">
       <c r="A296" s="29" t="s">
         <v>309</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="28.8">
       <c r="A297" s="29" t="s">
         <v>310</v>
       </c>
@@ -16380,7 +16380,7 @@
       </c>
       <c r="I297" s="31"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9" ht="28.8">
       <c r="A298" s="29" t="s">
         <v>311</v>
       </c>
@@ -16405,7 +16405,7 @@
       </c>
       <c r="I298" s="31"/>
     </row>
-    <row r="299" spans="1:9" ht="45">
+    <row r="299" spans="1:9" ht="43.2">
       <c r="A299" s="29" t="s">
         <v>312</v>
       </c>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" ht="45">
+    <row r="300" spans="1:9" ht="43.2">
       <c r="A300" s="29" t="s">
         <v>313</v>
       </c>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="I300" s="31"/>
     </row>
-    <row r="301" spans="1:9" ht="60">
+    <row r="301" spans="1:9" ht="43.2">
       <c r="A301" s="29" t="s">
         <v>314</v>
       </c>
@@ -16480,7 +16480,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="45">
+    <row r="302" spans="1:9" ht="43.2">
       <c r="A302" s="29" t="s">
         <v>315</v>
       </c>
@@ -16505,7 +16505,7 @@
       </c>
       <c r="I302" s="31"/>
     </row>
-    <row r="303" spans="1:9" ht="60">
+    <row r="303" spans="1:9" ht="43.2">
       <c r="A303" s="29" t="s">
         <v>316</v>
       </c>
@@ -16530,7 +16530,7 @@
       </c>
       <c r="I303" s="31"/>
     </row>
-    <row r="304" spans="1:9" ht="45">
+    <row r="304" spans="1:9" ht="28.8">
       <c r="A304" s="29" t="s">
         <v>317</v>
       </c>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="I304" s="31"/>
     </row>
-    <row r="305" spans="1:9" ht="45">
+    <row r="305" spans="1:9" ht="28.8">
       <c r="A305" s="29" t="s">
         <v>318</v>
       </c>
@@ -16580,7 +16580,7 @@
       </c>
       <c r="I305" s="31"/>
     </row>
-    <row r="306" spans="1:9" ht="30">
+    <row r="306" spans="1:9" ht="28.8">
       <c r="A306" s="29" t="s">
         <v>319</v>
       </c>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9" ht="75">
+    <row r="307" spans="1:9" ht="57.6">
       <c r="A307" s="29" t="s">
         <v>320</v>
       </c>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="I307" s="31"/>
     </row>
-    <row r="308" spans="1:9" ht="75">
+    <row r="308" spans="1:9" ht="72">
       <c r="A308" s="29" t="s">
         <v>321</v>
       </c>
@@ -16655,7 +16655,7 @@
       </c>
       <c r="I308" s="31"/>
     </row>
-    <row r="309" spans="1:9" ht="45">
+    <row r="309" spans="1:9" ht="43.2">
       <c r="A309" s="29" t="s">
         <v>322</v>
       </c>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="I309" s="31"/>
     </row>
-    <row r="310" spans="1:9" ht="45">
+    <row r="310" spans="1:9" ht="43.2">
       <c r="A310" s="29" t="s">
         <v>323</v>
       </c>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="I310" s="31"/>
     </row>
-    <row r="311" spans="1:9" ht="45">
+    <row r="311" spans="1:9" ht="28.8">
       <c r="A311" s="29" t="s">
         <v>324</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9" ht="28.8">
       <c r="A312" s="29" t="s">
         <v>325</v>
       </c>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="I312" s="31"/>
     </row>
-    <row r="313" spans="1:9" ht="45">
+    <row r="313" spans="1:9" ht="43.2">
       <c r="A313" s="29" t="s">
         <v>326</v>
       </c>
@@ -16782,7 +16782,7 @@
       </c>
       <c r="I313" s="31"/>
     </row>
-    <row r="314" spans="1:9" ht="90">
+    <row r="314" spans="1:9" ht="86.4">
       <c r="A314" s="29" t="s">
         <v>327</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="30">
+    <row r="315" spans="1:9" ht="28.8">
       <c r="A315" s="29" t="s">
         <v>328</v>
       </c>
@@ -16834,7 +16834,7 @@
       </c>
       <c r="I315" s="31"/>
     </row>
-    <row r="316" spans="1:9" ht="30">
+    <row r="316" spans="1:9" ht="28.8">
       <c r="A316" s="29" t="s">
         <v>329</v>
       </c>
@@ -16859,7 +16859,7 @@
       </c>
       <c r="I316" s="31"/>
     </row>
-    <row r="317" spans="1:9" ht="45">
+    <row r="317" spans="1:9" ht="43.2">
       <c r="A317" s="29" t="s">
         <v>330</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="60">
+    <row r="318" spans="1:9" ht="43.2">
       <c r="A318" s="22" t="s">
         <v>2302</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="45">
+    <row r="319" spans="1:9" ht="43.2">
       <c r="A319" s="29" t="s">
         <v>331</v>
       </c>
@@ -16938,7 +16938,7 @@
       </c>
       <c r="I319" s="31"/>
     </row>
-    <row r="320" spans="1:9" ht="45">
+    <row r="320" spans="1:9" ht="43.2">
       <c r="A320" s="29" t="s">
         <v>332</v>
       </c>
@@ -16963,7 +16963,7 @@
       </c>
       <c r="I320" s="31"/>
     </row>
-    <row r="321" spans="1:9" ht="45">
+    <row r="321" spans="1:9" ht="28.8">
       <c r="A321" s="29" t="s">
         <v>333</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="45">
+    <row r="322" spans="1:9" ht="28.8">
       <c r="A322" s="29" t="s">
         <v>334</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="28.8">
       <c r="A323" s="29" t="s">
         <v>335</v>
       </c>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="I323" s="31"/>
     </row>
-    <row r="324" spans="1:9" ht="30">
+    <row r="324" spans="1:9" ht="28.8">
       <c r="A324" s="29" t="s">
         <v>336</v>
       </c>
@@ -17067,7 +17067,7 @@
       </c>
       <c r="I324" s="31"/>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9" ht="28.8">
       <c r="A325" s="29" t="s">
         <v>337</v>
       </c>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="I325" s="31"/>
     </row>
-    <row r="326" spans="1:9" ht="45">
+    <row r="326" spans="1:9" ht="43.2">
       <c r="A326" s="29" t="s">
         <v>338</v>
       </c>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="I326" s="31"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="28.8">
       <c r="A327" s="29" t="s">
         <v>339</v>
       </c>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="I327" s="31"/>
     </row>
-    <row r="328" spans="1:9" ht="45">
+    <row r="328" spans="1:9" ht="43.2">
       <c r="A328" s="29" t="s">
         <v>340</v>
       </c>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="I328" s="31"/>
     </row>
-    <row r="329" spans="1:9" ht="60">
+    <row r="329" spans="1:9" ht="43.2">
       <c r="A329" s="29" t="s">
         <v>341</v>
       </c>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="I329" s="31"/>
     </row>
-    <row r="330" spans="1:9" ht="45">
+    <row r="330" spans="1:9" ht="28.8">
       <c r="A330" s="29" t="s">
         <v>342</v>
       </c>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="I330" s="31"/>
     </row>
-    <row r="331" spans="1:9" ht="45">
+    <row r="331" spans="1:9" ht="28.8">
       <c r="A331" s="29" t="s">
         <v>343</v>
       </c>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="I331" s="31"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="43.2">
       <c r="A332" s="29" t="s">
         <v>344</v>
       </c>
@@ -17267,7 +17267,7 @@
       </c>
       <c r="I332" s="31"/>
     </row>
-    <row r="333" spans="1:9" ht="45">
+    <row r="333" spans="1:9" ht="43.2">
       <c r="A333" s="29" t="s">
         <v>345</v>
       </c>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="I333" s="31"/>
     </row>
-    <row r="334" spans="1:9" ht="45">
+    <row r="334" spans="1:9" ht="43.2">
       <c r="A334" s="29" t="s">
         <v>346</v>
       </c>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="I334" s="31"/>
     </row>
-    <row r="335" spans="1:9" ht="75">
+    <row r="335" spans="1:9" ht="72">
       <c r="A335" s="29" t="s">
         <v>347</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="30">
+    <row r="336" spans="1:9" ht="28.8">
       <c r="A336" s="29" t="s">
         <v>348</v>
       </c>
@@ -17369,7 +17369,7 @@
       </c>
       <c r="I336" s="31"/>
     </row>
-    <row r="337" spans="1:9" ht="30">
+    <row r="337" spans="1:9" ht="28.8">
       <c r="A337" s="29" t="s">
         <v>349</v>
       </c>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="I337" s="31"/>
     </row>
-    <row r="338" spans="1:9" ht="45">
+    <row r="338" spans="1:9" ht="43.2">
       <c r="A338" s="29" t="s">
         <v>350</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="28.8">
       <c r="A339" s="29" t="s">
         <v>351</v>
       </c>
@@ -17446,7 +17446,7 @@
       </c>
       <c r="I339" s="31"/>
     </row>
-    <row r="340" spans="1:9" ht="45">
+    <row r="340" spans="1:9" ht="43.2">
       <c r="A340" s="29" t="s">
         <v>352</v>
       </c>
@@ -17471,7 +17471,7 @@
       </c>
       <c r="I340" s="31"/>
     </row>
-    <row r="341" spans="1:9" ht="60">
+    <row r="341" spans="1:9" ht="57.6">
       <c r="A341" s="29" t="s">
         <v>353</v>
       </c>
@@ -17496,7 +17496,7 @@
       </c>
       <c r="I341" s="31"/>
     </row>
-    <row r="342" spans="1:9" ht="45">
+    <row r="342" spans="1:9" ht="43.2">
       <c r="A342" s="29" t="s">
         <v>354</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="43.2">
       <c r="A343" s="29" t="s">
         <v>355</v>
       </c>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="I343" s="31"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9" ht="28.8">
       <c r="A344" s="29" t="s">
         <v>356</v>
       </c>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="I344" s="31"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="28.8">
       <c r="A345" s="29" t="s">
         <v>357</v>
       </c>
@@ -17598,7 +17598,7 @@
       </c>
       <c r="I345" s="31"/>
     </row>
-    <row r="346" spans="1:9" ht="60">
+    <row r="346" spans="1:9" ht="43.2">
       <c r="A346" s="29" t="s">
         <v>358</v>
       </c>
@@ -17623,7 +17623,7 @@
       </c>
       <c r="I346" s="31"/>
     </row>
-    <row r="347" spans="1:9" ht="60">
+    <row r="347" spans="1:9" ht="43.2">
       <c r="A347" s="29" t="s">
         <v>359</v>
       </c>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="I347" s="31"/>
     </row>
-    <row r="348" spans="1:9" ht="75">
+    <row r="348" spans="1:9" ht="57.6">
       <c r="A348" s="29" t="s">
         <v>360</v>
       </c>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="I348" s="31"/>
     </row>
-    <row r="349" spans="1:9" ht="45">
+    <row r="349" spans="1:9" ht="43.2">
       <c r="A349" s="29" t="s">
         <v>361</v>
       </c>
@@ -17698,7 +17698,7 @@
       </c>
       <c r="I349" s="31"/>
     </row>
-    <row r="350" spans="1:9" ht="45">
+    <row r="350" spans="1:9" ht="43.2">
       <c r="A350" s="29" t="s">
         <v>362</v>
       </c>
@@ -17723,7 +17723,7 @@
       </c>
       <c r="I350" s="31"/>
     </row>
-    <row r="351" spans="1:9" ht="45">
+    <row r="351" spans="1:9" ht="43.2">
       <c r="A351" s="29" t="s">
         <v>363</v>
       </c>
@@ -17748,7 +17748,7 @@
       </c>
       <c r="I351" s="31"/>
     </row>
-    <row r="352" spans="1:9" ht="45">
+    <row r="352" spans="1:9" ht="43.2">
       <c r="A352" s="29" t="s">
         <v>364</v>
       </c>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="I352" s="31"/>
     </row>
-    <row r="353" spans="1:9" ht="60">
+    <row r="353" spans="1:9" ht="43.2">
       <c r="A353" s="29" t="s">
         <v>365</v>
       </c>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="I353" s="31"/>
     </row>
-    <row r="354" spans="1:9" ht="75">
+    <row r="354" spans="1:9" ht="72">
       <c r="A354" s="29" t="s">
         <v>366</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9" ht="28.8">
       <c r="A355" s="29" t="s">
         <v>367</v>
       </c>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="I355" s="31"/>
     </row>
-    <row r="356" spans="1:9" ht="45">
+    <row r="356" spans="1:9" ht="43.2">
       <c r="A356" s="29" t="s">
         <v>368</v>
       </c>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="I356" s="31"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="43.2">
       <c r="A357" s="29" t="s">
         <v>369</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="60">
+    <row r="358" spans="1:9" ht="43.2">
       <c r="A358" s="29" t="s">
         <v>370</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="45">
+    <row r="359" spans="1:9" ht="43.2">
       <c r="A359" s="29" t="s">
         <v>371</v>
       </c>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="I359" s="31"/>
     </row>
-    <row r="360" spans="1:9" ht="45">
+    <row r="360" spans="1:9" ht="28.8">
       <c r="A360" s="29" t="s">
         <v>372</v>
       </c>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="I360" s="31"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" ht="28.8">
       <c r="A361" s="29" t="s">
         <v>373</v>
       </c>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="I361" s="31"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="28.8">
       <c r="A362" s="29" t="s">
         <v>374</v>
       </c>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="I362" s="31"/>
     </row>
-    <row r="363" spans="1:9" ht="45">
+    <row r="363" spans="1:9" ht="43.2">
       <c r="A363" s="29" t="s">
         <v>375</v>
       </c>
@@ -18054,7 +18054,7 @@
       </c>
       <c r="I363" s="31"/>
     </row>
-    <row r="364" spans="1:9" ht="30">
+    <row r="364" spans="1:9" ht="28.8">
       <c r="A364" s="22" t="s">
         <v>2206</v>
       </c>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="I364" s="35"/>
     </row>
-    <row r="365" spans="1:9" ht="30">
+    <row r="365" spans="1:9" ht="28.8">
       <c r="A365" s="22" t="s">
         <v>2207</v>
       </c>
@@ -18104,7 +18104,7 @@
       </c>
       <c r="I365" s="35"/>
     </row>
-    <row r="366" spans="1:9" ht="30">
+    <row r="366" spans="1:9" ht="28.8">
       <c r="A366" s="29" t="s">
         <v>376</v>
       </c>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="I366" s="31"/>
     </row>
-    <row r="367" spans="1:9" ht="30">
+    <row r="367" spans="1:9" ht="28.8">
       <c r="A367" s="29" t="s">
         <v>377</v>
       </c>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="I367" s="31"/>
     </row>
-    <row r="368" spans="1:9" ht="45">
+    <row r="368" spans="1:9" ht="43.2">
       <c r="A368" s="29" t="s">
         <v>378</v>
       </c>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="I368" s="31"/>
     </row>
-    <row r="369" spans="1:9" ht="45">
+    <row r="369" spans="1:9" ht="43.2">
       <c r="A369" s="29" t="s">
         <v>379</v>
       </c>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="I369" s="31"/>
     </row>
-    <row r="370" spans="1:9" ht="60">
+    <row r="370" spans="1:9" ht="43.2">
       <c r="A370" s="29" t="s">
         <v>380</v>
       </c>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="I370" s="31"/>
     </row>
-    <row r="371" spans="1:9" ht="45">
+    <row r="371" spans="1:9" ht="43.2">
       <c r="A371" s="29" t="s">
         <v>381</v>
       </c>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="I371" s="31"/>
     </row>
-    <row r="372" spans="1:9" ht="45">
+    <row r="372" spans="1:9" ht="28.8">
       <c r="A372" s="29" t="s">
         <v>382</v>
       </c>
@@ -18279,7 +18279,7 @@
       </c>
       <c r="I372" s="31"/>
     </row>
-    <row r="373" spans="1:9" ht="30">
+    <row r="373" spans="1:9" ht="28.8">
       <c r="A373" s="29" t="s">
         <v>383</v>
       </c>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="I373" s="31"/>
     </row>
-    <row r="374" spans="1:9" ht="45">
+    <row r="374" spans="1:9" ht="43.2">
       <c r="A374" s="29" t="s">
         <v>384</v>
       </c>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="I374" s="31"/>
     </row>
-    <row r="375" spans="1:9" ht="45">
+    <row r="375" spans="1:9" ht="43.2">
       <c r="A375" s="29" t="s">
         <v>385</v>
       </c>
@@ -18354,7 +18354,7 @@
       </c>
       <c r="I375" s="31"/>
     </row>
-    <row r="376" spans="1:9" ht="45">
+    <row r="376" spans="1:9" ht="43.2">
       <c r="A376" s="29" t="s">
         <v>386</v>
       </c>
@@ -18379,7 +18379,7 @@
       </c>
       <c r="I376" s="31"/>
     </row>
-    <row r="377" spans="1:9" ht="45">
+    <row r="377" spans="1:9" ht="43.2">
       <c r="A377" s="29" t="s">
         <v>387</v>
       </c>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="I377" s="31"/>
     </row>
-    <row r="378" spans="1:9" ht="45">
+    <row r="378" spans="1:9" ht="43.2">
       <c r="A378" s="29" t="s">
         <v>388</v>
       </c>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="I378" s="31"/>
     </row>
-    <row r="379" spans="1:9" ht="45">
+    <row r="379" spans="1:9" ht="43.2">
       <c r="A379" s="29" t="s">
         <v>389</v>
       </c>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="I379" s="31"/>
     </row>
-    <row r="380" spans="1:9" ht="60">
+    <row r="380" spans="1:9" ht="57.6">
       <c r="A380" s="29" t="s">
         <v>390</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="30">
+    <row r="381" spans="1:9" ht="28.8">
       <c r="A381" s="29" t="s">
         <v>391</v>
       </c>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="I381" s="31"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="28.8">
       <c r="A382" s="29" t="s">
         <v>392</v>
       </c>
@@ -18531,7 +18531,7 @@
       </c>
       <c r="I382" s="31"/>
     </row>
-    <row r="383" spans="1:9" ht="45">
+    <row r="383" spans="1:9" ht="43.2">
       <c r="A383" s="29" t="s">
         <v>393</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="45">
+    <row r="384" spans="1:9" ht="43.2">
       <c r="A384" s="29" t="s">
         <v>394</v>
       </c>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="I384" s="31"/>
     </row>
-    <row r="385" spans="1:9" ht="45">
+    <row r="385" spans="1:9" ht="43.2">
       <c r="A385" s="29" t="s">
         <v>395</v>
       </c>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="I385" s="31"/>
     </row>
-    <row r="386" spans="1:9" ht="45">
+    <row r="386" spans="1:9" ht="43.2">
       <c r="A386" s="29" t="s">
         <v>396</v>
       </c>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I386" s="31"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="28.8">
       <c r="A387" s="29" t="s">
         <v>397</v>
       </c>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="I387" s="31"/>
     </row>
-    <row r="388" spans="1:9" ht="30">
+    <row r="388" spans="1:9" ht="28.8">
       <c r="A388" s="29" t="s">
         <v>398</v>
       </c>
@@ -18683,7 +18683,7 @@
       </c>
       <c r="I388" s="31"/>
     </row>
-    <row r="389" spans="1:9" ht="45">
+    <row r="389" spans="1:9" ht="28.8">
       <c r="A389" s="29" t="s">
         <v>399</v>
       </c>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="I389" s="31"/>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="28.8">
       <c r="A390" s="29" t="s">
         <v>400</v>
       </c>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="I390" s="31"/>
     </row>
-    <row r="391" spans="1:9" ht="45">
+    <row r="391" spans="1:9" ht="43.2">
       <c r="A391" s="29" t="s">
         <v>401</v>
       </c>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="I391" s="31"/>
     </row>
-    <row r="392" spans="1:9" ht="45">
+    <row r="392" spans="1:9" ht="43.2">
       <c r="A392" s="29" t="s">
         <v>402</v>
       </c>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="I392" s="31"/>
     </row>
-    <row r="393" spans="1:9" ht="60">
+    <row r="393" spans="1:9" ht="57.6">
       <c r="A393" s="29" t="s">
         <v>403</v>
       </c>
@@ -18808,7 +18808,7 @@
       </c>
       <c r="I393" s="31"/>
     </row>
-    <row r="394" spans="1:9" ht="45">
+    <row r="394" spans="1:9" ht="43.2">
       <c r="A394" s="29" t="s">
         <v>404</v>
       </c>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="I394" s="31"/>
     </row>
-    <row r="395" spans="1:9" ht="45">
+    <row r="395" spans="1:9" ht="43.2">
       <c r="A395" s="29" t="s">
         <v>405</v>
       </c>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="I395" s="31"/>
     </row>
-    <row r="396" spans="1:9" ht="45">
+    <row r="396" spans="1:9" ht="43.2">
       <c r="A396" s="29" t="s">
         <v>406</v>
       </c>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="I396" s="31"/>
     </row>
-    <row r="397" spans="1:9" ht="45">
+    <row r="397" spans="1:9" ht="43.2">
       <c r="A397" s="29" t="s">
         <v>407</v>
       </c>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="I397" s="31"/>
     </row>
-    <row r="398" spans="1:9" ht="45">
+    <row r="398" spans="1:9" ht="43.2">
       <c r="A398" s="29" t="s">
         <v>408</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="I398" s="31"/>
     </row>
-    <row r="399" spans="1:9" ht="45">
+    <row r="399" spans="1:9" ht="43.2">
       <c r="A399" s="29" t="s">
         <v>409</v>
       </c>
@@ -18958,7 +18958,7 @@
       </c>
       <c r="I399" s="31"/>
     </row>
-    <row r="400" spans="1:9" ht="45">
+    <row r="400" spans="1:9" ht="43.2">
       <c r="A400" s="29" t="s">
         <v>410</v>
       </c>
@@ -18983,7 +18983,7 @@
       </c>
       <c r="I400" s="31"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="43.2">
       <c r="A401" s="29" t="s">
         <v>411</v>
       </c>
@@ -19008,7 +19008,7 @@
       </c>
       <c r="I401" s="31"/>
     </row>
-    <row r="402" spans="1:9" ht="60">
+    <row r="402" spans="1:9" ht="57.6">
       <c r="A402" s="29" t="s">
         <v>412</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="28.8">
       <c r="A403" s="29" t="s">
         <v>413</v>
       </c>
@@ -19060,7 +19060,7 @@
       </c>
       <c r="I403" s="31"/>
     </row>
-    <row r="404" spans="1:9" ht="45">
+    <row r="404" spans="1:9" ht="28.8">
       <c r="A404" s="29" t="s">
         <v>414</v>
       </c>
@@ -19085,7 +19085,7 @@
       </c>
       <c r="I404" s="31"/>
     </row>
-    <row r="405" spans="1:9" ht="45">
+    <row r="405" spans="1:9" ht="43.2">
       <c r="A405" s="29" t="s">
         <v>415</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="45">
+    <row r="406" spans="1:9" ht="43.2">
       <c r="A406" s="29" t="s">
         <v>416</v>
       </c>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="I406" s="31"/>
     </row>
-    <row r="407" spans="1:9" ht="45">
+    <row r="407" spans="1:9" ht="43.2">
       <c r="A407" s="29" t="s">
         <v>417</v>
       </c>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="I407" s="31"/>
     </row>
-    <row r="408" spans="1:9" ht="45">
+    <row r="408" spans="1:9" ht="28.8">
       <c r="A408" s="29" t="s">
         <v>418</v>
       </c>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="I408" s="31"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9" ht="28.8">
       <c r="A409" s="29" t="s">
         <v>419</v>
       </c>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="I409" s="31"/>
     </row>
-    <row r="410" spans="1:9" ht="30">
+    <row r="410" spans="1:9" ht="28.8">
       <c r="A410" s="29" t="s">
         <v>420</v>
       </c>
@@ -19237,7 +19237,7 @@
       </c>
       <c r="I410" s="31"/>
     </row>
-    <row r="411" spans="1:9" ht="30">
+    <row r="411" spans="1:9" ht="28.8">
       <c r="A411" s="29" t="s">
         <v>421</v>
       </c>
@@ -19262,7 +19262,7 @@
       </c>
       <c r="I411" s="31"/>
     </row>
-    <row r="412" spans="1:9" ht="30">
+    <row r="412" spans="1:9" ht="28.8">
       <c r="A412" s="29" t="s">
         <v>422</v>
       </c>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="I412" s="31"/>
     </row>
-    <row r="413" spans="1:9" ht="30">
+    <row r="413" spans="1:9" ht="28.8">
       <c r="A413" s="29" t="s">
         <v>423</v>
       </c>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="I413" s="31"/>
     </row>
-    <row r="414" spans="1:9" ht="30">
+    <row r="414" spans="1:9" ht="28.8">
       <c r="A414" s="29" t="s">
         <v>424</v>
       </c>
@@ -19337,7 +19337,7 @@
       </c>
       <c r="I414" s="31"/>
     </row>
-    <row r="415" spans="1:9" ht="45">
+    <row r="415" spans="1:9" ht="43.2">
       <c r="A415" s="29" t="s">
         <v>425</v>
       </c>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="I415" s="31"/>
     </row>
-    <row r="416" spans="1:9" ht="45">
+    <row r="416" spans="1:9" ht="43.2">
       <c r="A416" s="29" t="s">
         <v>426</v>
       </c>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="I416" s="31"/>
     </row>
-    <row r="417" spans="1:9" ht="60">
+    <row r="417" spans="1:9" ht="43.2">
       <c r="A417" s="29" t="s">
         <v>427</v>
       </c>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="I417" s="31"/>
     </row>
-    <row r="418" spans="1:9" ht="45">
+    <row r="418" spans="1:9" ht="43.2">
       <c r="A418" s="29" t="s">
         <v>428</v>
       </c>
@@ -19437,7 +19437,7 @@
       </c>
       <c r="I418" s="31"/>
     </row>
-    <row r="419" spans="1:9" ht="45">
+    <row r="419" spans="1:9" ht="43.2">
       <c r="A419" s="29" t="s">
         <v>429</v>
       </c>
@@ -19462,7 +19462,7 @@
       </c>
       <c r="I419" s="31"/>
     </row>
-    <row r="420" spans="1:9" ht="30">
+    <row r="420" spans="1:9" ht="28.8">
       <c r="A420" s="29" t="s">
         <v>430</v>
       </c>
@@ -19487,7 +19487,7 @@
       </c>
       <c r="I420" s="31"/>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="28.8">
       <c r="A421" s="29" t="s">
         <v>431</v>
       </c>
@@ -19512,7 +19512,7 @@
       </c>
       <c r="I421" s="31"/>
     </row>
-    <row r="422" spans="1:9" ht="45">
+    <row r="422" spans="1:9" ht="43.2">
       <c r="A422" s="29" t="s">
         <v>432</v>
       </c>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="I422" s="31"/>
     </row>
-    <row r="423" spans="1:9" ht="30">
+    <row r="423" spans="1:9" ht="28.8">
       <c r="A423" s="29" t="s">
         <v>433</v>
       </c>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="I423" s="31"/>
     </row>
-    <row r="424" spans="1:9" ht="45">
+    <row r="424" spans="1:9" ht="43.2">
       <c r="A424" s="29" t="s">
         <v>434</v>
       </c>
@@ -19587,7 +19587,7 @@
       </c>
       <c r="I424" s="31"/>
     </row>
-    <row r="425" spans="1:9" ht="45">
+    <row r="425" spans="1:9" ht="43.2">
       <c r="A425" s="29" t="s">
         <v>435</v>
       </c>
@@ -19612,7 +19612,7 @@
       </c>
       <c r="I425" s="31"/>
     </row>
-    <row r="426" spans="1:9" ht="75">
+    <row r="426" spans="1:9" ht="72">
       <c r="A426" s="29" t="s">
         <v>436</v>
       </c>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="I426" s="31"/>
     </row>
-    <row r="427" spans="1:9" ht="45">
+    <row r="427" spans="1:9" ht="43.2">
       <c r="A427" s="29" t="s">
         <v>437</v>
       </c>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="I427" s="31"/>
     </row>
-    <row r="428" spans="1:9" ht="45">
+    <row r="428" spans="1:9" ht="43.2">
       <c r="A428" s="29" t="s">
         <v>438</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="45">
+    <row r="429" spans="1:9" ht="28.8">
       <c r="A429" s="29" t="s">
         <v>439</v>
       </c>
@@ -19714,7 +19714,7 @@
       </c>
       <c r="I429" s="31"/>
     </row>
-    <row r="430" spans="1:9" ht="45">
+    <row r="430" spans="1:9" ht="43.2">
       <c r="A430" s="29" t="s">
         <v>440</v>
       </c>
@@ -19739,7 +19739,7 @@
       </c>
       <c r="I430" s="31"/>
     </row>
-    <row r="431" spans="1:9" ht="30">
+    <row r="431" spans="1:9" ht="28.8">
       <c r="A431" s="29" t="s">
         <v>441</v>
       </c>
@@ -19764,7 +19764,7 @@
       </c>
       <c r="I431" s="31"/>
     </row>
-    <row r="432" spans="1:9" ht="45">
+    <row r="432" spans="1:9" ht="43.2">
       <c r="A432" s="29" t="s">
         <v>442</v>
       </c>
@@ -19789,7 +19789,7 @@
       </c>
       <c r="I432" s="31"/>
     </row>
-    <row r="433" spans="1:9" ht="45">
+    <row r="433" spans="1:9" ht="43.2">
       <c r="A433" s="29" t="s">
         <v>443</v>
       </c>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9" ht="45">
+    <row r="434" spans="1:9" ht="43.2">
       <c r="A434" s="29" t="s">
         <v>444</v>
       </c>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="I434" s="31"/>
     </row>
-    <row r="435" spans="1:9" ht="45">
+    <row r="435" spans="1:9" ht="43.2">
       <c r="A435" s="29" t="s">
         <v>445</v>
       </c>
@@ -19864,7 +19864,7 @@
       </c>
       <c r="I435" s="31"/>
     </row>
-    <row r="436" spans="1:9" ht="60">
+    <row r="436" spans="1:9" ht="57.6">
       <c r="A436" s="29" t="s">
         <v>446</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="30">
+    <row r="437" spans="1:9" ht="28.8">
       <c r="A437" s="29" t="s">
         <v>447</v>
       </c>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="I437" s="31"/>
     </row>
-    <row r="438" spans="1:9" ht="30">
+    <row r="438" spans="1:9" ht="28.8">
       <c r="A438" s="29" t="s">
         <v>448</v>
       </c>
@@ -19941,7 +19941,7 @@
       </c>
       <c r="I438" s="31"/>
     </row>
-    <row r="439" spans="1:9" ht="45">
+    <row r="439" spans="1:9" ht="43.2">
       <c r="A439" s="29" t="s">
         <v>449</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="30">
+    <row r="440" spans="1:9" ht="28.8">
       <c r="A440" s="29" t="s">
         <v>450</v>
       </c>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="I440" s="31"/>
     </row>
-    <row r="441" spans="1:9" ht="45">
+    <row r="441" spans="1:9" ht="43.2">
       <c r="A441" s="29" t="s">
         <v>451</v>
       </c>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="I441" s="31"/>
     </row>
-    <row r="442" spans="1:9" ht="45">
+    <row r="442" spans="1:9" ht="28.8">
       <c r="A442" s="29" t="s">
         <v>452</v>
       </c>
@@ -20043,7 +20043,7 @@
       </c>
       <c r="I442" s="31"/>
     </row>
-    <row r="443" spans="1:9" ht="30">
+    <row r="443" spans="1:9" ht="28.8">
       <c r="A443" s="29" t="s">
         <v>453</v>
       </c>
@@ -20068,7 +20068,7 @@
       </c>
       <c r="I443" s="31"/>
     </row>
-    <row r="444" spans="1:9" ht="30">
+    <row r="444" spans="1:9" ht="28.8">
       <c r="A444" s="29" t="s">
         <v>454</v>
       </c>
@@ -20093,7 +20093,7 @@
       </c>
       <c r="I444" s="31"/>
     </row>
-    <row r="445" spans="1:9" ht="30">
+    <row r="445" spans="1:9" ht="28.8">
       <c r="A445" s="29" t="s">
         <v>455</v>
       </c>
@@ -20118,7 +20118,7 @@
       </c>
       <c r="I445" s="31"/>
     </row>
-    <row r="446" spans="1:9" ht="45">
+    <row r="446" spans="1:9" ht="43.2">
       <c r="A446" s="29" t="s">
         <v>456</v>
       </c>
@@ -20143,7 +20143,7 @@
       </c>
       <c r="I446" s="31"/>
     </row>
-    <row r="447" spans="1:9" ht="30">
+    <row r="447" spans="1:9" ht="28.8">
       <c r="A447" s="29" t="s">
         <v>457</v>
       </c>
@@ -20168,7 +20168,7 @@
       </c>
       <c r="I447" s="31"/>
     </row>
-    <row r="448" spans="1:9" ht="30">
+    <row r="448" spans="1:9" ht="28.8">
       <c r="A448" s="29" t="s">
         <v>458</v>
       </c>
@@ -20193,7 +20193,7 @@
       </c>
       <c r="I448" s="31"/>
     </row>
-    <row r="449" spans="1:9" ht="30">
+    <row r="449" spans="1:9" ht="28.8">
       <c r="A449" s="29" t="s">
         <v>459</v>
       </c>
@@ -20218,7 +20218,7 @@
       </c>
       <c r="I449" s="31"/>
     </row>
-    <row r="450" spans="1:9" ht="45">
+    <row r="450" spans="1:9" ht="28.8">
       <c r="A450" s="29" t="s">
         <v>460</v>
       </c>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="45">
+    <row r="451" spans="1:9" ht="43.2">
       <c r="A451" s="29" t="s">
         <v>461</v>
       </c>
@@ -20268,7 +20268,7 @@
       </c>
       <c r="I451" s="31"/>
     </row>
-    <row r="452" spans="1:9" ht="45">
+    <row r="452" spans="1:9" ht="43.2">
       <c r="A452" s="29" t="s">
         <v>462</v>
       </c>
@@ -20293,7 +20293,7 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9" ht="45">
+    <row r="453" spans="1:9" ht="43.2">
       <c r="A453" s="29" t="s">
         <v>463</v>
       </c>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="I453" s="31"/>
     </row>
-    <row r="454" spans="1:9" ht="45">
+    <row r="454" spans="1:9" ht="43.2">
       <c r="A454" s="29" t="s">
         <v>464</v>
       </c>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="I454" s="31"/>
     </row>
-    <row r="455" spans="1:9" ht="30">
+    <row r="455" spans="1:9" ht="28.8">
       <c r="A455" s="29" t="s">
         <v>465</v>
       </c>
@@ -20368,7 +20368,7 @@
       </c>
       <c r="I455" s="31"/>
     </row>
-    <row r="456" spans="1:9" ht="30">
+    <row r="456" spans="1:9" ht="28.8">
       <c r="A456" s="29" t="s">
         <v>466</v>
       </c>
@@ -20393,7 +20393,7 @@
       </c>
       <c r="I456" s="31"/>
     </row>
-    <row r="457" spans="1:9" ht="45">
+    <row r="457" spans="1:9" ht="43.2">
       <c r="A457" s="22" t="s">
         <v>467</v>
       </c>
@@ -20418,7 +20418,7 @@
       </c>
       <c r="I457" s="31"/>
     </row>
-    <row r="458" spans="1:9" ht="30">
+    <row r="458" spans="1:9" ht="28.8">
       <c r="A458" s="29" t="s">
         <v>468</v>
       </c>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="I458" s="31"/>
     </row>
-    <row r="459" spans="1:9" ht="30">
+    <row r="459" spans="1:9" ht="28.8">
       <c r="A459" s="29" t="s">
         <v>469</v>
       </c>
@@ -20468,7 +20468,7 @@
       </c>
       <c r="I459" s="31"/>
     </row>
-    <row r="460" spans="1:9" ht="30">
+    <row r="460" spans="1:9" ht="28.8">
       <c r="A460" s="29" t="s">
         <v>470</v>
       </c>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="I460" s="31"/>
     </row>
-    <row r="461" spans="1:9" ht="30">
+    <row r="461" spans="1:9" ht="28.8">
       <c r="A461" s="29" t="s">
         <v>471</v>
       </c>
@@ -20518,7 +20518,7 @@
       </c>
       <c r="I461" s="31"/>
     </row>
-    <row r="462" spans="1:9" ht="30">
+    <row r="462" spans="1:9" ht="28.8">
       <c r="A462" s="29" t="s">
         <v>472</v>
       </c>
@@ -20543,7 +20543,7 @@
       </c>
       <c r="I462" s="31"/>
     </row>
-    <row r="463" spans="1:9" ht="30">
+    <row r="463" spans="1:9" ht="28.8">
       <c r="A463" s="29" t="s">
         <v>473</v>
       </c>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="I463" s="31"/>
     </row>
-    <row r="464" spans="1:9" ht="45">
+    <row r="464" spans="1:9" ht="43.2">
       <c r="A464" s="29" t="s">
         <v>474</v>
       </c>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="I464" s="31"/>
     </row>
-    <row r="465" spans="1:9" ht="60">
+    <row r="465" spans="1:9" ht="57.6">
       <c r="A465" s="29" t="s">
         <v>475</v>
       </c>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="I465" s="31"/>
     </row>
-    <row r="466" spans="1:9" ht="30">
+    <row r="466" spans="1:9" ht="28.8">
       <c r="A466" s="29" t="s">
         <v>476</v>
       </c>
@@ -20643,7 +20643,7 @@
       </c>
       <c r="I466" s="31"/>
     </row>
-    <row r="467" spans="1:9" ht="45">
+    <row r="467" spans="1:9" ht="43.2">
       <c r="A467" s="29" t="s">
         <v>477</v>
       </c>
@@ -20668,7 +20668,7 @@
       </c>
       <c r="I467" s="31"/>
     </row>
-    <row r="468" spans="1:9" ht="30">
+    <row r="468" spans="1:9" ht="28.8">
       <c r="A468" s="29" t="s">
         <v>478</v>
       </c>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="I468" s="31"/>
     </row>
-    <row r="469" spans="1:9" ht="30">
+    <row r="469" spans="1:9" ht="28.8">
       <c r="A469" s="29" t="s">
         <v>479</v>
       </c>
@@ -20718,7 +20718,7 @@
       </c>
       <c r="I469" s="31"/>
     </row>
-    <row r="470" spans="1:9" ht="45">
+    <row r="470" spans="1:9" ht="43.2">
       <c r="A470" s="29" t="s">
         <v>480</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="30">
+    <row r="471" spans="1:9" ht="28.8">
       <c r="A471" s="29" t="s">
         <v>481</v>
       </c>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="I471" s="31"/>
     </row>
-    <row r="472" spans="1:9" ht="45">
+    <row r="472" spans="1:9" ht="43.2">
       <c r="A472" s="29" t="s">
         <v>482</v>
       </c>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="I472" s="31"/>
     </row>
-    <row r="473" spans="1:9" ht="30">
+    <row r="473" spans="1:9" ht="28.8">
       <c r="A473" s="29" t="s">
         <v>483</v>
       </c>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" ht="30">
+    <row r="474" spans="1:9" ht="28.8">
       <c r="A474" s="29" t="s">
         <v>484</v>
       </c>
@@ -20845,7 +20845,7 @@
       </c>
       <c r="I474" s="31"/>
     </row>
-    <row r="475" spans="1:9" ht="30">
+    <row r="475" spans="1:9" ht="28.8">
       <c r="A475" s="29" t="s">
         <v>485</v>
       </c>
@@ -20870,7 +20870,7 @@
       </c>
       <c r="I475" s="31"/>
     </row>
-    <row r="476" spans="1:9" ht="30">
+    <row r="476" spans="1:9" ht="28.8">
       <c r="A476" s="29" t="s">
         <v>486</v>
       </c>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="I476" s="31"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9" ht="28.8">
       <c r="A477" s="29" t="s">
         <v>487</v>
       </c>
@@ -20920,7 +20920,7 @@
       </c>
       <c r="I477" s="31"/>
     </row>
-    <row r="478" spans="1:9" ht="60">
+    <row r="478" spans="1:9" ht="43.2">
       <c r="A478" s="29" t="s">
         <v>488</v>
       </c>
@@ -20945,7 +20945,7 @@
       </c>
       <c r="I478" s="31"/>
     </row>
-    <row r="479" spans="1:9" ht="45">
+    <row r="479" spans="1:9" ht="28.8">
       <c r="A479" s="29" t="s">
         <v>489</v>
       </c>
@@ -20970,7 +20970,7 @@
       </c>
       <c r="I479" s="31"/>
     </row>
-    <row r="480" spans="1:9" ht="60">
+    <row r="480" spans="1:9" ht="57.6">
       <c r="A480" s="29" t="s">
         <v>490</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="30">
+    <row r="481" spans="1:9" ht="28.8">
       <c r="A481" s="29" t="s">
         <v>491</v>
       </c>
@@ -21024,7 +21024,7 @@
       </c>
       <c r="I481" s="31"/>
     </row>
-    <row r="482" spans="1:9" ht="30">
+    <row r="482" spans="1:9" ht="28.8">
       <c r="A482" s="29" t="s">
         <v>492</v>
       </c>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="I482" s="31"/>
     </row>
-    <row r="483" spans="1:9" ht="45">
+    <row r="483" spans="1:9" ht="43.2">
       <c r="A483" s="29" t="s">
         <v>493</v>
       </c>
@@ -21076,7 +21076,7 @@
       </c>
       <c r="I483" s="31"/>
     </row>
-    <row r="484" spans="1:9" ht="90">
+    <row r="484" spans="1:9" ht="86.4">
       <c r="A484" s="29" t="s">
         <v>494</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="30">
+    <row r="485" spans="1:9" ht="28.8">
       <c r="A485" s="29" t="s">
         <v>495</v>
       </c>
@@ -21128,7 +21128,7 @@
       </c>
       <c r="I485" s="31"/>
     </row>
-    <row r="486" spans="1:9" ht="30">
+    <row r="486" spans="1:9" ht="28.8">
       <c r="A486" s="29" t="s">
         <v>496</v>
       </c>
@@ -21153,7 +21153,7 @@
       </c>
       <c r="I486" s="31"/>
     </row>
-    <row r="487" spans="1:9" ht="30">
+    <row r="487" spans="1:9" ht="28.8">
       <c r="A487" s="29" t="s">
         <v>497</v>
       </c>
@@ -21178,7 +21178,7 @@
       </c>
       <c r="I487" s="31"/>
     </row>
-    <row r="488" spans="1:9" ht="45">
+    <row r="488" spans="1:9" ht="43.2">
       <c r="A488" s="29" t="s">
         <v>498</v>
       </c>
@@ -21203,7 +21203,7 @@
       </c>
       <c r="I488" s="31"/>
     </row>
-    <row r="489" spans="1:9" ht="30">
+    <row r="489" spans="1:9" ht="28.8">
       <c r="A489" s="29" t="s">
         <v>499</v>
       </c>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="I489" s="31"/>
     </row>
-    <row r="490" spans="1:9" ht="45">
+    <row r="490" spans="1:9" ht="43.2">
       <c r="A490" s="29" t="s">
         <v>500</v>
       </c>
@@ -21253,7 +21253,7 @@
       </c>
       <c r="I490" s="31"/>
     </row>
-    <row r="491" spans="1:9" ht="30">
+    <row r="491" spans="1:9" ht="28.8">
       <c r="A491" s="29" t="s">
         <v>501</v>
       </c>
@@ -21278,7 +21278,7 @@
       </c>
       <c r="I491" s="31"/>
     </row>
-    <row r="492" spans="1:9" ht="30">
+    <row r="492" spans="1:9" ht="28.8">
       <c r="A492" s="29" t="s">
         <v>502</v>
       </c>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="I492" s="31"/>
     </row>
-    <row r="493" spans="1:9" ht="30">
+    <row r="493" spans="1:9" ht="28.8">
       <c r="A493" s="29" t="s">
         <v>503</v>
       </c>
@@ -21328,7 +21328,7 @@
       </c>
       <c r="I493" s="31"/>
     </row>
-    <row r="494" spans="1:9" ht="45">
+    <row r="494" spans="1:9" ht="28.8">
       <c r="A494" s="29" t="s">
         <v>504</v>
       </c>
@@ -21353,7 +21353,7 @@
       </c>
       <c r="I494" s="31"/>
     </row>
-    <row r="495" spans="1:9" ht="45">
+    <row r="495" spans="1:9" ht="28.8">
       <c r="A495" s="29" t="s">
         <v>505</v>
       </c>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="I495" s="31"/>
     </row>
-    <row r="496" spans="1:9" ht="45">
+    <row r="496" spans="1:9" ht="43.2">
       <c r="A496" s="29" t="s">
         <v>506</v>
       </c>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="I496" s="31"/>
     </row>
-    <row r="497" spans="1:9" ht="45">
+    <row r="497" spans="1:9" ht="28.8">
       <c r="A497" s="29" t="s">
         <v>507</v>
       </c>
@@ -21428,7 +21428,7 @@
       </c>
       <c r="I497" s="31"/>
     </row>
-    <row r="498" spans="1:9" ht="45">
+    <row r="498" spans="1:9" ht="28.8">
       <c r="A498" s="29" t="s">
         <v>508</v>
       </c>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="I498" s="31"/>
     </row>
-    <row r="499" spans="1:9" ht="105">
+    <row r="499" spans="1:9" ht="100.8">
       <c r="A499" s="29" t="s">
         <v>509</v>
       </c>
@@ -21478,7 +21478,7 @@
       </c>
       <c r="I499" s="31"/>
     </row>
-    <row r="500" spans="1:9" ht="30">
+    <row r="500" spans="1:9" ht="28.8">
       <c r="A500" s="29" t="s">
         <v>510</v>
       </c>
@@ -21503,7 +21503,7 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="30">
+    <row r="501" spans="1:9" ht="28.8">
       <c r="A501" s="29" t="s">
         <v>511</v>
       </c>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="45">
+    <row r="502" spans="1:9" ht="43.2">
       <c r="A502" s="29" t="s">
         <v>512</v>
       </c>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="I502" s="31"/>
     </row>
-    <row r="503" spans="1:9" ht="30">
+    <row r="503" spans="1:9" ht="28.8">
       <c r="A503" s="29" t="s">
         <v>513</v>
       </c>
@@ -21578,7 +21578,7 @@
       </c>
       <c r="I503" s="31"/>
     </row>
-    <row r="504" spans="1:9" ht="30">
+    <row r="504" spans="1:9" ht="28.8">
       <c r="A504" s="29" t="s">
         <v>514</v>
       </c>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="I504" s="31"/>
     </row>
-    <row r="505" spans="1:9" ht="60">
+    <row r="505" spans="1:9" ht="43.2">
       <c r="A505" s="29" t="s">
         <v>515</v>
       </c>
@@ -21628,7 +21628,7 @@
       </c>
       <c r="I505" s="31"/>
     </row>
-    <row r="506" spans="1:9" ht="30">
+    <row r="506" spans="1:9">
       <c r="A506" s="29" t="s">
         <v>516</v>
       </c>
@@ -21653,7 +21653,7 @@
       </c>
       <c r="I506" s="31"/>
     </row>
-    <row r="507" spans="1:9" ht="45">
+    <row r="507" spans="1:9" ht="28.8">
       <c r="A507" s="29" t="s">
         <v>517</v>
       </c>
@@ -21678,7 +21678,7 @@
       </c>
       <c r="I507" s="31"/>
     </row>
-    <row r="508" spans="1:9" ht="30">
+    <row r="508" spans="1:9" ht="28.8">
       <c r="A508" s="29" t="s">
         <v>518</v>
       </c>
@@ -21703,7 +21703,7 @@
       </c>
       <c r="I508" s="31"/>
     </row>
-    <row r="509" spans="1:9" ht="75">
+    <row r="509" spans="1:9" ht="57.6">
       <c r="A509" s="22" t="s">
         <v>519</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="30">
+    <row r="510" spans="1:9" ht="28.8">
       <c r="A510" s="22" t="s">
         <v>520</v>
       </c>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="I510" s="20"/>
     </row>
-    <row r="511" spans="1:9" ht="30">
+    <row r="511" spans="1:9" ht="28.8">
       <c r="A511" s="29" t="s">
         <v>521</v>
       </c>
@@ -21780,7 +21780,7 @@
       </c>
       <c r="I511" s="31"/>
     </row>
-    <row r="512" spans="1:9" ht="30">
+    <row r="512" spans="1:9" ht="28.8">
       <c r="A512" s="22" t="s">
         <v>2296</v>
       </c>
@@ -21805,7 +21805,7 @@
       </c>
       <c r="I512" s="31"/>
     </row>
-    <row r="513" spans="1:9" ht="45">
+    <row r="513" spans="1:9" ht="43.2">
       <c r="A513" s="22" t="s">
         <v>2220</v>
       </c>
@@ -21830,7 +21830,7 @@
       </c>
       <c r="I513" s="31"/>
     </row>
-    <row r="514" spans="1:9" ht="30">
+    <row r="514" spans="1:9" ht="28.8">
       <c r="A514" s="22" t="s">
         <v>2219</v>
       </c>
@@ -21855,7 +21855,7 @@
       </c>
       <c r="I514" s="35"/>
     </row>
-    <row r="515" spans="1:9" ht="30">
+    <row r="515" spans="1:9" ht="28.8">
       <c r="A515" s="22" t="s">
         <v>2213</v>
       </c>
@@ -21880,7 +21880,7 @@
       </c>
       <c r="I515" s="35"/>
     </row>
-    <row r="516" spans="1:9" ht="30">
+    <row r="516" spans="1:9" ht="28.8">
       <c r="A516" s="22" t="s">
         <v>2214</v>
       </c>
@@ -21905,7 +21905,7 @@
       </c>
       <c r="I516" s="35"/>
     </row>
-    <row r="517" spans="1:9" ht="45">
+    <row r="517" spans="1:9" ht="28.8">
       <c r="A517" s="22" t="s">
         <v>2215</v>
       </c>
@@ -21930,7 +21930,7 @@
       </c>
       <c r="I517" s="35"/>
     </row>
-    <row r="518" spans="1:9" ht="30">
+    <row r="518" spans="1:9" ht="28.8">
       <c r="A518" s="22" t="s">
         <v>2216</v>
       </c>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="I518" s="35"/>
     </row>
-    <row r="519" spans="1:9" ht="30">
+    <row r="519" spans="1:9">
       <c r="A519" s="22" t="s">
         <v>522</v>
       </c>
@@ -21980,7 +21980,7 @@
       </c>
       <c r="I519" s="20"/>
     </row>
-    <row r="520" spans="1:9" ht="45">
+    <row r="520" spans="1:9" ht="43.2">
       <c r="A520" s="22" t="s">
         <v>523</v>
       </c>
@@ -22005,7 +22005,7 @@
       </c>
       <c r="I520" s="20"/>
     </row>
-    <row r="521" spans="1:9" ht="30">
+    <row r="521" spans="1:9" ht="28.8">
       <c r="A521" s="22" t="s">
         <v>2169</v>
       </c>
@@ -22030,7 +22030,7 @@
       </c>
       <c r="I521" s="31"/>
     </row>
-    <row r="522" spans="1:9" ht="60">
+    <row r="522" spans="1:9" ht="57.6">
       <c r="A522" s="29" t="s">
         <v>524</v>
       </c>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="I522" s="31"/>
     </row>
-    <row r="523" spans="1:9" ht="30">
+    <row r="523" spans="1:9" ht="28.8">
       <c r="A523" s="29" t="s">
         <v>525</v>
       </c>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="I523" s="31"/>
     </row>
-    <row r="524" spans="1:9" ht="45">
+    <row r="524" spans="1:9" ht="43.2">
       <c r="A524" s="29" t="s">
         <v>526</v>
       </c>
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I524" s="31"/>
     </row>
-    <row r="525" spans="1:9" ht="45">
+    <row r="525" spans="1:9" ht="43.2">
       <c r="A525" s="22" t="s">
         <v>527</v>
       </c>
@@ -22130,7 +22130,7 @@
       </c>
       <c r="I525" s="31"/>
     </row>
-    <row r="526" spans="1:9" ht="30">
+    <row r="526" spans="1:9">
       <c r="A526" s="34" t="s">
         <v>2221</v>
       </c>
@@ -22155,7 +22155,7 @@
       </c>
       <c r="I526" s="35"/>
     </row>
-    <row r="527" spans="1:9" ht="45">
+    <row r="527" spans="1:9" ht="43.2">
       <c r="A527" s="34" t="s">
         <v>2222</v>
       </c>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="I527" s="35"/>
     </row>
-    <row r="528" spans="1:9" ht="30">
+    <row r="528" spans="1:9" ht="28.8">
       <c r="A528" s="29" t="s">
         <v>528</v>
       </c>
@@ -22205,7 +22205,7 @@
       </c>
       <c r="I528" s="31"/>
     </row>
-    <row r="529" spans="1:9" ht="45">
+    <row r="529" spans="1:9" ht="28.8">
       <c r="A529" s="22" t="s">
         <v>529</v>
       </c>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="I529" s="31"/>
     </row>
-    <row r="530" spans="1:9" ht="30">
+    <row r="530" spans="1:9" ht="28.8">
       <c r="A530" s="29" t="s">
         <v>530</v>
       </c>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="I530" s="31"/>
     </row>
-    <row r="531" spans="1:9" ht="60">
+    <row r="531" spans="1:9" ht="43.2">
       <c r="A531" s="22" t="s">
         <v>531</v>
       </c>
@@ -22280,7 +22280,7 @@
       </c>
       <c r="I531" s="31"/>
     </row>
-    <row r="532" spans="1:9" ht="30">
+    <row r="532" spans="1:9" ht="28.8">
       <c r="A532" s="29" t="s">
         <v>532</v>
       </c>
@@ -22305,7 +22305,7 @@
       </c>
       <c r="I532" s="31"/>
     </row>
-    <row r="533" spans="1:9" ht="45">
+    <row r="533" spans="1:9" ht="28.8">
       <c r="A533" s="22" t="s">
         <v>533</v>
       </c>
@@ -22330,7 +22330,7 @@
       </c>
       <c r="I533" s="31"/>
     </row>
-    <row r="534" spans="1:9" ht="30">
+    <row r="534" spans="1:9" ht="28.8">
       <c r="A534" s="29" t="s">
         <v>534</v>
       </c>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="I534" s="31"/>
     </row>
-    <row r="535" spans="1:9" ht="30">
+    <row r="535" spans="1:9" ht="28.8">
       <c r="A535" s="29" t="s">
         <v>535</v>
       </c>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="I535" s="31"/>
     </row>
-    <row r="536" spans="1:9" ht="30">
+    <row r="536" spans="1:9" ht="28.8">
       <c r="A536" s="29" t="s">
         <v>536</v>
       </c>
@@ -22405,7 +22405,7 @@
       </c>
       <c r="I536" s="31"/>
     </row>
-    <row r="537" spans="1:9" ht="45">
+    <row r="537" spans="1:9" ht="43.2">
       <c r="A537" s="22" t="s">
         <v>537</v>
       </c>
@@ -22430,7 +22430,7 @@
       </c>
       <c r="I537" s="31"/>
     </row>
-    <row r="538" spans="1:9" ht="30">
+    <row r="538" spans="1:9" ht="28.8">
       <c r="A538" s="29" t="s">
         <v>538</v>
       </c>
@@ -22455,7 +22455,7 @@
       </c>
       <c r="I538" s="31"/>
     </row>
-    <row r="539" spans="1:9" ht="60">
+    <row r="539" spans="1:9" ht="43.2">
       <c r="A539" s="29" t="s">
         <v>539</v>
       </c>
@@ -22480,7 +22480,7 @@
       </c>
       <c r="I539" s="31"/>
     </row>
-    <row r="540" spans="1:9" ht="45">
+    <row r="540" spans="1:9" ht="28.8">
       <c r="A540" s="29" t="s">
         <v>540</v>
       </c>
@@ -22505,7 +22505,7 @@
       </c>
       <c r="I540" s="31"/>
     </row>
-    <row r="541" spans="1:9" ht="30">
+    <row r="541" spans="1:9" ht="28.8">
       <c r="A541" s="29" t="s">
         <v>541</v>
       </c>
@@ -22530,7 +22530,7 @@
       </c>
       <c r="I541" s="31"/>
     </row>
-    <row r="542" spans="1:9" ht="60">
+    <row r="542" spans="1:9" ht="57.6">
       <c r="A542" s="29" t="s">
         <v>542</v>
       </c>
@@ -22555,7 +22555,7 @@
       </c>
       <c r="I542" s="31"/>
     </row>
-    <row r="543" spans="1:9" ht="30">
+    <row r="543" spans="1:9" ht="28.8">
       <c r="A543" s="29" t="s">
         <v>543</v>
       </c>
@@ -22580,7 +22580,7 @@
       </c>
       <c r="I543" s="31"/>
     </row>
-    <row r="544" spans="1:9" ht="30">
+    <row r="544" spans="1:9" ht="28.8">
       <c r="A544" s="22" t="s">
         <v>544</v>
       </c>
@@ -22605,7 +22605,7 @@
       </c>
       <c r="I544" s="31"/>
     </row>
-    <row r="545" spans="1:9" ht="30">
+    <row r="545" spans="1:9" ht="28.8">
       <c r="A545" s="29" t="s">
         <v>545</v>
       </c>
@@ -22630,7 +22630,7 @@
       </c>
       <c r="I545" s="31"/>
     </row>
-    <row r="546" spans="1:9" ht="30">
+    <row r="546" spans="1:9" ht="28.8">
       <c r="A546" s="29" t="s">
         <v>546</v>
       </c>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="I546" s="31"/>
     </row>
-    <row r="547" spans="1:9" ht="30">
+    <row r="547" spans="1:9">
       <c r="A547" s="29" t="s">
         <v>547</v>
       </c>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="I547" s="31"/>
     </row>
-    <row r="548" spans="1:9" ht="45">
+    <row r="548" spans="1:9" ht="28.8">
       <c r="A548" s="22" t="s">
         <v>548</v>
       </c>
@@ -22705,7 +22705,7 @@
       </c>
       <c r="I548" s="31"/>
     </row>
-    <row r="549" spans="1:9" ht="30">
+    <row r="549" spans="1:9" ht="28.8">
       <c r="A549" s="29" t="s">
         <v>549</v>
       </c>
@@ -22730,7 +22730,7 @@
       </c>
       <c r="I549" s="31"/>
     </row>
-    <row r="550" spans="1:9" ht="45">
+    <row r="550" spans="1:9" ht="43.2">
       <c r="A550" s="29" t="s">
         <v>550</v>
       </c>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="I550" s="31"/>
     </row>
-    <row r="551" spans="1:9" ht="30">
+    <row r="551" spans="1:9" ht="28.8">
       <c r="A551" s="29" t="s">
         <v>551</v>
       </c>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="I551" s="31"/>
     </row>
-    <row r="552" spans="1:9" ht="45">
+    <row r="552" spans="1:9" ht="43.2">
       <c r="A552" s="22" t="s">
         <v>552</v>
       </c>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="I552" s="31"/>
     </row>
-    <row r="553" spans="1:9" ht="30">
+    <row r="553" spans="1:9" ht="28.8">
       <c r="A553" s="29" t="s">
         <v>553</v>
       </c>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="I553" s="31"/>
     </row>
-    <row r="554" spans="1:9" ht="30">
+    <row r="554" spans="1:9" ht="28.8">
       <c r="A554" s="29" t="s">
         <v>554</v>
       </c>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="I554" s="20"/>
     </row>
-    <row r="555" spans="1:9" ht="45">
+    <row r="555" spans="1:9" ht="43.2">
       <c r="A555" s="22" t="s">
         <v>555</v>
       </c>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="I555" s="31"/>
     </row>
-    <row r="556" spans="1:9" ht="45">
+    <row r="556" spans="1:9" ht="43.2">
       <c r="A556" s="29" t="s">
         <v>556</v>
       </c>
@@ -22905,7 +22905,7 @@
       </c>
       <c r="I556" s="31"/>
     </row>
-    <row r="557" spans="1:9" ht="30">
+    <row r="557" spans="1:9" ht="28.8">
       <c r="A557" s="29" t="s">
         <v>557</v>
       </c>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="I557" s="31"/>
     </row>
-    <row r="558" spans="1:9" ht="30">
+    <row r="558" spans="1:9" ht="28.8">
       <c r="A558" s="29" t="s">
         <v>558</v>
       </c>
@@ -22957,7 +22957,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="30">
+    <row r="559" spans="1:9" ht="28.8">
       <c r="A559" s="29" t="s">
         <v>559</v>
       </c>
@@ -22982,7 +22982,7 @@
       </c>
       <c r="I559" s="31"/>
     </row>
-    <row r="560" spans="1:9" ht="30">
+    <row r="560" spans="1:9" ht="28.8">
       <c r="A560" s="29" t="s">
         <v>560</v>
       </c>
@@ -23007,7 +23007,7 @@
       </c>
       <c r="I560" s="31"/>
     </row>
-    <row r="561" spans="1:9" ht="45">
+    <row r="561" spans="1:9" ht="43.2">
       <c r="A561" s="29" t="s">
         <v>561</v>
       </c>
@@ -23032,7 +23032,7 @@
       </c>
       <c r="I561" s="31"/>
     </row>
-    <row r="562" spans="1:9" ht="45">
+    <row r="562" spans="1:9" ht="43.2">
       <c r="A562" s="29" t="s">
         <v>562</v>
       </c>
@@ -23057,7 +23057,7 @@
       </c>
       <c r="I562" s="31"/>
     </row>
-    <row r="563" spans="1:9" ht="30">
+    <row r="563" spans="1:9" ht="28.8">
       <c r="A563" s="29" t="s">
         <v>563</v>
       </c>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="I563" s="31"/>
     </row>
-    <row r="564" spans="1:9" ht="60">
+    <row r="564" spans="1:9" ht="57.6">
       <c r="A564" s="22" t="s">
         <v>564</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="30">
+    <row r="565" spans="1:9" ht="28.8">
       <c r="A565" s="29" t="s">
         <v>565</v>
       </c>
@@ -23134,7 +23134,7 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9" ht="30">
+    <row r="566" spans="1:9" ht="28.8">
       <c r="A566" s="29" t="s">
         <v>566</v>
       </c>
@@ -23159,7 +23159,7 @@
       </c>
       <c r="I566" s="31"/>
     </row>
-    <row r="567" spans="1:9" ht="30">
+    <row r="567" spans="1:9" ht="28.8">
       <c r="A567" s="29" t="s">
         <v>567</v>
       </c>
@@ -23184,7 +23184,7 @@
       </c>
       <c r="I567" s="31"/>
     </row>
-    <row r="568" spans="1:9" ht="45">
+    <row r="568" spans="1:9" ht="28.8">
       <c r="A568" s="29" t="s">
         <v>568</v>
       </c>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I568" s="31"/>
     </row>
-    <row r="569" spans="1:9" ht="30">
+    <row r="569" spans="1:9">
       <c r="A569" s="29" t="s">
         <v>569</v>
       </c>
@@ -23234,7 +23234,7 @@
       </c>
       <c r="I569" s="31"/>
     </row>
-    <row r="570" spans="1:9" ht="30">
+    <row r="570" spans="1:9" ht="28.8">
       <c r="A570" s="29" t="s">
         <v>570</v>
       </c>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="I570" s="31"/>
     </row>
-    <row r="571" spans="1:9" ht="30">
+    <row r="571" spans="1:9" ht="28.8">
       <c r="A571" s="29" t="s">
         <v>571</v>
       </c>
@@ -23284,7 +23284,7 @@
       </c>
       <c r="I571" s="31"/>
     </row>
-    <row r="572" spans="1:9" ht="30">
+    <row r="572" spans="1:9" ht="28.8">
       <c r="A572" s="29" t="s">
         <v>572</v>
       </c>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="I572" s="31"/>
     </row>
-    <row r="573" spans="1:9" ht="30">
+    <row r="573" spans="1:9" ht="28.8">
       <c r="A573" s="29" t="s">
         <v>573</v>
       </c>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="I573" s="31"/>
     </row>
-    <row r="574" spans="1:9" ht="45">
+    <row r="574" spans="1:9" ht="43.2">
       <c r="A574" s="22" t="s">
         <v>574</v>
       </c>
@@ -23359,7 +23359,7 @@
       </c>
       <c r="I574" s="31"/>
     </row>
-    <row r="575" spans="1:9" ht="45">
+    <row r="575" spans="1:9" ht="43.2">
       <c r="A575" s="29" t="s">
         <v>575</v>
       </c>
@@ -23384,7 +23384,7 @@
       </c>
       <c r="I575" s="31"/>
     </row>
-    <row r="576" spans="1:9" ht="30">
+    <row r="576" spans="1:9" ht="28.8">
       <c r="A576" s="29" t="s">
         <v>576</v>
       </c>
@@ -23409,7 +23409,7 @@
       </c>
       <c r="I576" s="31"/>
     </row>
-    <row r="577" spans="1:9" ht="60">
+    <row r="577" spans="1:9" ht="57.6">
       <c r="A577" s="29" t="s">
         <v>577</v>
       </c>
@@ -23434,7 +23434,7 @@
       </c>
       <c r="I577" s="31"/>
     </row>
-    <row r="578" spans="1:9" ht="75">
+    <row r="578" spans="1:9" ht="72">
       <c r="A578" s="29" t="s">
         <v>578</v>
       </c>
@@ -23461,7 +23461,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="75">
+    <row r="579" spans="1:9" ht="72">
       <c r="A579" s="29" t="s">
         <v>579</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="75">
+    <row r="580" spans="1:9" ht="72">
       <c r="A580" s="29" t="s">
         <v>580</v>
       </c>
@@ -23515,7 +23515,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="30">
+    <row r="581" spans="1:9" ht="28.8">
       <c r="A581" s="29" t="s">
         <v>581</v>
       </c>
@@ -23540,7 +23540,7 @@
       </c>
       <c r="I581" s="31"/>
     </row>
-    <row r="582" spans="1:9" ht="75">
+    <row r="582" spans="1:9" ht="72">
       <c r="A582" s="29" t="s">
         <v>582</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="30">
+    <row r="583" spans="1:9" ht="28.8">
       <c r="A583" s="29" t="s">
         <v>583</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="30">
+    <row r="584" spans="1:9" ht="28.8">
       <c r="A584" s="29" t="s">
         <v>584</v>
       </c>
@@ -23619,7 +23619,7 @@
       </c>
       <c r="I584" s="31"/>
     </row>
-    <row r="585" spans="1:9" ht="105">
+    <row r="585" spans="1:9" ht="100.8">
       <c r="A585" s="29" t="s">
         <v>585</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="105">
+    <row r="586" spans="1:9" ht="100.8">
       <c r="A586" s="29" t="s">
         <v>586</v>
       </c>
@@ -23673,7 +23673,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="105">
+    <row r="587" spans="1:9" ht="100.8">
       <c r="A587" s="29" t="s">
         <v>587</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="30">
+    <row r="588" spans="1:9" ht="28.8">
       <c r="A588" s="29" t="s">
         <v>588</v>
       </c>
@@ -23725,7 +23725,7 @@
       </c>
       <c r="I588" s="31"/>
     </row>
-    <row r="589" spans="1:9" ht="30">
+    <row r="589" spans="1:9" ht="28.8">
       <c r="A589" s="29" t="s">
         <v>589</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="30">
+    <row r="590" spans="1:9" ht="28.8">
       <c r="A590" s="29" t="s">
         <v>590</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="30">
+    <row r="591" spans="1:9" ht="28.8">
       <c r="A591" s="29" t="s">
         <v>591</v>
       </c>
@@ -23804,7 +23804,7 @@
       </c>
       <c r="I591" s="31"/>
     </row>
-    <row r="592" spans="1:9" ht="30">
+    <row r="592" spans="1:9" ht="28.8">
       <c r="A592" s="29" t="s">
         <v>592</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="30">
+    <row r="593" spans="1:9" ht="28.8">
       <c r="A593" s="29" t="s">
         <v>593</v>
       </c>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="I593" s="31"/>
     </row>
-    <row r="594" spans="1:9" ht="30">
+    <row r="594" spans="1:9" ht="28.8">
       <c r="A594" s="29" t="s">
         <v>594</v>
       </c>
@@ -23881,7 +23881,7 @@
       </c>
       <c r="I594" s="31"/>
     </row>
-    <row r="595" spans="1:9" ht="30">
+    <row r="595" spans="1:9" ht="28.8">
       <c r="A595" s="29" t="s">
         <v>595</v>
       </c>
@@ -23906,7 +23906,7 @@
       </c>
       <c r="I595" s="31"/>
     </row>
-    <row r="596" spans="1:9" ht="30">
+    <row r="596" spans="1:9" ht="28.8">
       <c r="A596" s="29" t="s">
         <v>596</v>
       </c>
@@ -23931,7 +23931,7 @@
       </c>
       <c r="I596" s="31"/>
     </row>
-    <row r="597" spans="1:9" ht="45">
+    <row r="597" spans="1:9" ht="43.2">
       <c r="A597" s="29" t="s">
         <v>597</v>
       </c>
@@ -23956,7 +23956,7 @@
       </c>
       <c r="I597" s="31"/>
     </row>
-    <row r="598" spans="1:9" ht="60">
+    <row r="598" spans="1:9" ht="57.6">
       <c r="A598" s="29" t="s">
         <v>598</v>
       </c>
@@ -23981,7 +23981,7 @@
       </c>
       <c r="I598" s="31"/>
     </row>
-    <row r="599" spans="1:9" ht="30">
+    <row r="599" spans="1:9" ht="28.8">
       <c r="A599" s="29" t="s">
         <v>599</v>
       </c>
@@ -24006,7 +24006,7 @@
       </c>
       <c r="I599" s="31"/>
     </row>
-    <row r="600" spans="1:9" ht="45">
+    <row r="600" spans="1:9" ht="28.8">
       <c r="A600" s="29" t="s">
         <v>600</v>
       </c>
@@ -24031,7 +24031,7 @@
       </c>
       <c r="I600" s="31"/>
     </row>
-    <row r="601" spans="1:9" ht="30">
+    <row r="601" spans="1:9" ht="28.8">
       <c r="A601" s="29" t="s">
         <v>601</v>
       </c>
@@ -24056,7 +24056,7 @@
       </c>
       <c r="I601" s="31"/>
     </row>
-    <row r="602" spans="1:9" ht="30">
+    <row r="602" spans="1:9">
       <c r="A602" s="29" t="s">
         <v>602</v>
       </c>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="I602" s="31"/>
     </row>
-    <row r="603" spans="1:9" ht="30">
+    <row r="603" spans="1:9" ht="28.8">
       <c r="A603" s="29" t="s">
         <v>603</v>
       </c>
@@ -24106,7 +24106,7 @@
       </c>
       <c r="I603" s="31"/>
     </row>
-    <row r="604" spans="1:9" ht="30">
+    <row r="604" spans="1:9" ht="28.8">
       <c r="A604" s="29" t="s">
         <v>604</v>
       </c>
@@ -24131,7 +24131,7 @@
       </c>
       <c r="I604" s="31"/>
     </row>
-    <row r="605" spans="1:9" ht="30">
+    <row r="605" spans="1:9" ht="28.8">
       <c r="A605" s="29" t="s">
         <v>605</v>
       </c>
@@ -24156,7 +24156,7 @@
       </c>
       <c r="I605" s="31"/>
     </row>
-    <row r="606" spans="1:9" ht="45">
+    <row r="606" spans="1:9" ht="28.8">
       <c r="A606" s="29" t="s">
         <v>606</v>
       </c>
@@ -24181,7 +24181,7 @@
       </c>
       <c r="I606" s="31"/>
     </row>
-    <row r="607" spans="1:9" ht="30">
+    <row r="607" spans="1:9" ht="28.8">
       <c r="A607" s="29" t="s">
         <v>607</v>
       </c>
@@ -24206,7 +24206,7 @@
       </c>
       <c r="I607" s="31"/>
     </row>
-    <row r="608" spans="1:9" ht="30">
+    <row r="608" spans="1:9" ht="28.8">
       <c r="A608" s="29" t="s">
         <v>608</v>
       </c>
@@ -24231,7 +24231,7 @@
       </c>
       <c r="I608" s="31"/>
     </row>
-    <row r="609" spans="1:9" ht="45">
+    <row r="609" spans="1:9" ht="43.2">
       <c r="A609" s="29" t="s">
         <v>609</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="30">
+    <row r="610" spans="1:9" ht="28.8">
       <c r="A610" s="29" t="s">
         <v>610</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="60">
+    <row r="611" spans="1:9" ht="57.6">
       <c r="A611" s="29" t="s">
         <v>611</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="45">
+    <row r="612" spans="1:9" ht="43.2">
       <c r="A612" s="29" t="s">
         <v>612</v>
       </c>
@@ -24337,7 +24337,7 @@
       </c>
       <c r="I612" s="31"/>
     </row>
-    <row r="613" spans="1:9" ht="30">
+    <row r="613" spans="1:9" ht="28.8">
       <c r="A613" s="29" t="s">
         <v>613</v>
       </c>
@@ -24362,7 +24362,7 @@
       </c>
       <c r="I613" s="31"/>
     </row>
-    <row r="614" spans="1:9" ht="30">
+    <row r="614" spans="1:9" ht="28.8">
       <c r="A614" s="29" t="s">
         <v>614</v>
       </c>
@@ -24387,7 +24387,7 @@
       </c>
       <c r="I614" s="31"/>
     </row>
-    <row r="615" spans="1:9" ht="45">
+    <row r="615" spans="1:9" ht="43.2">
       <c r="A615" s="29" t="s">
         <v>615</v>
       </c>
@@ -24412,7 +24412,7 @@
       </c>
       <c r="I615" s="31"/>
     </row>
-    <row r="616" spans="1:9" ht="75">
+    <row r="616" spans="1:9" ht="57.6">
       <c r="A616" s="29" t="s">
         <v>616</v>
       </c>
@@ -24437,7 +24437,7 @@
       </c>
       <c r="I616" s="31"/>
     </row>
-    <row r="617" spans="1:9" ht="45">
+    <row r="617" spans="1:9" ht="43.2">
       <c r="A617" s="29" t="s">
         <v>617</v>
       </c>
@@ -24462,7 +24462,7 @@
       </c>
       <c r="I617" s="31"/>
     </row>
-    <row r="618" spans="1:9" ht="30">
+    <row r="618" spans="1:9" ht="28.8">
       <c r="A618" s="29" t="s">
         <v>618</v>
       </c>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="I618" s="31"/>
     </row>
-    <row r="619" spans="1:9" ht="45">
+    <row r="619" spans="1:9" ht="43.2">
       <c r="A619" s="29" t="s">
         <v>619</v>
       </c>
@@ -24512,7 +24512,7 @@
       </c>
       <c r="I619" s="31"/>
     </row>
-    <row r="620" spans="1:9" ht="60">
+    <row r="620" spans="1:9" ht="43.2">
       <c r="A620" s="29" t="s">
         <v>620</v>
       </c>
@@ -24537,7 +24537,7 @@
       </c>
       <c r="I620" s="31"/>
     </row>
-    <row r="621" spans="1:9" ht="75">
+    <row r="621" spans="1:9" ht="57.6">
       <c r="A621" s="29" t="s">
         <v>621</v>
       </c>
@@ -24562,7 +24562,7 @@
       </c>
       <c r="I621" s="31"/>
     </row>
-    <row r="622" spans="1:9" ht="30">
+    <row r="622" spans="1:9" ht="28.8">
       <c r="A622" s="29" t="s">
         <v>622</v>
       </c>
@@ -24587,7 +24587,7 @@
       </c>
       <c r="I622" s="31"/>
     </row>
-    <row r="623" spans="1:9" ht="30">
+    <row r="623" spans="1:9" ht="28.8">
       <c r="A623" s="29" t="s">
         <v>623</v>
       </c>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="I623" s="31"/>
     </row>
-    <row r="624" spans="1:9" ht="30">
+    <row r="624" spans="1:9" ht="28.8">
       <c r="A624" s="29" t="s">
         <v>624</v>
       </c>
@@ -24637,7 +24637,7 @@
       </c>
       <c r="I624" s="31"/>
     </row>
-    <row r="625" spans="1:9" ht="75">
+    <row r="625" spans="1:9" ht="72">
       <c r="A625" s="29" t="s">
         <v>625</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="225">
+    <row r="626" spans="1:9" ht="216">
       <c r="A626" s="29" t="s">
         <v>626</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="627" spans="1:9" ht="30">
+    <row r="627" spans="1:9" ht="28.8">
       <c r="A627" s="29" t="s">
         <v>627</v>
       </c>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="I627" s="31"/>
     </row>
-    <row r="628" spans="1:9" ht="60">
+    <row r="628" spans="1:9" ht="57.6">
       <c r="A628" s="29" t="s">
         <v>628</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="45">
+    <row r="629" spans="1:9" ht="28.8">
       <c r="A629" s="29" t="s">
         <v>629</v>
       </c>
@@ -24768,7 +24768,7 @@
       </c>
       <c r="I629" s="31"/>
     </row>
-    <row r="630" spans="1:9" ht="45">
+    <row r="630" spans="1:9" ht="43.2">
       <c r="A630" s="29" t="s">
         <v>630</v>
       </c>
@@ -24793,7 +24793,7 @@
       </c>
       <c r="I630" s="31"/>
     </row>
-    <row r="631" spans="1:9" ht="30">
+    <row r="631" spans="1:9" ht="28.8">
       <c r="A631" s="29" t="s">
         <v>631</v>
       </c>
@@ -24820,7 +24820,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="60">
+    <row r="632" spans="1:9" ht="57.6">
       <c r="A632" s="29" t="s">
         <v>632</v>
       </c>
@@ -24845,7 +24845,7 @@
       </c>
       <c r="I632" s="31"/>
     </row>
-    <row r="633" spans="1:9" ht="30">
+    <row r="633" spans="1:9" ht="28.8">
       <c r="A633" s="29" t="s">
         <v>633</v>
       </c>
@@ -24870,7 +24870,7 @@
       </c>
       <c r="I633" s="31"/>
     </row>
-    <row r="634" spans="1:9" ht="60">
+    <row r="634" spans="1:9" ht="57.6">
       <c r="A634" s="29" t="s">
         <v>634</v>
       </c>
@@ -24897,7 +24897,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="635" spans="1:9" ht="45">
+    <row r="635" spans="1:9" ht="28.8">
       <c r="A635" s="29" t="s">
         <v>635</v>
       </c>
@@ -24922,7 +24922,7 @@
       </c>
       <c r="I635" s="31"/>
     </row>
-    <row r="636" spans="1:9" ht="45">
+    <row r="636" spans="1:9" ht="43.2">
       <c r="A636" s="29" t="s">
         <v>636</v>
       </c>
@@ -24947,7 +24947,7 @@
       </c>
       <c r="I636" s="31"/>
     </row>
-    <row r="637" spans="1:9" ht="30">
+    <row r="637" spans="1:9" ht="28.8">
       <c r="A637" s="29" t="s">
         <v>637</v>
       </c>
@@ -24974,7 +24974,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="45">
+    <row r="638" spans="1:9" ht="43.2">
       <c r="A638" s="29" t="s">
         <v>638</v>
       </c>
@@ -24999,7 +24999,7 @@
       </c>
       <c r="I638" s="31"/>
     </row>
-    <row r="639" spans="1:9" ht="60">
+    <row r="639" spans="1:9" ht="57.6">
       <c r="A639" s="29" t="s">
         <v>639</v>
       </c>
@@ -25024,7 +25024,7 @@
       </c>
       <c r="I639" s="31"/>
     </row>
-    <row r="640" spans="1:9" ht="30">
+    <row r="640" spans="1:9" ht="28.8">
       <c r="A640" s="29" t="s">
         <v>640</v>
       </c>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="I640" s="31"/>
     </row>
-    <row r="641" spans="1:9" ht="75">
+    <row r="641" spans="1:9" ht="72">
       <c r="A641" s="29" t="s">
         <v>641</v>
       </c>
@@ -25074,7 +25074,7 @@
       </c>
       <c r="I641" s="31"/>
     </row>
-    <row r="642" spans="1:9" ht="75">
+    <row r="642" spans="1:9" ht="72">
       <c r="A642" s="29" t="s">
         <v>642</v>
       </c>
@@ -25099,7 +25099,7 @@
       </c>
       <c r="I642" s="31"/>
     </row>
-    <row r="643" spans="1:9" ht="45">
+    <row r="643" spans="1:9" ht="43.2">
       <c r="A643" s="29" t="s">
         <v>643</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="644" spans="1:9" ht="45">
+    <row r="644" spans="1:9" ht="43.2">
       <c r="A644" s="29" t="s">
         <v>644</v>
       </c>
@@ -25153,7 +25153,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="60">
+    <row r="645" spans="1:9" ht="43.2">
       <c r="A645" s="29" t="s">
         <v>645</v>
       </c>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I645" s="31"/>
     </row>
-    <row r="646" spans="1:9" ht="30">
+    <row r="646" spans="1:9" ht="28.8">
       <c r="A646" s="29" t="s">
         <v>646</v>
       </c>
@@ -25203,7 +25203,7 @@
       </c>
       <c r="I646" s="31"/>
     </row>
-    <row r="647" spans="1:9" ht="30">
+    <row r="647" spans="1:9" ht="28.8">
       <c r="A647" s="22" t="s">
         <v>2243</v>
       </c>
@@ -25228,7 +25228,7 @@
       </c>
       <c r="I647" s="35"/>
     </row>
-    <row r="648" spans="1:9" ht="60">
+    <row r="648" spans="1:9" ht="57.6">
       <c r="A648" s="29" t="s">
         <v>647</v>
       </c>
@@ -25253,7 +25253,7 @@
       </c>
       <c r="I648" s="31"/>
     </row>
-    <row r="649" spans="1:9" ht="60">
+    <row r="649" spans="1:9" ht="57.6">
       <c r="A649" s="29" t="s">
         <v>648</v>
       </c>
@@ -25278,7 +25278,7 @@
       </c>
       <c r="I649" s="31"/>
     </row>
-    <row r="650" spans="1:9" ht="30">
+    <row r="650" spans="1:9" ht="28.8">
       <c r="A650" s="29" t="s">
         <v>649</v>
       </c>
@@ -25303,7 +25303,7 @@
       </c>
       <c r="I650" s="31"/>
     </row>
-    <row r="651" spans="1:9" ht="60">
+    <row r="651" spans="1:9" ht="57.6">
       <c r="A651" s="29" t="s">
         <v>650</v>
       </c>
@@ -25328,7 +25328,7 @@
       </c>
       <c r="I651" s="31"/>
     </row>
-    <row r="652" spans="1:9" ht="30">
+    <row r="652" spans="1:9" ht="28.8">
       <c r="A652" s="29" t="s">
         <v>651</v>
       </c>
@@ -25353,7 +25353,7 @@
       </c>
       <c r="I652" s="31"/>
     </row>
-    <row r="653" spans="1:9" ht="45">
+    <row r="653" spans="1:9" ht="28.8">
       <c r="A653" s="29" t="s">
         <v>652</v>
       </c>
@@ -25378,7 +25378,7 @@
       </c>
       <c r="I653" s="31"/>
     </row>
-    <row r="654" spans="1:9" ht="60">
+    <row r="654" spans="1:9" ht="57.6">
       <c r="A654" s="29" t="s">
         <v>653</v>
       </c>
@@ -25403,7 +25403,7 @@
       </c>
       <c r="I654" s="31"/>
     </row>
-    <row r="655" spans="1:9" ht="30">
+    <row r="655" spans="1:9" ht="28.8">
       <c r="A655" s="29" t="s">
         <v>654</v>
       </c>
@@ -25428,7 +25428,7 @@
       </c>
       <c r="I655" s="31"/>
     </row>
-    <row r="656" spans="1:9" ht="45">
+    <row r="656" spans="1:9" ht="28.8">
       <c r="A656" s="29" t="s">
         <v>655</v>
       </c>
@@ -25453,7 +25453,7 @@
       </c>
       <c r="I656" s="31"/>
     </row>
-    <row r="657" spans="1:9" ht="45">
+    <row r="657" spans="1:9" ht="43.2">
       <c r="A657" s="29" t="s">
         <v>656</v>
       </c>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="I657" s="31"/>
     </row>
-    <row r="658" spans="1:9" ht="60">
+    <row r="658" spans="1:9" ht="57.6">
       <c r="A658" s="29" t="s">
         <v>657</v>
       </c>
@@ -25503,7 +25503,7 @@
       </c>
       <c r="I658" s="31"/>
     </row>
-    <row r="659" spans="1:9" ht="60">
+    <row r="659" spans="1:9" ht="43.2">
       <c r="A659" s="29" t="s">
         <v>658</v>
       </c>
@@ -25528,7 +25528,7 @@
       </c>
       <c r="I659" s="31"/>
     </row>
-    <row r="660" spans="1:9" ht="60">
+    <row r="660" spans="1:9" ht="43.2">
       <c r="A660" s="29" t="s">
         <v>659</v>
       </c>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="I660" s="31"/>
     </row>
-    <row r="661" spans="1:9" ht="45">
+    <row r="661" spans="1:9" ht="43.2">
       <c r="A661" s="29" t="s">
         <v>660</v>
       </c>
@@ -25578,7 +25578,7 @@
       </c>
       <c r="I661" s="31"/>
     </row>
-    <row r="662" spans="1:9" ht="45">
+    <row r="662" spans="1:9" ht="43.2">
       <c r="A662" s="29" t="s">
         <v>661</v>
       </c>
@@ -25603,7 +25603,7 @@
       </c>
       <c r="I662" s="31"/>
     </row>
-    <row r="663" spans="1:9" ht="45">
+    <row r="663" spans="1:9" ht="43.2">
       <c r="A663" s="29" t="s">
         <v>662</v>
       </c>
@@ -25628,7 +25628,7 @@
       </c>
       <c r="I663" s="31"/>
     </row>
-    <row r="664" spans="1:9" ht="45">
+    <row r="664" spans="1:9" ht="28.8">
       <c r="A664" s="29" t="s">
         <v>663</v>
       </c>
@@ -25653,7 +25653,7 @@
       </c>
       <c r="I664" s="31"/>
     </row>
-    <row r="665" spans="1:9" ht="90">
+    <row r="665" spans="1:9" ht="86.4">
       <c r="A665" s="29" t="s">
         <v>664</v>
       </c>
@@ -25678,7 +25678,7 @@
       </c>
       <c r="I665" s="31"/>
     </row>
-    <row r="666" spans="1:9" ht="60">
+    <row r="666" spans="1:9" ht="57.6">
       <c r="A666" s="29" t="s">
         <v>665</v>
       </c>
@@ -25703,7 +25703,7 @@
       </c>
       <c r="I666" s="31"/>
     </row>
-    <row r="667" spans="1:9" ht="30">
+    <row r="667" spans="1:9" ht="28.8">
       <c r="A667" s="29" t="s">
         <v>666</v>
       </c>
@@ -25728,7 +25728,7 @@
       </c>
       <c r="I667" s="31"/>
     </row>
-    <row r="668" spans="1:9" ht="45">
+    <row r="668" spans="1:9" ht="43.2">
       <c r="A668" s="29" t="s">
         <v>667</v>
       </c>
@@ -25753,7 +25753,7 @@
       </c>
       <c r="I668" s="31"/>
     </row>
-    <row r="669" spans="1:9" ht="150">
+    <row r="669" spans="1:9" ht="144">
       <c r="A669" s="29" t="s">
         <v>668</v>
       </c>
@@ -25778,7 +25778,7 @@
       </c>
       <c r="I669" s="31"/>
     </row>
-    <row r="670" spans="1:9" ht="45">
+    <row r="670" spans="1:9" ht="43.2">
       <c r="A670" s="29" t="s">
         <v>669</v>
       </c>
@@ -25803,7 +25803,7 @@
       </c>
       <c r="I670" s="31"/>
     </row>
-    <row r="671" spans="1:9" ht="30">
+    <row r="671" spans="1:9" ht="28.8">
       <c r="A671" s="29" t="s">
         <v>670</v>
       </c>
@@ -25828,7 +25828,7 @@
       </c>
       <c r="I671" s="31"/>
     </row>
-    <row r="672" spans="1:9" ht="45">
+    <row r="672" spans="1:9" ht="28.8">
       <c r="A672" s="29" t="s">
         <v>671</v>
       </c>
@@ -25853,7 +25853,7 @@
       </c>
       <c r="I672" s="31"/>
     </row>
-    <row r="673" spans="1:9" ht="30">
+    <row r="673" spans="1:9" ht="28.8">
       <c r="A673" s="29" t="s">
         <v>672</v>
       </c>
@@ -25878,7 +25878,7 @@
       </c>
       <c r="I673" s="31"/>
     </row>
-    <row r="674" spans="1:9" ht="45">
+    <row r="674" spans="1:9" ht="43.2">
       <c r="A674" s="29" t="s">
         <v>673</v>
       </c>
@@ -25903,7 +25903,7 @@
       </c>
       <c r="I674" s="31"/>
     </row>
-    <row r="675" spans="1:9" ht="30">
+    <row r="675" spans="1:9" ht="28.8">
       <c r="A675" s="29" t="s">
         <v>674</v>
       </c>
@@ -25928,7 +25928,7 @@
       </c>
       <c r="I675" s="31"/>
     </row>
-    <row r="676" spans="1:9" ht="60">
+    <row r="676" spans="1:9" ht="57.6">
       <c r="A676" s="29" t="s">
         <v>675</v>
       </c>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="I676" s="31"/>
     </row>
-    <row r="677" spans="1:9" ht="30">
+    <row r="677" spans="1:9" ht="28.8">
       <c r="A677" s="29" t="s">
         <v>676</v>
       </c>
@@ -25978,7 +25978,7 @@
       </c>
       <c r="I677" s="31"/>
     </row>
-    <row r="678" spans="1:9" ht="45">
+    <row r="678" spans="1:9" ht="28.8">
       <c r="A678" s="29" t="s">
         <v>677</v>
       </c>
@@ -26003,7 +26003,7 @@
       </c>
       <c r="I678" s="31"/>
     </row>
-    <row r="679" spans="1:9" ht="45">
+    <row r="679" spans="1:9" ht="28.8">
       <c r="A679" s="29" t="s">
         <v>678</v>
       </c>
@@ -26028,7 +26028,7 @@
       </c>
       <c r="I679" s="31"/>
     </row>
-    <row r="680" spans="1:9" ht="45">
+    <row r="680" spans="1:9" ht="43.2">
       <c r="A680" s="29" t="s">
         <v>679</v>
       </c>
@@ -26053,7 +26053,7 @@
       </c>
       <c r="I680" s="31"/>
     </row>
-    <row r="681" spans="1:9" ht="30">
+    <row r="681" spans="1:9" ht="28.8">
       <c r="A681" s="29" t="s">
         <v>680</v>
       </c>
@@ -26078,7 +26078,7 @@
       </c>
       <c r="I681" s="31"/>
     </row>
-    <row r="682" spans="1:9" ht="45">
+    <row r="682" spans="1:9" ht="28.8">
       <c r="A682" s="29" t="s">
         <v>681</v>
       </c>
@@ -26103,7 +26103,7 @@
       </c>
       <c r="I682" s="31"/>
     </row>
-    <row r="683" spans="1:9" ht="45">
+    <row r="683" spans="1:9" ht="28.8">
       <c r="A683" s="29" t="s">
         <v>682</v>
       </c>
@@ -26128,7 +26128,7 @@
       </c>
       <c r="I683" s="31"/>
     </row>
-    <row r="684" spans="1:9" ht="45">
+    <row r="684" spans="1:9" ht="43.2">
       <c r="A684" s="29" t="s">
         <v>683</v>
       </c>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="I684" s="31"/>
     </row>
-    <row r="685" spans="1:9" ht="60">
+    <row r="685" spans="1:9" ht="43.2">
       <c r="A685" s="29" t="s">
         <v>684</v>
       </c>
@@ -26180,7 +26180,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="45">
+    <row r="686" spans="1:9" ht="43.2">
       <c r="A686" s="29" t="s">
         <v>685</v>
       </c>
@@ -26207,7 +26207,7 @@
       </c>
       <c r="I686" s="31"/>
     </row>
-    <row r="687" spans="1:9" ht="45">
+    <row r="687" spans="1:9" ht="43.2">
       <c r="A687" s="29" t="s">
         <v>686</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="45">
+    <row r="688" spans="1:9" ht="43.2">
       <c r="A688" s="29" t="s">
         <v>687</v>
       </c>
@@ -26259,7 +26259,7 @@
       </c>
       <c r="I688" s="31"/>
     </row>
-    <row r="689" spans="1:9" ht="30">
+    <row r="689" spans="1:9" ht="28.8">
       <c r="A689" s="29" t="s">
         <v>688</v>
       </c>
@@ -26286,7 +26286,7 @@
       </c>
       <c r="I689" s="31"/>
     </row>
-    <row r="690" spans="1:9" ht="30">
+    <row r="690" spans="1:9" ht="28.8">
       <c r="A690" s="29" t="s">
         <v>689</v>
       </c>
@@ -26313,7 +26313,7 @@
       </c>
       <c r="I690" s="31"/>
     </row>
-    <row r="691" spans="1:9" ht="30">
+    <row r="691" spans="1:9" ht="28.8">
       <c r="A691" s="29" t="s">
         <v>690</v>
       </c>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="I691" s="31"/>
     </row>
-    <row r="692" spans="1:9" ht="30">
+    <row r="692" spans="1:9" ht="28.8">
       <c r="A692" s="29" t="s">
         <v>691</v>
       </c>
@@ -26367,7 +26367,7 @@
       </c>
       <c r="I692" s="31"/>
     </row>
-    <row r="693" spans="1:9" ht="30">
+    <row r="693" spans="1:9" ht="28.8">
       <c r="A693" s="29" t="s">
         <v>692</v>
       </c>
@@ -26394,7 +26394,7 @@
       </c>
       <c r="I693" s="31"/>
     </row>
-    <row r="694" spans="1:9" ht="30">
+    <row r="694" spans="1:9" ht="28.8">
       <c r="A694" s="29" t="s">
         <v>693</v>
       </c>
@@ -26421,7 +26421,7 @@
       </c>
       <c r="I694" s="31"/>
     </row>
-    <row r="695" spans="1:9" ht="30">
+    <row r="695" spans="1:9" ht="28.8">
       <c r="A695" s="29" t="s">
         <v>694</v>
       </c>
@@ -26448,7 +26448,7 @@
       </c>
       <c r="I695" s="31"/>
     </row>
-    <row r="696" spans="1:9" ht="105">
+    <row r="696" spans="1:9" ht="100.8">
       <c r="A696" s="29" t="s">
         <v>695</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="30">
+    <row r="697" spans="1:9" ht="28.8">
       <c r="A697" s="29" t="s">
         <v>696</v>
       </c>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="I697" s="31"/>
     </row>
-    <row r="698" spans="1:9" ht="30">
+    <row r="698" spans="1:9" ht="28.8">
       <c r="A698" s="29" t="s">
         <v>697</v>
       </c>
@@ -26525,7 +26525,7 @@
       </c>
       <c r="I698" s="31"/>
     </row>
-    <row r="699" spans="1:9" ht="45">
+    <row r="699" spans="1:9" ht="43.2">
       <c r="A699" s="29" t="s">
         <v>698</v>
       </c>
@@ -26550,7 +26550,7 @@
       </c>
       <c r="I699" s="31"/>
     </row>
-    <row r="700" spans="1:9" ht="30">
+    <row r="700" spans="1:9" ht="28.8">
       <c r="A700" s="29" t="s">
         <v>699</v>
       </c>
@@ -26575,7 +26575,7 @@
       </c>
       <c r="I700" s="31"/>
     </row>
-    <row r="701" spans="1:9" ht="45">
+    <row r="701" spans="1:9" ht="43.2">
       <c r="A701" s="29" t="s">
         <v>700</v>
       </c>
@@ -26600,7 +26600,7 @@
       </c>
       <c r="I701" s="31"/>
     </row>
-    <row r="702" spans="1:9" ht="30">
+    <row r="702" spans="1:9" ht="28.8">
       <c r="A702" s="29" t="s">
         <v>701</v>
       </c>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="I702" s="31"/>
     </row>
-    <row r="703" spans="1:9" ht="45">
+    <row r="703" spans="1:9" ht="43.2">
       <c r="A703" s="29" t="s">
         <v>702</v>
       </c>
@@ -26650,7 +26650,7 @@
       </c>
       <c r="I703" s="31"/>
     </row>
-    <row r="704" spans="1:9" ht="45">
+    <row r="704" spans="1:9" ht="43.2">
       <c r="A704" s="29" t="s">
         <v>703</v>
       </c>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="I704" s="31"/>
     </row>
-    <row r="705" spans="1:9" ht="30">
+    <row r="705" spans="1:9" ht="28.8">
       <c r="A705" s="29" t="s">
         <v>704</v>
       </c>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="I705" s="31"/>
     </row>
-    <row r="706" spans="1:9" ht="45">
+    <row r="706" spans="1:9" ht="28.8">
       <c r="A706" s="29" t="s">
         <v>705</v>
       </c>
@@ -26725,7 +26725,7 @@
       </c>
       <c r="I706" s="31"/>
     </row>
-    <row r="707" spans="1:9" ht="45">
+    <row r="707" spans="1:9" ht="28.8">
       <c r="A707" s="29" t="s">
         <v>706</v>
       </c>
@@ -26750,7 +26750,7 @@
       </c>
       <c r="I707" s="31"/>
     </row>
-    <row r="708" spans="1:9" ht="45">
+    <row r="708" spans="1:9" ht="43.2">
       <c r="A708" s="29" t="s">
         <v>707</v>
       </c>
@@ -26775,7 +26775,7 @@
       </c>
       <c r="I708" s="31"/>
     </row>
-    <row r="709" spans="1:9" ht="30">
+    <row r="709" spans="1:9" ht="28.8">
       <c r="A709" s="29" t="s">
         <v>708</v>
       </c>
@@ -26800,7 +26800,7 @@
       </c>
       <c r="I709" s="31"/>
     </row>
-    <row r="710" spans="1:9" ht="30">
+    <row r="710" spans="1:9" ht="28.8">
       <c r="A710" s="29" t="s">
         <v>709</v>
       </c>
@@ -26825,7 +26825,7 @@
       </c>
       <c r="I710" s="31"/>
     </row>
-    <row r="711" spans="1:9" ht="30">
+    <row r="711" spans="1:9" ht="28.8">
       <c r="A711" s="29" t="s">
         <v>710</v>
       </c>
@@ -26850,7 +26850,7 @@
       </c>
       <c r="I711" s="31"/>
     </row>
-    <row r="712" spans="1:9" ht="60">
+    <row r="712" spans="1:9" ht="43.2">
       <c r="A712" s="29" t="s">
         <v>711</v>
       </c>
@@ -26875,7 +26875,7 @@
       </c>
       <c r="I712" s="31"/>
     </row>
-    <row r="713" spans="1:9" ht="60">
+    <row r="713" spans="1:9" ht="57.6">
       <c r="A713" s="29" t="s">
         <v>712</v>
       </c>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="I713" s="31"/>
     </row>
-    <row r="714" spans="1:9" ht="45">
+    <row r="714" spans="1:9" ht="43.2">
       <c r="A714" s="29" t="s">
         <v>713</v>
       </c>
@@ -26925,7 +26925,7 @@
       </c>
       <c r="I714" s="31"/>
     </row>
-    <row r="715" spans="1:9" ht="60">
+    <row r="715" spans="1:9" ht="43.2">
       <c r="A715" s="29" t="s">
         <v>714</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="240">
+    <row r="716" spans="1:9" ht="230.4">
       <c r="A716" s="29" t="s">
         <v>715</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="717" spans="1:9" ht="30">
+    <row r="717" spans="1:9" ht="28.8">
       <c r="A717" s="29" t="s">
         <v>716</v>
       </c>
@@ -27004,7 +27004,7 @@
       </c>
       <c r="I717" s="31"/>
     </row>
-    <row r="718" spans="1:9" ht="30">
+    <row r="718" spans="1:9" ht="28.8">
       <c r="A718" s="29" t="s">
         <v>717</v>
       </c>
@@ -27029,7 +27029,7 @@
       </c>
       <c r="I718" s="31"/>
     </row>
-    <row r="719" spans="1:9" ht="45">
+    <row r="719" spans="1:9" ht="28.8">
       <c r="A719" s="29" t="s">
         <v>718</v>
       </c>
@@ -27054,7 +27054,7 @@
       </c>
       <c r="I719" s="31"/>
     </row>
-    <row r="720" spans="1:9" ht="30">
+    <row r="720" spans="1:9" ht="28.8">
       <c r="A720" s="29" t="s">
         <v>719</v>
       </c>
@@ -27079,7 +27079,7 @@
       </c>
       <c r="I720" s="31"/>
     </row>
-    <row r="721" spans="1:9" ht="30">
+    <row r="721" spans="1:9" ht="28.8">
       <c r="A721" s="29" t="s">
         <v>720</v>
       </c>
@@ -27104,7 +27104,7 @@
       </c>
       <c r="I721" s="31"/>
     </row>
-    <row r="722" spans="1:9" ht="30">
+    <row r="722" spans="1:9" ht="28.8">
       <c r="A722" s="29" t="s">
         <v>721</v>
       </c>
@@ -27129,7 +27129,7 @@
       </c>
       <c r="I722" s="31"/>
     </row>
-    <row r="723" spans="1:9" ht="45">
+    <row r="723" spans="1:9" ht="43.2">
       <c r="A723" s="29" t="s">
         <v>722</v>
       </c>
@@ -27154,7 +27154,7 @@
       </c>
       <c r="I723" s="31"/>
     </row>
-    <row r="724" spans="1:9" ht="30">
+    <row r="724" spans="1:9" ht="28.8">
       <c r="A724" s="29" t="s">
         <v>723</v>
       </c>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="I724" s="31"/>
     </row>
-    <row r="725" spans="1:9" ht="45">
+    <row r="725" spans="1:9" ht="43.2">
       <c r="A725" s="29" t="s">
         <v>724</v>
       </c>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="I725" s="31"/>
     </row>
-    <row r="726" spans="1:9" ht="30">
+    <row r="726" spans="1:9" ht="28.8">
       <c r="A726" s="29" t="s">
         <v>725</v>
       </c>
@@ -27229,7 +27229,7 @@
       </c>
       <c r="I726" s="31"/>
     </row>
-    <row r="727" spans="1:9" ht="45">
+    <row r="727" spans="1:9" ht="43.2">
       <c r="A727" s="22" t="s">
         <v>726</v>
       </c>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="I727" s="31"/>
     </row>
-    <row r="728" spans="1:9" ht="60">
+    <row r="728" spans="1:9" ht="43.2">
       <c r="A728" s="22" t="s">
         <v>2301</v>
       </c>
@@ -27281,7 +27281,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="30">
+    <row r="729" spans="1:9" ht="28.8">
       <c r="A729" s="29" t="s">
         <v>727</v>
       </c>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="I729" s="31"/>
     </row>
-    <row r="730" spans="1:9" ht="45">
+    <row r="730" spans="1:9" ht="43.2">
       <c r="A730" s="29" t="s">
         <v>728</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="731" spans="1:9" ht="30">
+    <row r="731" spans="1:9" ht="28.8">
       <c r="A731" s="29" t="s">
         <v>729</v>
       </c>
@@ -27358,7 +27358,7 @@
       </c>
       <c r="I731" s="31"/>
     </row>
-    <row r="732" spans="1:9" ht="45">
+    <row r="732" spans="1:9" ht="43.2">
       <c r="A732" s="29" t="s">
         <v>730</v>
       </c>
@@ -27383,7 +27383,7 @@
       </c>
       <c r="I732" s="31"/>
     </row>
-    <row r="733" spans="1:9" ht="45">
+    <row r="733" spans="1:9" ht="43.2">
       <c r="A733" s="29" t="s">
         <v>731</v>
       </c>
@@ -27408,7 +27408,7 @@
       </c>
       <c r="I733" s="31"/>
     </row>
-    <row r="734" spans="1:9" ht="30">
+    <row r="734" spans="1:9" ht="28.8">
       <c r="A734" s="29" t="s">
         <v>732</v>
       </c>
@@ -27433,7 +27433,7 @@
       </c>
       <c r="I734" s="31"/>
     </row>
-    <row r="735" spans="1:9" ht="45">
+    <row r="735" spans="1:9" ht="28.8">
       <c r="A735" s="29" t="s">
         <v>733</v>
       </c>
@@ -27458,7 +27458,7 @@
       </c>
       <c r="I735" s="31"/>
     </row>
-    <row r="736" spans="1:9" ht="45">
+    <row r="736" spans="1:9" ht="28.8">
       <c r="A736" s="29" t="s">
         <v>734</v>
       </c>
@@ -27483,7 +27483,7 @@
       </c>
       <c r="I736" s="31"/>
     </row>
-    <row r="737" spans="1:9" ht="75">
+    <row r="737" spans="1:9" ht="57.6">
       <c r="A737" s="29" t="s">
         <v>735</v>
       </c>
@@ -27508,7 +27508,7 @@
       </c>
       <c r="I737" s="31"/>
     </row>
-    <row r="738" spans="1:9" ht="30">
+    <row r="738" spans="1:9" ht="28.8">
       <c r="A738" s="29" t="s">
         <v>736</v>
       </c>
@@ -27533,7 +27533,7 @@
       </c>
       <c r="I738" s="31"/>
     </row>
-    <row r="739" spans="1:9" ht="45">
+    <row r="739" spans="1:9" ht="43.2">
       <c r="A739" s="29" t="s">
         <v>737</v>
       </c>
@@ -27558,7 +27558,7 @@
       </c>
       <c r="I739" s="31"/>
     </row>
-    <row r="740" spans="1:9" ht="45">
+    <row r="740" spans="1:9" ht="43.2">
       <c r="A740" s="29" t="s">
         <v>738</v>
       </c>
@@ -27583,7 +27583,7 @@
       </c>
       <c r="I740" s="31"/>
     </row>
-    <row r="741" spans="1:9" ht="60">
+    <row r="741" spans="1:9" ht="57.6">
       <c r="A741" s="29" t="s">
         <v>739</v>
       </c>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="I741" s="31"/>
     </row>
-    <row r="742" spans="1:9" ht="60">
+    <row r="742" spans="1:9" ht="57.6">
       <c r="A742" s="29" t="s">
         <v>740</v>
       </c>
@@ -27633,7 +27633,7 @@
       </c>
       <c r="I742" s="31"/>
     </row>
-    <row r="743" spans="1:9" ht="60">
+    <row r="743" spans="1:9" ht="57.6">
       <c r="A743" s="29" t="s">
         <v>741</v>
       </c>
@@ -27658,7 +27658,7 @@
       </c>
       <c r="I743" s="31"/>
     </row>
-    <row r="744" spans="1:9" ht="60">
+    <row r="744" spans="1:9" ht="57.6">
       <c r="A744" s="29" t="s">
         <v>742</v>
       </c>
@@ -27683,7 +27683,7 @@
       </c>
       <c r="I744" s="31"/>
     </row>
-    <row r="745" spans="1:9" ht="60">
+    <row r="745" spans="1:9" ht="43.2">
       <c r="A745" s="29" t="s">
         <v>743</v>
       </c>
@@ -27710,7 +27710,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="180">
+    <row r="746" spans="1:9" ht="172.8">
       <c r="A746" s="29" t="s">
         <v>744</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="30">
+    <row r="747" spans="1:9" ht="28.8">
       <c r="A747" s="29" t="s">
         <v>745</v>
       </c>
@@ -27762,7 +27762,7 @@
       </c>
       <c r="I747" s="31"/>
     </row>
-    <row r="748" spans="1:9" ht="30">
+    <row r="748" spans="1:9" ht="28.8">
       <c r="A748" s="29" t="s">
         <v>746</v>
       </c>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="I748" s="31"/>
     </row>
-    <row r="749" spans="1:9" ht="45">
+    <row r="749" spans="1:9" ht="43.2">
       <c r="A749" s="22" t="s">
         <v>747</v>
       </c>
@@ -27814,7 +27814,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="30">
+    <row r="750" spans="1:9" ht="28.8">
       <c r="A750" s="29" t="s">
         <v>748</v>
       </c>
@@ -27839,7 +27839,7 @@
       </c>
       <c r="I750" s="31"/>
     </row>
-    <row r="751" spans="1:9" ht="30">
+    <row r="751" spans="1:9" ht="28.8">
       <c r="A751" s="29" t="s">
         <v>749</v>
       </c>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="I751" s="31"/>
     </row>
-    <row r="752" spans="1:9" ht="30">
+    <row r="752" spans="1:9" ht="28.8">
       <c r="A752" s="29" t="s">
         <v>750</v>
       </c>
@@ -27889,7 +27889,7 @@
       </c>
       <c r="I752" s="31"/>
     </row>
-    <row r="753" spans="1:9" ht="30">
+    <row r="753" spans="1:9" ht="28.8">
       <c r="A753" s="29" t="s">
         <v>751</v>
       </c>
@@ -27914,7 +27914,7 @@
       </c>
       <c r="I753" s="31"/>
     </row>
-    <row r="754" spans="1:9" ht="30">
+    <row r="754" spans="1:9" ht="28.8">
       <c r="A754" s="29" t="s">
         <v>752</v>
       </c>
@@ -27939,7 +27939,7 @@
       </c>
       <c r="I754" s="31"/>
     </row>
-    <row r="755" spans="1:9" ht="30">
+    <row r="755" spans="1:9" ht="28.8">
       <c r="A755" s="29" t="s">
         <v>753</v>
       </c>
@@ -27964,7 +27964,7 @@
       </c>
       <c r="I755" s="31"/>
     </row>
-    <row r="756" spans="1:9" ht="45">
+    <row r="756" spans="1:9" ht="43.2">
       <c r="A756" s="29" t="s">
         <v>754</v>
       </c>
@@ -27989,7 +27989,7 @@
       </c>
       <c r="I756" s="31"/>
     </row>
-    <row r="757" spans="1:9" ht="45">
+    <row r="757" spans="1:9" ht="43.2">
       <c r="A757" s="29" t="s">
         <v>755</v>
       </c>
@@ -28014,7 +28014,7 @@
       </c>
       <c r="I757" s="31"/>
     </row>
-    <row r="758" spans="1:9" ht="45">
+    <row r="758" spans="1:9" ht="43.2">
       <c r="A758" s="29" t="s">
         <v>756</v>
       </c>
@@ -28039,7 +28039,7 @@
       </c>
       <c r="I758" s="31"/>
     </row>
-    <row r="759" spans="1:9" ht="30">
+    <row r="759" spans="1:9" ht="28.8">
       <c r="A759" s="29" t="s">
         <v>757</v>
       </c>
@@ -28064,7 +28064,7 @@
       </c>
       <c r="I759" s="31"/>
     </row>
-    <row r="760" spans="1:9" ht="45">
+    <row r="760" spans="1:9" ht="28.8">
       <c r="A760" s="29" t="s">
         <v>758</v>
       </c>
@@ -28089,7 +28089,7 @@
       </c>
       <c r="I760" s="31"/>
     </row>
-    <row r="761" spans="1:9" ht="45">
+    <row r="761" spans="1:9" ht="28.8">
       <c r="A761" s="29" t="s">
         <v>759</v>
       </c>
@@ -28114,7 +28114,7 @@
       </c>
       <c r="I761" s="31"/>
     </row>
-    <row r="762" spans="1:9" ht="45">
+    <row r="762" spans="1:9" ht="43.2">
       <c r="A762" s="29" t="s">
         <v>760</v>
       </c>
@@ -28139,7 +28139,7 @@
       </c>
       <c r="I762" s="31"/>
     </row>
-    <row r="763" spans="1:9" ht="30">
+    <row r="763" spans="1:9" ht="28.8">
       <c r="A763" s="29" t="s">
         <v>761</v>
       </c>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="I763" s="31"/>
     </row>
-    <row r="764" spans="1:9" ht="45">
+    <row r="764" spans="1:9" ht="43.2">
       <c r="A764" s="29" t="s">
         <v>762</v>
       </c>
@@ -28189,7 +28189,7 @@
       </c>
       <c r="I764" s="31"/>
     </row>
-    <row r="765" spans="1:9" ht="45">
+    <row r="765" spans="1:9" ht="28.8">
       <c r="A765" s="29" t="s">
         <v>763</v>
       </c>
@@ -28214,7 +28214,7 @@
       </c>
       <c r="I765" s="31"/>
     </row>
-    <row r="766" spans="1:9" ht="45">
+    <row r="766" spans="1:9" ht="43.2">
       <c r="A766" s="29" t="s">
         <v>764</v>
       </c>
@@ -28239,7 +28239,7 @@
       </c>
       <c r="I766" s="31"/>
     </row>
-    <row r="767" spans="1:9" ht="45">
+    <row r="767" spans="1:9" ht="43.2">
       <c r="A767" s="29" t="s">
         <v>765</v>
       </c>
@@ -28264,7 +28264,7 @@
       </c>
       <c r="I767" s="31"/>
     </row>
-    <row r="768" spans="1:9" ht="45">
+    <row r="768" spans="1:9" ht="43.2">
       <c r="A768" s="29" t="s">
         <v>766</v>
       </c>
@@ -28289,7 +28289,7 @@
       </c>
       <c r="I768" s="31"/>
     </row>
-    <row r="769" spans="1:9" ht="45">
+    <row r="769" spans="1:9" ht="43.2">
       <c r="A769" s="29" t="s">
         <v>767</v>
       </c>
@@ -28314,7 +28314,7 @@
       </c>
       <c r="I769" s="31"/>
     </row>
-    <row r="770" spans="1:9" ht="45">
+    <row r="770" spans="1:9" ht="43.2">
       <c r="A770" s="29" t="s">
         <v>768</v>
       </c>
@@ -28339,7 +28339,7 @@
       </c>
       <c r="I770" s="31"/>
     </row>
-    <row r="771" spans="1:9" ht="45">
+    <row r="771" spans="1:9" ht="43.2">
       <c r="A771" s="29" t="s">
         <v>769</v>
       </c>
@@ -28364,7 +28364,7 @@
       </c>
       <c r="I771" s="31"/>
     </row>
-    <row r="772" spans="1:9" ht="45">
+    <row r="772" spans="1:9" ht="43.2">
       <c r="A772" s="29" t="s">
         <v>770</v>
       </c>
@@ -28389,7 +28389,7 @@
       </c>
       <c r="I772" s="31"/>
     </row>
-    <row r="773" spans="1:9" ht="60">
+    <row r="773" spans="1:9" ht="43.2">
       <c r="A773" s="29" t="s">
         <v>771</v>
       </c>
@@ -28414,7 +28414,7 @@
       </c>
       <c r="I773" s="31"/>
     </row>
-    <row r="774" spans="1:9" ht="45">
+    <row r="774" spans="1:9" ht="28.8">
       <c r="A774" s="29" t="s">
         <v>772</v>
       </c>
@@ -28439,7 +28439,7 @@
       </c>
       <c r="I774" s="31"/>
     </row>
-    <row r="775" spans="1:9" ht="60">
+    <row r="775" spans="1:9" ht="43.2">
       <c r="A775" s="29" t="s">
         <v>773</v>
       </c>
@@ -28464,7 +28464,7 @@
       </c>
       <c r="I775" s="31"/>
     </row>
-    <row r="776" spans="1:9" ht="45">
+    <row r="776" spans="1:9" ht="43.2">
       <c r="A776" s="29" t="s">
         <v>774</v>
       </c>
@@ -28489,7 +28489,7 @@
       </c>
       <c r="I776" s="31"/>
     </row>
-    <row r="777" spans="1:9" ht="45">
+    <row r="777" spans="1:9" ht="28.8">
       <c r="A777" s="29" t="s">
         <v>775</v>
       </c>
@@ -28514,7 +28514,7 @@
       </c>
       <c r="I777" s="31"/>
     </row>
-    <row r="778" spans="1:9" ht="45">
+    <row r="778" spans="1:9" ht="28.8">
       <c r="A778" s="29" t="s">
         <v>776</v>
       </c>
@@ -28539,7 +28539,7 @@
       </c>
       <c r="I778" s="31"/>
     </row>
-    <row r="779" spans="1:9" ht="75">
+    <row r="779" spans="1:9" ht="72">
       <c r="A779" s="29" t="s">
         <v>777</v>
       </c>
@@ -28564,7 +28564,7 @@
       </c>
       <c r="I779" s="31"/>
     </row>
-    <row r="780" spans="1:9" ht="45">
+    <row r="780" spans="1:9" ht="43.2">
       <c r="A780" s="29" t="s">
         <v>778</v>
       </c>
@@ -28589,7 +28589,7 @@
       </c>
       <c r="I780" s="31"/>
     </row>
-    <row r="781" spans="1:9" ht="60">
+    <row r="781" spans="1:9" ht="43.2">
       <c r="A781" s="22" t="s">
         <v>779</v>
       </c>
@@ -28616,7 +28616,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="45">
+    <row r="782" spans="1:9" ht="43.2">
       <c r="A782" s="29" t="s">
         <v>780</v>
       </c>
@@ -28641,7 +28641,7 @@
       </c>
       <c r="I782" s="31"/>
     </row>
-    <row r="783" spans="1:9" ht="60">
+    <row r="783" spans="1:9" ht="57.6">
       <c r="A783" s="29" t="s">
         <v>781</v>
       </c>
@@ -28666,7 +28666,7 @@
       </c>
       <c r="I783" s="31"/>
     </row>
-    <row r="784" spans="1:9" ht="75">
+    <row r="784" spans="1:9" ht="57.6">
       <c r="A784" s="29" t="s">
         <v>782</v>
       </c>
@@ -28691,7 +28691,7 @@
       </c>
       <c r="I784" s="31"/>
     </row>
-    <row r="785" spans="1:9" ht="75">
+    <row r="785" spans="1:9" ht="57.6">
       <c r="A785" s="29" t="s">
         <v>783</v>
       </c>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="I785" s="31"/>
     </row>
-    <row r="786" spans="1:9" ht="60">
+    <row r="786" spans="1:9" ht="57.6">
       <c r="A786" s="29" t="s">
         <v>784</v>
       </c>
@@ -28741,7 +28741,7 @@
       </c>
       <c r="I786" s="31"/>
     </row>
-    <row r="787" spans="1:9" ht="90">
+    <row r="787" spans="1:9" ht="72">
       <c r="A787" s="29" t="s">
         <v>785</v>
       </c>
@@ -28766,7 +28766,7 @@
       </c>
       <c r="I787" s="31"/>
     </row>
-    <row r="788" spans="1:9" ht="75">
+    <row r="788" spans="1:9" ht="57.6">
       <c r="A788" s="22" t="s">
         <v>786</v>
       </c>
@@ -28791,7 +28791,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9" ht="45">
+    <row r="789" spans="1:9" ht="43.2">
       <c r="A789" s="29" t="s">
         <v>787</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="790" spans="1:9" ht="60">
+    <row r="790" spans="1:9" ht="43.2">
       <c r="A790" s="29" t="s">
         <v>788</v>
       </c>
@@ -28843,7 +28843,7 @@
       </c>
       <c r="I790" s="31"/>
     </row>
-    <row r="791" spans="1:9" ht="30">
+    <row r="791" spans="1:9" ht="28.8">
       <c r="A791" s="29" t="s">
         <v>789</v>
       </c>
@@ -28868,7 +28868,7 @@
       </c>
       <c r="I791" s="31"/>
     </row>
-    <row r="792" spans="1:9" ht="45">
+    <row r="792" spans="1:9" ht="43.2">
       <c r="A792" s="29" t="s">
         <v>790</v>
       </c>
@@ -28893,7 +28893,7 @@
       </c>
       <c r="I792" s="31"/>
     </row>
-    <row r="793" spans="1:9" ht="60">
+    <row r="793" spans="1:9" ht="57.6">
       <c r="A793" s="29" t="s">
         <v>791</v>
       </c>
@@ -28918,7 +28918,7 @@
       </c>
       <c r="I793" s="31"/>
     </row>
-    <row r="794" spans="1:9" ht="45">
+    <row r="794" spans="1:9" ht="43.2">
       <c r="A794" s="29" t="s">
         <v>792</v>
       </c>
@@ -28943,7 +28943,7 @@
       </c>
       <c r="I794" s="31"/>
     </row>
-    <row r="795" spans="1:9" ht="60">
+    <row r="795" spans="1:9" ht="43.2">
       <c r="A795" s="22" t="s">
         <v>793</v>
       </c>
@@ -28970,7 +28970,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="796" spans="1:9" ht="60">
+    <row r="796" spans="1:9" ht="43.2">
       <c r="A796" s="29" t="s">
         <v>794</v>
       </c>
@@ -28997,7 +28997,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="797" spans="1:9" ht="210">
+    <row r="797" spans="1:9" ht="201.6">
       <c r="A797" s="29" t="s">
         <v>795</v>
       </c>
@@ -29024,7 +29024,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="30">
+    <row r="798" spans="1:9" ht="28.8">
       <c r="A798" s="29" t="s">
         <v>796</v>
       </c>
@@ -29049,7 +29049,7 @@
       </c>
       <c r="I798" s="31"/>
     </row>
-    <row r="799" spans="1:9" ht="30">
+    <row r="799" spans="1:9" ht="28.8">
       <c r="A799" s="29" t="s">
         <v>797</v>
       </c>
@@ -29074,7 +29074,7 @@
       </c>
       <c r="I799" s="31"/>
     </row>
-    <row r="800" spans="1:9" ht="45">
+    <row r="800" spans="1:9" ht="28.8">
       <c r="A800" s="29" t="s">
         <v>798</v>
       </c>
@@ -29099,7 +29099,7 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="30">
+    <row r="801" spans="1:9" ht="28.8">
       <c r="A801" s="29" t="s">
         <v>799</v>
       </c>
@@ -29124,7 +29124,7 @@
       </c>
       <c r="I801" s="31"/>
     </row>
-    <row r="802" spans="1:9" ht="45">
+    <row r="802" spans="1:9" ht="28.8">
       <c r="A802" s="29" t="s">
         <v>800</v>
       </c>
@@ -29149,7 +29149,7 @@
       </c>
       <c r="I802" s="31"/>
     </row>
-    <row r="803" spans="1:9" ht="30">
+    <row r="803" spans="1:9" ht="28.8">
       <c r="A803" s="29" t="s">
         <v>801</v>
       </c>
@@ -29174,7 +29174,7 @@
       </c>
       <c r="I803" s="31"/>
     </row>
-    <row r="804" spans="1:9" ht="30">
+    <row r="804" spans="1:9" ht="28.8">
       <c r="A804" s="29" t="s">
         <v>802</v>
       </c>
@@ -29199,7 +29199,7 @@
       </c>
       <c r="I804" s="31"/>
     </row>
-    <row r="805" spans="1:9" ht="30">
+    <row r="805" spans="1:9" ht="28.8">
       <c r="A805" s="29" t="s">
         <v>803</v>
       </c>
@@ -29224,7 +29224,7 @@
       </c>
       <c r="I805" s="31"/>
     </row>
-    <row r="806" spans="1:9" ht="45">
+    <row r="806" spans="1:9" ht="43.2">
       <c r="A806" s="29" t="s">
         <v>804</v>
       </c>
@@ -29249,7 +29249,7 @@
       </c>
       <c r="I806" s="31"/>
     </row>
-    <row r="807" spans="1:9" ht="30">
+    <row r="807" spans="1:9" ht="28.8">
       <c r="A807" s="29" t="s">
         <v>805</v>
       </c>
@@ -29274,7 +29274,7 @@
       </c>
       <c r="I807" s="31"/>
     </row>
-    <row r="808" spans="1:9" ht="30">
+    <row r="808" spans="1:9" ht="28.8">
       <c r="A808" s="29" t="s">
         <v>806</v>
       </c>
@@ -29299,7 +29299,7 @@
       </c>
       <c r="I808" s="31"/>
     </row>
-    <row r="809" spans="1:9" ht="30">
+    <row r="809" spans="1:9" ht="28.8">
       <c r="A809" s="29" t="s">
         <v>807</v>
       </c>
@@ -29324,7 +29324,7 @@
       </c>
       <c r="I809" s="31"/>
     </row>
-    <row r="810" spans="1:9" ht="45">
+    <row r="810" spans="1:9" ht="43.2">
       <c r="A810" s="29" t="s">
         <v>808</v>
       </c>
@@ -29349,7 +29349,7 @@
       </c>
       <c r="I810" s="31"/>
     </row>
-    <row r="811" spans="1:9" ht="45">
+    <row r="811" spans="1:9" ht="43.2">
       <c r="A811" s="29" t="s">
         <v>809</v>
       </c>
@@ -29374,7 +29374,7 @@
       </c>
       <c r="I811" s="20"/>
     </row>
-    <row r="812" spans="1:9" ht="45">
+    <row r="812" spans="1:9" ht="43.2">
       <c r="A812" s="29" t="s">
         <v>810</v>
       </c>
@@ -29399,7 +29399,7 @@
       </c>
       <c r="I812" s="31"/>
     </row>
-    <row r="813" spans="1:9" ht="30">
+    <row r="813" spans="1:9" ht="28.8">
       <c r="A813" s="29" t="s">
         <v>811</v>
       </c>
@@ -29424,7 +29424,7 @@
       </c>
       <c r="I813" s="31"/>
     </row>
-    <row r="814" spans="1:9" ht="45">
+    <row r="814" spans="1:9" ht="28.8">
       <c r="A814" s="29" t="s">
         <v>812</v>
       </c>
@@ -29449,7 +29449,7 @@
       </c>
       <c r="I814" s="31"/>
     </row>
-    <row r="815" spans="1:9" ht="45">
+    <row r="815" spans="1:9" ht="28.8">
       <c r="A815" s="29" t="s">
         <v>813</v>
       </c>
@@ -29474,7 +29474,7 @@
       </c>
       <c r="I815" s="31"/>
     </row>
-    <row r="816" spans="1:9" ht="60">
+    <row r="816" spans="1:9" ht="57.6">
       <c r="A816" s="29" t="s">
         <v>814</v>
       </c>
@@ -29499,7 +29499,7 @@
       </c>
       <c r="I816" s="31"/>
     </row>
-    <row r="817" spans="1:9" ht="60">
+    <row r="817" spans="1:9" ht="43.2">
       <c r="A817" s="29" t="s">
         <v>815</v>
       </c>
@@ -29524,7 +29524,7 @@
       </c>
       <c r="I817" s="31"/>
     </row>
-    <row r="818" spans="1:9" ht="75">
+    <row r="818" spans="1:9" ht="72">
       <c r="A818" s="29" t="s">
         <v>816</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="819" spans="1:9" ht="30">
+    <row r="819" spans="1:9" ht="28.8">
       <c r="A819" s="29" t="s">
         <v>817</v>
       </c>
@@ -29576,7 +29576,7 @@
       </c>
       <c r="I819" s="31"/>
     </row>
-    <row r="820" spans="1:9" ht="30">
+    <row r="820" spans="1:9" ht="28.8">
       <c r="A820" s="29" t="s">
         <v>818</v>
       </c>
@@ -29601,7 +29601,7 @@
       </c>
       <c r="I820" s="31"/>
     </row>
-    <row r="821" spans="1:9" ht="30">
+    <row r="821" spans="1:9" ht="28.8">
       <c r="A821" s="29" t="s">
         <v>819</v>
       </c>
@@ -29626,7 +29626,7 @@
       </c>
       <c r="I821" s="31"/>
     </row>
-    <row r="822" spans="1:9" ht="30">
+    <row r="822" spans="1:9" ht="28.8">
       <c r="A822" s="29" t="s">
         <v>820</v>
       </c>
@@ -29651,7 +29651,7 @@
       </c>
       <c r="I822" s="31"/>
     </row>
-    <row r="823" spans="1:9" ht="45">
+    <row r="823" spans="1:9" ht="43.2">
       <c r="A823" s="29" t="s">
         <v>821</v>
       </c>
@@ -29676,7 +29676,7 @@
       </c>
       <c r="I823" s="31"/>
     </row>
-    <row r="824" spans="1:9" ht="45">
+    <row r="824" spans="1:9" ht="43.2">
       <c r="A824" s="29" t="s">
         <v>822</v>
       </c>
@@ -29701,7 +29701,7 @@
       </c>
       <c r="I824" s="31"/>
     </row>
-    <row r="825" spans="1:9" ht="30">
+    <row r="825" spans="1:9" ht="28.8">
       <c r="A825" s="29" t="s">
         <v>823</v>
       </c>
@@ -29726,7 +29726,7 @@
       </c>
       <c r="I825" s="31"/>
     </row>
-    <row r="826" spans="1:9" ht="45">
+    <row r="826" spans="1:9" ht="43.2">
       <c r="A826" s="29" t="s">
         <v>824</v>
       </c>
@@ -29751,7 +29751,7 @@
       </c>
       <c r="I826" s="31"/>
     </row>
-    <row r="827" spans="1:9" ht="45">
+    <row r="827" spans="1:9" ht="28.8">
       <c r="A827" s="29" t="s">
         <v>825</v>
       </c>
@@ -29776,7 +29776,7 @@
       </c>
       <c r="I827" s="31"/>
     </row>
-    <row r="828" spans="1:9" ht="60">
+    <row r="828" spans="1:9" ht="57.6">
       <c r="A828" s="29" t="s">
         <v>826</v>
       </c>
@@ -29803,7 +29803,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="829" spans="1:9" ht="45">
+    <row r="829" spans="1:9" ht="43.2">
       <c r="A829" s="29" t="s">
         <v>827</v>
       </c>
@@ -29828,7 +29828,7 @@
       </c>
       <c r="I829" s="31"/>
     </row>
-    <row r="830" spans="1:9" ht="60">
+    <row r="830" spans="1:9" ht="43.2">
       <c r="A830" s="29" t="s">
         <v>828</v>
       </c>
@@ -29853,7 +29853,7 @@
       </c>
       <c r="I830" s="31"/>
     </row>
-    <row r="831" spans="1:9" ht="60">
+    <row r="831" spans="1:9" ht="43.2">
       <c r="A831" s="29" t="s">
         <v>829</v>
       </c>
@@ -29878,7 +29878,7 @@
       </c>
       <c r="I831" s="31"/>
     </row>
-    <row r="832" spans="1:9" ht="60">
+    <row r="832" spans="1:9" ht="57.6">
       <c r="A832" s="29" t="s">
         <v>830</v>
       </c>
@@ -29903,7 +29903,7 @@
       </c>
       <c r="I832" s="31"/>
     </row>
-    <row r="833" spans="1:9" ht="45">
+    <row r="833" spans="1:9" ht="43.2">
       <c r="A833" s="29" t="s">
         <v>831</v>
       </c>
@@ -29928,7 +29928,7 @@
       </c>
       <c r="I833" s="31"/>
     </row>
-    <row r="834" spans="1:9" ht="75">
+    <row r="834" spans="1:9" ht="72">
       <c r="A834" s="29" t="s">
         <v>832</v>
       </c>
@@ -29955,7 +29955,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="835" spans="1:9" ht="30">
+    <row r="835" spans="1:9" ht="28.8">
       <c r="A835" s="29" t="s">
         <v>833</v>
       </c>
@@ -29980,7 +29980,7 @@
       </c>
       <c r="I835" s="31"/>
     </row>
-    <row r="836" spans="1:9" ht="30">
+    <row r="836" spans="1:9" ht="28.8">
       <c r="A836" s="29" t="s">
         <v>834</v>
       </c>
@@ -30005,7 +30005,7 @@
       </c>
       <c r="I836" s="31"/>
     </row>
-    <row r="837" spans="1:9" ht="45">
+    <row r="837" spans="1:9" ht="43.2">
       <c r="A837" s="29" t="s">
         <v>835</v>
       </c>
@@ -30030,7 +30030,7 @@
       </c>
       <c r="I837" s="31"/>
     </row>
-    <row r="838" spans="1:9" ht="30">
+    <row r="838" spans="1:9" ht="28.8">
       <c r="A838" s="29" t="s">
         <v>836</v>
       </c>
@@ -30055,7 +30055,7 @@
       </c>
       <c r="I838" s="31"/>
     </row>
-    <row r="839" spans="1:9" ht="45">
+    <row r="839" spans="1:9" ht="43.2">
       <c r="A839" s="29" t="s">
         <v>837</v>
       </c>
@@ -30082,7 +30082,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="840" spans="1:9" ht="45">
+    <row r="840" spans="1:9" ht="43.2">
       <c r="A840" s="29" t="s">
         <v>838</v>
       </c>
@@ -30107,7 +30107,7 @@
       </c>
       <c r="I840" s="31"/>
     </row>
-    <row r="841" spans="1:9" ht="30">
+    <row r="841" spans="1:9" ht="28.8">
       <c r="A841" s="29" t="s">
         <v>839</v>
       </c>
@@ -30132,7 +30132,7 @@
       </c>
       <c r="I841" s="31"/>
     </row>
-    <row r="842" spans="1:9" ht="45">
+    <row r="842" spans="1:9" ht="28.8">
       <c r="A842" s="29" t="s">
         <v>840</v>
       </c>
@@ -30157,7 +30157,7 @@
       </c>
       <c r="I842" s="31"/>
     </row>
-    <row r="843" spans="1:9" ht="45">
+    <row r="843" spans="1:9" ht="28.8">
       <c r="A843" s="29" t="s">
         <v>841</v>
       </c>
@@ -30182,7 +30182,7 @@
       </c>
       <c r="I843" s="31"/>
     </row>
-    <row r="844" spans="1:9" ht="60">
+    <row r="844" spans="1:9" ht="57.6">
       <c r="A844" s="29" t="s">
         <v>842</v>
       </c>
@@ -30209,7 +30209,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="845" spans="1:9" ht="30">
+    <row r="845" spans="1:9" ht="28.8">
       <c r="A845" s="29" t="s">
         <v>843</v>
       </c>
@@ -30234,7 +30234,7 @@
       </c>
       <c r="I845" s="31"/>
     </row>
-    <row r="846" spans="1:9" ht="45">
+    <row r="846" spans="1:9" ht="43.2">
       <c r="A846" s="29" t="s">
         <v>844</v>
       </c>
@@ -30259,7 +30259,7 @@
       </c>
       <c r="I846" s="31"/>
     </row>
-    <row r="847" spans="1:9" ht="60">
+    <row r="847" spans="1:9" ht="43.2">
       <c r="A847" s="29" t="s">
         <v>845</v>
       </c>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="I847" s="31"/>
     </row>
-    <row r="848" spans="1:9" ht="60">
+    <row r="848" spans="1:9" ht="57.6">
       <c r="A848" s="29" t="s">
         <v>846</v>
       </c>
@@ -30309,7 +30309,7 @@
       </c>
       <c r="I848" s="31"/>
     </row>
-    <row r="849" spans="1:9" ht="45">
+    <row r="849" spans="1:9" ht="43.2">
       <c r="A849" s="29" t="s">
         <v>847</v>
       </c>
@@ -30334,7 +30334,7 @@
       </c>
       <c r="I849" s="31"/>
     </row>
-    <row r="850" spans="1:9" ht="75">
+    <row r="850" spans="1:9" ht="72">
       <c r="A850" s="29" t="s">
         <v>848</v>
       </c>
@@ -30361,7 +30361,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="851" spans="1:9" ht="30">
+    <row r="851" spans="1:9" ht="28.8">
       <c r="A851" s="29" t="s">
         <v>849</v>
       </c>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="I851" s="31"/>
     </row>
-    <row r="852" spans="1:9" ht="30">
+    <row r="852" spans="1:9" ht="28.8">
       <c r="A852" s="29" t="s">
         <v>850</v>
       </c>
@@ -30411,7 +30411,7 @@
       </c>
       <c r="I852" s="31"/>
     </row>
-    <row r="853" spans="1:9" ht="30">
+    <row r="853" spans="1:9" ht="28.8">
       <c r="A853" s="29" t="s">
         <v>851</v>
       </c>
@@ -30436,7 +30436,7 @@
       </c>
       <c r="I853" s="31"/>
     </row>
-    <row r="854" spans="1:9" ht="30">
+    <row r="854" spans="1:9" ht="28.8">
       <c r="A854" s="29" t="s">
         <v>852</v>
       </c>
@@ -30461,7 +30461,7 @@
       </c>
       <c r="I854" s="31"/>
     </row>
-    <row r="855" spans="1:9" ht="45">
+    <row r="855" spans="1:9" ht="43.2">
       <c r="A855" s="29" t="s">
         <v>853</v>
       </c>
@@ -30486,7 +30486,7 @@
       </c>
       <c r="I855" s="31"/>
     </row>
-    <row r="856" spans="1:9" ht="45">
+    <row r="856" spans="1:9" ht="43.2">
       <c r="A856" s="29" t="s">
         <v>854</v>
       </c>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="I856" s="31"/>
     </row>
-    <row r="857" spans="1:9" ht="30">
+    <row r="857" spans="1:9" ht="28.8">
       <c r="A857" s="29" t="s">
         <v>855</v>
       </c>
@@ -30536,7 +30536,7 @@
       </c>
       <c r="I857" s="31"/>
     </row>
-    <row r="858" spans="1:9" ht="45">
+    <row r="858" spans="1:9" ht="28.8">
       <c r="A858" s="29" t="s">
         <v>856</v>
       </c>
@@ -30561,7 +30561,7 @@
       </c>
       <c r="I858" s="31"/>
     </row>
-    <row r="859" spans="1:9" ht="45">
+    <row r="859" spans="1:9" ht="28.8">
       <c r="A859" s="29" t="s">
         <v>857</v>
       </c>
@@ -30586,7 +30586,7 @@
       </c>
       <c r="I859" s="31"/>
     </row>
-    <row r="860" spans="1:9" ht="30">
+    <row r="860" spans="1:9" ht="28.8">
       <c r="A860" s="29" t="s">
         <v>858</v>
       </c>
@@ -30611,7 +30611,7 @@
       </c>
       <c r="I860" s="31"/>
     </row>
-    <row r="861" spans="1:9" ht="60">
+    <row r="861" spans="1:9" ht="57.6">
       <c r="A861" s="29" t="s">
         <v>859</v>
       </c>
@@ -30636,7 +30636,7 @@
       </c>
       <c r="I861" s="31"/>
     </row>
-    <row r="862" spans="1:9" ht="60">
+    <row r="862" spans="1:9" ht="57.6">
       <c r="A862" s="29" t="s">
         <v>860</v>
       </c>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="I862" s="31"/>
     </row>
-    <row r="863" spans="1:9" ht="30">
+    <row r="863" spans="1:9" ht="28.8">
       <c r="A863" s="29" t="s">
         <v>861</v>
       </c>
@@ -30686,7 +30686,7 @@
       </c>
       <c r="I863" s="31"/>
     </row>
-    <row r="864" spans="1:9" ht="45">
+    <row r="864" spans="1:9" ht="43.2">
       <c r="A864" s="29" t="s">
         <v>862</v>
       </c>
@@ -30711,7 +30711,7 @@
       </c>
       <c r="I864" s="31"/>
     </row>
-    <row r="865" spans="1:9" ht="60">
+    <row r="865" spans="1:9" ht="43.2">
       <c r="A865" s="29" t="s">
         <v>863</v>
       </c>
@@ -30736,7 +30736,7 @@
       </c>
       <c r="I865" s="31"/>
     </row>
-    <row r="866" spans="1:9" ht="60">
+    <row r="866" spans="1:9" ht="43.2">
       <c r="A866" s="29" t="s">
         <v>864</v>
       </c>
@@ -30761,7 +30761,7 @@
       </c>
       <c r="I866" s="31"/>
     </row>
-    <row r="867" spans="1:9" ht="45">
+    <row r="867" spans="1:9" ht="28.8">
       <c r="A867" s="29" t="s">
         <v>865</v>
       </c>
@@ -30786,7 +30786,7 @@
       </c>
       <c r="I867" s="31"/>
     </row>
-    <row r="868" spans="1:9" ht="75">
+    <row r="868" spans="1:9" ht="72">
       <c r="A868" s="29" t="s">
         <v>866</v>
       </c>
@@ -30813,7 +30813,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="869" spans="1:9" ht="30">
+    <row r="869" spans="1:9" ht="28.8">
       <c r="A869" s="29" t="s">
         <v>867</v>
       </c>
@@ -30838,7 +30838,7 @@
       </c>
       <c r="I869" s="31"/>
     </row>
-    <row r="870" spans="1:9" ht="30">
+    <row r="870" spans="1:9" ht="28.8">
       <c r="A870" s="29" t="s">
         <v>868</v>
       </c>
@@ -30863,7 +30863,7 @@
       </c>
       <c r="I870" s="31"/>
     </row>
-    <row r="871" spans="1:9" ht="30">
+    <row r="871" spans="1:9" ht="28.8">
       <c r="A871" s="29" t="s">
         <v>869</v>
       </c>
@@ -30888,7 +30888,7 @@
       </c>
       <c r="I871" s="31"/>
     </row>
-    <row r="872" spans="1:9" ht="30">
+    <row r="872" spans="1:9" ht="28.8">
       <c r="A872" s="29" t="s">
         <v>870</v>
       </c>
@@ -30913,7 +30913,7 @@
       </c>
       <c r="I872" s="31"/>
     </row>
-    <row r="873" spans="1:9" ht="45">
+    <row r="873" spans="1:9" ht="43.2">
       <c r="A873" s="29" t="s">
         <v>871</v>
       </c>
@@ -30938,7 +30938,7 @@
       </c>
       <c r="I873" s="31"/>
     </row>
-    <row r="874" spans="1:9" ht="45">
+    <row r="874" spans="1:9" ht="43.2">
       <c r="A874" s="29" t="s">
         <v>872</v>
       </c>
@@ -30963,7 +30963,7 @@
       </c>
       <c r="I874" s="31"/>
     </row>
-    <row r="875" spans="1:9" ht="30">
+    <row r="875" spans="1:9" ht="28.8">
       <c r="A875" s="29" t="s">
         <v>873</v>
       </c>
@@ -30988,7 +30988,7 @@
       </c>
       <c r="I875" s="31"/>
     </row>
-    <row r="876" spans="1:9" ht="45">
+    <row r="876" spans="1:9" ht="28.8">
       <c r="A876" s="29" t="s">
         <v>874</v>
       </c>
@@ -31013,7 +31013,7 @@
       </c>
       <c r="I876" s="31"/>
     </row>
-    <row r="877" spans="1:9" ht="45">
+    <row r="877" spans="1:9" ht="28.8">
       <c r="A877" s="29" t="s">
         <v>875</v>
       </c>
@@ -31038,7 +31038,7 @@
       </c>
       <c r="I877" s="31"/>
     </row>
-    <row r="878" spans="1:9" ht="45">
+    <row r="878" spans="1:9" ht="28.8">
       <c r="A878" s="29" t="s">
         <v>876</v>
       </c>
@@ -31065,7 +31065,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="879" spans="1:9" ht="60">
+    <row r="879" spans="1:9" ht="43.2">
       <c r="A879" s="29" t="s">
         <v>877</v>
       </c>
@@ -31092,7 +31092,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="880" spans="1:9" ht="60">
+    <row r="880" spans="1:9" ht="57.6">
       <c r="A880" s="29" t="s">
         <v>878</v>
       </c>
@@ -31117,7 +31117,7 @@
       </c>
       <c r="I880" s="31"/>
     </row>
-    <row r="881" spans="1:9" ht="30">
+    <row r="881" spans="1:9" ht="28.8">
       <c r="A881" s="29" t="s">
         <v>879</v>
       </c>
@@ -31142,7 +31142,7 @@
       </c>
       <c r="I881" s="31"/>
     </row>
-    <row r="882" spans="1:9" ht="30">
+    <row r="882" spans="1:9" ht="28.8">
       <c r="A882" s="29" t="s">
         <v>880</v>
       </c>
@@ -31167,7 +31167,7 @@
       </c>
       <c r="I882" s="31"/>
     </row>
-    <row r="883" spans="1:9" ht="45">
+    <row r="883" spans="1:9" ht="43.2">
       <c r="A883" s="29" t="s">
         <v>881</v>
       </c>
@@ -31192,7 +31192,7 @@
       </c>
       <c r="I883" s="31"/>
     </row>
-    <row r="884" spans="1:9" ht="60">
+    <row r="884" spans="1:9" ht="43.2">
       <c r="A884" s="29" t="s">
         <v>882</v>
       </c>
@@ -31217,7 +31217,7 @@
       </c>
       <c r="I884" s="31"/>
     </row>
-    <row r="885" spans="1:9" ht="60">
+    <row r="885" spans="1:9" ht="57.6">
       <c r="A885" s="29" t="s">
         <v>883</v>
       </c>
@@ -31242,7 +31242,7 @@
       </c>
       <c r="I885" s="31"/>
     </row>
-    <row r="886" spans="1:9" ht="45">
+    <row r="886" spans="1:9" ht="43.2">
       <c r="A886" s="29" t="s">
         <v>884</v>
       </c>
@@ -31267,7 +31267,7 @@
       </c>
       <c r="I886" s="31"/>
     </row>
-    <row r="887" spans="1:9" ht="60">
+    <row r="887" spans="1:9" ht="43.2">
       <c r="A887" s="22" t="s">
         <v>885</v>
       </c>
@@ -31294,7 +31294,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="888" spans="1:9" ht="60">
+    <row r="888" spans="1:9" ht="43.2">
       <c r="A888" s="29" t="s">
         <v>886</v>
       </c>
@@ -31321,7 +31321,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="889" spans="1:9" ht="45">
+    <row r="889" spans="1:9" ht="43.2">
       <c r="A889" s="29" t="s">
         <v>887</v>
       </c>
@@ -31348,7 +31348,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="890" spans="1:9" ht="30">
+    <row r="890" spans="1:9" ht="28.8">
       <c r="A890" s="29" t="s">
         <v>888</v>
       </c>
@@ -31373,7 +31373,7 @@
       </c>
       <c r="I890" s="31"/>
     </row>
-    <row r="891" spans="1:9" ht="30">
+    <row r="891" spans="1:9" ht="28.8">
       <c r="A891" s="29" t="s">
         <v>889</v>
       </c>
@@ -31398,7 +31398,7 @@
       </c>
       <c r="I891" s="31"/>
     </row>
-    <row r="892" spans="1:9" ht="45">
+    <row r="892" spans="1:9" ht="43.2">
       <c r="A892" s="29" t="s">
         <v>890</v>
       </c>
@@ -31423,7 +31423,7 @@
       </c>
       <c r="I892" s="31"/>
     </row>
-    <row r="893" spans="1:9" ht="45">
+    <row r="893" spans="1:9" ht="43.2">
       <c r="A893" s="29" t="s">
         <v>891</v>
       </c>
@@ -31448,7 +31448,7 @@
       </c>
       <c r="I893" s="31"/>
     </row>
-    <row r="894" spans="1:9" ht="60">
+    <row r="894" spans="1:9" ht="43.2">
       <c r="A894" s="29" t="s">
         <v>892</v>
       </c>
@@ -31473,7 +31473,7 @@
       </c>
       <c r="I894" s="31"/>
     </row>
-    <row r="895" spans="1:9" ht="45">
+    <row r="895" spans="1:9" ht="43.2">
       <c r="A895" s="29" t="s">
         <v>893</v>
       </c>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="I895" s="31"/>
     </row>
-    <row r="896" spans="1:9" ht="45">
+    <row r="896" spans="1:9" ht="43.2">
       <c r="A896" s="29" t="s">
         <v>894</v>
       </c>
@@ -31523,7 +31523,7 @@
       </c>
       <c r="I896" s="31"/>
     </row>
-    <row r="897" spans="1:9" ht="45">
+    <row r="897" spans="1:9" ht="43.2">
       <c r="A897" s="29" t="s">
         <v>895</v>
       </c>
@@ -31548,7 +31548,7 @@
       </c>
       <c r="I897" s="31"/>
     </row>
-    <row r="898" spans="1:9" ht="60">
+    <row r="898" spans="1:9" ht="57.6">
       <c r="A898" s="29" t="s">
         <v>896</v>
       </c>
@@ -31573,7 +31573,7 @@
       </c>
       <c r="I898" s="31"/>
     </row>
-    <row r="899" spans="1:9" ht="45">
+    <row r="899" spans="1:9" ht="43.2">
       <c r="A899" s="29" t="s">
         <v>897</v>
       </c>
@@ -31600,7 +31600,7 @@
       </c>
       <c r="I899" s="31"/>
     </row>
-    <row r="900" spans="1:9" ht="75">
+    <row r="900" spans="1:9" ht="57.6">
       <c r="A900" s="29" t="s">
         <v>898</v>
       </c>
@@ -31627,7 +31627,7 @@
       </c>
       <c r="I900" s="31"/>
     </row>
-    <row r="901" spans="1:9" ht="75">
+    <row r="901" spans="1:9" ht="72">
       <c r="A901" s="29" t="s">
         <v>899</v>
       </c>
@@ -31654,7 +31654,7 @@
       </c>
       <c r="I901" s="31"/>
     </row>
-    <row r="902" spans="1:9" ht="45">
+    <row r="902" spans="1:9" ht="43.2">
       <c r="A902" s="29" t="s">
         <v>900</v>
       </c>
@@ -31681,7 +31681,7 @@
       </c>
       <c r="I902" s="31"/>
     </row>
-    <row r="903" spans="1:9" ht="45">
+    <row r="903" spans="1:9" ht="43.2">
       <c r="A903" s="29" t="s">
         <v>901</v>
       </c>
@@ -31706,7 +31706,7 @@
       </c>
       <c r="I903" s="31"/>
     </row>
-    <row r="904" spans="1:9" ht="60">
+    <row r="904" spans="1:9" ht="57.6">
       <c r="A904" s="29" t="s">
         <v>902</v>
       </c>
@@ -31731,7 +31731,7 @@
       </c>
       <c r="I904" s="31"/>
     </row>
-    <row r="905" spans="1:9" ht="60">
+    <row r="905" spans="1:9" ht="57.6">
       <c r="A905" s="29" t="s">
         <v>903</v>
       </c>
@@ -31756,7 +31756,7 @@
       </c>
       <c r="I905" s="31"/>
     </row>
-    <row r="906" spans="1:9" ht="75">
+    <row r="906" spans="1:9" ht="72">
       <c r="A906" s="29" t="s">
         <v>904</v>
       </c>
@@ -31781,7 +31781,7 @@
       </c>
       <c r="I906" s="31"/>
     </row>
-    <row r="907" spans="1:9" ht="45">
+    <row r="907" spans="1:9" ht="43.2">
       <c r="A907" s="29" t="s">
         <v>905</v>
       </c>
@@ -31806,7 +31806,7 @@
       </c>
       <c r="I907" s="31"/>
     </row>
-    <row r="908" spans="1:9" ht="45">
+    <row r="908" spans="1:9" ht="43.2">
       <c r="A908" s="29" t="s">
         <v>906</v>
       </c>
@@ -31833,7 +31833,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="909" spans="1:9" ht="30">
+    <row r="909" spans="1:9" ht="28.8">
       <c r="A909" s="29" t="s">
         <v>907</v>
       </c>
@@ -31858,7 +31858,7 @@
       </c>
       <c r="I909" s="31"/>
     </row>
-    <row r="910" spans="1:9" ht="30">
+    <row r="910" spans="1:9" ht="28.8">
       <c r="A910" s="29" t="s">
         <v>908</v>
       </c>
@@ -31883,7 +31883,7 @@
       </c>
       <c r="I910" s="31"/>
     </row>
-    <row r="911" spans="1:9" ht="60">
+    <row r="911" spans="1:9" ht="57.6">
       <c r="A911" s="29" t="s">
         <v>909</v>
       </c>
@@ -31908,7 +31908,7 @@
       </c>
       <c r="I911" s="31"/>
     </row>
-    <row r="912" spans="1:9" ht="45">
+    <row r="912" spans="1:9" ht="43.2">
       <c r="A912" s="29" t="s">
         <v>910</v>
       </c>
@@ -31933,7 +31933,7 @@
       </c>
       <c r="I912" s="31"/>
     </row>
-    <row r="913" spans="1:9" ht="30">
+    <row r="913" spans="1:9" ht="28.8">
       <c r="A913" s="29" t="s">
         <v>911</v>
       </c>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="I913" s="31"/>
     </row>
-    <row r="914" spans="1:9" ht="45">
+    <row r="914" spans="1:9" ht="28.8">
       <c r="A914" s="29" t="s">
         <v>912</v>
       </c>
@@ -31983,7 +31983,7 @@
       </c>
       <c r="I914" s="31"/>
     </row>
-    <row r="915" spans="1:9" ht="45">
+    <row r="915" spans="1:9" ht="28.8">
       <c r="A915" s="29" t="s">
         <v>913</v>
       </c>
@@ -32008,7 +32008,7 @@
       </c>
       <c r="I915" s="31"/>
     </row>
-    <row r="916" spans="1:9" ht="30">
+    <row r="916" spans="1:9" ht="28.8">
       <c r="A916" s="29" t="s">
         <v>914</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="917" spans="1:9" ht="60">
+    <row r="917" spans="1:9" ht="43.2">
       <c r="A917" s="29" t="s">
         <v>915</v>
       </c>
@@ -32060,7 +32060,7 @@
       </c>
       <c r="I917" s="31"/>
     </row>
-    <row r="918" spans="1:9" ht="75">
+    <row r="918" spans="1:9" ht="57.6">
       <c r="A918" s="29" t="s">
         <v>916</v>
       </c>
@@ -32085,7 +32085,7 @@
       </c>
       <c r="I918" s="31"/>
     </row>
-    <row r="919" spans="1:9" ht="30">
+    <row r="919" spans="1:9" ht="28.8">
       <c r="A919" s="29" t="s">
         <v>917</v>
       </c>
@@ -32110,7 +32110,7 @@
       </c>
       <c r="I919" s="31"/>
     </row>
-    <row r="920" spans="1:9" ht="30">
+    <row r="920" spans="1:9" ht="28.8">
       <c r="A920" s="29" t="s">
         <v>918</v>
       </c>
@@ -32135,7 +32135,7 @@
       </c>
       <c r="I920" s="31"/>
     </row>
-    <row r="921" spans="1:9" ht="45">
+    <row r="921" spans="1:9" ht="43.2">
       <c r="A921" s="29" t="s">
         <v>919</v>
       </c>
@@ -32160,7 +32160,7 @@
       </c>
       <c r="I921" s="31"/>
     </row>
-    <row r="922" spans="1:9" ht="60">
+    <row r="922" spans="1:9" ht="43.2">
       <c r="A922" s="29" t="s">
         <v>920</v>
       </c>
@@ -32185,7 +32185,7 @@
       </c>
       <c r="I922" s="31"/>
     </row>
-    <row r="923" spans="1:9" ht="60">
+    <row r="923" spans="1:9" ht="57.6">
       <c r="A923" s="29" t="s">
         <v>921</v>
       </c>
@@ -32210,7 +32210,7 @@
       </c>
       <c r="I923" s="31"/>
     </row>
-    <row r="924" spans="1:9" ht="45">
+    <row r="924" spans="1:9" ht="43.2">
       <c r="A924" s="29" t="s">
         <v>922</v>
       </c>
@@ -32235,7 +32235,7 @@
       </c>
       <c r="I924" s="31"/>
     </row>
-    <row r="925" spans="1:9" ht="45">
+    <row r="925" spans="1:9" ht="43.2">
       <c r="A925" s="29" t="s">
         <v>923</v>
       </c>
@@ -32262,7 +32262,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="926" spans="1:9" ht="30">
+    <row r="926" spans="1:9" ht="28.8">
       <c r="A926" s="29" t="s">
         <v>924</v>
       </c>
@@ -32287,7 +32287,7 @@
       </c>
       <c r="I926" s="31"/>
     </row>
-    <row r="927" spans="1:9" ht="30">
+    <row r="927" spans="1:9" ht="28.8">
       <c r="A927" s="29" t="s">
         <v>925</v>
       </c>
@@ -32312,7 +32312,7 @@
       </c>
       <c r="I927" s="31"/>
     </row>
-    <row r="928" spans="1:9" ht="45">
+    <row r="928" spans="1:9" ht="43.2">
       <c r="A928" s="29" t="s">
         <v>926</v>
       </c>
@@ -32337,7 +32337,7 @@
       </c>
       <c r="I928" s="31"/>
     </row>
-    <row r="929" spans="1:9" ht="45">
+    <row r="929" spans="1:9" ht="43.2">
       <c r="A929" s="29" t="s">
         <v>927</v>
       </c>
@@ -32362,7 +32362,7 @@
       </c>
       <c r="I929" s="31"/>
     </row>
-    <row r="930" spans="1:9" ht="30">
+    <row r="930" spans="1:9" ht="28.8">
       <c r="A930" s="29" t="s">
         <v>928</v>
       </c>
@@ -32387,7 +32387,7 @@
       </c>
       <c r="I930" s="31"/>
     </row>
-    <row r="931" spans="1:9" ht="45">
+    <row r="931" spans="1:9" ht="43.2">
       <c r="A931" s="29" t="s">
         <v>929</v>
       </c>
@@ -32412,7 +32412,7 @@
       </c>
       <c r="I931" s="31"/>
     </row>
-    <row r="932" spans="1:9" ht="45">
+    <row r="932" spans="1:9" ht="28.8">
       <c r="A932" s="29" t="s">
         <v>930</v>
       </c>
@@ -32437,7 +32437,7 @@
       </c>
       <c r="I932" s="31"/>
     </row>
-    <row r="933" spans="1:9" ht="60">
+    <row r="933" spans="1:9" ht="43.2">
       <c r="A933" s="29" t="s">
         <v>931</v>
       </c>
@@ -32462,7 +32462,7 @@
       </c>
       <c r="I933" s="31"/>
     </row>
-    <row r="934" spans="1:9" ht="60">
+    <row r="934" spans="1:9" ht="57.6">
       <c r="A934" s="29" t="s">
         <v>932</v>
       </c>
@@ -32489,7 +32489,7 @@
       </c>
       <c r="I934" s="31"/>
     </row>
-    <row r="935" spans="1:9" ht="75">
+    <row r="935" spans="1:9" ht="72">
       <c r="A935" s="29" t="s">
         <v>933</v>
       </c>
@@ -32514,7 +32514,7 @@
       </c>
       <c r="I935" s="31"/>
     </row>
-    <row r="936" spans="1:9" ht="45">
+    <row r="936" spans="1:9" ht="28.8">
       <c r="A936" s="29" t="s">
         <v>934</v>
       </c>
@@ -32539,7 +32539,7 @@
       </c>
       <c r="I936" s="31"/>
     </row>
-    <row r="937" spans="1:9" ht="60">
+    <row r="937" spans="1:9" ht="43.2">
       <c r="A937" s="29" t="s">
         <v>935</v>
       </c>
@@ -32564,7 +32564,7 @@
       </c>
       <c r="I937" s="31"/>
     </row>
-    <row r="938" spans="1:9" ht="60">
+    <row r="938" spans="1:9" ht="43.2">
       <c r="A938" s="29" t="s">
         <v>936</v>
       </c>
@@ -32589,7 +32589,7 @@
       </c>
       <c r="I938" s="31"/>
     </row>
-    <row r="939" spans="1:9" ht="60">
+    <row r="939" spans="1:9" ht="43.2">
       <c r="A939" s="29" t="s">
         <v>937</v>
       </c>
@@ -32614,7 +32614,7 @@
       </c>
       <c r="I939" s="31"/>
     </row>
-    <row r="940" spans="1:9" ht="45">
+    <row r="940" spans="1:9" ht="43.2">
       <c r="A940" s="29" t="s">
         <v>938</v>
       </c>
@@ -32639,7 +32639,7 @@
       </c>
       <c r="I940" s="31"/>
     </row>
-    <row r="941" spans="1:9" ht="45">
+    <row r="941" spans="1:9" ht="43.2">
       <c r="A941" s="29" t="s">
         <v>939</v>
       </c>
@@ -32666,7 +32666,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="942" spans="1:9" ht="30">
+    <row r="942" spans="1:9" ht="28.8">
       <c r="A942" s="29" t="s">
         <v>940</v>
       </c>
@@ -32691,7 +32691,7 @@
       </c>
       <c r="I942" s="31"/>
     </row>
-    <row r="943" spans="1:9" ht="30">
+    <row r="943" spans="1:9" ht="28.8">
       <c r="A943" s="29" t="s">
         <v>941</v>
       </c>
@@ -32716,7 +32716,7 @@
       </c>
       <c r="I943" s="31"/>
     </row>
-    <row r="944" spans="1:9" ht="45">
+    <row r="944" spans="1:9" ht="43.2">
       <c r="A944" s="29" t="s">
         <v>942</v>
       </c>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="I944" s="31"/>
     </row>
-    <row r="945" spans="1:9" ht="45">
+    <row r="945" spans="1:9" ht="43.2">
       <c r="A945" s="29" t="s">
         <v>943</v>
       </c>
@@ -32766,7 +32766,7 @@
       </c>
       <c r="I945" s="31"/>
     </row>
-    <row r="946" spans="1:9" ht="30">
+    <row r="946" spans="1:9" ht="28.8">
       <c r="A946" s="29" t="s">
         <v>944</v>
       </c>
@@ -32791,7 +32791,7 @@
       </c>
       <c r="I946" s="31"/>
     </row>
-    <row r="947" spans="1:9" ht="45">
+    <row r="947" spans="1:9" ht="28.8">
       <c r="A947" s="29" t="s">
         <v>945</v>
       </c>
@@ -32816,7 +32816,7 @@
       </c>
       <c r="I947" s="31"/>
     </row>
-    <row r="948" spans="1:9" ht="45">
+    <row r="948" spans="1:9" ht="28.8">
       <c r="A948" s="29" t="s">
         <v>946</v>
       </c>
@@ -32841,7 +32841,7 @@
       </c>
       <c r="I948" s="31"/>
     </row>
-    <row r="949" spans="1:9" ht="30">
+    <row r="949" spans="1:9" ht="28.8">
       <c r="A949" s="29" t="s">
         <v>947</v>
       </c>
@@ -32866,7 +32866,7 @@
       </c>
       <c r="I949" s="31"/>
     </row>
-    <row r="950" spans="1:9" ht="30">
+    <row r="950" spans="1:9" ht="28.8">
       <c r="A950" s="29" t="s">
         <v>948</v>
       </c>
@@ -32891,7 +32891,7 @@
       </c>
       <c r="I950" s="31"/>
     </row>
-    <row r="951" spans="1:9" ht="45">
+    <row r="951" spans="1:9" ht="43.2">
       <c r="A951" s="29" t="s">
         <v>949</v>
       </c>
@@ -32916,7 +32916,7 @@
       </c>
       <c r="I951" s="31"/>
     </row>
-    <row r="952" spans="1:9" ht="60">
+    <row r="952" spans="1:9" ht="57.6">
       <c r="A952" s="29" t="s">
         <v>950</v>
       </c>
@@ -32941,7 +32941,7 @@
       </c>
       <c r="I952" s="31"/>
     </row>
-    <row r="953" spans="1:9" ht="60">
+    <row r="953" spans="1:9" ht="43.2">
       <c r="A953" s="29" t="s">
         <v>951</v>
       </c>
@@ -32966,7 +32966,7 @@
       </c>
       <c r="I953" s="31"/>
     </row>
-    <row r="954" spans="1:9" ht="60">
+    <row r="954" spans="1:9" ht="57.6">
       <c r="A954" s="29" t="s">
         <v>952</v>
       </c>
@@ -32991,7 +32991,7 @@
       </c>
       <c r="I954" s="31"/>
     </row>
-    <row r="955" spans="1:9" ht="60">
+    <row r="955" spans="1:9" ht="43.2">
       <c r="A955" s="29" t="s">
         <v>953</v>
       </c>
@@ -33018,7 +33018,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="956" spans="1:9" ht="45">
+    <row r="956" spans="1:9" ht="43.2">
       <c r="A956" s="29" t="s">
         <v>954</v>
       </c>
@@ -33045,7 +33045,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="957" spans="1:9" ht="30">
+    <row r="957" spans="1:9" ht="28.8">
       <c r="A957" s="29" t="s">
         <v>955</v>
       </c>
@@ -33070,7 +33070,7 @@
       </c>
       <c r="I957" s="31"/>
     </row>
-    <row r="958" spans="1:9" ht="30">
+    <row r="958" spans="1:9" ht="28.8">
       <c r="A958" s="29" t="s">
         <v>956</v>
       </c>
@@ -33095,7 +33095,7 @@
       </c>
       <c r="I958" s="31"/>
     </row>
-    <row r="959" spans="1:9" ht="45">
+    <row r="959" spans="1:9" ht="43.2">
       <c r="A959" s="29" t="s">
         <v>957</v>
       </c>
@@ -33120,7 +33120,7 @@
       </c>
       <c r="I959" s="31"/>
     </row>
-    <row r="960" spans="1:9" ht="45">
+    <row r="960" spans="1:9" ht="43.2">
       <c r="A960" s="29" t="s">
         <v>958</v>
       </c>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="I960" s="31"/>
     </row>
-    <row r="961" spans="1:9" ht="30">
+    <row r="961" spans="1:9" ht="28.8">
       <c r="A961" s="29" t="s">
         <v>959</v>
       </c>
@@ -33170,7 +33170,7 @@
       </c>
       <c r="I961" s="31"/>
     </row>
-    <row r="962" spans="1:9" ht="45">
+    <row r="962" spans="1:9" ht="28.8">
       <c r="A962" s="29" t="s">
         <v>960</v>
       </c>
@@ -33195,7 +33195,7 @@
       </c>
       <c r="I962" s="31"/>
     </row>
-    <row r="963" spans="1:9" ht="45">
+    <row r="963" spans="1:9" ht="28.8">
       <c r="A963" s="29" t="s">
         <v>961</v>
       </c>
@@ -33220,7 +33220,7 @@
       </c>
       <c r="I963" s="31"/>
     </row>
-    <row r="964" spans="1:9" ht="30">
+    <row r="964" spans="1:9" ht="28.8">
       <c r="A964" s="29" t="s">
         <v>962</v>
       </c>
@@ -33245,7 +33245,7 @@
       </c>
       <c r="I964" s="31"/>
     </row>
-    <row r="965" spans="1:9" ht="30">
+    <row r="965" spans="1:9" ht="28.8">
       <c r="A965" s="29" t="s">
         <v>963</v>
       </c>
@@ -33270,7 +33270,7 @@
       </c>
       <c r="I965" s="31"/>
     </row>
-    <row r="966" spans="1:9" ht="60">
+    <row r="966" spans="1:9" ht="43.2">
       <c r="A966" s="29" t="s">
         <v>964</v>
       </c>
@@ -33295,7 +33295,7 @@
       </c>
       <c r="I966" s="31"/>
     </row>
-    <row r="967" spans="1:9" ht="45">
+    <row r="967" spans="1:9" ht="43.2">
       <c r="A967" s="29" t="s">
         <v>965</v>
       </c>
@@ -33320,7 +33320,7 @@
       </c>
       <c r="I967" s="31"/>
     </row>
-    <row r="968" spans="1:9" ht="60">
+    <row r="968" spans="1:9" ht="57.6">
       <c r="A968" s="29" t="s">
         <v>966</v>
       </c>
@@ -33345,7 +33345,7 @@
       </c>
       <c r="I968" s="31"/>
     </row>
-    <row r="969" spans="1:9" ht="60">
+    <row r="969" spans="1:9" ht="57.6">
       <c r="A969" s="29" t="s">
         <v>967</v>
       </c>
@@ -33370,7 +33370,7 @@
       </c>
       <c r="I969" s="20"/>
     </row>
-    <row r="970" spans="1:9" ht="60">
+    <row r="970" spans="1:9" ht="43.2">
       <c r="A970" s="29" t="s">
         <v>968</v>
       </c>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="I970" s="31"/>
     </row>
-    <row r="971" spans="1:9" ht="60">
+    <row r="971" spans="1:9" ht="57.6">
       <c r="A971" s="29" t="s">
         <v>969</v>
       </c>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="I971" s="31"/>
     </row>
-    <row r="972" spans="1:9" ht="60">
+    <row r="972" spans="1:9" ht="43.2">
       <c r="A972" s="29" t="s">
         <v>970</v>
       </c>
@@ -33447,7 +33447,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="973" spans="1:9" ht="75">
+    <row r="973" spans="1:9" ht="72">
       <c r="A973" s="29" t="s">
         <v>971</v>
       </c>
@@ -33474,7 +33474,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="974" spans="1:9" ht="30">
+    <row r="974" spans="1:9" ht="28.8">
       <c r="A974" s="29" t="s">
         <v>972</v>
       </c>
@@ -33499,7 +33499,7 @@
       </c>
       <c r="I974" s="31"/>
     </row>
-    <row r="975" spans="1:9" ht="30">
+    <row r="975" spans="1:9" ht="28.8">
       <c r="A975" s="29" t="s">
         <v>973</v>
       </c>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="I975" s="31"/>
     </row>
-    <row r="976" spans="1:9" ht="45">
+    <row r="976" spans="1:9" ht="43.2">
       <c r="A976" s="29" t="s">
         <v>974</v>
       </c>
@@ -33549,7 +33549,7 @@
       </c>
       <c r="I976" s="31"/>
     </row>
-    <row r="977" spans="1:9" ht="30">
+    <row r="977" spans="1:9" ht="28.8">
       <c r="A977" s="29" t="s">
         <v>975</v>
       </c>
@@ -33574,7 +33574,7 @@
       </c>
       <c r="I977" s="31"/>
     </row>
-    <row r="978" spans="1:9" ht="45">
+    <row r="978" spans="1:9" ht="28.8">
       <c r="A978" s="29" t="s">
         <v>976</v>
       </c>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="I978" s="31"/>
     </row>
-    <row r="979" spans="1:9" ht="60">
+    <row r="979" spans="1:9" ht="57.6">
       <c r="A979" s="29" t="s">
         <v>977</v>
       </c>
@@ -33624,7 +33624,7 @@
       </c>
       <c r="I979" s="31"/>
     </row>
-    <row r="980" spans="1:9" ht="30">
+    <row r="980" spans="1:9" ht="28.8">
       <c r="A980" s="22" t="s">
         <v>978</v>
       </c>
@@ -33649,7 +33649,7 @@
       </c>
       <c r="I980" s="31"/>
     </row>
-    <row r="981" spans="1:9" ht="60">
+    <row r="981" spans="1:9" ht="43.2">
       <c r="A981" s="29" t="s">
         <v>979</v>
       </c>
@@ -33678,7 +33678,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="982" spans="1:9" ht="75">
+    <row r="982" spans="1:9" ht="72">
       <c r="A982" s="29" t="s">
         <v>980</v>
       </c>
@@ -33707,7 +33707,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="983" spans="1:9" ht="60">
+    <row r="983" spans="1:9" ht="43.2">
       <c r="A983" s="29" t="s">
         <v>981</v>
       </c>
@@ -33734,7 +33734,7 @@
       </c>
       <c r="I983" s="31"/>
     </row>
-    <row r="984" spans="1:9" ht="75">
+    <row r="984" spans="1:9" ht="57.6">
       <c r="A984" s="29" t="s">
         <v>982</v>
       </c>
@@ -33763,7 +33763,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="985" spans="1:9" ht="45">
+    <row r="985" spans="1:9" ht="43.2">
       <c r="A985" s="29" t="s">
         <v>983</v>
       </c>
@@ -33792,7 +33792,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="986" spans="1:9" ht="75">
+    <row r="986" spans="1:9" ht="57.6">
       <c r="A986" s="29" t="s">
         <v>984</v>
       </c>
@@ -33821,7 +33821,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="987" spans="1:9" ht="45">
+    <row r="987" spans="1:9" ht="43.2">
       <c r="A987" s="29" t="s">
         <v>985</v>
       </c>
@@ -33850,7 +33850,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="988" spans="1:9" ht="90">
+    <row r="988" spans="1:9" ht="72">
       <c r="A988" s="29" t="s">
         <v>986</v>
       </c>
@@ -33879,7 +33879,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="989" spans="1:9" ht="60">
+    <row r="989" spans="1:9" ht="57.6">
       <c r="A989" s="29" t="s">
         <v>987</v>
       </c>
@@ -33906,7 +33906,7 @@
       </c>
       <c r="I989" s="31"/>
     </row>
-    <row r="990" spans="1:9" ht="60">
+    <row r="990" spans="1:9" ht="43.2">
       <c r="A990" s="37" t="s">
         <v>2325</v>
       </c>
@@ -33935,7 +33935,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="991" spans="1:9" ht="75">
+    <row r="991" spans="1:9" ht="72">
       <c r="A991" s="22" t="s">
         <v>988</v>
       </c>
@@ -33962,7 +33962,7 @@
       </c>
       <c r="I991" s="31"/>
     </row>
-    <row r="992" spans="1:9" ht="60">
+    <row r="992" spans="1:9" ht="57.6">
       <c r="A992" s="22" t="s">
         <v>989</v>
       </c>
@@ -33991,7 +33991,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="993" spans="1:9" ht="75">
+    <row r="993" spans="1:9" ht="72">
       <c r="A993" s="22" t="s">
         <v>990</v>
       </c>
@@ -34020,7 +34020,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="994" spans="1:9" ht="60">
+    <row r="994" spans="1:9" ht="57.6">
       <c r="A994" s="22" t="s">
         <v>2318</v>
       </c>
@@ -34047,7 +34047,7 @@
       </c>
       <c r="I994" s="31"/>
     </row>
-    <row r="995" spans="1:9" ht="45">
+    <row r="995" spans="1:9" ht="43.2">
       <c r="A995" s="22" t="s">
         <v>2319</v>
       </c>
@@ -34076,7 +34076,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="996" spans="1:9" ht="45">
+    <row r="996" spans="1:9" ht="43.2">
       <c r="A996" s="22" t="s">
         <v>2308</v>
       </c>
@@ -34105,7 +34105,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="997" spans="1:9" ht="75">
+    <row r="997" spans="1:9" ht="72">
       <c r="A997" s="29" t="s">
         <v>991</v>
       </c>
@@ -34132,7 +34132,7 @@
       </c>
       <c r="I997" s="31"/>
     </row>
-    <row r="998" spans="1:9" ht="60">
+    <row r="998" spans="1:9" ht="57.6">
       <c r="A998" s="29" t="s">
         <v>992</v>
       </c>
@@ -34161,7 +34161,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="999" spans="1:9" ht="90">
+    <row r="999" spans="1:9" ht="72">
       <c r="A999" s="29" t="s">
         <v>993</v>
       </c>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="I999" s="31"/>
     </row>
-    <row r="1000" spans="1:9" ht="60">
+    <row r="1000" spans="1:9" ht="57.6">
       <c r="A1000" s="29" t="s">
         <v>994</v>
       </c>
@@ -34217,7 +34217,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" ht="60">
+    <row r="1001" spans="1:9" ht="43.2">
       <c r="A1001" s="34" t="s">
         <v>2286</v>
       </c>
@@ -34244,7 +34244,7 @@
       </c>
       <c r="I1001" s="35"/>
     </row>
-    <row r="1002" spans="1:9" ht="45">
+    <row r="1002" spans="1:9" ht="43.2">
       <c r="A1002" s="22" t="s">
         <v>2287</v>
       </c>
@@ -34273,7 +34273,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" ht="90">
+    <row r="1003" spans="1:9" ht="72">
       <c r="A1003" s="29" t="s">
         <v>995</v>
       </c>
@@ -34302,7 +34302,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" ht="60">
+    <row r="1004" spans="1:9" ht="57.6">
       <c r="A1004" s="29" t="s">
         <v>996</v>
       </c>
@@ -34331,7 +34331,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1005" spans="1:9" ht="60">
+    <row r="1005" spans="1:9" ht="57.6">
       <c r="A1005" s="29" t="s">
         <v>997</v>
       </c>
@@ -34360,7 +34360,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" ht="60">
+    <row r="1006" spans="1:9" ht="43.2">
       <c r="A1006" s="29" t="s">
         <v>998</v>
       </c>
@@ -34389,7 +34389,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" ht="45">
+    <row r="1007" spans="1:9" ht="43.2">
       <c r="A1007" s="22" t="s">
         <v>2303</v>
       </c>
@@ -34418,7 +34418,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" ht="60">
+    <row r="1008" spans="1:9" ht="57.6">
       <c r="A1008" s="22" t="s">
         <v>2304</v>
       </c>
@@ -34447,7 +34447,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1009" spans="1:9" ht="60">
+    <row r="1009" spans="1:9" ht="57.6">
       <c r="A1009" s="29" t="s">
         <v>999</v>
       </c>
@@ -34476,7 +34476,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1010" spans="1:9" ht="75">
+    <row r="1010" spans="1:9" ht="57.6">
       <c r="A1010" s="29" t="s">
         <v>1000</v>
       </c>
@@ -34505,7 +34505,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1011" spans="1:9" ht="90">
+    <row r="1011" spans="1:9" ht="72">
       <c r="A1011" s="34" t="s">
         <v>2282</v>
       </c>
@@ -34534,7 +34534,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1012" spans="1:9" ht="60">
+    <row r="1012" spans="1:9" ht="43.2">
       <c r="A1012" s="34" t="s">
         <v>2283</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1013" spans="1:9" ht="60">
+    <row r="1013" spans="1:9" ht="57.6">
       <c r="A1013" s="22" t="s">
         <v>2177</v>
       </c>
@@ -34592,7 +34592,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1014" spans="1:9" ht="75">
+    <row r="1014" spans="1:9" ht="72">
       <c r="A1014" s="29" t="s">
         <v>1001</v>
       </c>
@@ -34621,7 +34621,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1015" spans="1:9" ht="75">
+    <row r="1015" spans="1:9" ht="72">
       <c r="A1015" s="22" t="s">
         <v>1002</v>
       </c>
@@ -34648,7 +34648,7 @@
       </c>
       <c r="I1015" s="31"/>
     </row>
-    <row r="1016" spans="1:9" ht="75">
+    <row r="1016" spans="1:9" ht="57.6">
       <c r="A1016" s="29" t="s">
         <v>1003</v>
       </c>
@@ -34677,7 +34677,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1017" spans="1:9" ht="60">
+    <row r="1017" spans="1:9" ht="57.6">
       <c r="A1017" s="22" t="s">
         <v>2396</v>
       </c>
@@ -34706,7 +34706,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1018" spans="1:9" ht="75">
+    <row r="1018" spans="1:9" ht="72">
       <c r="A1018" s="29" t="s">
         <v>1004</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1019" spans="1:9" ht="75">
+    <row r="1019" spans="1:9" ht="72">
       <c r="A1019" s="29" t="s">
         <v>1005</v>
       </c>
@@ -34764,7 +34764,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1020" spans="1:9" ht="75">
+    <row r="1020" spans="1:9" ht="72">
       <c r="A1020" s="29" t="s">
         <v>1006</v>
       </c>
@@ -34793,7 +34793,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1021" spans="1:9" ht="90">
+    <row r="1021" spans="1:9" ht="86.4">
       <c r="A1021" s="22" t="s">
         <v>1007</v>
       </c>
@@ -34820,7 +34820,7 @@
       </c>
       <c r="I1021" s="31"/>
     </row>
-    <row r="1022" spans="1:9" ht="60">
+    <row r="1022" spans="1:9" ht="57.6">
       <c r="A1022" s="29" t="s">
         <v>1008</v>
       </c>
@@ -34849,7 +34849,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="1023" spans="1:9" ht="60">
+    <row r="1023" spans="1:9" ht="43.2">
       <c r="A1023" s="29" t="s">
         <v>1009</v>
       </c>
@@ -34878,7 +34878,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1024" spans="1:9" ht="60">
+    <row r="1024" spans="1:9" ht="57.6">
       <c r="A1024" s="29" t="s">
         <v>1010</v>
       </c>
@@ -34907,7 +34907,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" ht="75">
+    <row r="1025" spans="1:9" ht="57.6">
       <c r="A1025" s="34" t="s">
         <v>2277</v>
       </c>
@@ -34934,7 +34934,7 @@
       </c>
       <c r="I1025" s="31"/>
     </row>
-    <row r="1026" spans="1:9" ht="60">
+    <row r="1026" spans="1:9" ht="57.6">
       <c r="A1026" s="34" t="s">
         <v>2278</v>
       </c>
@@ -34961,7 +34961,7 @@
       </c>
       <c r="I1026" s="31"/>
     </row>
-    <row r="1027" spans="1:9" ht="60">
+    <row r="1027" spans="1:9" ht="57.6">
       <c r="A1027" s="34" t="s">
         <v>2279</v>
       </c>
@@ -34988,7 +34988,7 @@
       </c>
       <c r="I1027" s="31"/>
     </row>
-    <row r="1028" spans="1:9" ht="60">
+    <row r="1028" spans="1:9" ht="43.2">
       <c r="A1028" s="22" t="s">
         <v>1011</v>
       </c>
@@ -35017,7 +35017,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" ht="45">
+    <row r="1029" spans="1:9" ht="43.2">
       <c r="A1029" s="22" t="s">
         <v>2281</v>
       </c>
@@ -35046,7 +35046,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" ht="45">
+    <row r="1030" spans="1:9" ht="43.2">
       <c r="A1030" s="22" t="s">
         <v>2356</v>
       </c>
@@ -35073,7 +35073,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="1031" spans="1:9" ht="45">
+    <row r="1031" spans="1:9" ht="43.2">
       <c r="A1031" s="22" t="s">
         <v>2358</v>
       </c>
@@ -35125,7 +35125,7 @@
       </c>
       <c r="I1032" s="31"/>
     </row>
-    <row r="1033" spans="1:9" ht="45">
+    <row r="1033" spans="1:9" ht="43.2">
       <c r="A1033" s="29" t="s">
         <v>1012</v>
       </c>
@@ -35150,7 +35150,7 @@
       </c>
       <c r="I1033" s="31"/>
     </row>
-    <row r="1034" spans="1:9" ht="45">
+    <row r="1034" spans="1:9" ht="43.2">
       <c r="A1034" s="29" t="s">
         <v>1013</v>
       </c>
@@ -35175,7 +35175,7 @@
       </c>
       <c r="I1034" s="31"/>
     </row>
-    <row r="1035" spans="1:9" ht="45">
+    <row r="1035" spans="1:9" ht="28.8">
       <c r="A1035" s="29" t="s">
         <v>1014</v>
       </c>
@@ -35200,7 +35200,7 @@
       </c>
       <c r="I1035" s="31"/>
     </row>
-    <row r="1036" spans="1:9" ht="60">
+    <row r="1036" spans="1:9" ht="43.2">
       <c r="A1036" s="29" t="s">
         <v>1015</v>
       </c>
@@ -35225,7 +35225,7 @@
       </c>
       <c r="I1036" s="31"/>
     </row>
-    <row r="1037" spans="1:9" ht="45">
+    <row r="1037" spans="1:9" ht="28.8">
       <c r="A1037" s="22" t="s">
         <v>1016</v>
       </c>
@@ -35250,7 +35250,7 @@
       </c>
       <c r="I1037" s="31"/>
     </row>
-    <row r="1038" spans="1:9" ht="75">
+    <row r="1038" spans="1:9" ht="57.6">
       <c r="A1038" s="29" t="s">
         <v>1017</v>
       </c>
@@ -35275,7 +35275,7 @@
       </c>
       <c r="I1038" s="31"/>
     </row>
-    <row r="1039" spans="1:9" ht="45">
+    <row r="1039" spans="1:9" ht="43.2">
       <c r="A1039" s="29" t="s">
         <v>1018</v>
       </c>
@@ -36356,11 +36356,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36368,6 +36363,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1031:I1081 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1029">

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3294447D-2FCC-4BCC-A3BF-6B571B90C988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{186408CE-DC75-4FB3-BF28-E2BB94EE948F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7593,9 +7593,6 @@
     <t>[In Appendix A: Product Behavior] If this bit [DELETE_HARD_DELETE] is set, implement does hard delete the folder. &lt;4&gt; Section 2.2.1.3.1:  For Exchange 2003 and later, if DELETE_HARD_DELETE is set, the folder is hard deleted.</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] The implementation does not support the PidTagAddressBookEntryId property. &lt;10&gt; Section 2.2.2.2.1.4:  Exchange 2013 and later do not support the PidTagAddressBookEntryId property.</t>
   </si>
   <si>
@@ -7603,6 +7600,9 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder. &lt;20&gt; Section 3.2.5.9: Update Rollup 4 for Exchange Server 2010 Service Pack 2 (SP2) and later return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder.</t>
+  </si>
+  <si>
+    <t>23.1</t>
   </si>
 </sst>
 </file>
@@ -9030,8 +9030,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A1001" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9075,7 +9075,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -34225,7 +34225,7 @@
         <v>1159</v>
       </c>
       <c r="C1001" s="20" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D1001" s="34" t="s">
         <v>2288</v>
@@ -34484,7 +34484,7 @@
         <v>1159</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D1010" s="22" t="s">
         <v>2062</v>
@@ -34772,7 +34772,7 @@
         <v>1159</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D1020" s="22" t="s">
         <v>2065</v>

--- a/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCFOLD/MS-OXCFOLD_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89153F30-BE6C-43C5-8E8D-C249A2B9CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3039DB0-3DC1-437D-8F4E-1C15F22CFE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -7587,10 +7587,10 @@
     <t>[In Appendix A: Product Behavior] Implementation does return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder. &lt;20&gt; Section 3.2.5.9: Update Rollup 4 for Exchange Server 2010 Service Pack 2 (SP2) and later return ecNotSupported when the RopEmptyFolder ROP is called on the Root folder.</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>[In RopDeleteFolder ROP Request Buffer] DeleteFolderFlags (1 byte): If this bit [DELETE_HARD_DELETE (0x10)] is set, the folder SHOULD be hard deleted.</t>
+  </si>
+  <si>
+    <t>23.1</t>
   </si>
 </sst>
 </file>
@@ -7891,6 +7891,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7915,262 +7930,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8509,6 +8273,242 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8638,34 +8638,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1080" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1080" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1080" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="57">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8674,12 +8674,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9009,8 +9009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A987" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A990" sqref="A990:XFD990"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9053,138 +9053,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="9">
-        <v>44698</v>
+        <v>44789</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>2307</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -9197,12 +9197,12 @@
       <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9215,12 +9215,12 @@
       <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -9233,12 +9233,12 @@
       <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -9251,60 +9251,60 @@
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="46" t="s">
         <v>2305</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="30">
@@ -12197,7 +12197,7 @@
         <v>1070</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="25" t="s">
@@ -36300,11 +36300,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36312,169 +36307,174 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:I246 A1030:I1080 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1028">
-    <cfRule type="expression" dxfId="43" priority="107">
+    <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="108">
+    <cfRule type="expression" dxfId="61" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="115">
+    <cfRule type="expression" dxfId="60" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:I246 A1030:I1080 E230:I230 E233:I241 A247:J250 A242:J245 E34:I224 I20:I224 E226:I227 A20:H241 A251:I518 A521:I1028">
-    <cfRule type="expression" dxfId="40" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246 F1031:F1080 F20:F241 F251:F518 F521:F1028">
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="68">
+    <cfRule type="expression" dxfId="55" priority="68">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1031:I1080 I230 I233:I241">
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I246 I1031:I1080 I230 I233:I241">
-    <cfRule type="expression" dxfId="32" priority="55">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1030">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>NOT(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>(VLOOKUP(F1030,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1030">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1030">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1029 C1029:I1029">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1029 C1029:I1029">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1029">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>NOT(VLOOKUP(F1029,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>(VLOOKUP(F1029,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1029">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1029">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519:I520">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F519:F520">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F519,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
